--- a/examples/mtow_estimation/estimate_mtow.xlsx
+++ b/examples/mtow_estimation/estimate_mtow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/examples/mtow_estimation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4386864-8006-A949-B884-56C25A455B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EFB08B-1348-0541-9A9F-BAA23F29073B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="multirotor_fidelity0" sheetId="13" r:id="rId1"/>
@@ -1252,18 +1252,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1272,13 +1260,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1290,25 +1299,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2594,16 +2594,16 @@
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>767.87</c:v>
+                  <c:v>767.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>499.72</c:v>
+                  <c:v>499.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171.44</c:v>
+                  <c:v>171.43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102.89</c:v>
+                  <c:v>102.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10844,8 +10844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE37D87-B951-4841-B7CA-13CC46090773}">
   <dimension ref="B1:AO54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10889,11 +10889,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -10904,26 +10904,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="F3" s="56" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="F3" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="N3" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
       <c r="U3" s="7" t="s">
         <v>44</v>
       </c>
@@ -11007,7 +11007,7 @@
       </c>
       <c r="K4" s="6">
         <f>MAX(G11,G21,G30)</f>
-        <v>237.07365379647399</v>
+        <v>237.05165739520163</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>104</v>
@@ -11030,14 +11030,14 @@
       </c>
       <c r="W4" s="2">
         <f t="shared" ref="W4:W34" si="0" xml:space="preserve"> $O$21 * TAN($O$18/180*PI()) + $O$22 / (2 * SQRT($O$21^2 + V4^2)) - V4</f>
-        <v>2.0954507455147355E-2</v>
+        <v>2.0954913712552422E-2</v>
       </c>
       <c r="X4" s="3">
         <v>1</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" ref="Y4:Y34" si="1" xml:space="preserve"> $O$21 * TAN($O$18/180*PI()) + $O$22 / (2 * SQRT($O$21^2 + X4^2)) - X4</f>
-        <v>-0.98314563508182251</v>
+        <v>-0.9831449609663595</v>
       </c>
       <c r="Z4" s="2">
         <f xml:space="preserve"> (V4 + X4)/2</f>
@@ -11045,15 +11045,15 @@
       </c>
       <c r="AA4" s="2">
         <f t="shared" ref="AA4:AA34" si="2" xml:space="preserve"> $O$21 * TAN($O$18/180*PI()) + $O$22 / (2 * SQRT($O$21^2 + Z4^2)) - Z4</f>
-        <v>-0.48197709580531267</v>
+        <v>-0.48197649821023203</v>
       </c>
       <c r="AB4" s="2">
         <f>W4*AA4</f>
-        <v>-1.0099592647262696E-2</v>
+        <v>-1.0099775931473589E-2</v>
       </c>
       <c r="AC4" s="2">
         <f>Y4*AA4</f>
-        <v>0.47385367795040656</v>
+        <v>0.4738527655196012</v>
       </c>
       <c r="AD4" s="2">
         <f>X4-V4</f>
@@ -11065,17 +11065,17 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2">
         <f>K27</f>
-        <v>7.8757931867812658E-2</v>
+        <v>1.0618350643198937E-10</v>
       </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2">
         <f>K27</f>
-        <v>7.8757931867812658E-2</v>
+        <v>1.0618350643198937E-10</v>
       </c>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2">
         <f>K27</f>
-        <v>7.8757931867812658E-2</v>
+        <v>1.0618350643198937E-10</v>
       </c>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
@@ -11086,7 +11086,8 @@
         <v>40</v>
       </c>
       <c r="C5" s="10">
-        <v>2141.99321998</v>
+        <f>AK44</f>
+        <v>2141.8524463001631</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>7</v>
@@ -11106,7 +11107,7 @@
       </c>
       <c r="K5" s="6">
         <f>K4/$C$17</f>
-        <v>59.268413449118498</v>
+        <v>59.262914348800408</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>104</v>
@@ -11116,7 +11117,7 @@
       </c>
       <c r="O5" s="6">
         <f xml:space="preserve"> $C$17 * 0.85 * ($C$5/$C$17 *2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.35283371006752867</v>
+        <v>0.3528182508701963</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>120</v>
@@ -11130,7 +11131,7 @@
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>2.0954507455147355E-2</v>
+        <v>2.0954913712552422E-2</v>
       </c>
       <c r="X5" s="2">
         <f>IF(AC4&gt;0, Z4, X4)</f>
@@ -11138,7 +11139,7 @@
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="1"/>
-        <v>-0.48197709580531267</v>
+        <v>-0.48197649821023203</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" ref="Z5:Z34" si="3" xml:space="preserve"> (V5 + X5)/2</f>
@@ -11146,15 +11147,15 @@
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="2"/>
-        <v>-0.2305491471871596</v>
+        <v>-0.23054864293474459</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" ref="AB5:AB34" si="4">W5*AA5</f>
-        <v>-4.8310438235112003E-3</v>
+        <v>-4.8311269192436316E-3</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" ref="AC5:AC34" si="5">Y5*AA5</f>
-        <v>0.11111940840165875</v>
+        <v>0.11111902758880934</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" ref="AD5:AD33" si="6">X5-V5</f>
@@ -11167,7 +11168,7 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
         <v>-993.53018731711279</v>
       </c>
       <c r="AI5" s="3">
@@ -11182,7 +11183,7 @@
         <v>2750</v>
       </c>
       <c r="AL5" s="2">
-        <f t="dataTable" ref="AL5:AL44" dt2D="0" dtr="0" r1="C5"/>
+        <f t="dataTable" ref="AL5:AL44" dt2D="0" dtr="0" r1="C5" ca="1"/>
         <v>332.18627033324947</v>
       </c>
       <c r="AM5" s="2">
@@ -11223,7 +11224,7 @@
       </c>
       <c r="O6">
         <f xml:space="preserve"> O5 / (PI() * $C$8^2)</f>
-        <v>7.0194036308374782E-3</v>
+        <v>7.0190960798785186E-3</v>
       </c>
       <c r="U6" s="2">
         <v>2</v>
@@ -11234,7 +11235,7 @@
       </c>
       <c r="W6" s="2">
         <f t="shared" si="0"/>
-        <v>2.0954507455147355E-2</v>
+        <v>2.0954913712552422E-2</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" ref="X6:X34" si="8">IF(AC5&gt;0, Z5, X5)</f>
@@ -11242,7 +11243,7 @@
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="1"/>
-        <v>-0.2305491471871596</v>
+        <v>-0.23054864293474459</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="3"/>
@@ -11250,15 +11251,15 @@
       </c>
       <c r="AA6" s="2">
         <f t="shared" si="2"/>
-        <v>-0.10457281100532603</v>
+        <v>-0.10457237042343531</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="4"/>
-        <v>-2.1912717478168196E-3</v>
+        <v>-2.1913049989401561E-3</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" si="5"/>
-        <v>2.4109172396241937E-2</v>
+        <v>2.4109018089592434E-2</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" si="6"/>
@@ -11322,11 +11323,11 @@
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
       <c r="N7" t="s">
         <v>123</v>
       </c>
@@ -11343,7 +11344,7 @@
       </c>
       <c r="W7" s="2">
         <f t="shared" si="0"/>
-        <v>2.0954507455147355E-2</v>
+        <v>2.0954913712552422E-2</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" si="8"/>
@@ -11351,7 +11352,7 @@
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="1"/>
-        <v>-0.10457281100532603</v>
+        <v>-0.10457237042343531</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="3"/>
@@ -11359,15 +11360,15 @@
       </c>
       <c r="AA7" s="2">
         <f t="shared" si="2"/>
-        <v>-4.1692855150157124E-2</v>
+        <v>-4.1692439305484975E-2</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="4"/>
-        <v>-8.7365324407034624E-4</v>
+        <v>-8.7366146811226669E-4</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" si="5"/>
-        <v>4.3599390618898146E-3</v>
+        <v>4.3598772069097687E-3</v>
       </c>
       <c r="AD7" s="2">
         <f t="shared" si="6"/>
@@ -11425,7 +11426,7 @@
       </c>
       <c r="G8" s="6">
         <f xml:space="preserve"> $C$5 * $C$42 / $C$17</f>
-        <v>5248.6819199541251</v>
+        <v>5248.3369719583643</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>22</v>
@@ -11435,7 +11436,7 @@
       </c>
       <c r="K8" s="6">
         <f xml:space="preserve"> $C$14 * (G11*G6 + G21*G14 + G30*G26)/3600</f>
-        <v>130.53736178166619</v>
+        <v>130.53326742306447</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>105</v>
@@ -11445,7 +11446,7 @@
       </c>
       <c r="O8" s="6">
         <f xml:space="preserve"> $O$7 + O6</f>
-        <v>1.9320253630837479E-2</v>
+        <v>1.9319946079878518E-2</v>
       </c>
       <c r="U8" s="2">
         <v>4</v>
@@ -11456,7 +11457,7 @@
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>2.0954507455147355E-2</v>
+        <v>2.0954913712552422E-2</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="8"/>
@@ -11464,7 +11465,7 @@
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="1"/>
-        <v>-4.1692855150157124E-2</v>
+        <v>-4.1692439305484975E-2</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="3"/>
@@ -11472,15 +11473,15 @@
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0333469209833211E-2</v>
+        <v>-1.0333060482080929E-2</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="4"/>
-        <v>-2.1653275759498568E-4</v>
+        <v>-2.165283907885912E-4</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="5"/>
-        <v>4.3083183496418466E-4</v>
+        <v>4.3081049698906444E-4</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="6"/>
@@ -11536,7 +11537,7 @@
       </c>
       <c r="G9" s="6">
         <f>G11/$C$17</f>
-        <v>59.268413449118498</v>
+        <v>59.262914348800408</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>104</v>
@@ -11556,7 +11557,7 @@
       </c>
       <c r="O9" s="6">
         <f xml:space="preserve"> O4 *O8 * PI() * $C$8 * $C$8</f>
-        <v>1224.2997476669771</v>
+        <v>1224.2802585562931</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>22</v>
@@ -11570,7 +11571,7 @@
       </c>
       <c r="W9" s="2">
         <f t="shared" si="0"/>
-        <v>2.0954507455147355E-2</v>
+        <v>2.0954913712552422E-2</v>
       </c>
       <c r="X9" s="2">
         <f t="shared" si="8"/>
@@ -11578,7 +11579,7 @@
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0333469209833211E-2</v>
+        <v>-1.0333060482080929E-2</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="3"/>
@@ -11586,15 +11587,15 @@
       </c>
       <c r="AA9" s="2">
         <f t="shared" si="2"/>
-        <v>5.3199392162050912E-3</v>
+        <v>5.3203460959904136E-3</v>
       </c>
       <c r="AB9" s="2">
         <f t="shared" si="4"/>
-        <v>1.1147670596690036E-4</v>
+        <v>1.1148739336239426E-4</v>
       </c>
       <c r="AC9" s="2">
         <f t="shared" si="5"/>
-        <v>-5.4973428088839534E-5</v>
+        <v>-5.4975457995472088E-5</v>
       </c>
       <c r="AD9" s="2">
         <f t="shared" si="6"/>
@@ -11643,7 +11644,7 @@
       </c>
       <c r="G10" s="6">
         <f xml:space="preserve"> (G8/$C$42*1000) / ($G$9*1000)</f>
-        <v>9.0351381761673348</v>
+        <v>9.0353827087121559</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>276</v>
@@ -11653,7 +11654,7 @@
       </c>
       <c r="O10" s="6">
         <f xml:space="preserve"> O9</f>
-        <v>1224.2997476669771</v>
+        <v>1224.2802585562931</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>22</v>
@@ -11667,7 +11668,7 @@
       </c>
       <c r="W10" s="2">
         <f t="shared" si="0"/>
-        <v>5.3199392162050912E-3</v>
+        <v>5.3203460959904136E-3</v>
       </c>
       <c r="X10" s="2">
         <f t="shared" si="8"/>
@@ -11675,7 +11676,7 @@
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0333469209833211E-2</v>
+        <v>-1.0333060482080929E-2</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="3"/>
@@ -11683,15 +11684,15 @@
       </c>
       <c r="AA10" s="2">
         <f t="shared" si="2"/>
-        <v>-2.5044512893860234E-3</v>
+        <v>-2.5040436361417652E-3</v>
       </c>
       <c r="AB10" s="2">
         <f t="shared" si="4"/>
-        <v>-1.3323528629480111E-5</v>
+        <v>-1.332237878373648E-5</v>
       </c>
       <c r="AC10" s="2">
         <f t="shared" si="5"/>
-        <v>2.5879670286397557E-5</v>
+        <v>2.5874434342022709E-5</v>
       </c>
       <c r="AD10" s="2">
         <f t="shared" si="6"/>
@@ -11735,32 +11736,32 @@
       </c>
     </row>
     <row r="11" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
       <c r="F11" s="42" t="s">
         <v>85</v>
       </c>
       <c r="G11" s="43">
         <f xml:space="preserve"> 1/1000 * (($C$5*$C$42)/$C$20 * ( ($G$4/2) + SQRT( ($G$4/2)^2 + ($C$5*$C$42) / (2*$C$39*PI()*$C$8^2 * $C$17) ) ) )</f>
-        <v>237.07365379647399</v>
+        <v>237.05165739520163</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
       <c r="N11" s="6" t="s">
         <v>118</v>
       </c>
       <c r="O11" s="6">
         <f>($O$8*PI()*$C$8^2)/(0.3048^2)/($C$5*2.20462/1000)^(2/3) + 0.85</f>
-        <v>4.5637973064659114</v>
+        <v>4.5639009104351826</v>
       </c>
       <c r="U11" s="2">
         <v>7</v>
@@ -11771,7 +11772,7 @@
       </c>
       <c r="W11" s="2">
         <f t="shared" si="0"/>
-        <v>5.3199392162050912E-3</v>
+        <v>5.3203460959904136E-3</v>
       </c>
       <c r="X11" s="2">
         <f t="shared" si="8"/>
@@ -11779,7 +11780,7 @@
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="1"/>
-        <v>-2.5044512893860234E-3</v>
+        <v>-2.5040436361417652E-3</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="3"/>
@@ -11787,15 +11788,15 @@
       </c>
       <c r="AA11" s="2">
         <f t="shared" si="2"/>
-        <v>1.4083289354174661E-3</v>
+        <v>1.4087361638775268E-3</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" si="4"/>
-        <v>7.4922243328437454E-6</v>
+        <v>7.4949639497663114E-6</v>
       </c>
       <c r="AC11" s="2">
         <f t="shared" si="5"/>
-        <v>-3.5270912181859184E-6</v>
+        <v>-3.5275368261602841E-6</v>
       </c>
       <c r="AD11" s="2">
         <f t="shared" si="6"/>
@@ -11854,7 +11855,7 @@
       </c>
       <c r="K12" s="6">
         <f>C5</f>
-        <v>2141.99321998</v>
+        <v>2141.8524463001631</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>7</v>
@@ -11868,7 +11869,7 @@
       </c>
       <c r="W12" s="2">
         <f t="shared" si="0"/>
-        <v>1.4083289354174661E-3</v>
+        <v>1.4087361638775268E-3</v>
       </c>
       <c r="X12" s="2">
         <f t="shared" si="8"/>
@@ -11876,7 +11877,7 @@
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="1"/>
-        <v>-2.5044512893860234E-3</v>
+        <v>-2.5040436361417652E-3</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="3"/>
@@ -11884,15 +11885,15 @@
       </c>
       <c r="AA12" s="2">
         <f t="shared" si="2"/>
-        <v>-5.4791566832938787E-4</v>
+        <v>-5.4750823694338716E-4</v>
       </c>
       <c r="AB12" s="2">
         <f t="shared" si="4"/>
-        <v>-7.7164548987687625E-7</v>
+        <v>-7.7129465340297519E-7</v>
       </c>
       <c r="AC12" s="2">
         <f t="shared" si="5"/>
-        <v>1.3722281020223401E-6</v>
+        <v>1.3709845164532863E-6</v>
       </c>
       <c r="AD12" s="2">
         <f t="shared" si="6"/>
@@ -11945,26 +11946,26 @@
       <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
       <c r="J13" s="11" t="s">
         <v>55</v>
       </c>
       <c r="K13" s="6">
         <f xml:space="preserve"> K8 * 1000 / ($C$34 * $C$35 * $C$36)</f>
-        <v>767.8668340098011</v>
+        <v>767.84274954743807</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="56" t="s">
+      <c r="N13" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
       <c r="U13" s="2">
         <v>9</v>
       </c>
@@ -11974,7 +11975,7 @@
       </c>
       <c r="W13" s="2">
         <f t="shared" si="0"/>
-        <v>1.4083289354174661E-3</v>
+        <v>1.4087361638775268E-3</v>
       </c>
       <c r="X13" s="2">
         <f t="shared" si="8"/>
@@ -11982,7 +11983,7 @@
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="1"/>
-        <v>-5.4791566832938787E-4</v>
+        <v>-5.4750823694338716E-4</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="3"/>
@@ -11990,15 +11991,15 @@
       </c>
       <c r="AA13" s="2">
         <f t="shared" si="2"/>
-        <v>4.3024310782956154E-4</v>
+        <v>4.3065043537976813E-4</v>
       </c>
       <c r="AB13" s="2">
         <f t="shared" si="4"/>
-        <v>6.0592381802030846E-7</v>
+        <v>6.0667284230908137E-7</v>
       </c>
       <c r="AC13" s="2">
         <f t="shared" si="5"/>
-        <v>-2.3573693997054711E-7</v>
+        <v>-2.3578466061367892E-7</v>
       </c>
       <c r="AD13" s="2">
         <f t="shared" si="6"/>
@@ -12063,7 +12064,7 @@
       </c>
       <c r="K14" s="6">
         <f xml:space="preserve"> $C$52 * $C$17 * (0.0095 * MAX(G8,O19,G27) - 1.9275)</f>
-        <v>153.64776327113154</v>
+        <v>153.63728701858034</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>7</v>
@@ -12073,7 +12074,7 @@
       </c>
       <c r="O14" s="6">
         <f xml:space="preserve"> SQRT( ($C$5*$C$48)^2 + O10^2)</f>
-        <v>21028.389904096253</v>
+        <v>21027.011449813202</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>22</v>
@@ -12087,7 +12088,7 @@
       </c>
       <c r="W14" s="2">
         <f t="shared" si="0"/>
-        <v>4.3024310782956154E-4</v>
+        <v>4.3065043537976813E-4</v>
       </c>
       <c r="X14" s="2">
         <f t="shared" si="8"/>
@@ -12095,7 +12096,7 @@
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="1"/>
-        <v>-5.4791566832938787E-4</v>
+        <v>-5.4750823694338716E-4</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="3"/>
@@ -12103,15 +12104,15 @@
       </c>
       <c r="AA14" s="2">
         <f t="shared" si="2"/>
-        <v>-5.8827173488380791E-5</v>
+        <v>-5.84197946127199E-5</v>
       </c>
       <c r="AB14" s="2">
         <f t="shared" si="4"/>
-        <v>-2.530998594646974E-8</v>
+        <v>-2.5158509984764458E-8</v>
       </c>
       <c r="AC14" s="2">
         <f t="shared" si="5"/>
-        <v>3.2232330077815011E-8</v>
+        <v>3.1985318751005061E-8</v>
       </c>
       <c r="AD14" s="2">
         <f t="shared" si="6"/>
@@ -12170,7 +12171,7 @@
       </c>
       <c r="K15" s="6">
         <f xml:space="preserve"> $C$52 * $C$17 * ( 0.0037 * $C$18^0.28 * ($C$8*3.28084)^1.5 * ($G$7*3.28084)^0.43 * ( 0.01742 * $C$18^0.66 * ($C$9*$C$8*3.28084) * ($C$8*3.28084)^1.3 * ($G$7*3.28084)^0.67 + 0.5*(K14/$C$17)* 2.20462 * $C$42*3.28084 )^0.55 ) * 0.453592</f>
-        <v>283.73463270545733</v>
+        <v>283.72443498071834</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>7</v>
@@ -12180,7 +12181,7 @@
       </c>
       <c r="O15" s="6">
         <f>$C$5*$C$48/O14</f>
-        <v>0.99830370264520663</v>
+        <v>0.99830353410061157</v>
       </c>
       <c r="U15" s="2">
         <v>11</v>
@@ -12191,7 +12192,7 @@
       </c>
       <c r="W15" s="2">
         <f t="shared" si="0"/>
-        <v>4.3024310782956154E-4</v>
+        <v>4.3065043537976813E-4</v>
       </c>
       <c r="X15" s="2">
         <f t="shared" si="8"/>
@@ -12199,7 +12200,7 @@
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="1"/>
-        <v>-5.8827173488380791E-5</v>
+        <v>-5.84197946127199E-5</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="3"/>
@@ -12207,15 +12208,15 @@
       </c>
       <c r="AA15" s="2">
         <f t="shared" si="2"/>
-        <v>1.8571024535793748E-4</v>
+        <v>1.8611759842266512E-4</v>
       </c>
       <c r="AB15" s="2">
         <f t="shared" si="4"/>
-        <v>7.9900553118589432E-8</v>
+        <v>8.0151624792557586E-8</v>
       </c>
       <c r="AC15" s="2">
         <f t="shared" si="5"/>
-        <v>-1.0924808822241152E-8</v>
+        <v>-1.0872951873664778E-8</v>
       </c>
       <c r="AD15" s="2">
         <f t="shared" si="6"/>
@@ -12259,11 +12260,11 @@
       </c>
     </row>
     <row r="16" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
       <c r="F16" s="6" t="s">
         <v>133</v>
       </c>
@@ -12279,7 +12280,7 @@
       </c>
       <c r="K16" s="6">
         <f xml:space="preserve"> $C$52 * 0.2138 * K4</f>
-        <v>40.54907774534891</v>
+        <v>40.545315480875288</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>7</v>
@@ -12293,7 +12294,7 @@
       </c>
       <c r="W16" s="2">
         <f t="shared" si="0"/>
-        <v>1.8571024535793748E-4</v>
+        <v>1.8611759842266512E-4</v>
       </c>
       <c r="X16" s="2">
         <f t="shared" si="8"/>
@@ -12301,7 +12302,7 @@
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="1"/>
-        <v>-5.8827173488380791E-5</v>
+        <v>-5.84197946127199E-5</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="3"/>
@@ -12309,15 +12310,15 @@
       </c>
       <c r="AA16" s="2">
         <f t="shared" si="2"/>
-        <v>6.3442105295789808E-5</v>
+        <v>6.3849471228942523E-5</v>
       </c>
       <c r="AB16" s="2">
         <f t="shared" si="4"/>
-        <v>1.178184894050523E-8</v>
+        <v>1.1883510245687836E-8</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="5"/>
-        <v>-3.7321197347035487E-9</v>
+        <v>-3.7300729953255902E-9</v>
       </c>
       <c r="AD16" s="2">
         <f t="shared" si="6"/>
@@ -12372,7 +12373,7 @@
       </c>
       <c r="G17" s="6">
         <f>O19</f>
-        <v>5257.0974760240633</v>
+        <v>5256.7528624533006</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>22</v>
@@ -12382,16 +12383,16 @@
       </c>
       <c r="K17" s="6">
         <f xml:space="preserve"> $C$52 * 0.1149 * K4</f>
-        <v>21.791810256971889</v>
+        <v>21.789788347766933</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="56" t="s">
+      <c r="N17" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
       <c r="U17" s="2">
         <v>13</v>
       </c>
@@ -12401,7 +12402,7 @@
       </c>
       <c r="W17" s="2">
         <f t="shared" si="0"/>
-        <v>6.3442105295789808E-5</v>
+        <v>6.3849471228942523E-5</v>
       </c>
       <c r="X17" s="2">
         <f t="shared" si="8"/>
@@ -12409,7 +12410,7 @@
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="1"/>
-        <v>-5.8827173488380791E-5</v>
+        <v>-5.84197946127199E-5</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="3"/>
@@ -12417,15 +12418,15 @@
       </c>
       <c r="AA17" s="2">
         <f t="shared" si="2"/>
-        <v>2.3076082206162363E-6</v>
+        <v>2.7149806157630851E-6</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" si="4"/>
-        <v>1.4639952371376541E-10</v>
+        <v>1.7335007671330175E-10</v>
       </c>
       <c r="AC17" s="2">
         <f t="shared" si="5"/>
-        <v>-1.3575006913740502E-10</v>
+        <v>-1.5860860995039524E-10</v>
       </c>
       <c r="AD17" s="2">
         <f t="shared" si="6"/>
@@ -12481,7 +12482,7 @@
       </c>
       <c r="G18" s="6">
         <f xml:space="preserve"> 1/1000 * (O24 + O19 * (O26 * O29 + $C$7 * SIN(O18/180*PI())))</f>
-        <v>52.319436125920461</v>
+        <v>52.318369819925593</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>104</v>
@@ -12491,7 +12492,7 @@
       </c>
       <c r="K18" s="6">
         <f xml:space="preserve"> $C$53 * (14.86 * ($C$5*2.20462)^0.144 * ($C$24/(PI()*$C$25))^0.778 * ($C$24*3.28084)^0.383 * $C$23^0.455 * 0.453592)</f>
-        <v>131.29611187229784</v>
+        <v>131.29486927631507</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>7</v>
@@ -12501,7 +12502,7 @@
       </c>
       <c r="O18" s="6">
         <f xml:space="preserve"> ACOS(O15)/PI()*180</f>
-        <v>3.3377210124212797</v>
+        <v>3.3378868736754792</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>43</v>
@@ -12515,7 +12516,7 @@
       </c>
       <c r="W18" s="2">
         <f t="shared" si="0"/>
-        <v>2.3076082206162363E-6</v>
+        <v>2.7149806157630851E-6</v>
       </c>
       <c r="X18" s="2">
         <f t="shared" si="8"/>
@@ -12523,7 +12524,7 @@
       </c>
       <c r="Y18" s="2">
         <f t="shared" si="1"/>
-        <v>-5.8827173488380791E-5</v>
+        <v>-5.84197946127199E-5</v>
       </c>
       <c r="Z18" s="2">
         <f t="shared" si="3"/>
@@ -12531,15 +12532,15 @@
       </c>
       <c r="AA18" s="2">
         <f t="shared" si="2"/>
-        <v>-2.8259747057578222E-5</v>
+        <v>-2.7852371424490208E-5</v>
       </c>
       <c r="AB18" s="2">
         <f t="shared" si="4"/>
-        <v>-6.5212424622603005E-11</v>
+        <v>-7.5618648520524585E-11</v>
       </c>
       <c r="AC18" s="2">
         <f t="shared" si="5"/>
-        <v>1.6624410428939127E-9</v>
+        <v>1.6271298180959067E-9</v>
       </c>
       <c r="AD18" s="2">
         <f t="shared" si="6"/>
@@ -12595,7 +12596,7 @@
       </c>
       <c r="G19" s="6">
         <f xml:space="preserve"> (G17/$C$48*1000) / ($G$18*1000)</f>
-        <v>10.252561047036165</v>
+        <v>10.252097915323725</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>276</v>
@@ -12605,7 +12606,7 @@
       </c>
       <c r="K19" s="6">
         <f xml:space="preserve"> $C$53 * C29 * $C$5</f>
-        <v>23.990324063776004</v>
+        <v>23.988747398561831</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>7</v>
@@ -12615,7 +12616,7 @@
       </c>
       <c r="O19" s="6">
         <f xml:space="preserve"> O14 / $C$17</f>
-        <v>5257.0974760240633</v>
+        <v>5256.7528624533006</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>22</v>
@@ -12629,7 +12630,7 @@
       </c>
       <c r="W19" s="2">
         <f t="shared" si="0"/>
-        <v>2.3076082206162363E-6</v>
+        <v>2.7149806157630851E-6</v>
       </c>
       <c r="X19" s="2">
         <f t="shared" si="8"/>
@@ -12637,7 +12638,7 @@
       </c>
       <c r="Y19" s="2">
         <f t="shared" si="1"/>
-        <v>-2.8259747057578222E-5</v>
+        <v>-2.7852371424490208E-5</v>
       </c>
       <c r="Z19" s="2">
         <f t="shared" si="3"/>
@@ -12645,15 +12646,15 @@
       </c>
       <c r="AA19" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2976060524041988E-5</v>
+        <v>-1.256868651049875E-5</v>
       </c>
       <c r="AB19" s="2">
         <f t="shared" si="4"/>
-        <v>-2.9943663936493116E-11</v>
+        <v>-3.4123740241607076E-11</v>
       </c>
       <c r="AC19" s="2">
         <f t="shared" si="5"/>
-        <v>3.667001882132525E-10</v>
+        <v>3.5006772500839093E-10</v>
       </c>
       <c r="AD19" s="2">
         <f t="shared" si="6"/>
@@ -12708,7 +12709,7 @@
       </c>
       <c r="G20" s="6">
         <f>O22/ ($C$18*$C$9/PI())</f>
-        <v>4.7533140070795364E-2</v>
+        <v>4.7530024175531094E-2</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>65</v>
@@ -12739,7 +12740,7 @@
       </c>
       <c r="W20" s="2">
         <f t="shared" si="0"/>
-        <v>2.3076082206162363E-6</v>
+        <v>2.7149806157630851E-6</v>
       </c>
       <c r="X20" s="2">
         <f t="shared" si="8"/>
@@ -12747,7 +12748,7 @@
       </c>
       <c r="Y20" s="2">
         <f t="shared" si="1"/>
-        <v>-1.2976060524041988E-5</v>
+        <v>-1.256868651049875E-5</v>
       </c>
       <c r="Z20" s="2">
         <f t="shared" si="3"/>
@@ -12755,15 +12756,15 @@
       </c>
       <c r="AA20" s="2">
         <f t="shared" si="2"/>
-        <v>-5.3342239280593229E-6</v>
+        <v>-4.9268507238582615E-6</v>
       </c>
       <c r="AB20" s="2">
         <f t="shared" si="4"/>
-        <v>-1.2309298986997524E-11</v>
+        <v>-1.3376304212033504E-11</v>
       </c>
       <c r="AC20" s="2">
         <f t="shared" si="5"/>
-        <v>6.9217212539290767E-11</v>
+        <v>6.1924042232198333E-11</v>
       </c>
       <c r="AD20" s="2">
         <f t="shared" si="6"/>
@@ -12812,7 +12813,7 @@
       </c>
       <c r="G21" s="43">
         <f>$C$17 * G18</f>
-        <v>209.27774450368184</v>
+        <v>209.27347927970237</v>
       </c>
       <c r="H21" s="43" t="s">
         <v>104</v>
@@ -12832,7 +12833,7 @@
       </c>
       <c r="O21" s="6">
         <f xml:space="preserve"> $C$7 * COS(O18/180*PI()) / (O20 * $C$8)</f>
-        <v>0.26480828163821046</v>
+        <v>0.26480823693036804</v>
       </c>
       <c r="U21" s="2">
         <v>17</v>
@@ -12843,7 +12844,7 @@
       </c>
       <c r="W21" s="2">
         <f t="shared" si="0"/>
-        <v>2.3076082206162363E-6</v>
+        <v>2.7149806157630851E-6</v>
       </c>
       <c r="X21" s="2">
         <f t="shared" si="8"/>
@@ -12851,7 +12852,7 @@
       </c>
       <c r="Y21" s="2">
         <f t="shared" si="1"/>
-        <v>-5.3342239280593229E-6</v>
+        <v>-4.9268507238582615E-6</v>
       </c>
       <c r="Z21" s="2">
         <f t="shared" si="3"/>
@@ -12859,15 +12860,15 @@
       </c>
       <c r="AA21" s="2">
         <f t="shared" si="2"/>
-        <v>-1.5133072977999151E-6</v>
+        <v>-1.1059344981606545E-6</v>
       </c>
       <c r="AB21" s="2">
         <f t="shared" si="4"/>
-        <v>-3.4921203607216268E-12</v>
+        <v>-3.0025907248098523E-12</v>
       </c>
       <c r="AC21" s="2">
         <f t="shared" si="5"/>
-        <v>8.0723199984311026E-12</v>
+        <v>5.4487741828026441E-12</v>
       </c>
       <c r="AD21" s="2">
         <f t="shared" si="6"/>
@@ -12911,17 +12912,17 @@
       </c>
     </row>
     <row r="22" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
       <c r="J22" s="14" t="s">
         <v>117</v>
       </c>
       <c r="K22" s="6">
         <f>$C$53*(0.14*$G$11*1000/745.7)*0.453592</f>
-        <v>16.151116843984482</v>
+        <v>16.149618295152045</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>7</v>
@@ -12931,7 +12932,7 @@
       </c>
       <c r="O22" s="6">
         <f xml:space="preserve"> O19 / ($C$45 * PI() * $C$8^2 * O20^2 * $C$8^2)</f>
-        <v>2.9186287754967692E-3</v>
+        <v>2.918437453367278E-3</v>
       </c>
       <c r="U22" s="2">
         <v>18</v>
@@ -12942,7 +12943,7 @@
       </c>
       <c r="W22" s="2">
         <f t="shared" si="0"/>
-        <v>2.3076082206162363E-6</v>
+        <v>2.7149806157630851E-6</v>
       </c>
       <c r="X22" s="2">
         <f t="shared" si="8"/>
@@ -12950,7 +12951,7 @@
       </c>
       <c r="Y22" s="2">
         <f t="shared" si="1"/>
-        <v>-1.5133072977999151E-6</v>
+        <v>-1.1059344981606545E-6</v>
       </c>
       <c r="Z22" s="2">
         <f t="shared" si="3"/>
@@ -12958,15 +12959,15 @@
       </c>
       <c r="AA22" s="2">
         <f t="shared" si="2"/>
-        <v>3.9715060038553185E-7</v>
+        <v>8.0452319776991299E-7</v>
       </c>
       <c r="AB22" s="2">
         <f t="shared" si="4"/>
-        <v>9.16467990272327E-13</v>
+        <v>2.1842648868770448E-12</v>
       </c>
       <c r="AC22" s="2">
         <f t="shared" si="5"/>
-        <v>-6.0101090188904312E-13</v>
+        <v>-8.8974995898427368E-13</v>
       </c>
       <c r="AD22" s="2">
         <f t="shared" si="6"/>
@@ -13017,17 +13018,17 @@
         <v>6</v>
       </c>
       <c r="D23"/>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
       <c r="J23" s="15" t="s">
         <v>67</v>
       </c>
       <c r="K23" s="6">
         <f xml:space="preserve"> $C$54 * (0.0268 * $C$5)</f>
-        <v>45.924334636371206</v>
+        <v>45.921316448675498</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>7</v>
@@ -13047,7 +13048,7 @@
       </c>
       <c r="W23" s="2">
         <f t="shared" si="0"/>
-        <v>3.9715060038553185E-7</v>
+        <v>8.0452319776991299E-7</v>
       </c>
       <c r="X23" s="2">
         <f t="shared" si="8"/>
@@ -13055,7 +13056,7 @@
       </c>
       <c r="Y23" s="2">
         <f t="shared" si="1"/>
-        <v>-1.5133072977999151E-6</v>
+        <v>-1.1059344981606545E-6</v>
       </c>
       <c r="Z23" s="2">
         <f t="shared" si="3"/>
@@ -13063,15 +13064,15 @@
       </c>
       <c r="AA23" s="2">
         <f t="shared" si="2"/>
-        <v>-5.5807831396068042E-7</v>
+        <v>-1.5070561545232897E-7</v>
       </c>
       <c r="AB23" s="2">
         <f t="shared" si="4"/>
-        <v>-2.2164113745162958E-13</v>
+        <v>-1.2124616366559053E-13</v>
       </c>
       <c r="AC23" s="2">
         <f t="shared" si="5"/>
-        <v>8.4454398526056988E-13</v>
+        <v>1.6667053919526402E-13</v>
       </c>
       <c r="AD23" s="2">
         <f t="shared" si="6"/>
@@ -13139,7 +13140,7 @@
       </c>
       <c r="K24" s="6">
         <f xml:space="preserve"> $C$54 * (11.5 * ($C$5*2.20462/1000)^0.4 * 0.453592)</f>
-        <v>7.7645081037823616</v>
+        <v>7.7643039836350001</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>7</v>
@@ -13149,7 +13150,7 @@
       </c>
       <c r="O24" s="6">
         <f xml:space="preserve"> ($C$19 * O23 / 8) * (1 + 4.65 *O21^ 2) * ( PI() * $C$45 * O20^3 *$C$8^ 5)</f>
-        <v>30755.189325977801</v>
+        <v>30755.186772401408</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>20</v>
@@ -13163,7 +13164,7 @@
       </c>
       <c r="W24" s="2">
         <f t="shared" si="0"/>
-        <v>3.9715060038553185E-7</v>
+        <v>8.0452319776991299E-7</v>
       </c>
       <c r="X24" s="2">
         <f t="shared" si="8"/>
@@ -13171,7 +13172,7 @@
       </c>
       <c r="Y24" s="2">
         <f t="shared" si="1"/>
-        <v>-5.5807831396068042E-7</v>
+        <v>-1.5070561545232897E-7</v>
       </c>
       <c r="Z24" s="2">
         <f t="shared" si="3"/>
@@ -13179,15 +13180,15 @@
       </c>
       <c r="AA24" s="2">
         <f t="shared" si="2"/>
-        <v>-8.046384810181384E-8</v>
+        <v>3.2690879984628718E-7</v>
       </c>
       <c r="AB24" s="2">
         <f t="shared" si="4"/>
-        <v>-3.1956265582965603E-14</v>
+        <v>2.6300571303145941E-13</v>
       </c>
       <c r="AC24" s="2">
         <f t="shared" si="5"/>
-        <v>4.490512868344856E-14</v>
+        <v>-4.9266991877616933E-14</v>
       </c>
       <c r="AD24" s="2">
         <f t="shared" si="6"/>
@@ -13255,7 +13256,7 @@
       </c>
       <c r="K25" s="6">
         <f xml:space="preserve"> $C$54 * (8 * ($C$5/1000))</f>
-        <v>13.708756607872003</v>
+        <v>13.707855656321044</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>7</v>
@@ -13265,42 +13266,42 @@
       </c>
       <c r="O25" s="18">
         <f>Z34</f>
-        <v>2.0937362220138311E-2</v>
+        <v>2.0937769208103418E-2</v>
       </c>
       <c r="U25" s="2">
         <v>21</v>
       </c>
       <c r="V25" s="2">
         <f t="shared" si="7"/>
-        <v>2.0936965942382812E-2</v>
+        <v>2.0937442779541016E-2</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="0"/>
-        <v>3.9715060038553185E-7</v>
+        <v>3.2690879984628718E-7</v>
       </c>
       <c r="X25" s="2">
         <f t="shared" si="8"/>
-        <v>2.0937442779541016E-2</v>
+        <v>2.0937919616699219E-2</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" si="1"/>
-        <v>-8.046384810181384E-8</v>
+        <v>-1.5070561545232897E-7</v>
       </c>
       <c r="Z25" s="2">
         <f t="shared" si="3"/>
-        <v>2.0937204360961914E-2</v>
+        <v>2.0937681198120117E-2</v>
       </c>
       <c r="AA25" s="2">
         <f t="shared" si="2"/>
-        <v>1.5834337831546752E-7</v>
+        <v>8.8101594367118174E-8</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="4"/>
-        <v>6.2886167765061325E-14</v>
+        <v>2.8801186479099015E-14</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="5"/>
-        <v>-1.2740917540703822E-14</v>
+        <v>-1.3277405001427983E-14</v>
       </c>
       <c r="AD25" s="2">
         <f t="shared" si="6"/>
@@ -13359,7 +13360,7 @@
       </c>
       <c r="K26" s="6">
         <f xml:space="preserve"> $C$54 * (13 * ($C$5*2.20462/1000)^1.3 * 0.453592)</f>
-        <v>35.489191931337515</v>
+        <v>35.48615986601726</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>7</v>
@@ -13369,7 +13370,7 @@
       </c>
       <c r="O26" s="6">
         <f xml:space="preserve"> O20 * $C$8 * O25 - $C$7 * SIN(O18/180*PI())</f>
-        <v>1.0355358688695628</v>
+        <v>1.035468088580672</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>10</v>
@@ -13379,35 +13380,35 @@
       </c>
       <c r="V26" s="2">
         <f t="shared" si="7"/>
-        <v>2.0937204360961914E-2</v>
+        <v>2.0937681198120117E-2</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="0"/>
-        <v>1.5834337831546752E-7</v>
+        <v>8.8101594367118174E-8</v>
       </c>
       <c r="X26" s="2">
         <f t="shared" si="8"/>
-        <v>2.0937442779541016E-2</v>
+        <v>2.0937919616699219E-2</v>
       </c>
       <c r="Y26" s="2">
         <f t="shared" si="1"/>
-        <v>-8.046384810181384E-8</v>
+        <v>-1.5070561545232897E-7</v>
       </c>
       <c r="Z26" s="2">
         <f t="shared" si="3"/>
-        <v>2.0937323570251465E-2</v>
+        <v>2.0937800407409668E-2</v>
       </c>
       <c r="AA26" s="2">
         <f t="shared" si="2"/>
-        <v>3.8939765648060565E-8</v>
+        <v>-3.1302009997902225E-8</v>
       </c>
       <c r="AB26" s="2">
         <f t="shared" si="4"/>
-        <v>6.1658540435265E-15</v>
+        <v>-2.7577569877106596E-15</v>
       </c>
       <c r="AC26" s="2">
         <f t="shared" si="5"/>
-        <v>-3.1332433882257739E-15</v>
+        <v>4.7173886816288094E-15</v>
       </c>
       <c r="AD26" s="2">
         <f t="shared" si="6"/>
@@ -13451,17 +13452,17 @@
       </c>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
       <c r="F27" t="s">
         <v>21</v>
       </c>
       <c r="G27" s="6">
         <f xml:space="preserve"> $C$5 * $C$42 / $C$17</f>
-        <v>5248.6819199541251</v>
+        <v>5248.3369719583643</v>
       </c>
       <c r="H27" t="s">
         <v>22</v>
@@ -13471,7 +13472,7 @@
       </c>
       <c r="K27" s="10">
         <f>$C$5 - $C$12 - SUM(K13:K26)</f>
-        <v>7.8757931867812658E-2</v>
+        <v>1.0618350643198937E-10</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>7</v>
@@ -13481,42 +13482,42 @@
       </c>
       <c r="O27" s="6">
         <f xml:space="preserve"> 1/$C$20 - O24 * SQRT( (2*$C$45*PI()*$C$8^2) / O19^3 )</f>
-        <v>0.52088300239369367</v>
+        <v>0.52080317662131403</v>
       </c>
       <c r="U27" s="2">
         <v>23</v>
       </c>
       <c r="V27" s="2">
         <f t="shared" si="7"/>
-        <v>2.0937323570251465E-2</v>
+        <v>2.0937681198120117E-2</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" si="0"/>
-        <v>3.8939765648060565E-8</v>
+        <v>8.8101594367118174E-8</v>
       </c>
       <c r="X27" s="2">
         <f t="shared" si="8"/>
-        <v>2.0937442779541016E-2</v>
+        <v>2.0937800407409668E-2</v>
       </c>
       <c r="Y27" s="2">
         <f t="shared" si="1"/>
-        <v>-8.046384810181384E-8</v>
+        <v>-3.1302009997902225E-8</v>
       </c>
       <c r="Z27" s="2">
         <f t="shared" si="3"/>
-        <v>2.093738317489624E-2</v>
+        <v>2.0937740802764893E-2</v>
       </c>
       <c r="AA27" s="2">
         <f t="shared" si="2"/>
-        <v>-2.0762041089833483E-8</v>
+        <v>2.8399792319916406E-8</v>
       </c>
       <c r="AB27" s="2">
         <f t="shared" si="4"/>
-        <v>-8.0846901441351976E-16</v>
+        <v>2.5020669830796733E-15</v>
       </c>
       <c r="AC27" s="2">
         <f t="shared" si="5"/>
-        <v>1.6705937205359788E-15</v>
+        <v>-8.8897058313637017E-16</v>
       </c>
       <c r="AD27" s="2">
         <f t="shared" si="6"/>
@@ -13571,7 +13572,7 @@
       </c>
       <c r="G28" s="6">
         <f>G30/$C$17</f>
-        <v>49.590493139190322</v>
+        <v>49.585604523224269</v>
       </c>
       <c r="H28" t="s">
         <v>20</v>
@@ -13594,35 +13595,35 @@
       </c>
       <c r="V28" s="2">
         <f t="shared" si="7"/>
-        <v>2.0937323570251465E-2</v>
+        <v>2.0937740802764893E-2</v>
       </c>
       <c r="W28" s="2">
         <f t="shared" si="0"/>
-        <v>3.8939765648060565E-8</v>
+        <v>2.8399792319916406E-8</v>
       </c>
       <c r="X28" s="2">
         <f t="shared" si="8"/>
-        <v>2.093738317489624E-2</v>
+        <v>2.0937800407409668E-2</v>
       </c>
       <c r="Y28" s="2">
         <f t="shared" si="1"/>
-        <v>-2.0762041089833483E-8</v>
+        <v>-3.1302009997902225E-8</v>
       </c>
       <c r="Z28" s="2">
         <f t="shared" si="3"/>
-        <v>2.0937353372573853E-2</v>
+        <v>2.093777060508728E-2</v>
       </c>
       <c r="AA28" s="2">
         <f t="shared" si="2"/>
-        <v>9.0888623155427339E-9</v>
+        <v>-1.4511088060331634E-9</v>
       </c>
       <c r="AB28" s="2">
         <f t="shared" si="4"/>
-        <v>3.5391816857472317E-16</v>
+        <v>-4.1211188724943698E-17</v>
       </c>
       <c r="AC28" s="2">
         <f t="shared" si="5"/>
-        <v>-1.8870333285513735E-16</v>
+        <v>4.5422622354494042E-17</v>
       </c>
       <c r="AD28" s="2">
         <f t="shared" si="6"/>
@@ -13678,7 +13679,7 @@
       </c>
       <c r="G29" s="6">
         <f xml:space="preserve"> (G27/$C$42*1000) / (G28*1000)</f>
-        <v>10.798406531105998</v>
+        <v>10.798761388988359</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>276</v>
@@ -13688,42 +13689,42 @@
       </c>
       <c r="O29" s="6">
         <f xml:space="preserve"> 1/$C$51 * LN( EXP($C$51 * O27) + EXP($C$51 * O28) )</f>
-        <v>1.1500000002119424</v>
+        <v>1.1500000002114352</v>
       </c>
       <c r="U29" s="2">
         <v>25</v>
       </c>
       <c r="V29" s="2">
         <f t="shared" si="7"/>
-        <v>2.0937353372573853E-2</v>
+        <v>2.0937740802764893E-2</v>
       </c>
       <c r="W29" s="2">
         <f t="shared" si="0"/>
-        <v>9.0888623155427339E-9</v>
+        <v>2.8399792319916406E-8</v>
       </c>
       <c r="X29" s="2">
         <f t="shared" si="8"/>
-        <v>2.093738317489624E-2</v>
+        <v>2.093777060508728E-2</v>
       </c>
       <c r="Y29" s="2">
         <f t="shared" si="1"/>
-        <v>-2.0762041089833483E-8</v>
+        <v>-1.4511088060331634E-9</v>
       </c>
       <c r="Z29" s="2">
         <f t="shared" si="3"/>
-        <v>2.0937368273735046E-2</v>
+        <v>2.0937755703926086E-2</v>
       </c>
       <c r="AA29" s="2">
         <f t="shared" si="2"/>
-        <v>-5.8365893784717571E-9</v>
+        <v>1.3474341767349962E-8</v>
       </c>
       <c r="AB29" s="2">
         <f t="shared" si="4"/>
-        <v>-5.304795725328894E-17</v>
+        <v>3.8266850784031429E-16</v>
       </c>
       <c r="AC29" s="2">
         <f t="shared" si="5"/>
-        <v>1.211795085003163E-16</v>
+        <v>-1.9552735994101989E-17</v>
       </c>
       <c r="AD29" s="2">
         <f t="shared" si="6"/>
@@ -13781,50 +13782,50 @@
       </c>
       <c r="G30" s="43">
         <f xml:space="preserve"> 1/1000 * IF($G$24&gt;= 2*SQRT(($C$5*$C$42)/(2*$C$39*$C$17*PI()*$C$8*$C$8)), ($C$5*$C$42)/$C$20 * ( ($G$24/2) - SQRT( ($G$24/2)^2 - ($C$5*$C$42)/(2*$C$39*$C$17*PI()*$C$8*$C$8 ) ) ), 1/$C$20 * SQRT(($C$5*$C$42)^3/(2*$C$39*$C$17*PI()*$C$8*$C$8)) )</f>
-        <v>198.36197255676129</v>
+        <v>198.34241809289708</v>
       </c>
       <c r="H30" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="J30" s="53" t="s">
+      <c r="J30" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
       <c r="U30" s="2">
         <v>26</v>
       </c>
       <c r="V30" s="2">
         <f t="shared" si="7"/>
-        <v>2.0937353372573853E-2</v>
+        <v>2.0937755703926086E-2</v>
       </c>
       <c r="W30" s="2">
         <f t="shared" si="0"/>
-        <v>9.0888623155427339E-9</v>
+        <v>1.3474341767349962E-8</v>
       </c>
       <c r="X30" s="2">
         <f t="shared" si="8"/>
-        <v>2.0937368273735046E-2</v>
+        <v>2.093777060508728E-2</v>
       </c>
       <c r="Y30" s="2">
         <f t="shared" si="1"/>
-        <v>-5.8365893784717571E-9</v>
+        <v>-1.4511088060331634E-9</v>
       </c>
       <c r="Z30" s="2">
         <f t="shared" si="3"/>
-        <v>2.0937360823154449E-2</v>
+        <v>2.0937763154506683E-2</v>
       </c>
       <c r="AA30" s="2">
         <f t="shared" si="2"/>
-        <v>1.6261364685354884E-9</v>
+        <v>6.0116164823931229E-9</v>
       </c>
       <c r="AB30" s="2">
         <f t="shared" si="4"/>
-        <v>1.4779730468801944E-17</v>
+        <v>8.1002575057999114E-17</v>
       </c>
       <c r="AC30" s="2">
         <f t="shared" si="5"/>
-        <v>-9.491090840199804E-18</v>
+        <v>-8.7235096160947695E-18</v>
       </c>
       <c r="AD30" s="2">
         <f t="shared" si="6"/>
@@ -13891,35 +13892,35 @@
       </c>
       <c r="V31" s="2">
         <f t="shared" si="7"/>
-        <v>2.0937360823154449E-2</v>
+        <v>2.0937763154506683E-2</v>
       </c>
       <c r="W31" s="2">
         <f t="shared" si="0"/>
-        <v>1.6261364685354884E-9</v>
+        <v>6.0116164823931229E-9</v>
       </c>
       <c r="X31" s="2">
         <f t="shared" si="8"/>
-        <v>2.0937368273735046E-2</v>
+        <v>2.093777060508728E-2</v>
       </c>
       <c r="Y31" s="2">
         <f t="shared" si="1"/>
-        <v>-5.8365893784717571E-9</v>
+        <v>-1.4511088060331634E-9</v>
       </c>
       <c r="Z31" s="2">
         <f t="shared" si="3"/>
-        <v>2.0937364548444748E-2</v>
+        <v>2.0937766879796982E-2</v>
       </c>
       <c r="AA31" s="2">
         <f t="shared" si="2"/>
-        <v>-2.1052264549681343E-9</v>
+        <v>2.2802538399147032E-9</v>
       </c>
       <c r="AB31" s="2">
         <f t="shared" si="4"/>
-        <v>-3.4233855129493674E-18</v>
+        <v>1.3708011568071439E-17</v>
       </c>
       <c r="AC31" s="2">
         <f t="shared" si="5"/>
-        <v>1.2287342366344763E-17</v>
+        <v>-3.3088964270911609E-18</v>
       </c>
       <c r="AD31" s="2">
         <f t="shared" si="6"/>
@@ -13968,7 +13969,7 @@
       </c>
       <c r="K32" s="6">
         <f>ROUND(K13,2)</f>
-        <v>767.87</v>
+        <v>767.84</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>7</v>
@@ -13978,35 +13979,35 @@
       </c>
       <c r="V32" s="2">
         <f t="shared" si="7"/>
-        <v>2.0937360823154449E-2</v>
+        <v>2.0937766879796982E-2</v>
       </c>
       <c r="W32" s="2">
         <f t="shared" si="0"/>
-        <v>1.6261364685354884E-9</v>
+        <v>2.2802538399147032E-9</v>
       </c>
       <c r="X32" s="2">
         <f t="shared" si="8"/>
-        <v>2.0937364548444748E-2</v>
+        <v>2.093777060508728E-2</v>
       </c>
       <c r="Y32" s="2">
         <f t="shared" si="1"/>
-        <v>-2.1052264549681343E-9</v>
+        <v>-1.4511088060331634E-9</v>
       </c>
       <c r="Z32" s="2">
         <f t="shared" si="3"/>
-        <v>2.0937362685799599E-2</v>
+        <v>2.0937768742442131E-2</v>
       </c>
       <c r="AA32" s="2">
         <f t="shared" si="2"/>
-        <v>-2.3954499495104642E-10</v>
+        <v>4.1457251520604643E-10</v>
       </c>
       <c r="AB32" s="2">
         <f t="shared" si="4"/>
-        <v>-3.8953285214504603E-19</v>
+        <v>9.4533056972168406E-19</v>
       </c>
       <c r="AC32" s="2">
         <f t="shared" si="5"/>
-        <v>5.0429646052615109E-19</v>
+        <v>-6.0158982755481151E-19</v>
       </c>
       <c r="AD32" s="2">
         <f t="shared" si="6"/>
@@ -14050,18 +14051,18 @@
       </c>
     </row>
     <row r="33" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
       <c r="F33" s="9"/>
       <c r="J33" s="19" t="s">
         <v>81</v>
       </c>
       <c r="K33" s="6">
         <f>ROUND(SUM(K14:K17),2)</f>
-        <v>499.72</v>
+        <v>499.7</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>7</v>
@@ -14071,35 +14072,35 @@
       </c>
       <c r="V33" s="2">
         <f t="shared" si="7"/>
-        <v>2.0937360823154449E-2</v>
+        <v>2.0937768742442131E-2</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="0"/>
-        <v>1.6261364685354884E-9</v>
+        <v>4.1457251520604643E-10</v>
       </c>
       <c r="X33" s="2">
         <f t="shared" si="8"/>
-        <v>2.0937362685799599E-2</v>
+        <v>2.093777060508728E-2</v>
       </c>
       <c r="Y33" s="2">
         <f t="shared" si="1"/>
-        <v>-2.3954499495104642E-10</v>
+        <v>-1.4511088060331634E-9</v>
       </c>
       <c r="Z33" s="2">
         <f t="shared" si="3"/>
-        <v>2.0937361754477024E-2</v>
+        <v>2.0937769673764706E-2</v>
       </c>
       <c r="AA33" s="2">
         <f t="shared" si="2"/>
-        <v>6.9329574026166796E-10</v>
+        <v>-5.18268143678835E-10</v>
       </c>
       <c r="AB33" s="2">
         <f t="shared" si="4"/>
-        <v>1.1273934867198059E-18</v>
+        <v>-2.1485972787610328E-19</v>
       </c>
       <c r="AC33" s="2">
         <f t="shared" si="5"/>
-        <v>-1.6607552460056324E-19</v>
+        <v>7.5206346717881826E-19</v>
       </c>
       <c r="AD33" s="2">
         <f t="shared" si="6"/>
@@ -14157,7 +14158,7 @@
       </c>
       <c r="K34" s="6">
         <f>ROUND(SUM(K18:K22),2)</f>
-        <v>171.44</v>
+        <v>171.43</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>7</v>
@@ -14167,35 +14168,35 @@
       </c>
       <c r="V34" s="2">
         <f t="shared" si="7"/>
-        <v>2.0937361754477024E-2</v>
+        <v>2.0937768742442131E-2</v>
       </c>
       <c r="W34" s="2">
         <f t="shared" si="0"/>
-        <v>6.9329574026166796E-10</v>
+        <v>4.1457251520604643E-10</v>
       </c>
       <c r="X34" s="2">
         <f t="shared" si="8"/>
-        <v>2.0937362685799599E-2</v>
+        <v>2.0937769673764706E-2</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" si="1"/>
-        <v>-2.3954499495104642E-10</v>
+        <v>-5.18268143678835E-10</v>
       </c>
       <c r="Z34" s="2">
         <f t="shared" si="3"/>
-        <v>2.0937362220138311E-2</v>
+        <v>2.0937769208103418E-2</v>
       </c>
       <c r="AA34" s="2">
         <f t="shared" si="2"/>
-        <v>2.2687537265531077E-10</v>
+        <v>-5.1847814236394285E-11</v>
       </c>
       <c r="AB34" s="2">
         <f t="shared" si="4"/>
-        <v>1.5729172943220546E-19</v>
+        <v>-2.149467875591784E-20</v>
       </c>
       <c r="AC34" s="2">
         <f t="shared" si="5"/>
-        <v>-5.4346859997233193E-20</v>
+        <v>2.687107043810114E-20</v>
       </c>
       <c r="AD34" s="2">
         <f>X34-V34</f>
@@ -14250,7 +14251,7 @@
       </c>
       <c r="K35" s="6">
         <f>ROUND(SUM(K23:K26),2)</f>
-        <v>102.89</v>
+        <v>102.88</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>7</v>
@@ -14304,7 +14305,7 @@
       </c>
       <c r="K36" s="10">
         <f>SUM(K31:K35)</f>
-        <v>2141.92</v>
+        <v>2141.8500000000004</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>7</v>
@@ -14385,16 +14386,16 @@
       </c>
     </row>
     <row r="38" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="J38" s="53" t="s">
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="J38" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
       <c r="AF38" s="2">
         <v>34</v>
       </c>
@@ -14709,11 +14710,11 @@
       </c>
     </row>
     <row r="44" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="57" t="s">
         <v>273</v>
       </c>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
       <c r="J44" s="10" t="s">
         <v>62</v>
       </c>
@@ -14782,11 +14783,11 @@
       <c r="D46" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="J46" s="53" t="s">
+      <c r="J46" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
     </row>
     <row r="47" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
@@ -14843,11 +14844,11 @@
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
       <c r="J50" s="10" t="s">
         <v>62</v>
       </c>
@@ -14893,6 +14894,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="J38:L38"/>
     <mergeCell ref="N17:P17"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D3"/>
@@ -14905,16 +14916,6 @@
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="J38:L38"/>
   </mergeCells>
   <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="FALSE">
@@ -14946,7 +14947,7 @@
   <dimension ref="B1:CI136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15024,11 +15025,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
     </row>
     <row r="2" spans="2:87" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -15096,26 +15097,26 @@
       <c r="CI2" s="60"/>
     </row>
     <row r="3" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="F3" s="56" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="F3" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="N3" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
       <c r="U3" s="7" t="s">
         <v>44</v>
       </c>
@@ -15198,29 +15199,29 @@
         <v>8</v>
       </c>
       <c r="AX3"/>
-      <c r="AY3" s="62" t="s">
+      <c r="AY3" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
+      <c r="AZ3" s="61"/>
+      <c r="BA3" s="61"/>
       <c r="BB3"/>
-      <c r="BC3" s="62" t="s">
+      <c r="BC3" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
+      <c r="BD3" s="61"/>
+      <c r="BE3" s="61"/>
       <c r="BF3"/>
-      <c r="BG3" s="62" t="s">
+      <c r="BG3" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
+      <c r="BH3" s="61"/>
+      <c r="BI3" s="61"/>
       <c r="BJ3" s="2"/>
-      <c r="BK3" s="62" t="s">
+      <c r="BK3" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
+      <c r="BL3" s="61"/>
+      <c r="BM3" s="61"/>
       <c r="BN3"/>
       <c r="BO3" s="7" t="s">
         <v>44</v>
@@ -15329,14 +15330,14 @@
       </c>
       <c r="W4" s="2">
         <f t="shared" ref="W4:W34" si="0" xml:space="preserve"> $O$21 * TAN($O$18/180*PI()) + $O$22 / (2 * SQRT($O$21^2 + V4^2)) - V4</f>
-        <v>2.079593899207342E-2</v>
+        <v>2.0795938991783898E-2</v>
       </c>
       <c r="X4" s="3">
         <v>1</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" ref="Y4:Y34" si="1" xml:space="preserve"> $O$21 * TAN($O$18/180*PI()) + $O$22 / (2 * SQRT($O$21^2 + X4^2)) - X4</f>
-        <v>-0.983413893071162</v>
+        <v>-0.98341389307166183</v>
       </c>
       <c r="Z4" s="2">
         <f xml:space="preserve"> (V4 + X4)/2</f>
@@ -15344,15 +15345,15 @@
       </c>
       <c r="AA4" s="2">
         <f t="shared" ref="AA4:AA34" si="2" xml:space="preserve"> $O$21 * TAN($O$18/180*PI()) + $O$22 / (2 * SQRT($O$21^2 + Z4^2)) - Z4</f>
-        <v>-0.48221401886946036</v>
+        <v>-0.48221401886990006</v>
       </c>
       <c r="AB4" s="2">
         <f>W4*AA4</f>
-        <v>-1.0028093317531838E-2</v>
+        <v>-1.0028093317401371E-2</v>
       </c>
       <c r="AC4" s="2">
         <f>Y4*AA4</f>
-        <v>0.47421596558990681</v>
+        <v>0.47421596559058021</v>
       </c>
       <c r="AD4" s="2">
         <f>X4-V4</f>
@@ -15364,17 +15365,17 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2">
         <f>K27</f>
-        <v>-6.7251221480546519E-8</v>
+        <v>-3.6129677027929574E-10</v>
       </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2">
         <f>K27</f>
-        <v>-6.7251221480546519E-8</v>
+        <v>-3.6129677027929574E-10</v>
       </c>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2">
         <f>K27</f>
-        <v>-6.7251221480546519E-8</v>
+        <v>-3.6129677027929574E-10</v>
       </c>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
@@ -15495,7 +15496,7 @@
       </c>
       <c r="C5" s="10">
         <f>AK44</f>
-        <v>2199.6379470074316</v>
+        <v>2199.6379471179353</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>7</v>
@@ -15525,7 +15526,7 @@
       </c>
       <c r="O5" s="6">
         <f xml:space="preserve"> $C$18 * 0.85 * ($C$5/$C$18 *2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.35913589339704005</v>
+        <v>0.35913589340906804</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>120</v>
@@ -15539,7 +15540,7 @@
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>2.079593899207342E-2</v>
+        <v>2.0795938991783898E-2</v>
       </c>
       <c r="X5" s="2">
         <f>IF(AC4&gt;0, Z4, X4)</f>
@@ -15547,7 +15548,7 @@
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="1"/>
-        <v>-0.48221401886946036</v>
+        <v>-0.48221401886990006</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" ref="Z5:Z34" si="3" xml:space="preserve"> (V5 + X5)/2</f>
@@ -15555,15 +15556,15 @@
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="2"/>
-        <v>-0.23074784605746987</v>
+        <v>-0.23074784605783633</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" ref="AB5:AB34" si="4">W5*AA5</f>
-        <v>-4.7986181291634926E-3</v>
+        <v>-4.7986181291043073E-3</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" ref="AC5:AC34" si="5">Y5*AA5</f>
-        <v>0.11126984619284411</v>
+        <v>0.11126984619312229</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" ref="AD5:AD33" si="6">X5-V5</f>
@@ -15576,7 +15577,7 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
         <v>-1109.6381341663828</v>
       </c>
       <c r="AI5" s="3">
@@ -15687,7 +15688,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="BS5" s="2">
-        <f t="dataTable" ref="BS5:BS34" dt2D="0" dtr="0" r1="BH4" ca="1"/>
+        <f t="dataTable" ref="BS5:BS34" dt2D="0" dtr="0" r1="BH4"/>
         <v>0.5418406336433601</v>
       </c>
       <c r="BT5" s="2">
@@ -15777,7 +15778,7 @@
       </c>
       <c r="O6">
         <f xml:space="preserve"> O5 / (PI() * $C$9^2)</f>
-        <v>7.1447815844828625E-3</v>
+        <v>7.144781584722152E-3</v>
       </c>
       <c r="U6" s="2">
         <v>2</v>
@@ -15788,7 +15789,7 @@
       </c>
       <c r="W6" s="2">
         <f t="shared" si="0"/>
-        <v>2.079593899207342E-2</v>
+        <v>2.0795938991783898E-2</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" ref="X6:X34" si="16">IF(AC5&gt;0, Z5, X5)</f>
@@ -15796,7 +15797,7 @@
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="1"/>
-        <v>-0.23074784605746987</v>
+        <v>-0.23074784605783633</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="3"/>
@@ -15804,15 +15805,15 @@
       </c>
       <c r="AA6" s="2">
         <f t="shared" si="2"/>
-        <v>-0.10474543600339661</v>
+        <v>-0.10474543600371308</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="4"/>
-        <v>-2.1782796968247667E-3</v>
+        <v>-2.1782796968010218E-3</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" si="5"/>
-        <v>2.4169783742134323E-2</v>
+        <v>2.4169783742245734E-2</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" si="6"/>
@@ -16007,11 +16008,11 @@
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
       <c r="N7" t="s">
         <v>123</v>
       </c>
@@ -16027,7 +16028,7 @@
       </c>
       <c r="W7" s="2">
         <f t="shared" si="0"/>
-        <v>2.079593899207342E-2</v>
+        <v>2.0795938991783898E-2</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" si="16"/>
@@ -16035,7 +16036,7 @@
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="1"/>
-        <v>-0.10474543600339661</v>
+        <v>-0.10474543600371308</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="3"/>
@@ -16043,15 +16044,15 @@
       </c>
       <c r="AA7" s="2">
         <f t="shared" si="2"/>
-        <v>-4.1855349800880154E-2</v>
+        <v>-4.1855349801177201E-2</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="4"/>
-        <v>-8.7042130095099602E-4</v>
+        <v>-8.7042130094505535E-4</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" si="5"/>
-        <v>4.3841568639678714E-3</v>
+        <v>4.3841568640122317E-3</v>
       </c>
       <c r="AD7" s="2">
         <f t="shared" si="6"/>
@@ -16251,7 +16252,7 @@
       </c>
       <c r="K8" s="6">
         <f xml:space="preserve"> $C$15 * (G13*G6 + G20*G16 + G27*G25)/3600</f>
-        <v>135.21157246231408</v>
+        <v>135.21157246572102</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>105</v>
@@ -16261,7 +16262,7 @@
       </c>
       <c r="O8" s="6">
         <f xml:space="preserve"> $O$7 + O6</f>
-        <v>1.9445631584482863E-2</v>
+        <v>1.9445631584722151E-2</v>
       </c>
       <c r="U8" s="2">
         <v>4</v>
@@ -16272,7 +16273,7 @@
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>2.079593899207342E-2</v>
+        <v>2.0795938991783898E-2</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="16"/>
@@ -16280,7 +16281,7 @@
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="1"/>
-        <v>-4.1855349800880154E-2</v>
+        <v>-4.1855349801177201E-2</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="3"/>
@@ -16288,15 +16289,15 @@
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0493049333460788E-2</v>
+        <v>-1.0493049333752249E-2</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="4"/>
-        <v>-2.182128137794672E-4</v>
+        <v>-2.1821281378249044E-4</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="5"/>
-        <v>4.3919025032989359E-4</v>
+        <v>4.3919025034520973E-4</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="6"/>
@@ -16476,7 +16477,7 @@
       </c>
       <c r="G9" s="6">
         <f xml:space="preserve"> $C$5 * $C$43 / $C$18</f>
-        <v>5389.9329910160568</v>
+        <v>5389.9329912868316</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>22</v>
@@ -16496,7 +16497,7 @@
       </c>
       <c r="O9" s="6">
         <f xml:space="preserve"> O4 *O8 * PI() * $C$9 * $C$9</f>
-        <v>1232.244788138187</v>
+        <v>1232.2447881533503</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>22</v>
@@ -16510,7 +16511,7 @@
       </c>
       <c r="W9" s="2">
         <f t="shared" si="0"/>
-        <v>2.079593899207342E-2</v>
+        <v>2.0795938991783898E-2</v>
       </c>
       <c r="X9" s="2">
         <f t="shared" si="16"/>
@@ -16518,7 +16519,7 @@
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0493049333460788E-2</v>
+        <v>-1.0493049333752249E-2</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="3"/>
@@ -16526,15 +16527,15 @@
       </c>
       <c r="AA9" s="2">
         <f t="shared" si="2"/>
-        <v>5.161115874879673E-3</v>
+        <v>5.161115874589662E-3</v>
       </c>
       <c r="AB9" s="2">
         <f t="shared" si="4"/>
-        <v>1.0733025086501931E-4</v>
+        <v>1.07330250857494E-4</v>
       </c>
       <c r="AC9" s="2">
         <f t="shared" si="5"/>
-        <v>-5.4155843490820043E-5</v>
+        <v>-5.4155843489281208E-5</v>
       </c>
       <c r="AD9" s="2">
         <f t="shared" si="6"/>
@@ -16730,7 +16731,7 @@
       </c>
       <c r="O10" s="6">
         <f xml:space="preserve"> O9</f>
-        <v>1232.244788138187</v>
+        <v>1232.2447881533503</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>22</v>
@@ -16744,7 +16745,7 @@
       </c>
       <c r="W10" s="2">
         <f t="shared" si="0"/>
-        <v>5.161115874879673E-3</v>
+        <v>5.161115874589662E-3</v>
       </c>
       <c r="X10" s="2">
         <f t="shared" si="16"/>
@@ -16752,7 +16753,7 @@
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0493049333460788E-2</v>
+        <v>-1.0493049333752249E-2</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="3"/>
@@ -16760,15 +16761,15 @@
       </c>
       <c r="AA10" s="2">
         <f t="shared" si="2"/>
-        <v>-2.6635913788807634E-3</v>
+        <v>-2.6635913791713817E-3</v>
       </c>
       <c r="AB10" s="2">
         <f t="shared" si="4"/>
-        <v>-1.3747103749734146E-5</v>
+        <v>-1.374710375046159E-5</v>
       </c>
       <c r="AC10" s="2">
         <f t="shared" si="5"/>
-        <v>2.7949195742776696E-5</v>
+        <v>2.79491957466025E-5</v>
       </c>
       <c r="AD10" s="2">
         <f t="shared" si="6"/>
@@ -16952,22 +16953,22 @@
       </c>
       <c r="G11" s="6">
         <f>G9-G10</f>
-        <v>-2.3637174308532849E-5</v>
+        <v>-2.3366399545921013E-5</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
       <c r="N11" s="6" t="s">
         <v>118</v>
       </c>
       <c r="O11" s="6">
         <f>($O$8*PI()*$C$9^2)/(0.3048^2)/($C$5*2.20462/1000)^(2/3) + 0.85</f>
-        <v>4.5223045089815859</v>
+        <v>4.522304508903785</v>
       </c>
       <c r="U11" s="2">
         <v>7</v>
@@ -16978,7 +16979,7 @@
       </c>
       <c r="W11" s="2">
         <f t="shared" si="0"/>
-        <v>5.161115874879673E-3</v>
+        <v>5.161115874589662E-3</v>
       </c>
       <c r="X11" s="2">
         <f t="shared" si="16"/>
@@ -16986,7 +16987,7 @@
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="1"/>
-        <v>-2.6635913788807634E-3</v>
+        <v>-2.6635913791713817E-3</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="3"/>
@@ -16994,15 +16995,15 @@
       </c>
       <c r="AA11" s="2">
         <f t="shared" si="2"/>
-        <v>1.2493628042306998E-3</v>
+        <v>1.2493628039404181E-3</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" si="4"/>
-        <v>6.4481062023992494E-6</v>
+        <v>6.4481062005387432E-6</v>
       </c>
       <c r="AC11" s="2">
         <f t="shared" si="5"/>
-        <v>-3.3277919944431868E-6</v>
+        <v>-3.3277919940330827E-6</v>
       </c>
       <c r="AD11" s="2">
         <f t="shared" si="6"/>
@@ -17044,7 +17045,7 @@
         <f t="shared" si="20"/>
         <v>70.3125</v>
       </c>
-      <c r="AQ11" s="66" t="s">
+      <c r="AQ11" s="63" t="s">
         <v>181</v>
       </c>
       <c r="AR11" s="3" t="s">
@@ -17164,11 +17165,11 @@
       </c>
     </row>
     <row r="12" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
       <c r="F12" s="6" t="s">
         <v>217</v>
       </c>
@@ -17181,7 +17182,7 @@
       </c>
       <c r="K12" s="6">
         <f>C5</f>
-        <v>2199.6379470074316</v>
+        <v>2199.6379471179353</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>7</v>
@@ -17195,7 +17196,7 @@
       </c>
       <c r="W12" s="2">
         <f t="shared" si="0"/>
-        <v>1.2493628042306998E-3</v>
+        <v>1.2493628039404181E-3</v>
       </c>
       <c r="X12" s="2">
         <f t="shared" si="16"/>
@@ -17203,7 +17204,7 @@
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="1"/>
-        <v>-2.6635913788807634E-3</v>
+        <v>-2.6635913791713817E-3</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="3"/>
@@ -17211,15 +17212,15 @@
       </c>
       <c r="AA12" s="2">
         <f t="shared" si="2"/>
-        <v>-7.0696490207732693E-4</v>
+        <v>-7.0696490236777168E-4</v>
       </c>
       <c r="AB12" s="2">
         <f t="shared" si="4"/>
-        <v>-8.832556525520112E-7</v>
+        <v>-8.8325565270966319E-7</v>
       </c>
       <c r="AC12" s="2">
         <f t="shared" si="5"/>
-        <v>1.8830656183444511E-6</v>
+        <v>1.8830656193235341E-6</v>
       </c>
       <c r="AD12" s="2">
         <f t="shared" si="6"/>
@@ -17261,7 +17262,7 @@
         <f t="shared" si="20"/>
         <v>35.15625</v>
       </c>
-      <c r="AQ12" s="66"/>
+      <c r="AQ12" s="63"/>
       <c r="AR12" s="3" t="s">
         <v>219</v>
       </c>
@@ -17278,17 +17279,17 @@
         <v>104</v>
       </c>
       <c r="AX12"/>
-      <c r="AY12" s="62" t="s">
+      <c r="AY12" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="AZ12" s="62"/>
-      <c r="BA12" s="62"/>
+      <c r="AZ12" s="61"/>
+      <c r="BA12" s="61"/>
       <c r="BB12"/>
-      <c r="BC12" s="62" t="s">
+      <c r="BC12" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="BD12" s="62"/>
-      <c r="BE12" s="62"/>
+      <c r="BD12" s="61"/>
+      <c r="BE12" s="61"/>
       <c r="BF12"/>
       <c r="BG12" s="2" t="s">
         <v>187</v>
@@ -17408,16 +17409,16 @@
       </c>
       <c r="K13" s="6">
         <f xml:space="preserve"> K8 * 1000 / ($C$35 * $C$36 * $C$37)</f>
-        <v>795.36219095478862</v>
+        <v>795.36219097482956</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="56" t="s">
+      <c r="N13" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
       <c r="U13" s="2">
         <v>9</v>
       </c>
@@ -17427,7 +17428,7 @@
       </c>
       <c r="W13" s="2">
         <f t="shared" si="0"/>
-        <v>1.2493628042306998E-3</v>
+        <v>1.2493628039404181E-3</v>
       </c>
       <c r="X13" s="2">
         <f t="shared" si="16"/>
@@ -17435,7 +17436,7 @@
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="1"/>
-        <v>-7.0696490207732693E-4</v>
+        <v>-7.0696490236777168E-4</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="3"/>
@@ -17443,15 +17444,15 @@
       </c>
       <c r="AA13" s="2">
         <f t="shared" si="2"/>
-        <v>2.7123639708455036E-4</v>
+        <v>2.7123639679418887E-4</v>
       </c>
       <c r="AB13" s="2">
         <f t="shared" si="4"/>
-        <v>3.3887266567098546E-7</v>
+        <v>3.3887266522948361E-7</v>
       </c>
       <c r="AC13" s="2">
         <f t="shared" si="5"/>
-        <v>-1.9175461290468609E-7</v>
+        <v>-1.9175461277818993E-7</v>
       </c>
       <c r="AD13" s="2">
         <f t="shared" si="6"/>
@@ -17493,7 +17494,7 @@
         <f t="shared" si="20"/>
         <v>17.578125</v>
       </c>
-      <c r="AQ13" s="66"/>
+      <c r="AQ13" s="63"/>
       <c r="AR13" s="3" t="s">
         <v>219</v>
       </c>
@@ -17632,7 +17633,7 @@
       </c>
       <c r="K14" s="6">
         <f xml:space="preserve"> $C$53 * $C$18 * (0.0095 * MAX(G9,O19,G26) - 1.9275)</f>
-        <v>157.9377270197738</v>
+        <v>157.93772702799777</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>7</v>
@@ -17642,7 +17643,7 @@
       </c>
       <c r="O14" s="6">
         <f xml:space="preserve"> SQRT( ($C$5*$C$49)^2 + O10^2)</f>
-        <v>21592.858818391291</v>
+        <v>21592.858819473389</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>22</v>
@@ -17656,7 +17657,7 @@
       </c>
       <c r="W14" s="2">
         <f t="shared" si="0"/>
-        <v>2.7123639708455036E-4</v>
+        <v>2.7123639679418887E-4</v>
       </c>
       <c r="X14" s="2">
         <f t="shared" si="16"/>
@@ -17664,7 +17665,7 @@
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="1"/>
-        <v>-7.0696490207732693E-4</v>
+        <v>-7.0696490236777168E-4</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="3"/>
@@ -17672,15 +17673,15 @@
       </c>
       <c r="AA14" s="2">
         <f t="shared" si="2"/>
-        <v>-2.1785490311728231E-4</v>
+        <v>-2.1785490340768543E-4</v>
       </c>
       <c r="AB14" s="2">
         <f t="shared" si="4"/>
-        <v>-5.9090179008735433E-8</v>
+        <v>-5.9090179024246652E-8</v>
       </c>
       <c r="AC14" s="2">
         <f t="shared" si="5"/>
-        <v>1.5401577024937503E-7</v>
+        <v>1.5401577051795467E-7</v>
       </c>
       <c r="AD14" s="2">
         <f t="shared" si="6"/>
@@ -17722,7 +17723,7 @@
         <f t="shared" si="20"/>
         <v>8.7890625</v>
       </c>
-      <c r="AQ14" s="66"/>
+      <c r="AQ14" s="63"/>
       <c r="AR14" s="3" t="s">
         <v>219</v>
       </c>
@@ -17855,17 +17856,17 @@
       <c r="C15" s="17">
         <v>1</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
       <c r="J15" s="12" t="s">
         <v>136</v>
       </c>
       <c r="K15" s="6">
         <f xml:space="preserve"> $C$53 * C18 * 0.0037 * C19^0.28 * (C9*3.28084)^1.5 * (G7*3.28084)^0.43 * (0.01742 * C19^0.66 * (C10*C9)*3.28084 * (C9*3.28084)^1.3 * (G7*3.28084)^0.67 + 9.80665*3.28084 * 0.5*(K14/C18)*2.20462)^0.55 * 0.453592</f>
-        <v>272.95141052886044</v>
+        <v>272.95141053638451</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>7</v>
@@ -17875,7 +17876,7 @@
       </c>
       <c r="O15" s="6">
         <f>$C$5*$C$49/O14</f>
-        <v>0.99837033733980451</v>
+        <v>0.99837033733992786</v>
       </c>
       <c r="U15" s="2">
         <v>11</v>
@@ -17886,7 +17887,7 @@
       </c>
       <c r="W15" s="2">
         <f t="shared" si="0"/>
-        <v>2.7123639708455036E-4</v>
+        <v>2.7123639679418887E-4</v>
       </c>
       <c r="X15" s="2">
         <f t="shared" si="16"/>
@@ -17894,7 +17895,7 @@
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="1"/>
-        <v>-2.1785490311728231E-4</v>
+        <v>-2.1785490340768543E-4</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="3"/>
@@ -17902,15 +17903,15 @@
       </c>
       <c r="AA15" s="2">
         <f t="shared" si="2"/>
-        <v>2.6693085865052424E-5</v>
+        <v>2.6693085574670122E-5</v>
       </c>
       <c r="AB15" s="2">
         <f t="shared" si="4"/>
-        <v>7.240136437105358E-9</v>
+        <v>7.2401363505924642E-9</v>
       </c>
       <c r="AC15" s="2">
         <f t="shared" si="5"/>
-        <v>-5.8152196350322934E-9</v>
+        <v>-5.8152195795228412E-9</v>
       </c>
       <c r="AD15" s="2">
         <f t="shared" si="6"/>
@@ -17952,7 +17953,7 @@
         <f t="shared" si="20"/>
         <v>4.39453125</v>
       </c>
-      <c r="AQ15" s="66"/>
+      <c r="AQ15" s="63"/>
       <c r="AR15" s="3" t="s">
         <v>219</v>
       </c>
@@ -18106,7 +18107,7 @@
       </c>
       <c r="O16" s="6">
         <f>O18/180*PI()</f>
-        <v>5.709825717221384E-2</v>
+        <v>5.7098257170052465E-2</v>
       </c>
       <c r="U16" s="2">
         <v>12</v>
@@ -18117,7 +18118,7 @@
       </c>
       <c r="W16" s="2">
         <f t="shared" si="0"/>
-        <v>2.6693085865052424E-5</v>
+        <v>2.6693085574670122E-5</v>
       </c>
       <c r="X16" s="2">
         <f t="shared" si="16"/>
@@ -18125,7 +18126,7 @@
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="1"/>
-        <v>-2.1785490311728231E-4</v>
+        <v>-2.1785490340768543E-4</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="3"/>
@@ -18133,15 +18134,15 @@
       </c>
       <c r="AA16" s="2">
         <f t="shared" si="2"/>
-        <v>-9.5580324096511404E-5</v>
+        <v>-9.5580324386904114E-5</v>
       </c>
       <c r="AB16" s="2">
         <f t="shared" si="4"/>
-        <v>-2.5513337981177183E-9</v>
+        <v>-2.5513337781143611E-9</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="5"/>
-        <v>2.0822642245963937E-8</v>
+        <v>2.0822642336984235E-8</v>
       </c>
       <c r="AD16" s="2">
         <f t="shared" si="6"/>
@@ -18183,7 +18184,7 @@
         <f t="shared" si="20"/>
         <v>2.197265625</v>
       </c>
-      <c r="AQ16" s="66"/>
+      <c r="AQ16" s="63"/>
       <c r="AR16" s="3" t="s">
         <v>219</v>
       </c>
@@ -18313,11 +18314,11 @@
       </c>
     </row>
     <row r="17" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
       <c r="F17" t="s">
         <v>130</v>
       </c>
@@ -18338,11 +18339,11 @@
       <c r="L17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="56" t="s">
+      <c r="N17" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
       <c r="U17" s="2">
         <v>13</v>
       </c>
@@ -18352,7 +18353,7 @@
       </c>
       <c r="W17" s="2">
         <f t="shared" si="0"/>
-        <v>2.6693085865052424E-5</v>
+        <v>2.6693085574670122E-5</v>
       </c>
       <c r="X17" s="2">
         <f t="shared" si="16"/>
@@ -18360,7 +18361,7 @@
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="1"/>
-        <v>-9.5580324096511404E-5</v>
+        <v>-9.5580324386904114E-5</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="3"/>
@@ -18368,15 +18369,15 @@
       </c>
       <c r="AA17" s="2">
         <f t="shared" si="2"/>
-        <v>-3.4443472959402865E-5</v>
+        <v>-3.4443473249788636E-5</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" si="4"/>
-        <v>-9.1940258119595196E-10</v>
+        <v>-9.1940257894546928E-10</v>
       </c>
       <c r="AC17" s="2">
         <f t="shared" si="5"/>
-        <v>3.2921183084691527E-9</v>
+        <v>3.2921183462264524E-9</v>
       </c>
       <c r="AD17" s="2">
         <f t="shared" si="6"/>
@@ -18418,7 +18419,7 @@
         <f t="shared" si="20"/>
         <v>1.0986328125</v>
       </c>
-      <c r="AQ17" s="66"/>
+      <c r="AQ17" s="63"/>
       <c r="AR17" s="3" t="s">
         <v>219</v>
       </c>
@@ -18565,7 +18566,7 @@
       </c>
       <c r="K18" s="6">
         <f xml:space="preserve"> $C$54 * (14.86 * ($C$5*2.20462)^0.144 * ($C$25/(PI()*$C$26))^0.778 * ($C$25*3.28084)^0.383 * $C$24^0.455 * 0.453592)</f>
-        <v>131.79915727476529</v>
+        <v>131.79915727571873</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>7</v>
@@ -18575,7 +18576,7 @@
       </c>
       <c r="O18" s="6">
         <f xml:space="preserve"> ACOS(O15)/PI()*180</f>
-        <v>3.2714891535204353</v>
+        <v>3.2714891533965975</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>43</v>
@@ -18589,7 +18590,7 @@
       </c>
       <c r="W18" s="2">
         <f t="shared" si="0"/>
-        <v>2.6693085865052424E-5</v>
+        <v>2.6693085574670122E-5</v>
       </c>
       <c r="X18" s="2">
         <f t="shared" si="16"/>
@@ -18597,7 +18598,7 @@
       </c>
       <c r="Y18" s="2">
         <f t="shared" si="1"/>
-        <v>-3.4443472959402865E-5</v>
+        <v>-3.4443473249788636E-5</v>
       </c>
       <c r="Z18" s="2">
         <f t="shared" si="3"/>
@@ -18605,15 +18606,15 @@
       </c>
       <c r="AA18" s="2">
         <f t="shared" si="2"/>
-        <v>-3.8751570051107076E-6</v>
+        <v>-3.8751572954930091E-6</v>
       </c>
       <c r="AB18" s="2">
         <f t="shared" si="4"/>
-        <v>-1.0343989867797951E-10</v>
+        <v>-1.0343990530390212E-10</v>
       </c>
       <c r="AC18" s="2">
         <f t="shared" si="5"/>
-        <v>1.3347386551897124E-10</v>
+        <v>1.3347387664603674E-10</v>
       </c>
       <c r="AD18" s="2">
         <f t="shared" si="6"/>
@@ -18655,7 +18656,7 @@
         <f t="shared" si="20"/>
         <v>0.54931640625</v>
       </c>
-      <c r="AQ18" s="66"/>
+      <c r="AQ18" s="63"/>
       <c r="AR18" s="3" t="s">
         <v>219</v>
       </c>
@@ -18796,7 +18797,7 @@
       </c>
       <c r="G19" s="6">
         <f xml:space="preserve"> 1/1000 * (O24 + O19 * (O26 * O29 + $C$8 * SIN(O18/180*PI())))</f>
-        <v>52.76024491437343</v>
+        <v>52.760244915565359</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>104</v>
@@ -18806,7 +18807,7 @@
       </c>
       <c r="K19" s="6">
         <f xml:space="preserve"> $C$54 * C30 * $C$5</f>
-        <v>24.635945006483237</v>
+        <v>24.635945007720878</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>7</v>
@@ -18816,7 +18817,7 @@
       </c>
       <c r="O19" s="6">
         <f xml:space="preserve"> O14 / $C$18</f>
-        <v>5398.2147045978227</v>
+        <v>5398.2147048683473</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>22</v>
@@ -18830,7 +18831,7 @@
       </c>
       <c r="W19" s="2">
         <f t="shared" si="0"/>
-        <v>2.6693085865052424E-5</v>
+        <v>2.6693085574670122E-5</v>
       </c>
       <c r="X19" s="2">
         <f t="shared" si="16"/>
@@ -18838,7 +18839,7 @@
       </c>
       <c r="Y19" s="2">
         <f t="shared" si="1"/>
-        <v>-3.8751570051107076E-6</v>
+        <v>-3.8751572954930091E-6</v>
       </c>
       <c r="Z19" s="2">
         <f t="shared" si="3"/>
@@ -18846,15 +18847,15 @@
       </c>
       <c r="AA19" s="2">
         <f t="shared" si="2"/>
-        <v>1.1408973565860819E-5</v>
+        <v>1.1408973275478518E-5</v>
       </c>
       <c r="AB19" s="2">
         <f t="shared" si="4"/>
-        <v>3.0454071102563621E-10</v>
+        <v>3.0454069996147254E-10</v>
       </c>
       <c r="AC19" s="2">
         <f t="shared" si="5"/>
-        <v>-4.4211563834868441E-11</v>
+        <v>-4.4211566022555349E-11</v>
       </c>
       <c r="AD19" s="2">
         <f t="shared" si="6"/>
@@ -18896,7 +18897,7 @@
         <f t="shared" si="20"/>
         <v>0.274658203125</v>
       </c>
-      <c r="AQ19" s="66" t="s">
+      <c r="AQ19" s="63" t="s">
         <v>195</v>
       </c>
       <c r="AR19" s="3">
@@ -19043,7 +19044,7 @@
       </c>
       <c r="G20" s="43">
         <f>$C$18 * G19</f>
-        <v>211.04097965749372</v>
+        <v>211.04097966226144</v>
       </c>
       <c r="H20" s="43" t="s">
         <v>104</v>
@@ -19077,7 +19078,7 @@
       </c>
       <c r="W20" s="2">
         <f t="shared" si="0"/>
-        <v>1.1408973565860819E-5</v>
+        <v>1.1408973275478518E-5</v>
       </c>
       <c r="X20" s="2">
         <f t="shared" si="16"/>
@@ -19085,7 +19086,7 @@
       </c>
       <c r="Y20" s="2">
         <f t="shared" si="1"/>
-        <v>-3.8751570051107076E-6</v>
+        <v>-3.8751572954930091E-6</v>
       </c>
       <c r="Z20" s="2">
         <f t="shared" si="3"/>
@@ -19093,15 +19094,15 @@
       </c>
       <c r="AA20" s="2">
         <f t="shared" si="2"/>
-        <v>3.7669105642998413E-6</v>
+        <v>3.7669102739175397E-6</v>
       </c>
       <c r="AB20" s="2">
         <f t="shared" si="4"/>
-        <v>4.2976583053058752E-11</v>
+        <v>4.2976578646250672E-11</v>
       </c>
       <c r="AC20" s="2">
         <f t="shared" si="5"/>
-        <v>-1.459736986087206E-11</v>
+        <v>-1.4597369829439122E-11</v>
       </c>
       <c r="AD20" s="2">
         <f t="shared" si="6"/>
@@ -19143,7 +19144,7 @@
         <f t="shared" si="20"/>
         <v>0.1373291015625</v>
       </c>
-      <c r="AQ20" s="66"/>
+      <c r="AQ20" s="63"/>
       <c r="AR20" s="3">
         <f>0.285*($AR$9/2)</f>
         <v>1.1399999999999999</v>
@@ -19283,7 +19284,7 @@
       </c>
       <c r="O21" s="6">
         <f xml:space="preserve"> $C$8 * COS(O18/180*PI()) / (O20 * $C$9)</f>
-        <v>0.26482595703992157</v>
+        <v>0.26482595703995432</v>
       </c>
       <c r="U21" s="2">
         <v>17</v>
@@ -19294,7 +19295,7 @@
       </c>
       <c r="W21" s="2">
         <f t="shared" si="0"/>
-        <v>3.7669105642998413E-6</v>
+        <v>3.7669102739175397E-6</v>
       </c>
       <c r="X21" s="2">
         <f t="shared" si="16"/>
@@ -19302,7 +19303,7 @@
       </c>
       <c r="Y21" s="2">
         <f t="shared" si="1"/>
-        <v>-3.8751570051107076E-6</v>
+        <v>-3.8751572954930091E-6</v>
       </c>
       <c r="Z21" s="2">
         <f t="shared" si="3"/>
@@ -19310,15 +19311,15 @@
       </c>
       <c r="AA21" s="2">
         <f t="shared" si="2"/>
-        <v>-5.4122649428139935E-8</v>
+        <v>-5.412293981391092E-8</v>
       </c>
       <c r="AB21" s="2">
         <f t="shared" si="4"/>
-        <v>-2.0387517989875708E-13</v>
+        <v>-2.038762580396417E-13</v>
       </c>
       <c r="AC21" s="2">
         <f t="shared" si="5"/>
-        <v>2.0973376406660751E-13</v>
+        <v>2.0973490507340594E-13</v>
       </c>
       <c r="AD21" s="2">
         <f t="shared" si="6"/>
@@ -19360,7 +19361,7 @@
         <f t="shared" si="20"/>
         <v>6.866455078125E-2</v>
       </c>
-      <c r="AQ21" s="66"/>
+      <c r="AQ21" s="63"/>
       <c r="AR21" s="3">
         <f>0.395*($AR$9/2)</f>
         <v>1.58</v>
@@ -19373,17 +19374,17 @@
       <c r="AV21"/>
       <c r="AW21" s="39"/>
       <c r="AX21"/>
-      <c r="AY21" s="62" t="s">
+      <c r="AY21" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="AZ21" s="62"/>
-      <c r="BA21" s="62"/>
+      <c r="AZ21" s="61"/>
+      <c r="BA21" s="61"/>
       <c r="BB21"/>
-      <c r="BC21" s="62" t="s">
+      <c r="BC21" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="BD21" s="62"/>
-      <c r="BE21" s="62"/>
+      <c r="BD21" s="61"/>
+      <c r="BE21" s="61"/>
       <c r="BF21"/>
       <c r="BG21" s="2"/>
       <c r="BH21" s="2"/>
@@ -19468,11 +19469,11 @@
       </c>
     </row>
     <row r="22" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
       <c r="J22" s="14" t="s">
         <v>117</v>
       </c>
@@ -19488,7 +19489,7 @@
       </c>
       <c r="O22" s="6">
         <f xml:space="preserve"> O19 / ($C$46 * PI() * $C$9^2 * O20^2 * $C$9^2)</f>
-        <v>2.996974061257996E-3</v>
+        <v>2.9969740614081853E-3</v>
       </c>
       <c r="U22" s="2">
         <v>18</v>
@@ -19499,7 +19500,7 @@
       </c>
       <c r="W22" s="2">
         <f t="shared" si="0"/>
-        <v>3.7669105642998413E-6</v>
+        <v>3.7669102739175397E-6</v>
       </c>
       <c r="X22" s="2">
         <f t="shared" si="16"/>
@@ -19507,7 +19508,7 @@
       </c>
       <c r="Y22" s="2">
         <f t="shared" si="1"/>
-        <v>-5.4122649428139935E-8</v>
+        <v>-5.412293981391092E-8</v>
       </c>
       <c r="Z22" s="2">
         <f t="shared" si="3"/>
@@ -19515,15 +19516,15 @@
       </c>
       <c r="AA22" s="2">
         <f t="shared" si="2"/>
-        <v>1.8563941001810413E-6</v>
+        <v>1.8563938097987398E-6</v>
       </c>
       <c r="AB22" s="2">
         <f t="shared" si="4"/>
-        <v>6.9928705474758626E-12</v>
+        <v>6.9928689145677961E-12</v>
       </c>
       <c r="AC22" s="2">
         <f t="shared" si="5"/>
-        <v>-1.0047296708456579E-13</v>
+        <v>-1.0047349043865399E-13</v>
       </c>
       <c r="AD22" s="2">
         <f t="shared" si="6"/>
@@ -19565,7 +19566,7 @@
         <f t="shared" si="20"/>
         <v>3.4332275390625E-2</v>
       </c>
-      <c r="AQ22" s="66"/>
+      <c r="AQ22" s="63"/>
       <c r="AR22" s="3">
         <f>0.505*($AR$9/2)</f>
         <v>2.02</v>
@@ -19602,17 +19603,17 @@
         <v>8</v>
       </c>
       <c r="BF22"/>
-      <c r="BG22" s="62" t="s">
+      <c r="BG22" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="BH22" s="62"/>
-      <c r="BI22" s="62"/>
+      <c r="BH22" s="61"/>
+      <c r="BI22" s="61"/>
       <c r="BJ22" s="2"/>
-      <c r="BK22" s="62" t="s">
+      <c r="BK22" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="BL22" s="62"/>
-      <c r="BM22" s="62"/>
+      <c r="BL22" s="61"/>
+      <c r="BM22" s="61"/>
       <c r="BN22"/>
       <c r="BO22" s="2">
         <v>18</v>
@@ -19689,11 +19690,11 @@
       </c>
     </row>
     <row r="23" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
       <c r="F23" t="s">
         <v>88</v>
       </c>
@@ -19709,7 +19710,7 @@
       </c>
       <c r="K23" s="6">
         <f xml:space="preserve"> $C$55 * (0.0268 * $C$5)</f>
-        <v>47.16023758383934</v>
+        <v>47.160237586208538</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>7</v>
@@ -19729,7 +19730,7 @@
       </c>
       <c r="W23" s="2">
         <f t="shared" si="0"/>
-        <v>1.8563941001810413E-6</v>
+        <v>1.8563938097987398E-6</v>
       </c>
       <c r="X23" s="2">
         <f t="shared" si="16"/>
@@ -19737,7 +19738,7 @@
       </c>
       <c r="Y23" s="2">
         <f t="shared" si="1"/>
-        <v>-5.4122649428139935E-8</v>
+        <v>-5.412293981391092E-8</v>
       </c>
       <c r="Z23" s="2">
         <f t="shared" si="3"/>
@@ -19745,15 +19746,15 @@
       </c>
       <c r="AA23" s="2">
         <f t="shared" si="2"/>
-        <v>9.0113576106318205E-7</v>
+        <v>9.0113547067741107E-7</v>
       </c>
       <c r="AB23" s="2">
         <f t="shared" si="4"/>
-        <v>1.6728631102998437E-12</v>
+        <v>1.6728623095556196E-12</v>
       </c>
       <c r="AC23" s="2">
         <f t="shared" si="5"/>
-        <v>-4.8771854883182673E-14</v>
+        <v>-4.8772100843653805E-14</v>
       </c>
       <c r="AD23" s="2">
         <f t="shared" si="6"/>
@@ -19795,7 +19796,7 @@
         <f t="shared" si="20"/>
         <v>1.71661376953125E-2</v>
       </c>
-      <c r="AQ23" s="66"/>
+      <c r="AQ23" s="63"/>
       <c r="AR23" s="3">
         <f>0.615*($AR$9/2)</f>
         <v>2.46</v>
@@ -19804,14 +19805,14 @@
         <v>8</v>
       </c>
       <c r="AT23"/>
-      <c r="AU23" s="69" t="s">
+      <c r="AU23" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="AV23" s="66">
+      <c r="AV23" s="63">
         <f>BH20</f>
         <v>4.5094475792373245E-9</v>
       </c>
-      <c r="AW23" s="66"/>
+      <c r="AW23" s="63"/>
       <c r="AX23"/>
       <c r="AY23" s="2" t="s">
         <v>158</v>
@@ -19954,7 +19955,7 @@
       </c>
       <c r="K24" s="6">
         <f xml:space="preserve"> $C$55 * (11.5 * ($C$5*2.20462/1000)^0.4 * 0.453592)</f>
-        <v>7.847425332984348</v>
+        <v>7.8474253331420414</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>7</v>
@@ -19964,7 +19965,7 @@
       </c>
       <c r="O24" s="6">
         <f xml:space="preserve"> ($C$20 * O23 / 8) * (1 + 4.65 *O21^ 2) * ( PI() * $C$46 * O20^3 *$C$9^ 5)</f>
-        <v>30756.198925103556</v>
+        <v>30756.198925105422</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>20</v>
@@ -19978,7 +19979,7 @@
       </c>
       <c r="W24" s="2">
         <f t="shared" si="0"/>
-        <v>9.0113576106318205E-7</v>
+        <v>9.0113547067741107E-7</v>
       </c>
       <c r="X24" s="2">
         <f t="shared" si="16"/>
@@ -19986,7 +19987,7 @@
       </c>
       <c r="Y24" s="2">
         <f t="shared" si="1"/>
-        <v>-5.4122649428139935E-8</v>
+        <v>-5.412293981391092E-8</v>
       </c>
       <c r="Z24" s="2">
         <f t="shared" si="3"/>
@@ -19994,15 +19995,15 @@
       </c>
       <c r="AA24" s="2">
         <f t="shared" si="2"/>
-        <v>4.2350656473746917E-7</v>
+        <v>4.2350627435516763E-7</v>
       </c>
       <c r="AB24" s="2">
         <f t="shared" si="4"/>
-        <v>3.8163691052995306E-13</v>
+        <v>3.8163652587588076E-13</v>
       </c>
       <c r="AC24" s="2">
         <f t="shared" si="5"/>
-        <v>-2.2921297333801893E-14</v>
+        <v>-2.2921404597738384E-14</v>
       </c>
       <c r="AD24" s="2">
         <f t="shared" si="6"/>
@@ -20044,7 +20045,7 @@
         <f t="shared" si="20"/>
         <v>8.58306884765625E-3</v>
       </c>
-      <c r="AQ24" s="66"/>
+      <c r="AQ24" s="63"/>
       <c r="AR24" s="3">
         <f>0.725*($AR$9/2)</f>
         <v>2.9</v>
@@ -20053,12 +20054,12 @@
         <v>8</v>
       </c>
       <c r="AT24"/>
-      <c r="AU24" s="69"/>
-      <c r="AV24" s="66">
+      <c r="AU24" s="62"/>
+      <c r="AV24" s="63">
         <f>BL20</f>
         <v>-5.9246087896758226E-10</v>
       </c>
-      <c r="AW24" s="66"/>
+      <c r="AW24" s="63"/>
       <c r="AX24"/>
       <c r="AY24" s="2" t="s">
         <v>163</v>
@@ -20203,7 +20204,7 @@
       </c>
       <c r="K25" s="6">
         <f xml:space="preserve"> $C$55 * (8 * ($C$5/1000))</f>
-        <v>14.077682860847563</v>
+        <v>14.077682861554786</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>7</v>
@@ -20224,7 +20225,7 @@
       </c>
       <c r="W25" s="2">
         <f t="shared" si="0"/>
-        <v>4.2350656473746917E-7</v>
+        <v>4.2350627435516763E-7</v>
       </c>
       <c r="X25" s="2">
         <f t="shared" si="16"/>
@@ -20232,7 +20233,7 @@
       </c>
       <c r="Y25" s="2">
         <f t="shared" si="1"/>
-        <v>-5.4122649428139935E-8</v>
+        <v>-5.412293981391092E-8</v>
       </c>
       <c r="Z25" s="2">
         <f t="shared" si="3"/>
@@ -20240,15 +20241,15 @@
       </c>
       <c r="AA25" s="2">
         <f t="shared" si="2"/>
-        <v>1.8469195988551901E-7</v>
+        <v>1.8469166949974802E-7</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="4"/>
-        <v>7.821825746574662E-14</v>
+        <v>7.8218080854274235E-14</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="5"/>
-        <v>-9.9960181970800288E-15</v>
+        <v>-9.9960561124655896E-15</v>
       </c>
       <c r="AD25" s="2">
         <f t="shared" si="6"/>
@@ -20290,7 +20291,7 @@
         <f t="shared" si="20"/>
         <v>4.291534423828125E-3</v>
       </c>
-      <c r="AQ25" s="66"/>
+      <c r="AQ25" s="63"/>
       <c r="AR25" s="3">
         <f>0.835*($AR$9/2)</f>
         <v>3.34</v>
@@ -20299,12 +20300,12 @@
         <v>8</v>
       </c>
       <c r="AT25"/>
-      <c r="AU25" s="69"/>
-      <c r="AV25" s="66">
+      <c r="AU25" s="62"/>
+      <c r="AV25" s="63">
         <f>BH39</f>
         <v>5.4337276067517593E-9</v>
       </c>
-      <c r="AW25" s="66"/>
+      <c r="AW25" s="63"/>
       <c r="AX25"/>
       <c r="AY25" s="2" t="s">
         <v>167</v>
@@ -20439,7 +20440,7 @@
       </c>
       <c r="G26" s="6">
         <f xml:space="preserve"> $C$5 * $C$43 / $C$18</f>
-        <v>5389.9329910160568</v>
+        <v>5389.9329912868316</v>
       </c>
       <c r="H26" t="s">
         <v>22</v>
@@ -20449,7 +20450,7 @@
       </c>
       <c r="K26" s="6">
         <f xml:space="preserve"> $C$55 * (13 * ($C$5*2.20462/1000)^1.3 * 0.453592)</f>
-        <v>36.735770712421377</v>
+        <v>36.735770714820532</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>7</v>
@@ -20459,7 +20460,7 @@
       </c>
       <c r="O26" s="6">
         <f xml:space="preserve"> O20 * $C$9 * O25 - $C$8 * SIN(O18/180*PI())</f>
-        <v>1.0633122721236696</v>
+        <v>1.063312272231562</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>10</v>
@@ -20473,7 +20474,7 @@
       </c>
       <c r="W26" s="2">
         <f t="shared" si="0"/>
-        <v>1.8469195988551901E-7</v>
+        <v>1.8469166949974802E-7</v>
       </c>
       <c r="X26" s="2">
         <f t="shared" si="16"/>
@@ -20481,7 +20482,7 @@
       </c>
       <c r="Y26" s="2">
         <f t="shared" si="1"/>
-        <v>-5.4122649428139935E-8</v>
+        <v>-5.412293981391092E-8</v>
       </c>
       <c r="Z26" s="2">
         <f t="shared" si="3"/>
@@ -20489,15 +20490,15 @@
       </c>
       <c r="AA26" s="2">
         <f t="shared" si="2"/>
-        <v>6.5284655785535772E-8</v>
+        <v>6.5284365399764788E-8</v>
       </c>
       <c r="AB26" s="2">
         <f t="shared" si="4"/>
-        <v>1.2057551027482089E-14</v>
+        <v>1.2057478437914144E-14</v>
       </c>
       <c r="AC26" s="2">
         <f t="shared" si="5"/>
-        <v>-3.5333785381173402E-15</v>
+        <v>-3.533381779320838E-15</v>
       </c>
       <c r="AD26" s="2">
         <f t="shared" si="6"/>
@@ -20539,7 +20540,7 @@
         <f t="shared" si="20"/>
         <v>2.1457672119140625E-3</v>
       </c>
-      <c r="AQ26" s="66"/>
+      <c r="AQ26" s="63"/>
       <c r="AR26" s="3">
         <f>0.945*($AR$9/2)</f>
         <v>3.78</v>
@@ -20548,12 +20549,12 @@
         <v>8</v>
       </c>
       <c r="AT26"/>
-      <c r="AU26" s="69"/>
-      <c r="AV26" s="66">
+      <c r="AU26" s="62"/>
+      <c r="AV26" s="63">
         <f>BL39</f>
         <v>-2.5539294845611238E-9</v>
       </c>
-      <c r="AW26" s="66"/>
+      <c r="AW26" s="63"/>
       <c r="AX26"/>
       <c r="AY26" s="2" t="s">
         <v>170</v>
@@ -20675,7 +20676,7 @@
       </c>
       <c r="G27" s="43">
         <f xml:space="preserve"> 1/1000 * IF($G$23&gt;= 2*SQRT(($C$5*$C$43)/(2*$C$40*$C$18*PI()*$C$9*$C$9)), ($C$5*$C$43)/$C$21 * ( ($G$23/2) - SQRT( ($G$23/2)^2 - ($C$5*$C$43)/(2*$C$40*$C$18*PI()*$C$9*$C$9 ) ) ), 1/$C$21 * SQRT(($C$5*$C$43)^3/(2*$C$40*$C$18*PI()*$C$9*$C$9)) )</f>
-        <v>206.42300003967824</v>
+        <v>206.42300005523339</v>
       </c>
       <c r="H27" s="42" t="s">
         <v>104</v>
@@ -20685,7 +20686,7 @@
       </c>
       <c r="K27" s="10">
         <f>$C$5 - $C$13 - SUM(K13:K26)</f>
-        <v>-6.7251221480546519E-8</v>
+        <v>-3.6129677027929574E-10</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>7</v>
@@ -20695,7 +20696,7 @@
       </c>
       <c r="O27" s="6">
         <f xml:space="preserve"> 1/$C$21 - O24 * SQRT( (2*$C$46*PI()*$C$9^2) / O19^3 )</f>
-        <v>0.55250621159120694</v>
+        <v>0.55250621164985469</v>
       </c>
       <c r="U27" s="2">
         <v>23</v>
@@ -20706,7 +20707,7 @@
       </c>
       <c r="W27" s="2">
         <f t="shared" si="0"/>
-        <v>6.5284655785535772E-8</v>
+        <v>6.5284365399764788E-8</v>
       </c>
       <c r="X27" s="2">
         <f t="shared" si="16"/>
@@ -20714,7 +20715,7 @@
       </c>
       <c r="Y27" s="2">
         <f t="shared" si="1"/>
-        <v>-5.4122649428139935E-8</v>
+        <v>-5.412293981391092E-8</v>
       </c>
       <c r="Z27" s="2">
         <f t="shared" si="3"/>
@@ -20722,15 +20723,15 @@
       </c>
       <c r="AA27" s="2">
         <f t="shared" si="2"/>
-        <v>5.5810033192105202E-9</v>
+        <v>5.5807129334395356E-9</v>
       </c>
       <c r="AB27" s="2">
         <f t="shared" si="4"/>
-        <v>3.6435388063259144E-16</v>
+        <v>3.6433330233785989E-16</v>
       </c>
       <c r="AC27" s="2">
         <f t="shared" si="5"/>
-        <v>-3.0205868610291635E-16</v>
+        <v>-3.0204459021526223E-16</v>
       </c>
       <c r="AD27" s="2">
         <f t="shared" si="6"/>
@@ -20772,7 +20773,7 @@
         <f t="shared" si="20"/>
         <v>1.0728836059570312E-3</v>
       </c>
-      <c r="AQ27" s="66" t="s">
+      <c r="AQ27" s="63" t="s">
         <v>204</v>
       </c>
       <c r="AR27" s="3">
@@ -20783,12 +20784,12 @@
         <v>8</v>
       </c>
       <c r="AT27"/>
-      <c r="AU27" s="69"/>
-      <c r="AV27" s="66">
+      <c r="AU27" s="62"/>
+      <c r="AV27" s="63">
         <f>BH58</f>
         <v>3.5025512559738736E-9</v>
       </c>
-      <c r="AW27" s="66"/>
+      <c r="AW27" s="63"/>
       <c r="AX27"/>
       <c r="AY27" s="2" t="s">
         <v>174</v>
@@ -20905,11 +20906,11 @@
       </c>
     </row>
     <row r="28" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
       <c r="J28" s="6" t="s">
         <v>58</v>
       </c>
@@ -20932,7 +20933,7 @@
       </c>
       <c r="W28" s="2">
         <f t="shared" si="0"/>
-        <v>5.5810033192105202E-9</v>
+        <v>5.5807129334395356E-9</v>
       </c>
       <c r="X28" s="2">
         <f t="shared" si="16"/>
@@ -20940,7 +20941,7 @@
       </c>
       <c r="Y28" s="2">
         <f t="shared" si="1"/>
-        <v>-5.4122649428139935E-8</v>
+        <v>-5.412293981391092E-8</v>
       </c>
       <c r="Z28" s="2">
         <f t="shared" si="3"/>
@@ -20948,15 +20949,15 @@
       </c>
       <c r="AA28" s="2">
         <f t="shared" si="2"/>
-        <v>-2.4270823021504961E-8</v>
+        <v>-2.4271113403806499E-8</v>
       </c>
       <c r="AB28" s="2">
         <f t="shared" si="4"/>
-        <v>-1.3545554384299031E-16</v>
+        <v>-1.354501164816006E-16</v>
       </c>
       <c r="AC28" s="2">
         <f t="shared" si="5"/>
-        <v>1.3136012457253411E-15</v>
+        <v>1.3136240099708257E-15</v>
       </c>
       <c r="AD28" s="2">
         <f t="shared" si="6"/>
@@ -20998,7 +20999,7 @@
         <f t="shared" si="20"/>
         <v>5.3644180297851562E-4</v>
       </c>
-      <c r="AQ28" s="66"/>
+      <c r="AQ28" s="63"/>
       <c r="AR28" s="3">
         <f>0.069425*($AR$9/2)</f>
         <v>0.2777</v>
@@ -21007,12 +21008,12 @@
         <v>8</v>
       </c>
       <c r="AT28"/>
-      <c r="AU28" s="69"/>
-      <c r="AV28" s="66">
+      <c r="AU28" s="62"/>
+      <c r="AV28" s="63">
         <f>BL58</f>
         <v>5.4190308282353605E-9</v>
       </c>
-      <c r="AW28" s="66"/>
+      <c r="AW28" s="63"/>
       <c r="AX28"/>
       <c r="AY28" s="2" t="s">
         <v>178</v>
@@ -21151,7 +21152,7 @@
       </c>
       <c r="W29" s="2">
         <f t="shared" si="0"/>
-        <v>5.5810033192105202E-9</v>
+        <v>5.5807129334395356E-9</v>
       </c>
       <c r="X29" s="2">
         <f t="shared" si="16"/>
@@ -21159,7 +21160,7 @@
       </c>
       <c r="Y29" s="2">
         <f t="shared" si="1"/>
-        <v>-2.4270823021504961E-8</v>
+        <v>-2.4271113403806499E-8</v>
       </c>
       <c r="Z29" s="2">
         <f t="shared" si="3"/>
@@ -21167,15 +21168,15 @@
       </c>
       <c r="AA29" s="2">
         <f t="shared" si="2"/>
-        <v>-9.3449098424736032E-9</v>
+        <v>-9.3452002247751409E-9</v>
       </c>
       <c r="AB29" s="2">
         <f t="shared" si="4"/>
-        <v>-5.2153972848568237E-17</v>
+        <v>-5.2152879759984681E-17</v>
       </c>
       <c r="AC29" s="2">
         <f t="shared" si="5"/>
-        <v>2.2680865293859663E-16</v>
+        <v>2.2681841443679541E-16</v>
       </c>
       <c r="AD29" s="2">
         <f t="shared" si="6"/>
@@ -21217,7 +21218,7 @@
         <f t="shared" si="20"/>
         <v>2.6822090148925781E-4</v>
       </c>
-      <c r="AQ29" s="66"/>
+      <c r="AQ29" s="63"/>
       <c r="AR29" s="3">
         <f>0.067375*($AR$9/2)</f>
         <v>0.26950000000000002</v>
@@ -21226,12 +21227,12 @@
         <v>8</v>
       </c>
       <c r="AT29"/>
-      <c r="AU29" s="69"/>
-      <c r="AV29" s="66">
+      <c r="AU29" s="62"/>
+      <c r="AV29" s="63">
         <f>BH77</f>
         <v>-3.9115081694462983E-9</v>
       </c>
-      <c r="AW29" s="66"/>
+      <c r="AW29" s="63"/>
       <c r="AX29"/>
       <c r="AY29"/>
       <c r="AZ29"/>
@@ -21342,11 +21343,11 @@
         <v>1.4E-2</v>
       </c>
       <c r="F30" s="9"/>
-      <c r="J30" s="53" t="s">
+      <c r="J30" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
       <c r="U30" s="2">
         <v>26</v>
       </c>
@@ -21356,7 +21357,7 @@
       </c>
       <c r="W30" s="2">
         <f t="shared" si="0"/>
-        <v>5.5810033192105202E-9</v>
+        <v>5.5807129334395356E-9</v>
       </c>
       <c r="X30" s="2">
         <f t="shared" si="16"/>
@@ -21364,7 +21365,7 @@
       </c>
       <c r="Y30" s="2">
         <f t="shared" si="1"/>
-        <v>-9.3449098424736032E-9</v>
+        <v>-9.3452002247751409E-9</v>
       </c>
       <c r="Z30" s="2">
         <f t="shared" si="3"/>
@@ -21372,15 +21373,15 @@
       </c>
       <c r="AA30" s="2">
         <f t="shared" si="2"/>
-        <v>-1.8819532598968181E-9</v>
+        <v>-1.8822436456678027E-9</v>
       </c>
       <c r="AB30" s="2">
         <f t="shared" si="4"/>
-        <v>-1.05031873900832E-17</v>
+        <v>-1.0504261457262688E-17</v>
       </c>
       <c r="AC30" s="2">
         <f t="shared" si="5"/>
-        <v>1.7586683541485058E-17</v>
+        <v>1.758994374057633E-17</v>
       </c>
       <c r="AD30" s="2">
         <f t="shared" si="6"/>
@@ -21422,7 +21423,7 @@
         <f t="shared" si="20"/>
         <v>1.3411045074462891E-4</v>
       </c>
-      <c r="AQ30" s="66"/>
+      <c r="AQ30" s="63"/>
       <c r="AR30" s="3">
         <f>0.065325*($AR$9/2)</f>
         <v>0.26129999999999998</v>
@@ -21434,23 +21435,23 @@
       <c r="AU30" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="AV30" s="66" t="b">
+      <c r="AV30" s="63" t="b">
         <f>IF(AV23&lt;0.00001,IF(AV24&lt;0.00001,IF(AV25&lt;0.00001,IF(AV26&lt;0.00001,IF(AV27&lt;0.00001,IF(AV28&lt;0.00001,IF(AV29&lt;0.00001,TRUE,FALSE),FALSE),FALSE),FALSE),FALSE),FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AW30" s="66"/>
+      <c r="AW30" s="63"/>
       <c r="AX30"/>
-      <c r="AY30" s="62" t="s">
+      <c r="AY30" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="AZ30" s="62"/>
-      <c r="BA30" s="62"/>
+      <c r="AZ30" s="61"/>
+      <c r="BA30" s="61"/>
       <c r="BB30"/>
-      <c r="BC30" s="62" t="s">
+      <c r="BC30" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="BD30" s="62"/>
-      <c r="BE30" s="62"/>
+      <c r="BD30" s="61"/>
+      <c r="BE30" s="61"/>
       <c r="BF30"/>
       <c r="BG30" s="2" t="s">
         <v>183</v>
@@ -21573,7 +21574,7 @@
       </c>
       <c r="W31" s="2">
         <f t="shared" si="0"/>
-        <v>5.5810033192105202E-9</v>
+        <v>5.5807129334395356E-9</v>
       </c>
       <c r="X31" s="2">
         <f t="shared" si="16"/>
@@ -21581,7 +21582,7 @@
       </c>
       <c r="Y31" s="2">
         <f t="shared" si="1"/>
-        <v>-1.8819532598968181E-9</v>
+        <v>-1.8822436456678027E-9</v>
       </c>
       <c r="Z31" s="2">
         <f t="shared" si="3"/>
@@ -21589,15 +21590,15 @@
       </c>
       <c r="AA31" s="2">
         <f t="shared" si="2"/>
-        <v>1.8495250296568511E-9</v>
+        <v>1.8492346438858664E-9</v>
       </c>
       <c r="AB31" s="2">
         <f t="shared" si="4"/>
-        <v>1.0322205329477822E-17</v>
+        <v>1.0320047694098309E-17</v>
       </c>
       <c r="AC31" s="2">
         <f t="shared" si="5"/>
-        <v>-3.4807196588234699E-18</v>
+        <v>-3.4807101578029343E-18</v>
       </c>
       <c r="AD31" s="2">
         <f t="shared" si="6"/>
@@ -21639,7 +21640,7 @@
         <f t="shared" si="20"/>
         <v>6.7055225372314453E-5</v>
       </c>
-      <c r="AQ31" s="66"/>
+      <c r="AQ31" s="63"/>
       <c r="AR31" s="3">
         <f>0.063275*($AR$9/2)</f>
         <v>0.25309999999999999</v>
@@ -21794,7 +21795,7 @@
       </c>
       <c r="W32" s="2">
         <f t="shared" si="0"/>
-        <v>1.8495250296568511E-9</v>
+        <v>1.8492346438858664E-9</v>
       </c>
       <c r="X32" s="2">
         <f t="shared" si="16"/>
@@ -21802,7 +21803,7 @@
       </c>
       <c r="Y32" s="2">
         <f t="shared" si="1"/>
-        <v>-1.8819532598968181E-9</v>
+        <v>-1.8822436456678027E-9</v>
       </c>
       <c r="Z32" s="2">
         <f t="shared" si="3"/>
@@ -21810,15 +21811,15 @@
       </c>
       <c r="AA32" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6214113385260021E-11</v>
+        <v>-1.6504499156244634E-11</v>
       </c>
       <c r="AB32" s="2">
         <f t="shared" si="4"/>
-        <v>-2.9988408539732585E-20</v>
+        <v>-3.0520691619712629E-20</v>
       </c>
       <c r="AC32" s="2">
         <f t="shared" si="5"/>
-        <v>3.0514203541726728E-20</v>
+        <v>3.1065488661771073E-20</v>
       </c>
       <c r="AD32" s="2">
         <f t="shared" si="6"/>
@@ -21860,7 +21861,7 @@
         <f t="shared" si="20"/>
         <v>3.3527612686157227E-5</v>
       </c>
-      <c r="AQ32" s="66"/>
+      <c r="AQ32" s="63"/>
       <c r="AR32" s="3">
         <f>0.061225*($AR$9/2)</f>
         <v>0.24490000000000001</v>
@@ -22007,7 +22008,7 @@
       </c>
       <c r="W33" s="2">
         <f t="shared" si="0"/>
-        <v>1.8495250296568511E-9</v>
+        <v>1.8492346438858664E-9</v>
       </c>
       <c r="X33" s="2">
         <f t="shared" si="16"/>
@@ -22015,7 +22016,7 @@
       </c>
       <c r="Y33" s="2">
         <f t="shared" si="1"/>
-        <v>-1.6214113385260021E-11</v>
+        <v>-1.6504499156244634E-11</v>
       </c>
       <c r="Z33" s="2">
         <f t="shared" si="3"/>
@@ -22023,15 +22024,15 @@
       </c>
       <c r="AA33" s="2">
         <f t="shared" si="2"/>
-        <v>9.1665545640107204E-10</v>
+        <v>9.1636507409953438E-10</v>
       </c>
       <c r="AB33" s="2">
         <f t="shared" si="4"/>
-        <v>1.6953772101853071E-18</v>
+        <v>1.6945740414718981E-18</v>
       </c>
       <c r="AC33" s="2">
         <f t="shared" si="5"/>
-        <v>-1.4862755505304255E-20</v>
+        <v>-1.5124146592287817E-20</v>
       </c>
       <c r="AD33" s="2">
         <f t="shared" si="6"/>
@@ -22073,7 +22074,7 @@
         <f t="shared" si="20"/>
         <v>1.6763806343078613E-5</v>
       </c>
-      <c r="AQ33" s="66"/>
+      <c r="AQ33" s="63"/>
       <c r="AR33" s="3">
         <f>0.059175*($AR$9/2)</f>
         <v>0.23669999999999999</v>
@@ -22201,11 +22202,11 @@
       </c>
     </row>
     <row r="34" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
       <c r="J34" s="20" t="s">
         <v>72</v>
       </c>
@@ -22225,7 +22226,7 @@
       </c>
       <c r="W34" s="2">
         <f t="shared" si="0"/>
-        <v>9.1665545640107204E-10</v>
+        <v>9.1636507409953438E-10</v>
       </c>
       <c r="X34" s="2">
         <f t="shared" si="16"/>
@@ -22233,7 +22234,7 @@
       </c>
       <c r="Y34" s="2">
         <f t="shared" si="1"/>
-        <v>-1.6214113385260021E-11</v>
+        <v>-1.6504499156244634E-11</v>
       </c>
       <c r="Z34" s="2">
         <f t="shared" si="3"/>
@@ -22241,15 +22242,15 @@
       </c>
       <c r="AA34" s="2">
         <f t="shared" si="2"/>
-        <v>4.5022066977318254E-10</v>
+        <v>4.4993028747164487E-10</v>
       </c>
       <c r="AB34" s="2">
         <f t="shared" si="4"/>
-        <v>4.1269723353213299E-19</v>
+        <v>4.1230040121857866E-19</v>
       </c>
       <c r="AC34" s="2">
         <f t="shared" si="5"/>
-        <v>-7.2999289880900905E-21</v>
+        <v>-7.4258740499446685E-21</v>
       </c>
       <c r="AD34" s="2">
         <f>X34-V34</f>
@@ -22291,7 +22292,7 @@
         <f t="shared" si="20"/>
         <v>8.3819031715393066E-6</v>
       </c>
-      <c r="AQ34" s="66"/>
+      <c r="AQ34" s="63"/>
       <c r="AR34" s="3">
         <f>0.057125*($AR$9/2)</f>
         <v>0.22850000000000001</v>
@@ -22474,7 +22475,7 @@
         <f t="shared" si="20"/>
         <v>4.1909515857696533E-6</v>
       </c>
-      <c r="AQ35" s="66" t="s">
+      <c r="AQ35" s="63" t="s">
         <v>223</v>
       </c>
       <c r="AR35" s="3">
@@ -22599,7 +22600,7 @@
         <f t="shared" si="20"/>
         <v>2.0954757928848267E-6</v>
       </c>
-      <c r="AQ36" s="66"/>
+      <c r="AQ36" s="63"/>
       <c r="AR36" s="3">
         <v>5.58</v>
       </c>
@@ -22720,7 +22721,7 @@
         <f t="shared" si="20"/>
         <v>1.0477378964424133E-6</v>
       </c>
-      <c r="AQ37" s="66"/>
+      <c r="AQ37" s="63"/>
       <c r="AR37" s="3">
         <v>4.26</v>
       </c>
@@ -22835,11 +22836,11 @@
       </c>
     </row>
     <row r="38" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="J38" s="53" t="s">
+      <c r="J38" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
       <c r="AF38" s="2">
         <v>34</v>
       </c>
@@ -22876,7 +22877,7 @@
         <f t="shared" si="20"/>
         <v>5.2386894822120667E-7</v>
       </c>
-      <c r="AQ38" s="66"/>
+      <c r="AQ38" s="63"/>
       <c r="AR38" s="3">
         <v>2.94</v>
       </c>
@@ -22959,11 +22960,11 @@
       <c r="CI38" s="30"/>
     </row>
     <row r="39" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
       <c r="J39" s="6" t="s">
         <v>60</v>
       </c>
@@ -22989,28 +22990,28 @@
         <v>2199.6379471383989</v>
       </c>
       <c r="AJ39" s="2">
-        <v>-1.4652914614998735E-7</v>
+        <v>1.2025338946841657E-8</v>
       </c>
       <c r="AK39" s="2">
         <f t="shared" si="17"/>
         <v>2199.6379470074316</v>
       </c>
       <c r="AL39" s="2">
-        <v>-1.4652914614998735E-7</v>
+        <v>-6.7251221480546519E-8</v>
       </c>
       <c r="AM39" s="2">
         <f t="shared" si="18"/>
-        <v>2.1470790671444354E-14</v>
+        <v>9.8542640610881699E-15</v>
       </c>
       <c r="AN39" s="2">
         <f t="shared" si="19"/>
-        <v>2.1470790671444354E-14</v>
+        <v>-8.0871873289269031E-16</v>
       </c>
       <c r="AO39" s="2">
         <f t="shared" si="20"/>
         <v>2.6193447411060333E-7</v>
       </c>
-      <c r="AQ39" s="66"/>
+      <c r="AQ39" s="63"/>
       <c r="AR39" s="3">
         <v>1.62</v>
       </c>
@@ -23072,7 +23073,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="BU39" s="2">
-        <f t="dataTable" ref="BU39:BU68" dt2D="0" dtr="0" r1="BH23"/>
+        <f t="dataTable" ref="BU39:BU68" dt2D="0" dtr="0" r1="BH23" ca="1"/>
         <v>1.0206130325018359</v>
       </c>
       <c r="BV39" s="2">
@@ -23112,7 +23113,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="CF39" s="2">
-        <f t="dataTable" ref="CF39:CF68" dt2D="0" dtr="0" r1="BL23" ca="1"/>
+        <f t="dataTable" ref="CF39:CF68" dt2D="0" dtr="0" r1="BL23"/>
         <v>1.0152037066455257</v>
       </c>
       <c r="CG39" s="2">
@@ -23156,35 +23157,35 @@
         <v>2199.6379470074316</v>
       </c>
       <c r="AH40" s="2">
-        <v>-1.4652914614998735E-7</v>
+        <v>-6.7251221480546519E-8</v>
       </c>
       <c r="AI40" s="2">
         <f t="shared" si="26"/>
-        <v>2199.6379470074316</v>
+        <v>2199.6379471383989</v>
       </c>
       <c r="AJ40" s="2">
-        <v>-1.4652914614998735E-7</v>
+        <v>1.2025338946841657E-8</v>
       </c>
       <c r="AK40" s="2">
         <f t="shared" si="17"/>
-        <v>2199.6379470074316</v>
+        <v>2199.6379470729153</v>
       </c>
       <c r="AL40" s="2">
-        <v>-1.4652914614998735E-7</v>
+        <v>-2.7612259145826101E-8</v>
       </c>
       <c r="AM40" s="2">
         <f t="shared" si="18"/>
-        <v>2.1470790671444354E-14</v>
+        <v>1.8569581553941974E-15</v>
       </c>
       <c r="AN40" s="2">
         <f t="shared" si="19"/>
-        <v>2.1470790671444354E-14</v>
+        <v>-3.3204677531658737E-16</v>
       </c>
       <c r="AO40" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="66"/>
+        <v>1.3096723705530167E-7</v>
+      </c>
+      <c r="AQ40" s="63"/>
       <c r="AR40" s="3">
         <v>0.3</v>
       </c>
@@ -23311,38 +23312,38 @@
       </c>
       <c r="AG41" s="2">
         <f t="shared" si="25"/>
-        <v>2199.6379470074316</v>
+        <v>2199.6379470729153</v>
       </c>
       <c r="AH41" s="2">
-        <v>-1.4652914614998735E-7</v>
+        <v>-2.7612259145826101E-8</v>
       </c>
       <c r="AI41" s="2">
         <f t="shared" si="26"/>
-        <v>2199.6379470074316</v>
+        <v>2199.6379471383989</v>
       </c>
       <c r="AJ41" s="2">
-        <v>-1.4652914614998735E-7</v>
+        <v>1.2025338946841657E-8</v>
       </c>
       <c r="AK41" s="2">
         <f t="shared" si="17"/>
-        <v>2199.6379470074316</v>
+        <v>2199.6379471056571</v>
       </c>
       <c r="AL41" s="2">
-        <v>-1.4652914614998735E-7</v>
+        <v>-7.7934600994922221E-9</v>
       </c>
       <c r="AM41" s="2">
         <f t="shared" si="18"/>
-        <v>2.1470790671444354E-14</v>
+        <v>2.1519503990983491E-16</v>
       </c>
       <c r="AN41" s="2">
         <f t="shared" si="19"/>
-        <v>2.1470790671444354E-14</v>
+        <v>-9.3718999265080274E-17</v>
       </c>
       <c r="AO41" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AQ41" s="66"/>
+        <v>6.5483618527650833E-8</v>
+      </c>
+      <c r="AQ41" s="63"/>
       <c r="AR41" s="3">
         <v>-1.02</v>
       </c>
@@ -23353,10 +23354,10 @@
       <c r="AU41" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AV41" s="68" t="s">
+      <c r="AV41" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="AW41" s="68"/>
+      <c r="AW41" s="65"/>
       <c r="AX41" s="24"/>
       <c r="AY41" s="24"/>
       <c r="AZ41" s="24"/>
@@ -23366,17 +23367,17 @@
       <c r="BD41" s="24"/>
       <c r="BE41" s="25"/>
       <c r="BF41"/>
-      <c r="BG41" s="62" t="s">
+      <c r="BG41" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="BH41" s="62"/>
-      <c r="BI41" s="62"/>
+      <c r="BH41" s="61"/>
+      <c r="BI41" s="61"/>
       <c r="BJ41" s="2"/>
-      <c r="BK41" s="62" t="s">
+      <c r="BK41" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="BL41" s="62"/>
-      <c r="BM41" s="62"/>
+      <c r="BL41" s="61"/>
+      <c r="BM41" s="61"/>
       <c r="BN41"/>
       <c r="BO41" s="2">
         <v>3</v>
@@ -23477,38 +23478,38 @@
       </c>
       <c r="AG42" s="2">
         <f t="shared" si="25"/>
-        <v>2199.6379470074316</v>
+        <v>2199.6379471056571</v>
       </c>
       <c r="AH42" s="2">
-        <v>-1.4652914614998735E-7</v>
+        <v>-7.7934600994922221E-9</v>
       </c>
       <c r="AI42" s="2">
         <f t="shared" si="26"/>
-        <v>2199.6379470074316</v>
+        <v>2199.6379471383989</v>
       </c>
       <c r="AJ42" s="2">
-        <v>-1.4652914614998735E-7</v>
+        <v>1.2025338946841657E-8</v>
       </c>
       <c r="AK42" s="2">
         <f t="shared" si="17"/>
-        <v>2199.6379470074316</v>
+        <v>2199.637947122028</v>
       </c>
       <c r="AL42" s="2">
-        <v>-1.4652914614998735E-7</v>
+        <v>2.1154846763238311E-9</v>
       </c>
       <c r="AM42" s="2">
         <f t="shared" si="18"/>
-        <v>2.1470790671444354E-14</v>
+        <v>-1.6486945416016996E-17</v>
       </c>
       <c r="AN42" s="2">
         <f t="shared" si="19"/>
-        <v>2.1470790671444354E-14</v>
+        <v>2.5439420269643683E-17</v>
       </c>
       <c r="AO42" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AQ42" s="66"/>
+        <v>3.2741809263825417E-8</v>
+      </c>
+      <c r="AQ42" s="63"/>
       <c r="AR42" s="3">
         <v>-2.34</v>
       </c>
@@ -23517,22 +23518,22 @@
       </c>
       <c r="AT42"/>
       <c r="AU42" s="27"/>
-      <c r="AV42" s="69" t="s">
+      <c r="AV42" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="AW42" s="69"/>
-      <c r="AX42" s="69"/>
-      <c r="AY42" s="69" t="s">
+      <c r="AW42" s="62"/>
+      <c r="AX42" s="62"/>
+      <c r="AY42" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="AZ42" s="69"/>
-      <c r="BA42" s="69"/>
-      <c r="BB42" s="69"/>
-      <c r="BC42" s="69" t="s">
+      <c r="AZ42" s="62"/>
+      <c r="BA42" s="62"/>
+      <c r="BB42" s="62"/>
+      <c r="BC42" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="BD42" s="69"/>
-      <c r="BE42" s="70"/>
+      <c r="BD42" s="62"/>
+      <c r="BE42" s="64"/>
       <c r="BF42"/>
       <c r="BG42" s="28" t="s">
         <v>154</v>
@@ -23655,36 +23656,36 @@
       </c>
       <c r="AG43" s="2">
         <f t="shared" si="25"/>
-        <v>2199.6379470074316</v>
+        <v>2199.6379471056571</v>
       </c>
       <c r="AH43" s="2">
-        <v>-1.4652914614998735E-7</v>
+        <v>-7.7934600994922221E-9</v>
       </c>
       <c r="AI43" s="2">
         <f t="shared" si="26"/>
-        <v>2199.6379470074316</v>
+        <v>2199.637947122028</v>
       </c>
       <c r="AJ43" s="2">
-        <v>-1.4652914614998735E-7</v>
+        <v>2.1154846763238311E-9</v>
       </c>
       <c r="AK43" s="2">
         <f t="shared" si="17"/>
-        <v>2199.6379470074316</v>
+        <v>2199.6379471138425</v>
       </c>
       <c r="AL43" s="2">
-        <v>-1.4652914614998735E-7</v>
+        <v>-2.838532964233309E-9</v>
       </c>
       <c r="AM43" s="2">
         <f t="shared" si="18"/>
-        <v>2.1470790671444354E-14</v>
+        <v>2.2121993397845677E-17</v>
       </c>
       <c r="AN43" s="2">
         <f t="shared" si="19"/>
-        <v>2.1470790671444354E-14</v>
+        <v>-6.0048729890756265E-18</v>
       </c>
       <c r="AO43" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.6370904631912708E-8</v>
       </c>
       <c r="AQ43" s="2"/>
       <c r="AR43" s="2"/>
@@ -23700,10 +23701,10 @@
       <c r="AX43" s="2">
         <v>-9.5</v>
       </c>
-      <c r="AY43" s="69" t="s">
+      <c r="AY43" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="AZ43" s="69"/>
+      <c r="AZ43" s="62"/>
       <c r="BA43" s="2">
         <v>-9.5</v>
       </c>
@@ -23832,36 +23833,36 @@
       </c>
       <c r="AG44" s="2">
         <f t="shared" si="25"/>
-        <v>2199.6379470074316</v>
+        <v>2199.6379471138425</v>
       </c>
       <c r="AH44" s="2">
-        <v>-1.4652914614998735E-7</v>
+        <v>-2.838532964233309E-9</v>
       </c>
       <c r="AI44" s="2">
         <f t="shared" si="26"/>
-        <v>2199.6379470074316</v>
+        <v>2199.637947122028</v>
       </c>
       <c r="AJ44" s="2">
-        <v>-1.4652914614998735E-7</v>
+        <v>2.1154846763238311E-9</v>
       </c>
       <c r="AK44" s="5">
         <f>(AG44+AI44)/2</f>
-        <v>2199.6379470074316</v>
+        <v>2199.6379471179353</v>
       </c>
       <c r="AL44" s="2">
-        <v>-1.4652914614998735E-7</v>
+        <v>-3.6129677027929574E-10</v>
       </c>
       <c r="AM44" s="2">
         <f t="shared" si="18"/>
-        <v>2.1470790671444354E-14</v>
+        <v>1.0255527923088103E-18</v>
       </c>
       <c r="AN44" s="2">
         <f t="shared" si="19"/>
-        <v>2.1470790671444354E-14</v>
+        <v>-7.6431778113114151E-19</v>
       </c>
       <c r="AO44" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8.1854523159563541E-9</v>
       </c>
       <c r="AQ44" s="60" t="s">
         <v>209</v>
@@ -24000,11 +24001,11 @@
       </c>
     </row>
     <row r="45" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="57" t="s">
         <v>273</v>
       </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
       <c r="AQ45" s="2" t="s">
         <v>19</v>
       </c>
@@ -24281,12 +24282,12 @@
       <c r="D47" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="AF47" s="61" t="s">
+      <c r="AF47" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="AG47" s="61"/>
-      <c r="AH47" s="61"/>
-      <c r="AI47" s="61"/>
+      <c r="AG47" s="71"/>
+      <c r="AH47" s="71"/>
+      <c r="AI47" s="71"/>
       <c r="AJ47" s="2"/>
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
@@ -24297,10 +24298,10 @@
       <c r="AU47" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AV47" s="68" t="s">
+      <c r="AV47" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="AW47" s="68"/>
+      <c r="AW47" s="65"/>
       <c r="AX47" s="24"/>
       <c r="AY47" s="24"/>
       <c r="AZ47" s="24"/>
@@ -24444,21 +24445,21 @@
       </c>
       <c r="AT48"/>
       <c r="AU48" s="27"/>
-      <c r="AV48" s="69" t="s">
+      <c r="AV48" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="AW48" s="69"/>
-      <c r="AX48" s="69"/>
-      <c r="AY48" s="69" t="s">
+      <c r="AW48" s="62"/>
+      <c r="AX48" s="62"/>
+      <c r="AY48" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="AZ48" s="69"/>
-      <c r="BA48" s="69"/>
-      <c r="BB48" s="69" t="s">
+      <c r="AZ48" s="62"/>
+      <c r="BA48" s="62"/>
+      <c r="BB48" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="BC48" s="69"/>
-      <c r="BD48" s="69"/>
+      <c r="BC48" s="62"/>
+      <c r="BD48" s="62"/>
       <c r="BE48" s="49"/>
       <c r="BF48"/>
       <c r="BG48" s="2" t="s">
@@ -24569,17 +24570,17 @@
       <c r="AG49" s="2"/>
       <c r="AH49" s="2">
         <f>G11</f>
-        <v>-2.3637174308532849E-5</v>
+        <v>-2.3366399545921013E-5</v>
       </c>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2">
         <f>G11</f>
-        <v>-2.3637174308532849E-5</v>
+        <v>-2.3366399545921013E-5</v>
       </c>
       <c r="AK49" s="2"/>
       <c r="AL49" s="2">
         <f>G11</f>
-        <v>-2.3637174308532849E-5</v>
+        <v>-2.3366399545921013E-5</v>
       </c>
       <c r="AM49" s="2"/>
       <c r="AN49" s="2"/>
@@ -24716,14 +24717,14 @@
       </c>
       <c r="AH50" s="2">
         <f t="dataTable" ref="AH50:AH79" dt2D="0" dtr="0" r1="C6" ca="1"/>
-        <v>5232.5705861540664</v>
+        <v>5232.57058674576</v>
       </c>
       <c r="AI50" s="3">
         <v>1500</v>
       </c>
       <c r="AJ50" s="2">
         <f t="dataTable" ref="AJ50:AJ79" dt2D="0" dtr="0" r1="C6" ca="1"/>
-        <v>-90094.834601989874</v>
+        <v>-90094.834601398179</v>
       </c>
       <c r="AK50" s="2">
         <f t="shared" ref="AK50:AK79" si="39">(AG50+AI50)/2</f>
@@ -24731,22 +24732,22 @@
       </c>
       <c r="AL50" s="2">
         <f t="dataTable" ref="AL50:AL79" dt2D="0" dtr="0" r1="C6" ca="1"/>
-        <v>-20136.81950423908</v>
+        <v>-20136.819503647388</v>
       </c>
       <c r="AM50" s="2">
         <f t="shared" ref="AM50:AM79" si="40">AH50*AL50</f>
-        <v>-105367329.43657492</v>
+        <v>-105367329.44539368</v>
       </c>
       <c r="AN50" s="2">
         <f t="shared" ref="AN50:AN79" si="41">AJ50*AL50</f>
-        <v>1814223422.6445436</v>
+        <v>1814223422.5793204</v>
       </c>
       <c r="AO50" s="2">
         <f t="shared" ref="AO50:AO79" si="42">AI50-AG50</f>
         <v>1450</v>
       </c>
       <c r="AT50"/>
-      <c r="AU50" s="71" t="s">
+      <c r="AU50" s="69" t="s">
         <v>160</v>
       </c>
       <c r="AV50" s="51">
@@ -24871,11 +24872,11 @@
       </c>
     </row>
     <row r="51" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
       <c r="AF51" s="2">
         <v>2</v>
       </c>
@@ -24884,36 +24885,36 @@
         <v>50</v>
       </c>
       <c r="AH51" s="2">
-        <v>5232.5705861540664</v>
+        <v>5232.57058674576</v>
       </c>
       <c r="AI51" s="2">
         <f t="shared" ref="AI51:AI79" si="44">IF(AN50&gt;0, AK50, AI50)</f>
         <v>775</v>
       </c>
       <c r="AJ51" s="2">
-        <v>-20136.81950423908</v>
+        <v>-20136.819503647388</v>
       </c>
       <c r="AK51" s="2">
         <f t="shared" si="39"/>
         <v>412.5</v>
       </c>
       <c r="AL51" s="2">
-        <v>-1878.5463331228011</v>
+        <v>-1878.5463325311075</v>
       </c>
       <c r="AM51" s="2">
         <f t="shared" si="40"/>
-        <v>-9829626.2874259483</v>
+        <v>-9829626.285441393</v>
       </c>
       <c r="AN51" s="2">
         <f t="shared" si="41"/>
-        <v>37827948.440444022</v>
+        <v>37827948.427417681</v>
       </c>
       <c r="AO51" s="2">
         <f t="shared" si="42"/>
         <v>725</v>
       </c>
       <c r="AT51"/>
-      <c r="AU51" s="71"/>
+      <c r="AU51" s="69"/>
       <c r="AV51" s="27">
         <v>-1.144044407873E-4</v>
       </c>
@@ -25050,51 +25051,51 @@
         <v>50</v>
       </c>
       <c r="AH52" s="2">
-        <v>5232.5705861540664</v>
+        <v>5232.57058674576</v>
       </c>
       <c r="AI52" s="2">
         <f t="shared" si="44"/>
         <v>412.5</v>
       </c>
       <c r="AJ52" s="2">
-        <v>-1878.5463331228011</v>
+        <v>-1878.5463325311075</v>
       </c>
       <c r="AK52" s="2">
         <f t="shared" si="39"/>
         <v>231.25</v>
       </c>
       <c r="AL52" s="2">
-        <v>3070.4066579955597</v>
+        <v>3070.4066585872533</v>
       </c>
       <c r="AM52" s="2">
         <f t="shared" si="40"/>
-        <v>16066119.566159174</v>
+        <v>16066119.571071992</v>
       </c>
       <c r="AN52" s="2">
         <f t="shared" si="41"/>
-        <v>-5767901.1685733935</v>
+        <v>-5767901.1678681774</v>
       </c>
       <c r="AO52" s="2">
         <f t="shared" si="42"/>
         <v>362.5</v>
       </c>
       <c r="AT52"/>
-      <c r="AU52" s="71"/>
-      <c r="AV52" s="63">
+      <c r="AU52" s="69"/>
+      <c r="AV52" s="66">
         <v>-2.2751380819795499</v>
       </c>
-      <c r="AW52" s="64"/>
-      <c r="AX52" s="65"/>
-      <c r="AY52" s="63">
+      <c r="AW52" s="67"/>
+      <c r="AX52" s="68"/>
+      <c r="AY52" s="66">
         <v>0.14939144598517301</v>
       </c>
-      <c r="AZ52" s="64"/>
-      <c r="BA52" s="65"/>
-      <c r="BB52" s="66">
+      <c r="AZ52" s="67"/>
+      <c r="BA52" s="68"/>
+      <c r="BB52" s="63">
         <v>3.3811980767955601</v>
       </c>
-      <c r="BC52" s="66"/>
-      <c r="BD52" s="67"/>
+      <c r="BC52" s="63"/>
+      <c r="BD52" s="72"/>
       <c r="BE52" s="27"/>
       <c r="BF52"/>
       <c r="BG52" s="2" t="s">
@@ -25204,36 +25205,36 @@
         <v>231.25</v>
       </c>
       <c r="AH53" s="2">
-        <v>3070.4066579955597</v>
+        <v>3070.4066585872533</v>
       </c>
       <c r="AI53" s="2">
         <f t="shared" si="44"/>
         <v>412.5</v>
       </c>
       <c r="AJ53" s="2">
-        <v>-1878.5463331228011</v>
+        <v>-1878.5463325311075</v>
       </c>
       <c r="AK53" s="2">
         <f t="shared" si="39"/>
         <v>321.875</v>
       </c>
       <c r="AL53" s="2">
-        <v>944.27879530635983</v>
+        <v>944.27879589805343</v>
       </c>
       <c r="AM53" s="2">
         <f t="shared" si="40"/>
-        <v>2899319.9001126736</v>
+        <v>2899319.9024881371</v>
       </c>
       <c r="AN53" s="2">
         <f t="shared" si="41"/>
-        <v>-1773871.4683683782</v>
+        <v>-1773871.4689211785</v>
       </c>
       <c r="AO53" s="2">
         <f t="shared" si="42"/>
         <v>181.25</v>
       </c>
       <c r="AT53"/>
-      <c r="AU53" s="71" t="s">
+      <c r="AU53" s="69" t="s">
         <v>164</v>
       </c>
       <c r="AV53" s="51">
@@ -25372,36 +25373,36 @@
         <v>321.875</v>
       </c>
       <c r="AH54" s="2">
-        <v>944.27879530635983</v>
+        <v>944.27879589805343</v>
       </c>
       <c r="AI54" s="2">
         <f t="shared" si="44"/>
         <v>412.5</v>
       </c>
       <c r="AJ54" s="2">
-        <v>-1878.5463331228011</v>
+        <v>-1878.5463325311075</v>
       </c>
       <c r="AK54" s="2">
         <f t="shared" si="39"/>
         <v>367.1875</v>
       </c>
       <c r="AL54" s="2">
-        <v>-380.04661069072336</v>
+        <v>-380.04661009902975</v>
       </c>
       <c r="AM54" s="2">
         <f t="shared" si="40"/>
-        <v>-358869.95570330136</v>
+        <v>-358869.95536944881</v>
       </c>
       <c r="AN54" s="2">
         <f t="shared" si="41"/>
-        <v>713935.16692880716</v>
+        <v>713935.16559241212</v>
       </c>
       <c r="AO54" s="2">
         <f t="shared" si="42"/>
         <v>90.625</v>
       </c>
       <c r="AT54"/>
-      <c r="AU54" s="71"/>
+      <c r="AU54" s="69"/>
       <c r="AV54" s="27">
         <v>-3.2678211540000002E-6</v>
       </c>
@@ -25538,51 +25539,51 @@
         <v>321.875</v>
       </c>
       <c r="AH55" s="2">
-        <v>944.27879530635983</v>
+        <v>944.27879589805343</v>
       </c>
       <c r="AI55" s="2">
         <f t="shared" si="44"/>
         <v>367.1875</v>
       </c>
       <c r="AJ55" s="2">
-        <v>-380.04661069072336</v>
+        <v>-380.04661009902975</v>
       </c>
       <c r="AK55" s="2">
         <f t="shared" si="39"/>
         <v>344.53125</v>
       </c>
       <c r="AL55" s="2">
-        <v>303.88788186219335</v>
+        <v>303.88788245388696</v>
       </c>
       <c r="AM55" s="2">
         <f t="shared" si="40"/>
-        <v>286954.88299303333</v>
+        <v>286954.88373156555</v>
       </c>
       <c r="AN55" s="2">
         <f t="shared" si="41"/>
-        <v>-115491.55953170953</v>
+        <v>-115491.55957677217</v>
       </c>
       <c r="AO55" s="2">
         <f t="shared" si="42"/>
         <v>45.3125</v>
       </c>
       <c r="AT55"/>
-      <c r="AU55" s="72"/>
-      <c r="AV55" s="63">
+      <c r="AU55" s="70"/>
+      <c r="AV55" s="66">
         <v>-2.92797950805124E-2</v>
       </c>
-      <c r="AW55" s="64"/>
-      <c r="AX55" s="65"/>
-      <c r="AY55" s="64">
+      <c r="AW55" s="67"/>
+      <c r="AX55" s="68"/>
+      <c r="AY55" s="67">
         <v>4.8575804011639703E-2</v>
       </c>
-      <c r="AZ55" s="64"/>
-      <c r="BA55" s="64"/>
-      <c r="BB55" s="63">
+      <c r="AZ55" s="67"/>
+      <c r="BA55" s="67"/>
+      <c r="BB55" s="66">
         <v>7.4720850653456003E-3</v>
       </c>
-      <c r="BC55" s="64"/>
-      <c r="BD55" s="65"/>
+      <c r="BC55" s="67"/>
+      <c r="BD55" s="68"/>
       <c r="BE55"/>
       <c r="BF55"/>
       <c r="BG55" s="2" t="s">
@@ -25686,29 +25687,29 @@
         <v>344.53125</v>
       </c>
       <c r="AH56" s="2">
-        <v>303.88788186219335</v>
+        <v>303.88788245388696</v>
       </c>
       <c r="AI56" s="2">
         <f t="shared" si="44"/>
         <v>367.1875</v>
       </c>
       <c r="AJ56" s="2">
-        <v>-380.04661069072336</v>
+        <v>-380.04661009902975</v>
       </c>
       <c r="AK56" s="2">
         <f t="shared" si="39"/>
         <v>355.859375</v>
       </c>
       <c r="AL56" s="2">
-        <v>-32.636417025672017</v>
+        <v>-32.636416433978411</v>
       </c>
       <c r="AM56" s="2">
         <f t="shared" si="40"/>
-        <v>-9917.8116415026943</v>
+        <v>-9917.8114810049356</v>
       </c>
       <c r="AN56" s="2">
         <f t="shared" si="41"/>
-        <v>12403.359675695669</v>
+        <v>12403.35943151376</v>
       </c>
       <c r="AO56" s="2">
         <f t="shared" si="42"/>
@@ -25828,29 +25829,29 @@
         <v>344.53125</v>
       </c>
       <c r="AH57" s="2">
-        <v>303.88788186219335</v>
+        <v>303.88788245388696</v>
       </c>
       <c r="AI57" s="2">
         <f t="shared" si="44"/>
         <v>355.859375</v>
       </c>
       <c r="AJ57" s="2">
-        <v>-32.636417025672017</v>
+        <v>-32.636416433978411</v>
       </c>
       <c r="AK57" s="2">
         <f t="shared" si="39"/>
         <v>350.1953125</v>
       </c>
       <c r="AL57" s="2">
-        <v>136.98646926540914</v>
+        <v>136.98646985710275</v>
       </c>
       <c r="AM57" s="2">
         <f t="shared" si="40"/>
-        <v>41628.527988845635</v>
+        <v>41628.528249708172</v>
       </c>
       <c r="AN57" s="2">
         <f t="shared" si="41"/>
-        <v>-4470.7475378202953</v>
+        <v>-4470.7474760770365</v>
       </c>
       <c r="AO57" s="2">
         <f t="shared" si="42"/>
@@ -25970,29 +25971,29 @@
         <v>350.1953125</v>
       </c>
       <c r="AH58" s="2">
-        <v>136.98646926540914</v>
+        <v>136.98646985710275</v>
       </c>
       <c r="AI58" s="2">
         <f t="shared" si="44"/>
         <v>355.859375</v>
       </c>
       <c r="AJ58" s="2">
-        <v>-32.636417025672017</v>
+        <v>-32.636416433978411</v>
       </c>
       <c r="AK58" s="2">
         <f t="shared" si="39"/>
         <v>353.02734375</v>
       </c>
       <c r="AL58" s="2">
-        <v>52.515210331654998</v>
+        <v>52.515210923348604</v>
       </c>
       <c r="AM58" s="2">
         <f t="shared" si="40"/>
-        <v>7193.8732460637539</v>
+        <v>7193.8733581906863</v>
       </c>
       <c r="AN58" s="2">
         <f t="shared" si="41"/>
-        <v>-1713.9083045747723</v>
+        <v>-1713.908292812617</v>
       </c>
       <c r="AO58" s="2">
         <f t="shared" si="42"/>
@@ -26112,29 +26113,29 @@
         <v>353.02734375</v>
       </c>
       <c r="AH59" s="2">
-        <v>52.515210331654998</v>
+        <v>52.515210923348604</v>
       </c>
       <c r="AI59" s="2">
         <f t="shared" si="44"/>
         <v>355.859375</v>
       </c>
       <c r="AJ59" s="2">
-        <v>-32.636417025672017</v>
+        <v>-32.636416433978411</v>
       </c>
       <c r="AK59" s="2">
         <f t="shared" si="39"/>
         <v>354.443359375</v>
       </c>
       <c r="AL59" s="2">
-        <v>10.024442705937872</v>
+        <v>10.024443297631478</v>
       </c>
       <c r="AM59" s="2">
         <f t="shared" si="40"/>
-        <v>526.43571715995211</v>
+        <v>526.43575416426529</v>
       </c>
       <c r="AN59" s="2">
         <f t="shared" si="41"/>
-        <v>-327.16189260094444</v>
+        <v>-327.16190598030471</v>
       </c>
       <c r="AO59" s="2">
         <f t="shared" si="42"/>
@@ -26244,29 +26245,29 @@
         <v>354.443359375</v>
       </c>
       <c r="AH60" s="2">
-        <v>10.024442705937872</v>
+        <v>10.024443297631478</v>
       </c>
       <c r="AI60" s="2">
         <f t="shared" si="44"/>
         <v>355.859375</v>
       </c>
       <c r="AJ60" s="2">
-        <v>-32.636417025672017</v>
+        <v>-32.636416433978411</v>
       </c>
       <c r="AK60" s="2">
         <f t="shared" si="39"/>
         <v>355.1513671875</v>
       </c>
       <c r="AL60" s="2">
-        <v>-11.284725646628431</v>
+        <v>-11.284725054934825</v>
       </c>
       <c r="AM60" s="2">
         <f t="shared" si="40"/>
-        <v>-113.12308569685442</v>
+        <v>-113.12308644255542</v>
       </c>
       <c r="AN60" s="2">
         <f t="shared" si="41"/>
-        <v>368.29301222366178</v>
+        <v>368.29298623580286</v>
       </c>
       <c r="AO60" s="2">
         <f t="shared" si="42"/>
@@ -26285,17 +26286,17 @@
       <c r="BD60"/>
       <c r="BE60"/>
       <c r="BF60"/>
-      <c r="BG60" s="62" t="s">
+      <c r="BG60" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="BH60" s="62"/>
-      <c r="BI60" s="62"/>
+      <c r="BH60" s="61"/>
+      <c r="BI60" s="61"/>
       <c r="BJ60" s="2"/>
-      <c r="BK60" s="62" t="s">
+      <c r="BK60" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="BL60" s="62"/>
-      <c r="BM60" s="62"/>
+      <c r="BL60" s="61"/>
+      <c r="BM60" s="61"/>
       <c r="BN60"/>
       <c r="BO60" s="2">
         <v>22</v>
@@ -26380,29 +26381,29 @@
         <v>354.443359375</v>
       </c>
       <c r="AH61" s="2">
-        <v>10.024442705937872</v>
+        <v>10.024443297631478</v>
       </c>
       <c r="AI61" s="2">
         <f t="shared" si="44"/>
         <v>355.1513671875</v>
       </c>
       <c r="AJ61" s="2">
-        <v>-11.284725646628431</v>
+        <v>-11.284725054934825</v>
       </c>
       <c r="AK61" s="2">
         <f t="shared" si="39"/>
         <v>354.79736328125</v>
       </c>
       <c r="AL61" s="2">
-        <v>-0.62482609203561879</v>
+        <v>-0.62482550034201267</v>
       </c>
       <c r="AM61" s="2">
         <f t="shared" si="40"/>
-        <v>-6.2635333607861243</v>
+        <v>-6.2635277990927243</v>
       </c>
       <c r="AN61" s="2">
         <f t="shared" si="41"/>
-        <v>7.0509910254769634</v>
+        <v>7.0509839786716979</v>
       </c>
       <c r="AO61" s="2">
         <f t="shared" si="42"/>
@@ -26526,29 +26527,29 @@
         <v>354.443359375</v>
       </c>
       <c r="AH62" s="2">
-        <v>10.024442705937872</v>
+        <v>10.024443297631478</v>
       </c>
       <c r="AI62" s="2">
         <f t="shared" si="44"/>
         <v>354.79736328125</v>
       </c>
       <c r="AJ62" s="2">
-        <v>-0.62482609203561879</v>
+        <v>-0.62482550034201267</v>
       </c>
       <c r="AK62" s="2">
         <f t="shared" si="39"/>
         <v>354.620361328125</v>
       </c>
       <c r="AL62" s="2">
-        <v>4.7011371515282008</v>
+        <v>4.7011377432218069</v>
       </c>
       <c r="AM62" s="2">
         <f t="shared" si="40"/>
-        <v>47.12628002825042</v>
+        <v>47.126288741282217</v>
       </c>
       <c r="AN62" s="2">
         <f t="shared" si="41"/>
-        <v>-2.9373931545128262</v>
+        <v>-2.9373907425852859</v>
       </c>
       <c r="AO62" s="2">
         <f t="shared" si="42"/>
@@ -26672,29 +26673,29 @@
         <v>354.620361328125</v>
       </c>
       <c r="AH63" s="2">
-        <v>4.7011371515282008</v>
+        <v>4.7011377432218069</v>
       </c>
       <c r="AI63" s="2">
         <f t="shared" si="44"/>
         <v>354.79736328125</v>
       </c>
       <c r="AJ63" s="2">
-        <v>-0.62482609203561879</v>
+        <v>-0.62482550034201267</v>
       </c>
       <c r="AK63" s="2">
         <f t="shared" si="39"/>
         <v>354.7088623046875</v>
       </c>
       <c r="AL63" s="2">
-        <v>2.038487740887831</v>
+        <v>2.0384883325814371</v>
       </c>
       <c r="AM63" s="2">
         <f t="shared" si="40"/>
-        <v>9.5832104516225751</v>
+        <v>9.5832144394158814</v>
       </c>
       <c r="AN63" s="2">
         <f t="shared" si="41"/>
-        <v>-1.2737003288014606</v>
+        <v>-1.2736994923465517</v>
       </c>
       <c r="AO63" s="2">
         <f t="shared" si="42"/>
@@ -26818,29 +26819,29 @@
         <v>354.7088623046875</v>
       </c>
       <c r="AH64" s="2">
-        <v>2.038487740887831</v>
+        <v>2.0384883325814371</v>
       </c>
       <c r="AI64" s="2">
         <f t="shared" si="44"/>
         <v>354.79736328125</v>
       </c>
       <c r="AJ64" s="2">
-        <v>-0.62482609203561879</v>
+        <v>-0.62482550034201267</v>
       </c>
       <c r="AK64" s="2">
         <f t="shared" si="39"/>
         <v>354.75311279296875</v>
       </c>
       <c r="AL64" s="2">
-        <v>0.70691387721217325</v>
+        <v>0.70691446890577936</v>
       </c>
       <c r="AM64" s="2">
         <f t="shared" si="40"/>
-        <v>1.4410352725605007</v>
+        <v>1.4410368969974343</v>
       </c>
       <c r="AN64" s="2">
         <f t="shared" si="41"/>
-        <v>-0.44169823530422947</v>
+        <v>-0.44169818673306177</v>
       </c>
       <c r="AO64" s="2">
         <f t="shared" si="42"/>
@@ -26964,29 +26965,29 @@
         <v>354.75311279296875</v>
       </c>
       <c r="AH65" s="2">
-        <v>0.70691387721217325</v>
+        <v>0.70691446890577936</v>
       </c>
       <c r="AI65" s="2">
         <f t="shared" si="44"/>
         <v>354.79736328125</v>
       </c>
       <c r="AJ65" s="2">
-        <v>-0.62482609203561879</v>
+        <v>-0.62482550034201267</v>
       </c>
       <c r="AK65" s="2">
         <f t="shared" si="39"/>
         <v>354.77523803710938</v>
       </c>
       <c r="AL65" s="2">
-        <v>4.1064655782975024E-2</v>
+        <v>4.1065247476581135E-2</v>
       </c>
       <c r="AM65" s="2">
         <f t="shared" si="40"/>
-        <v>2.9029175035926166E-2</v>
+        <v>2.9029617610391748E-2</v>
       </c>
       <c r="AN65" s="2">
         <f t="shared" si="41"/>
-        <v>-2.5658268393664158E-2</v>
+        <v>-2.565861380122338E-2</v>
       </c>
       <c r="AO65" s="2">
         <f t="shared" si="42"/>
@@ -27109,29 +27110,29 @@
         <v>354.77523803710938</v>
       </c>
       <c r="AH66" s="2">
-        <v>4.1064655782975024E-2</v>
+        <v>4.1065247476581135E-2</v>
       </c>
       <c r="AI66" s="2">
         <f t="shared" si="44"/>
         <v>354.79736328125</v>
       </c>
       <c r="AJ66" s="2">
-        <v>-0.62482609203561879</v>
+        <v>-0.62482550034201267</v>
       </c>
       <c r="AK66" s="2">
         <f t="shared" si="39"/>
         <v>354.78630065917969</v>
       </c>
       <c r="AL66" s="2">
-        <v>-0.29187552732673794</v>
+        <v>-0.29187493563313183</v>
       </c>
       <c r="AM66" s="2">
         <f t="shared" si="40"/>
-        <v>-1.1985768061146814E-2</v>
+        <v>-1.1985916463985748E-2</v>
       </c>
       <c r="AN66" s="2">
         <f t="shared" si="41"/>
-        <v>0.18237144510040112</v>
+        <v>0.18237090269426434</v>
       </c>
       <c r="AO66" s="2">
         <f t="shared" si="42"/>
@@ -27251,29 +27252,29 @@
         <v>354.77523803710938</v>
       </c>
       <c r="AH67" s="2">
-        <v>4.1064655782975024E-2</v>
+        <v>4.1065247476581135E-2</v>
       </c>
       <c r="AI67" s="2">
         <f t="shared" si="44"/>
         <v>354.78630065917969</v>
       </c>
       <c r="AJ67" s="2">
-        <v>-0.29187552732673794</v>
+        <v>-0.29187493563313183</v>
       </c>
       <c r="AK67" s="2">
         <f t="shared" si="39"/>
         <v>354.78076934814453</v>
       </c>
       <c r="AL67" s="2">
-        <v>-0.12540413807073492</v>
+        <v>-0.12540354637712881</v>
       </c>
       <c r="AM67" s="2">
         <f t="shared" si="40"/>
-        <v>-5.1496777636354032E-3</v>
+        <v>-5.1497276664177142E-3</v>
       </c>
       <c r="AN67" s="2">
         <f t="shared" si="41"/>
-        <v>3.6602398928350807E-2</v>
+        <v>3.6602152026990929E-2</v>
       </c>
       <c r="AO67" s="2">
         <f t="shared" si="42"/>
@@ -27393,29 +27394,29 @@
         <v>354.77523803710938</v>
       </c>
       <c r="AH68" s="2">
-        <v>4.1064655782975024E-2</v>
+        <v>4.1065247476581135E-2</v>
       </c>
       <c r="AI68" s="2">
         <f t="shared" si="44"/>
         <v>354.78076934814453</v>
       </c>
       <c r="AJ68" s="2">
-        <v>-0.12540413807073492</v>
+        <v>-0.12540354637712881</v>
       </c>
       <c r="AK68" s="2">
         <f t="shared" si="39"/>
         <v>354.77800369262695</v>
       </c>
       <c r="AL68" s="2">
-        <v>-4.2169416718024877E-2</v>
+        <v>-4.2168825024418766E-2</v>
       </c>
       <c r="AM68" s="2">
         <f t="shared" si="40"/>
-        <v>-1.7316725820945239E-3</v>
+        <v>-1.7316732354244041E-3</v>
       </c>
       <c r="AN68" s="2">
         <f t="shared" si="41"/>
-        <v>5.2882193564695486E-3</v>
+        <v>5.2881202046187285E-3</v>
       </c>
       <c r="AO68" s="2">
         <f t="shared" si="42"/>
@@ -27535,29 +27536,29 @@
         <v>354.77523803710938</v>
       </c>
       <c r="AH69" s="2">
-        <v>4.1064655782975024E-2</v>
+        <v>4.1065247476581135E-2</v>
       </c>
       <c r="AI69" s="2">
         <f t="shared" si="44"/>
         <v>354.77800369262695</v>
       </c>
       <c r="AJ69" s="2">
-        <v>-4.2169416718024877E-2</v>
+        <v>-4.2168825024418766E-2</v>
       </c>
       <c r="AK69" s="2">
         <f t="shared" si="39"/>
         <v>354.77662086486816</v>
       </c>
       <c r="AL69" s="2">
-        <v>-5.5229936060641194E-4</v>
+        <v>-5.5170766700030072E-4</v>
       </c>
       <c r="AM69" s="2">
         <f t="shared" si="40"/>
-        <v>-2.2679983132459503E-5</v>
+        <v>-2.2656011880094566E-5</v>
       </c>
       <c r="AN69" s="2">
         <f t="shared" si="41"/>
-        <v>2.3290141890510479E-5</v>
+        <v>2.3264864074365976E-5</v>
       </c>
       <c r="AO69" s="2">
         <f t="shared" si="42"/>
@@ -27628,29 +27629,29 @@
         <v>354.77523803710938</v>
       </c>
       <c r="AH70" s="2">
-        <v>4.1064655782975024E-2</v>
+        <v>4.1065247476581135E-2</v>
       </c>
       <c r="AI70" s="2">
         <f t="shared" si="44"/>
         <v>354.77662086486816</v>
       </c>
       <c r="AJ70" s="2">
-        <v>-5.5229936060641194E-4</v>
+        <v>-5.5170766700030072E-4</v>
       </c>
       <c r="AK70" s="2">
         <f t="shared" si="39"/>
         <v>354.77592945098877</v>
       </c>
       <c r="AL70" s="2">
-        <v>2.025619848700444E-2</v>
+        <v>2.0256790180610551E-2</v>
       </c>
       <c r="AM70" s="2">
         <f t="shared" si="40"/>
-        <v>8.3181381834045675E-4</v>
+        <v>8.3185010184795094E-4</v>
       </c>
       <c r="AN70" s="2">
         <f t="shared" si="41"/>
-        <v>-1.1187485472689121E-5</v>
+        <v>-1.1175826451459247E-5</v>
       </c>
       <c r="AO70" s="2">
         <f t="shared" si="42"/>
@@ -27725,29 +27726,29 @@
         <v>354.77592945098877</v>
       </c>
       <c r="AH71" s="2">
-        <v>2.025619848700444E-2</v>
+        <v>2.0256790180610551E-2</v>
       </c>
       <c r="AI71" s="2">
         <f t="shared" si="44"/>
         <v>354.77662086486816</v>
       </c>
       <c r="AJ71" s="2">
-        <v>-5.5229936060641194E-4</v>
+        <v>-5.5170766700030072E-4</v>
       </c>
       <c r="AK71" s="2">
         <f t="shared" si="39"/>
         <v>354.77627515792847</v>
       </c>
       <c r="AL71" s="2">
-        <v>9.851954634541471E-3</v>
+        <v>9.8525463281475822E-3</v>
       </c>
       <c r="AM71" s="2">
         <f t="shared" si="40"/>
-        <v>1.9956314856223534E-4</v>
+        <v>1.9958096371403049E-4</v>
       </c>
       <c r="AN71" s="2">
         <f t="shared" si="41"/>
-        <v>-5.4412282453806316E-6</v>
+        <v>-5.4357253487146819E-6</v>
       </c>
       <c r="AO71" s="2">
         <f t="shared" si="42"/>
@@ -27858,29 +27859,29 @@
         <v>354.77627515792847</v>
       </c>
       <c r="AH72" s="2">
-        <v>9.851954634541471E-3</v>
+        <v>9.8525463281475822E-3</v>
       </c>
       <c r="AI72" s="2">
         <f t="shared" si="44"/>
         <v>354.77662086486816</v>
       </c>
       <c r="AJ72" s="2">
-        <v>-5.5229936060641194E-4</v>
+        <v>-5.5170766700030072E-4</v>
       </c>
       <c r="AK72" s="2">
         <f t="shared" si="39"/>
         <v>354.77644801139832</v>
       </c>
       <c r="AL72" s="2">
-        <v>4.6498289029841544E-3</v>
+        <v>4.6504205965902656E-3</v>
       </c>
       <c r="AM72" s="2">
         <f t="shared" si="40"/>
-        <v>4.5809903410579622E-5</v>
+        <v>4.5818484373277308E-5</v>
       </c>
       <c r="AN72" s="2">
         <f t="shared" si="41"/>
-        <v>-2.5680975300473624E-6</v>
+        <v>-2.5656726979149623E-6</v>
       </c>
       <c r="AO72" s="2">
         <f t="shared" si="42"/>
@@ -27973,29 +27974,29 @@
         <v>354.77644801139832</v>
       </c>
       <c r="AH73" s="2">
-        <v>4.6498289029841544E-3</v>
+        <v>4.6504205965902656E-3</v>
       </c>
       <c r="AI73" s="2">
         <f t="shared" si="44"/>
         <v>354.77662086486816</v>
       </c>
       <c r="AJ73" s="2">
-        <v>-5.5229936060641194E-4</v>
+        <v>-5.5170766700030072E-4</v>
       </c>
       <c r="AK73" s="2">
         <f t="shared" si="39"/>
         <v>354.77653443813324</v>
       </c>
       <c r="AL73" s="2">
-        <v>2.0487650890572695E-3</v>
+        <v>2.0493567826633807E-3</v>
       </c>
       <c r="AM73" s="2">
         <f t="shared" si="40"/>
-        <v>9.5264071265233967E-6</v>
+        <v>9.5303709918597458E-6</v>
       </c>
       <c r="AN73" s="2">
         <f t="shared" si="41"/>
-        <v>-1.1315316487190686E-6</v>
+        <v>-1.1306458494144562E-6</v>
       </c>
       <c r="AO73" s="2">
         <f t="shared" si="42"/>
@@ -28124,29 +28125,29 @@
         <v>354.77653443813324</v>
       </c>
       <c r="AH74" s="2">
-        <v>2.0487650890572695E-3</v>
+        <v>2.0493567826633807E-3</v>
       </c>
       <c r="AI74" s="2">
         <f t="shared" si="44"/>
         <v>354.77662086486816</v>
       </c>
       <c r="AJ74" s="2">
-        <v>-5.5229936060641194E-4</v>
+        <v>-5.5170766700030072E-4</v>
       </c>
       <c r="AK74" s="2">
         <f t="shared" si="39"/>
         <v>354.7765776515007</v>
       </c>
       <c r="AL74" s="2">
-        <v>7.4823294289672049E-4</v>
+        <v>7.4882463650283171E-4</v>
       </c>
       <c r="AM74" s="2">
         <f t="shared" si="40"/>
-        <v>1.5329535318893823E-6</v>
+        <v>1.5346088478425188E-6</v>
       </c>
       <c r="AN74" s="2">
         <f t="shared" si="41"/>
-        <v>-4.1324857594651267E-7</v>
+        <v>-4.1313229319732548E-7</v>
       </c>
       <c r="AO74" s="2">
         <f t="shared" si="42"/>
@@ -28269,29 +28270,29 @@
         <v>354.7765776515007</v>
       </c>
       <c r="AH75" s="2">
-        <v>7.4823294289672049E-4</v>
+        <v>7.4882463650283171E-4</v>
       </c>
       <c r="AI75" s="2">
         <f t="shared" si="44"/>
         <v>354.77662086486816</v>
       </c>
       <c r="AJ75" s="2">
-        <v>-5.5229936060641194E-4</v>
+        <v>-5.5170766700030072E-4</v>
       </c>
       <c r="AK75" s="2">
         <f t="shared" si="39"/>
         <v>354.77659925818443</v>
       </c>
       <c r="AL75" s="2">
-        <v>9.7966808425553609E-5</v>
+        <v>9.855850203166483E-5</v>
       </c>
       <c r="AM75" s="2">
         <f t="shared" si="40"/>
-        <v>7.3301993374451208E-8</v>
+        <v>7.3803034458125016E-8</v>
       </c>
       <c r="AN75" s="2">
         <f t="shared" si="41"/>
-        <v>-5.410700565408411E-8</v>
+        <v>-5.4375481218934201E-8</v>
       </c>
       <c r="AO75" s="2">
         <f t="shared" si="42"/>
@@ -28414,29 +28415,29 @@
         <v>354.77659925818443</v>
       </c>
       <c r="AH76" s="2">
-        <v>9.7966808425553609E-5</v>
+        <v>9.855850203166483E-5</v>
       </c>
       <c r="AI76" s="2">
         <f t="shared" si="44"/>
         <v>354.77662086486816</v>
       </c>
       <c r="AJ76" s="2">
-        <v>-5.5229936060641194E-4</v>
+        <v>-5.5170766700030072E-4</v>
       </c>
       <c r="AK76" s="2">
         <f t="shared" si="39"/>
         <v>354.7766100615263</v>
       </c>
       <c r="AL76" s="2">
-        <v>-2.2716626972396625E-4</v>
+        <v>-2.2657457611785503E-4</v>
       </c>
       <c r="AM76" s="2">
         <f t="shared" si="40"/>
-        <v>-2.2254754426795441E-8</v>
+        <v>-2.2330850820635214E-8</v>
       </c>
       <c r="AN76" s="2">
         <f t="shared" si="41"/>
-        <v>1.2546378551989027E-7</v>
+        <v>1.2500293079156384E-7</v>
       </c>
       <c r="AO76" s="2">
         <f t="shared" si="42"/>
@@ -28559,29 +28560,29 @@
         <v>354.77659925818443</v>
       </c>
       <c r="AH77" s="2">
-        <v>9.7966808425553609E-5</v>
+        <v>9.855850203166483E-5</v>
       </c>
       <c r="AI77" s="2">
         <f t="shared" si="44"/>
         <v>354.7766100615263</v>
       </c>
       <c r="AJ77" s="2">
-        <v>-2.2716626972396625E-4</v>
+        <v>-2.2657457611785503E-4</v>
       </c>
       <c r="AK77" s="2">
         <f t="shared" si="39"/>
         <v>354.77660465985537</v>
       </c>
       <c r="AL77" s="2">
-        <v>-6.4599726101732813E-5</v>
+        <v>-6.4008032495621592E-5</v>
       </c>
       <c r="AM77" s="2">
         <f t="shared" si="40"/>
-        <v>-6.3286289913516935E-9</v>
+        <v>-6.3085358007625891E-9</v>
       </c>
       <c r="AN77" s="2">
         <f t="shared" si="41"/>
-        <v>1.4674878803720579E-8</v>
+        <v>1.4502592830833353E-8</v>
       </c>
       <c r="AO77" s="2">
         <f t="shared" si="42"/>
@@ -28704,29 +28705,29 @@
         <v>354.77659925818443</v>
       </c>
       <c r="AH78" s="2">
-        <v>9.7966808425553609E-5</v>
+        <v>9.855850203166483E-5</v>
       </c>
       <c r="AI78" s="2">
         <f t="shared" si="44"/>
         <v>354.77660465985537</v>
       </c>
       <c r="AJ78" s="2">
-        <v>-6.4599726101732813E-5</v>
+        <v>-6.4008032495621592E-5</v>
       </c>
       <c r="AK78" s="2">
         <f t="shared" si="39"/>
         <v>354.7766019590199</v>
       </c>
       <c r="AL78" s="2">
-        <v>1.6683542526152451E-5</v>
+        <v>1.7275236132263672E-5</v>
       </c>
       <c r="AM78" s="2">
         <f t="shared" si="40"/>
-        <v>1.6344334145191538E-9</v>
+        <v>1.7026213954391988E-9</v>
       </c>
       <c r="AN78" s="2">
         <f t="shared" si="41"/>
-        <v>-1.0777522775960599E-9</v>
+        <v>-1.1057538757234694E-9</v>
       </c>
       <c r="AO78" s="2">
         <f t="shared" si="42"/>
@@ -28839,29 +28840,29 @@
         <v>354.7766019590199</v>
       </c>
       <c r="AH79" s="2">
-        <v>1.6683542526152451E-5</v>
+        <v>1.7275236132263672E-5</v>
       </c>
       <c r="AI79" s="2">
         <f t="shared" si="44"/>
         <v>354.77660465985537</v>
       </c>
       <c r="AJ79" s="2">
-        <v>-6.4599726101732813E-5</v>
+        <v>-6.4008032495621592E-5</v>
       </c>
       <c r="AK79" s="5">
         <f t="shared" si="39"/>
         <v>354.77660330943763</v>
       </c>
       <c r="AL79" s="2">
-        <v>-2.3958093152032234E-5</v>
+        <v>-2.3366399545921013E-5</v>
       </c>
       <c r="AM79" s="2">
         <f t="shared" si="40"/>
-        <v>-3.9970586594745158E-10</v>
+        <v>-4.0366006971660413E-10</v>
       </c>
       <c r="AN79" s="2">
         <f t="shared" si="41"/>
-        <v>1.5476862555410829E-9</v>
+        <v>1.4956372614409898E-9</v>
       </c>
       <c r="AO79" s="2">
         <f t="shared" si="42"/>
@@ -34461,61 +34462,20 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="BZ2:CI2"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="BG3:BI3"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AY2:BE2"/>
-    <mergeCell ref="BG2:BM2"/>
-    <mergeCell ref="BO2:BX2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BK22:BM22"/>
-    <mergeCell ref="AU23:AU29"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AU14:AW14"/>
-    <mergeCell ref="AU22:AW22"/>
-    <mergeCell ref="BG22:BI22"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AQ27:AQ34"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AY30:BA30"/>
-    <mergeCell ref="BC30:BE30"/>
-    <mergeCell ref="AQ7:AS7"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AY12:BA12"/>
-    <mergeCell ref="BC12:BE12"/>
-    <mergeCell ref="AY21:BA21"/>
-    <mergeCell ref="BC21:BE21"/>
-    <mergeCell ref="AQ11:AQ18"/>
-    <mergeCell ref="AQ19:AQ26"/>
+    <mergeCell ref="BZ104:CI104"/>
+    <mergeCell ref="AF47:AI47"/>
+    <mergeCell ref="BO104:BX104"/>
+    <mergeCell ref="BG60:BI60"/>
+    <mergeCell ref="BO70:BX70"/>
+    <mergeCell ref="BZ70:CI70"/>
+    <mergeCell ref="AY52:BA52"/>
+    <mergeCell ref="AY55:BA55"/>
+    <mergeCell ref="BB52:BD52"/>
+    <mergeCell ref="BB55:BD55"/>
+    <mergeCell ref="AV47:AW47"/>
+    <mergeCell ref="AV48:AX48"/>
+    <mergeCell ref="AY48:BA48"/>
+    <mergeCell ref="BB48:BD48"/>
     <mergeCell ref="AQ35:AQ42"/>
     <mergeCell ref="AV42:AX42"/>
     <mergeCell ref="BK60:BM60"/>
@@ -34532,20 +34492,61 @@
     <mergeCell ref="AU50:AU52"/>
     <mergeCell ref="AU53:AU55"/>
     <mergeCell ref="AV55:AX55"/>
-    <mergeCell ref="BZ104:CI104"/>
-    <mergeCell ref="AF47:AI47"/>
-    <mergeCell ref="BO104:BX104"/>
-    <mergeCell ref="BG60:BI60"/>
-    <mergeCell ref="BO70:BX70"/>
-    <mergeCell ref="BZ70:CI70"/>
-    <mergeCell ref="AY52:BA52"/>
-    <mergeCell ref="AY55:BA55"/>
-    <mergeCell ref="BB52:BD52"/>
-    <mergeCell ref="BB55:BD55"/>
-    <mergeCell ref="AV47:AW47"/>
-    <mergeCell ref="AV48:AX48"/>
-    <mergeCell ref="AY48:BA48"/>
-    <mergeCell ref="BB48:BD48"/>
+    <mergeCell ref="AQ7:AS7"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AY12:BA12"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="AY21:BA21"/>
+    <mergeCell ref="BC21:BE21"/>
+    <mergeCell ref="AQ11:AQ18"/>
+    <mergeCell ref="AQ19:AQ26"/>
+    <mergeCell ref="AQ27:AQ34"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AY30:BA30"/>
+    <mergeCell ref="BC30:BE30"/>
+    <mergeCell ref="BK22:BM22"/>
+    <mergeCell ref="AU23:AU29"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AU14:AW14"/>
+    <mergeCell ref="AU22:AW22"/>
+    <mergeCell ref="BG22:BI22"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="BZ2:CI2"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AY2:BE2"/>
+    <mergeCell ref="BG2:BM2"/>
+    <mergeCell ref="BO2:BX2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="G12">
     <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="FALSE">
@@ -34596,8 +34597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF2CC91-5E9A-2041-A25C-AEB7F568B05D}">
   <dimension ref="B1:AO79"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="88" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34638,11 +34639,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -34653,26 +34654,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="F3" s="56" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="F3" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="N3" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
       <c r="U3" s="7" t="s">
         <v>44</v>
       </c>
@@ -35294,11 +35295,11 @@
       <c r="H9" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
       <c r="N9" s="6" t="s">
         <v>122</v>
       </c>
@@ -35612,11 +35613,11 @@
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
       <c r="N12" s="6" t="s">
         <v>235</v>
       </c>
@@ -35913,11 +35914,11 @@
       </c>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
       <c r="F15" s="6" t="s">
         <v>240</v>
       </c>
@@ -36267,11 +36268,11 @@
       <c r="L18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="56" t="s">
+      <c r="N18" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
       <c r="U18" s="2">
         <v>14</v>
       </c>
@@ -36453,11 +36454,11 @@
       </c>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
       <c r="F20" s="44" t="s">
         <v>225</v>
       </c>
@@ -36674,11 +36675,11 @@
       <c r="C22" s="17">
         <v>2</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
       <c r="J22" s="14" t="s">
         <v>241</v>
       </c>
@@ -37100,11 +37101,11 @@
       </c>
     </row>
     <row r="26" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
       <c r="F26" s="6" t="s">
         <v>21</v>
       </c>
@@ -37726,11 +37727,11 @@
       </c>
     </row>
     <row r="32" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
       <c r="U32" s="2">
         <v>28</v>
       </c>
@@ -38097,11 +38098,11 @@
       </c>
     </row>
     <row r="37" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
       <c r="J37" s="20" t="s">
         <v>72</v>
       </c>
@@ -38312,11 +38313,11 @@
       <c r="C41" s="17">
         <v>5.7</v>
       </c>
-      <c r="J41" s="53" t="s">
+      <c r="J41" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
       <c r="AF41" s="2">
         <v>37</v>
       </c>
@@ -38403,11 +38404,11 @@
       </c>
     </row>
     <row r="43" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
       <c r="J43" s="11" t="s">
         <v>55</v>
       </c>
@@ -38522,11 +38523,11 @@
       </c>
     </row>
     <row r="46" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
       <c r="J46" s="15" t="s">
         <v>73</v>
       </c>
@@ -38581,11 +38582,11 @@
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
@@ -38631,11 +38632,11 @@
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
@@ -38665,11 +38666,11 @@
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
@@ -38716,11 +38717,11 @@
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="57" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="6" t="s">
@@ -38767,11 +38768,11 @@
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B74" s="53" t="s">
+      <c r="B74" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="53"/>
-      <c r="D74" s="53"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
@@ -38818,28 +38819,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B68:D68"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="FALSE">
@@ -38871,7 +38872,7 @@
   <dimension ref="B1:CI136"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38930,11 +38931,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
     </row>
     <row r="2" spans="2:87" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -38997,26 +38998,26 @@
       <c r="CI2" s="60"/>
     </row>
     <row r="3" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="F3" s="56" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="F3" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="J3" s="53" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="N3" s="53" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="N3" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
       <c r="U3" s="7" t="s">
         <v>44</v>
       </c>
@@ -39097,27 +39098,27 @@
       <c r="AW3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AY3" s="62" t="s">
+      <c r="AY3" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
-      <c r="BC3" s="62" t="s">
+      <c r="AZ3" s="61"/>
+      <c r="BA3" s="61"/>
+      <c r="BC3" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BG3" s="62" t="s">
+      <c r="BD3" s="61"/>
+      <c r="BE3" s="61"/>
+      <c r="BG3" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
+      <c r="BH3" s="61"/>
+      <c r="BI3" s="61"/>
       <c r="BJ3" s="2"/>
-      <c r="BK3" s="62" t="s">
+      <c r="BK3" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
+      <c r="BL3" s="61"/>
+      <c r="BM3" s="61"/>
       <c r="BO3" s="7" t="s">
         <v>44</v>
       </c>
@@ -39458,7 +39459,7 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
         <v>-1007.0218600678832</v>
       </c>
       <c r="AI5" s="3">
@@ -39556,7 +39557,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="BQ5" s="2">
-        <f t="dataTable" ref="BQ5:BQ34" dt2D="0" dtr="0" r1="BH4" ca="1"/>
+        <f t="dataTable" ref="BQ5:BQ34" dt2D="0" dtr="0" r1="BH4"/>
         <v>-7.4374526188360992</v>
       </c>
       <c r="BR5" s="3">
@@ -39564,7 +39565,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="BS5" s="2">
-        <f t="dataTable" ref="BS5:BS34" dt2D="0" dtr="0" r1="BH4"/>
+        <f t="dataTable" ref="BS5:BS34" dt2D="0" dtr="0" r1="BH4" ca="1"/>
         <v>0.99467147482541229</v>
       </c>
       <c r="BT5" s="2">
@@ -39595,7 +39596,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="CB5" s="2">
-        <f t="dataTable" ref="CB5:CB34" dt2D="0" dtr="0" r1="BL4" ca="1"/>
+        <f t="dataTable" ref="CB5:CB34" dt2D="0" dtr="0" r1="BL4"/>
         <v>-4.5723507353059505</v>
       </c>
       <c r="CC5" s="3">
@@ -39603,7 +39604,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="CD5" s="2">
-        <f t="dataTable" ref="CD5:CD34" dt2D="0" dtr="0" r1="BL4"/>
+        <f t="dataTable" ref="CD5:CD34" dt2D="0" dtr="0" r1="BL4" ca="1"/>
         <v>0.68948715234923053</v>
       </c>
       <c r="CE5" s="2">
@@ -40342,11 +40343,11 @@
       <c r="H9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
       <c r="N9" s="6" t="s">
         <v>122</v>
       </c>
@@ -40912,7 +40913,7 @@
         <f t="shared" si="20"/>
         <v>70.3125</v>
       </c>
-      <c r="AQ11" s="66" t="s">
+      <c r="AQ11" s="63" t="s">
         <v>181</v>
       </c>
       <c r="AR11" s="3" t="s">
@@ -41120,7 +41121,7 @@
         <f t="shared" si="20"/>
         <v>35.15625</v>
       </c>
-      <c r="AQ12" s="66"/>
+      <c r="AQ12" s="63"/>
       <c r="AR12" s="3" t="s">
         <v>219</v>
       </c>
@@ -41135,16 +41136,16 @@
       <c r="AW12" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="AY12" s="62" t="s">
+      <c r="AY12" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="AZ12" s="62"/>
-      <c r="BA12" s="62"/>
-      <c r="BC12" s="62" t="s">
+      <c r="AZ12" s="61"/>
+      <c r="BA12" s="61"/>
+      <c r="BC12" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="BD12" s="62"/>
-      <c r="BE12" s="62"/>
+      <c r="BD12" s="61"/>
+      <c r="BE12" s="61"/>
       <c r="BG12" s="2" t="s">
         <v>187</v>
       </c>
@@ -41342,7 +41343,7 @@
         <f t="shared" si="20"/>
         <v>17.578125</v>
       </c>
-      <c r="AQ13" s="66"/>
+      <c r="AQ13" s="63"/>
       <c r="AR13" s="3" t="s">
         <v>219</v>
       </c>
@@ -41559,7 +41560,7 @@
         <f t="shared" si="20"/>
         <v>8.7890625</v>
       </c>
-      <c r="AQ14" s="66"/>
+      <c r="AQ14" s="63"/>
       <c r="AR14" s="3" t="s">
         <v>219</v>
       </c>
@@ -41680,11 +41681,11 @@
       </c>
     </row>
     <row r="15" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
       <c r="J15" s="11" t="s">
         <v>55</v>
       </c>
@@ -41777,7 +41778,7 @@
         <f t="shared" si="20"/>
         <v>4.39453125</v>
       </c>
-      <c r="AQ15" s="66"/>
+      <c r="AQ15" s="63"/>
       <c r="AR15" s="3" t="s">
         <v>219</v>
       </c>
@@ -41903,11 +41904,11 @@
       </c>
     </row>
     <row r="16" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
       <c r="F16" s="9" t="s">
         <v>92</v>
       </c>
@@ -42010,7 +42011,7 @@
         <f t="shared" si="20"/>
         <v>2.197265625</v>
       </c>
-      <c r="AQ16" s="66"/>
+      <c r="AQ16" s="63"/>
       <c r="AR16" s="3" t="s">
         <v>219</v>
       </c>
@@ -42238,7 +42239,7 @@
         <f t="shared" si="20"/>
         <v>1.0986328125</v>
       </c>
-      <c r="AQ17" s="66"/>
+      <c r="AQ17" s="63"/>
       <c r="AR17" s="3" t="s">
         <v>219</v>
       </c>
@@ -42387,11 +42388,11 @@
       <c r="L18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="56" t="s">
+      <c r="N18" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
       <c r="U18" s="2">
         <v>14</v>
       </c>
@@ -42467,7 +42468,7 @@
         <f t="shared" si="20"/>
         <v>0.54931640625</v>
       </c>
-      <c r="AQ18" s="66"/>
+      <c r="AQ18" s="63"/>
       <c r="AR18" s="3" t="s">
         <v>219</v>
       </c>
@@ -42701,7 +42702,7 @@
         <f t="shared" si="20"/>
         <v>0.274658203125</v>
       </c>
-      <c r="AQ19" s="66" t="s">
+      <c r="AQ19" s="63" t="s">
         <v>195</v>
       </c>
       <c r="AR19" s="3">
@@ -42935,7 +42936,7 @@
         <f t="shared" si="20"/>
         <v>0.1373291015625</v>
       </c>
-      <c r="AQ20" s="66"/>
+      <c r="AQ20" s="63"/>
       <c r="AR20" s="3">
         <f>0.358125*($AR$9/2)</f>
         <v>0.54578250000000006</v>
@@ -43042,11 +43043,11 @@
       </c>
     </row>
     <row r="21" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
       <c r="J21" s="14" t="s">
         <v>64</v>
       </c>
@@ -43142,7 +43143,7 @@
         <f t="shared" si="20"/>
         <v>6.866455078125E-2</v>
       </c>
-      <c r="AQ21" s="66"/>
+      <c r="AQ21" s="63"/>
       <c r="AR21" s="3">
         <f>0.456875*($AR$9/2)</f>
         <v>0.69627749999999999</v>
@@ -43151,16 +43152,16 @@
         <v>8</v>
       </c>
       <c r="AW21" s="26"/>
-      <c r="AY21" s="62" t="s">
+      <c r="AY21" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="AZ21" s="62"/>
-      <c r="BA21" s="62"/>
-      <c r="BC21" s="62" t="s">
+      <c r="AZ21" s="61"/>
+      <c r="BA21" s="61"/>
+      <c r="BC21" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="BD21" s="62"/>
-      <c r="BE21" s="62"/>
+      <c r="BD21" s="61"/>
+      <c r="BE21" s="61"/>
       <c r="BG21" s="2"/>
       <c r="BH21" s="2"/>
       <c r="BI21" s="2"/>
@@ -43248,11 +43249,11 @@
       <c r="C22" s="17">
         <v>8</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
       <c r="J22" s="14" t="s">
         <v>241</v>
       </c>
@@ -43345,7 +43346,7 @@
         <f t="shared" si="20"/>
         <v>3.4332275390625E-2</v>
       </c>
-      <c r="AQ22" s="66"/>
+      <c r="AQ22" s="63"/>
       <c r="AR22" s="3">
         <f>0.555625*($AR$9/2)</f>
         <v>0.84677250000000004</v>
@@ -43378,17 +43379,17 @@
       <c r="BE22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BG22" s="62" t="s">
+      <c r="BG22" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="BH22" s="62"/>
-      <c r="BI22" s="62"/>
+      <c r="BH22" s="61"/>
+      <c r="BI22" s="61"/>
       <c r="BJ22" s="2"/>
-      <c r="BK22" s="62" t="s">
+      <c r="BK22" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="BL22" s="62"/>
-      <c r="BM22" s="62"/>
+      <c r="BL22" s="61"/>
+      <c r="BM22" s="61"/>
       <c r="BO22" s="2">
         <v>18</v>
       </c>
@@ -43571,7 +43572,7 @@
         <f t="shared" si="20"/>
         <v>1.71661376953125E-2</v>
       </c>
-      <c r="AQ23" s="66"/>
+      <c r="AQ23" s="63"/>
       <c r="AR23" s="3">
         <f>0.654375*($AR$9/2)</f>
         <v>0.99726750000000008</v>
@@ -43579,14 +43580,14 @@
       <c r="AS23" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU23" s="69" t="s">
+      <c r="AU23" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="AV23" s="66">
+      <c r="AV23" s="63">
         <f>BH20</f>
         <v>-8.4734595867663742E-9</v>
       </c>
-      <c r="AW23" s="66"/>
+      <c r="AW23" s="63"/>
       <c r="AY23" s="2" t="s">
         <v>158</v>
       </c>
@@ -43810,7 +43811,7 @@
         <f t="shared" si="20"/>
         <v>8.58306884765625E-3</v>
       </c>
-      <c r="AQ24" s="66"/>
+      <c r="AQ24" s="63"/>
       <c r="AR24" s="3">
         <f>0.753125*($AR$9/2)</f>
         <v>1.1477625</v>
@@ -43818,12 +43819,12 @@
       <c r="AS24" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU24" s="69"/>
-      <c r="AV24" s="66">
+      <c r="AU24" s="62"/>
+      <c r="AV24" s="63">
         <f>BL20</f>
         <v>1.1665570176511153E-9</v>
       </c>
-      <c r="AW24" s="66"/>
+      <c r="AW24" s="63"/>
       <c r="AY24" s="2" t="s">
         <v>163</v>
       </c>
@@ -44050,7 +44051,7 @@
         <f t="shared" si="20"/>
         <v>4.291534423828125E-3</v>
       </c>
-      <c r="AQ25" s="66"/>
+      <c r="AQ25" s="63"/>
       <c r="AR25" s="3">
         <f>0.851875*($AR$9/2)</f>
         <v>1.2982575000000001</v>
@@ -44058,12 +44059,12 @@
       <c r="AS25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU25" s="69"/>
-      <c r="AV25" s="66">
+      <c r="AU25" s="62"/>
+      <c r="AV25" s="63">
         <f>BH39</f>
         <v>6.6491878669694415E-10</v>
       </c>
-      <c r="AW25" s="66"/>
+      <c r="AW25" s="63"/>
       <c r="AY25" s="2" t="s">
         <v>167</v>
       </c>
@@ -44281,7 +44282,7 @@
         <f t="shared" si="20"/>
         <v>2.1457672119140625E-3</v>
       </c>
-      <c r="AQ26" s="66"/>
+      <c r="AQ26" s="63"/>
       <c r="AR26" s="3">
         <f>0.950625*($AR$9/2)</f>
         <v>1.4487525000000001</v>
@@ -44289,12 +44290,12 @@
       <c r="AS26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AU26" s="69"/>
-      <c r="AV26" s="66">
+      <c r="AU26" s="62"/>
+      <c r="AV26" s="63">
         <f>BL39</f>
         <v>-3.6167899578054552E-9</v>
       </c>
-      <c r="AW26" s="66"/>
+      <c r="AW26" s="63"/>
       <c r="AY26" s="2" t="s">
         <v>170</v>
       </c>
@@ -44406,11 +44407,11 @@
       </c>
     </row>
     <row r="27" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
       <c r="F27" s="43" t="s">
         <v>86</v>
       </c>
@@ -44516,7 +44517,7 @@
         <f t="shared" si="20"/>
         <v>1.0728836059570312E-3</v>
       </c>
-      <c r="AQ27" s="66" t="s">
+      <c r="AQ27" s="63" t="s">
         <v>204</v>
       </c>
       <c r="AR27" s="3">
@@ -44526,12 +44527,12 @@
       <c r="AS27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU27" s="69"/>
-      <c r="AV27" s="66">
+      <c r="AU27" s="62"/>
+      <c r="AV27" s="63">
         <f>BH58</f>
         <v>-2.2940410057681326E-9</v>
       </c>
-      <c r="AW27" s="66"/>
+      <c r="AW27" s="63"/>
       <c r="AY27" s="2" t="s">
         <v>174</v>
       </c>
@@ -44741,7 +44742,7 @@
         <f t="shared" si="20"/>
         <v>5.3644180297851562E-4</v>
       </c>
-      <c r="AQ28" s="66"/>
+      <c r="AQ28" s="63"/>
       <c r="AR28" s="3">
         <f>0.530863*($AR$9/2)</f>
         <v>0.80903521199999995</v>
@@ -44749,12 +44750,12 @@
       <c r="AS28" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU28" s="69"/>
-      <c r="AV28" s="66">
+      <c r="AU28" s="62"/>
+      <c r="AV28" s="63">
         <f>BL58</f>
         <v>-3.3090320275541707E-9</v>
       </c>
-      <c r="AW28" s="66"/>
+      <c r="AW28" s="63"/>
       <c r="AY28" s="2" t="s">
         <v>178</v>
       </c>
@@ -44963,7 +44964,7 @@
         <f t="shared" si="20"/>
         <v>2.6822090148925781E-4</v>
       </c>
-      <c r="AQ29" s="66"/>
+      <c r="AQ29" s="63"/>
       <c r="AR29" s="3">
         <f>0.513438*($AR$9/2)</f>
         <v>0.78247951199999999</v>
@@ -44971,12 +44972,12 @@
       <c r="AS29" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU29" s="69"/>
-      <c r="AV29" s="66">
+      <c r="AU29" s="62"/>
+      <c r="AV29" s="63">
         <f>BH77</f>
         <v>6.3166378308499027E-9</v>
       </c>
-      <c r="AW29" s="66"/>
+      <c r="AW29" s="63"/>
       <c r="BG29" s="2" t="s">
         <v>180</v>
       </c>
@@ -45167,7 +45168,7 @@
         <f t="shared" si="20"/>
         <v>1.3411045074462891E-4</v>
       </c>
-      <c r="AQ30" s="66"/>
+      <c r="AQ30" s="63"/>
       <c r="AR30" s="3">
         <f>0.496013*($AR$9/2)</f>
         <v>0.75592381200000003</v>
@@ -45178,21 +45179,21 @@
       <c r="AU30" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="AV30" s="66" t="b">
+      <c r="AV30" s="63" t="b">
         <f>IF(AV23&lt;0.00001,IF(AV24&lt;0.00001,IF(AV25&lt;0.00001,IF(AV26&lt;0.00001,IF(AV27&lt;0.00001,IF(AV28&lt;0.00001,IF(AV29&lt;0.00001,TRUE,FALSE),FALSE),FALSE),FALSE),FALSE),FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AW30" s="66"/>
-      <c r="AY30" s="62" t="s">
+      <c r="AW30" s="63"/>
+      <c r="AY30" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="AZ30" s="62"/>
-      <c r="BA30" s="62"/>
-      <c r="BC30" s="62" t="s">
+      <c r="AZ30" s="61"/>
+      <c r="BA30" s="61"/>
+      <c r="BC30" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="BD30" s="62"/>
-      <c r="BE30" s="62"/>
+      <c r="BD30" s="61"/>
+      <c r="BE30" s="61"/>
       <c r="BG30" s="2" t="s">
         <v>183</v>
       </c>
@@ -45372,7 +45373,7 @@
         <f t="shared" si="20"/>
         <v>6.7055225372314453E-5</v>
       </c>
-      <c r="AQ31" s="66"/>
+      <c r="AQ31" s="63"/>
       <c r="AR31" s="3">
         <f>0.478588*($AR$9/2)</f>
         <v>0.72936811200000007</v>
@@ -45566,7 +45567,7 @@
         <f t="shared" si="20"/>
         <v>3.3527612686157227E-5</v>
       </c>
-      <c r="AQ32" s="66"/>
+      <c r="AQ32" s="63"/>
       <c r="AR32" s="3">
         <f>0.461163*($AR$9/2)</f>
         <v>0.702812412</v>
@@ -45685,11 +45686,11 @@
       </c>
     </row>
     <row r="33" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
       <c r="J33" s="46" t="s">
         <v>59</v>
       </c>
@@ -45770,7 +45771,7 @@
         <f t="shared" si="20"/>
         <v>1.6763806343078613E-5</v>
       </c>
-      <c r="AQ33" s="66"/>
+      <c r="AQ33" s="63"/>
       <c r="AR33" s="3">
         <f>0.443738*($AR$9/2)</f>
         <v>0.67625671200000004</v>
@@ -45979,7 +45980,7 @@
         <f t="shared" si="20"/>
         <v>8.3819031715393066E-6</v>
       </c>
-      <c r="AQ34" s="66"/>
+      <c r="AQ34" s="63"/>
       <c r="AR34" s="3">
         <f>0.426313*($AR$9/2)</f>
         <v>0.64970101199999997</v>
@@ -46152,7 +46153,7 @@
         <f t="shared" si="20"/>
         <v>4.1909515857696533E-6</v>
       </c>
-      <c r="AQ35" s="66" t="s">
+      <c r="AQ35" s="63" t="s">
         <v>223</v>
       </c>
       <c r="AR35" s="3">
@@ -46260,7 +46261,7 @@
         <f t="shared" si="20"/>
         <v>2.0954757928848267E-6</v>
       </c>
-      <c r="AQ36" s="66"/>
+      <c r="AQ36" s="63"/>
       <c r="AR36" s="3">
         <v>5.8781249999999998</v>
       </c>
@@ -46375,7 +46376,7 @@
         <f t="shared" si="20"/>
         <v>1.0477378964424133E-6</v>
       </c>
-      <c r="AQ37" s="66"/>
+      <c r="AQ37" s="63"/>
       <c r="AR37" s="3">
         <v>4.3968749999999996</v>
       </c>
@@ -46480,11 +46481,11 @@
       </c>
     </row>
     <row r="38" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
       <c r="J38" s="15" t="s">
         <v>73</v>
       </c>
@@ -46531,7 +46532,7 @@
         <f t="shared" si="20"/>
         <v>5.2386894822120667E-7</v>
       </c>
-      <c r="AQ38" s="66"/>
+      <c r="AQ38" s="63"/>
       <c r="AR38" s="3">
         <v>2.9156249999999999</v>
       </c>
@@ -46650,7 +46651,7 @@
         <f t="shared" si="20"/>
         <v>2.6193447411060333E-7</v>
       </c>
-      <c r="AQ39" s="66"/>
+      <c r="AQ39" s="63"/>
       <c r="AR39" s="3">
         <v>1.434375</v>
       </c>
@@ -46681,7 +46682,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="BQ39" s="2">
-        <f t="dataTable" ref="BQ39:BQ68" dt2D="0" dtr="0" r1="BH23"/>
+        <f t="dataTable" ref="BQ39:BQ68" dt2D="0" dtr="0" r1="BH23" ca="1"/>
         <v>-3.2979629773064287</v>
       </c>
       <c r="BR39" s="3">
@@ -46689,7 +46690,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="BS39" s="2">
-        <f t="dataTable" ref="BS39:BS68" dt2D="0" dtr="0" r1="BH23" ca="1"/>
+        <f t="dataTable" ref="BS39:BS68" dt2D="0" dtr="0" r1="BH23"/>
         <v>0.58407262246585656</v>
       </c>
       <c r="BT39" s="2">
@@ -46720,7 +46721,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="CB39" s="2">
-        <f t="dataTable" ref="CB39:CB68" dt2D="0" dtr="0" r1="BL23"/>
+        <f t="dataTable" ref="CB39:CB68" dt2D="0" dtr="0" r1="BL23" ca="1"/>
         <v>-2.5930113655146974</v>
       </c>
       <c r="CC39" s="3">
@@ -46728,7 +46729,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="CD39" s="2">
-        <f t="dataTable" ref="CD39:CD68" dt2D="0" dtr="0" r1="BL23" ca="1"/>
+        <f t="dataTable" ref="CD39:CD68" dt2D="0" dtr="0" r1="BL23"/>
         <v>0.52903392103717761</v>
       </c>
       <c r="CE39" s="2">
@@ -46768,7 +46769,7 @@
         <v>2318.4342103922972</v>
       </c>
       <c r="AH40" s="2">
-        <v>-8.4429984781309031E-8</v>
+        <v>-1.5171963241300546E-8</v>
       </c>
       <c r="AI40" s="2">
         <f t="shared" si="26"/>
@@ -46786,7 +46787,7 @@
       </c>
       <c r="AM40" s="2">
         <f t="shared" si="18"/>
-        <v>-1.6427582267376596E-15</v>
+        <v>-2.9520160988973011E-16</v>
       </c>
       <c r="AN40" s="2">
         <f t="shared" si="19"/>
@@ -46796,7 +46797,7 @@
         <f t="shared" si="20"/>
         <v>1.3096723705530167E-7</v>
       </c>
-      <c r="AQ40" s="66"/>
+      <c r="AQ40" s="63"/>
       <c r="AR40" s="3">
         <v>-4.6875E-2</v>
       </c>
@@ -46886,11 +46887,11 @@
       <c r="D41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="53" t="s">
+      <c r="J41" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
       <c r="AF41" s="2">
         <v>37</v>
       </c>
@@ -46899,35 +46900,35 @@
         <v>2318.4342103922972</v>
       </c>
       <c r="AH41" s="2">
-        <v>-8.4429984781309031E-8</v>
+        <v>-1.5171963241300546E-8</v>
       </c>
       <c r="AI41" s="2">
         <f t="shared" si="26"/>
         <v>2318.4342104577809</v>
       </c>
       <c r="AJ41" s="2">
-        <v>5.4085603551357053E-8</v>
+        <v>1.9457047528703697E-8</v>
       </c>
       <c r="AK41" s="2">
         <f t="shared" si="17"/>
         <v>2318.4342104250391</v>
       </c>
       <c r="AL41" s="2">
-        <v>3.6771780287381262E-8</v>
+        <v>2.1425421437015757E-9</v>
       </c>
       <c r="AM41" s="2">
         <f t="shared" si="18"/>
-        <v>-3.1046408500452393E-15</v>
+        <v>-3.2506570647177578E-17</v>
       </c>
       <c r="AN41" s="2">
         <f t="shared" si="19"/>
-        <v>1.9888239305009092E-15</v>
+        <v>4.1687544322252265E-17</v>
       </c>
       <c r="AO41" s="2">
         <f t="shared" si="20"/>
         <v>6.5483618527650833E-8</v>
       </c>
-      <c r="AQ41" s="66"/>
+      <c r="AQ41" s="63"/>
       <c r="AR41" s="3">
         <v>-1.528125</v>
       </c>
@@ -46937,10 +46938,10 @@
       <c r="AU41" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AV41" s="68" t="s">
+      <c r="AV41" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="AW41" s="68"/>
+      <c r="AW41" s="65"/>
       <c r="AX41" s="24"/>
       <c r="AY41" s="24"/>
       <c r="AZ41" s="24"/>
@@ -46949,17 +46950,17 @@
       <c r="BC41" s="24"/>
       <c r="BD41" s="24"/>
       <c r="BE41" s="25"/>
-      <c r="BG41" s="62" t="s">
+      <c r="BG41" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="BH41" s="62"/>
-      <c r="BI41" s="62"/>
+      <c r="BH41" s="61"/>
+      <c r="BI41" s="61"/>
       <c r="BJ41" s="2"/>
-      <c r="BK41" s="62" t="s">
+      <c r="BK41" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="BL41" s="62"/>
-      <c r="BM41" s="62"/>
+      <c r="BL41" s="61"/>
+      <c r="BM41" s="61"/>
       <c r="BO41" s="2">
         <v>3</v>
       </c>
@@ -47058,35 +47059,35 @@
         <v>2318.4342103922972</v>
       </c>
       <c r="AH42" s="2">
-        <v>-8.4429984781309031E-8</v>
+        <v>-1.5171963241300546E-8</v>
       </c>
       <c r="AI42" s="2">
         <f t="shared" si="26"/>
         <v>2318.4342104250391</v>
       </c>
       <c r="AJ42" s="2">
-        <v>3.6771780287381262E-8</v>
+        <v>2.1425421437015757E-9</v>
       </c>
       <c r="AK42" s="2">
         <f t="shared" si="17"/>
         <v>2318.4342104086682</v>
       </c>
       <c r="AL42" s="2">
-        <v>4.5428123485180549E-8</v>
+        <v>-6.514710548799485E-9</v>
       </c>
       <c r="AM42" s="2">
         <f t="shared" si="18"/>
-        <v>-3.8354957744972212E-15</v>
+        <v>9.884094897409869E-17</v>
       </c>
       <c r="AN42" s="2">
         <f t="shared" si="19"/>
-        <v>1.6704729756650839E-15</v>
+        <v>-1.3958041904820117E-17</v>
       </c>
       <c r="AO42" s="2">
         <f t="shared" si="20"/>
         <v>3.2741809263825417E-8</v>
       </c>
-      <c r="AQ42" s="66"/>
+      <c r="AQ42" s="63"/>
       <c r="AR42" s="3">
         <v>-3.0093749999999999</v>
       </c>
@@ -47094,22 +47095,22 @@
         <v>43</v>
       </c>
       <c r="AU42" s="27"/>
-      <c r="AV42" s="69" t="s">
+      <c r="AV42" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="AW42" s="69"/>
-      <c r="AX42" s="69"/>
-      <c r="AY42" s="69" t="s">
+      <c r="AW42" s="62"/>
+      <c r="AX42" s="62"/>
+      <c r="AY42" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="AZ42" s="69"/>
-      <c r="BA42" s="69"/>
-      <c r="BB42" s="69"/>
-      <c r="BC42" s="69" t="s">
+      <c r="AZ42" s="62"/>
+      <c r="BA42" s="62"/>
+      <c r="BB42" s="62"/>
+      <c r="BC42" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="BD42" s="69"/>
-      <c r="BE42" s="70"/>
+      <c r="BD42" s="62"/>
+      <c r="BE42" s="64"/>
       <c r="BG42" s="28" t="s">
         <v>154</v>
       </c>
@@ -47220,32 +47221,32 @@
       </c>
       <c r="AG43" s="2">
         <f t="shared" si="25"/>
-        <v>2318.4342103922972</v>
+        <v>2318.4342104086682</v>
       </c>
       <c r="AH43" s="2">
-        <v>-8.4429984781309031E-8</v>
+        <v>-6.514710548799485E-9</v>
       </c>
       <c r="AI43" s="2">
         <f t="shared" si="26"/>
-        <v>2318.4342104086682</v>
+        <v>2318.4342104250391</v>
       </c>
       <c r="AJ43" s="2">
-        <v>3.6771780287381262E-8</v>
+        <v>2.1425421437015757E-9</v>
       </c>
       <c r="AK43" s="2">
         <f t="shared" si="17"/>
-        <v>2318.4342104004827</v>
+        <v>2318.4342104168536</v>
       </c>
       <c r="AL43" s="2">
-        <v>4.9756863518268801E-8</v>
+        <v>-2.185970515711233E-9</v>
       </c>
       <c r="AM43" s="2">
         <f t="shared" si="18"/>
-        <v>-4.2009712296131054E-15</v>
+        <v>1.424096517806862E-17</v>
       </c>
       <c r="AN43" s="2">
         <f t="shared" si="19"/>
-        <v>1.8296484530829966E-15</v>
+        <v>-4.6835339548003842E-18</v>
       </c>
       <c r="AO43" s="2">
         <f t="shared" si="20"/>
@@ -47264,10 +47265,10 @@
       <c r="AX43" s="2">
         <v>-9.5</v>
       </c>
-      <c r="AY43" s="69" t="s">
+      <c r="AY43" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="AZ43" s="69"/>
+      <c r="AZ43" s="62"/>
       <c r="BA43" s="2">
         <v>-9.5</v>
       </c>
@@ -47378,11 +47379,11 @@
       </c>
     </row>
     <row r="44" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
       <c r="J44" s="19" t="s">
         <v>81</v>
       </c>
@@ -47398,32 +47399,32 @@
       </c>
       <c r="AG44" s="2">
         <f t="shared" si="25"/>
-        <v>2318.4342103922972</v>
+        <v>2318.4342104168536</v>
       </c>
       <c r="AH44" s="2">
-        <v>-8.4429984781309031E-8</v>
+        <v>-2.185970515711233E-9</v>
       </c>
       <c r="AI44" s="2">
         <f t="shared" si="26"/>
-        <v>2318.4342104004827</v>
+        <v>2318.4342104250391</v>
       </c>
       <c r="AJ44" s="2">
-        <v>3.6771780287381262E-8</v>
+        <v>2.1425421437015757E-9</v>
       </c>
       <c r="AK44" s="5">
         <f t="shared" si="17"/>
-        <v>2318.43421039639</v>
+        <v>2318.4342104209463</v>
       </c>
       <c r="AL44" s="2">
-        <v>5.192146090848837E-8</v>
+        <v>-2.1600499167107046E-11</v>
       </c>
       <c r="AM44" s="2">
         <f t="shared" si="18"/>
-        <v>-4.3837281543270049E-15</v>
+        <v>4.7218054303941048E-20</v>
       </c>
       <c r="AN44" s="2">
         <f t="shared" si="19"/>
-        <v>1.9092445527267894E-15</v>
+        <v>-4.627997979051763E-20</v>
       </c>
       <c r="AO44" s="2">
         <f t="shared" si="20"/>
@@ -47827,11 +47828,11 @@
       </c>
     </row>
     <row r="47" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
       <c r="J47" s="10" t="s">
         <v>62</v>
       </c>
@@ -47842,19 +47843,19 @@
       <c r="L47" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AF47" s="69" t="s">
+      <c r="AF47" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="AG47" s="69"/>
-      <c r="AH47" s="69"/>
-      <c r="AI47" s="69"/>
+      <c r="AG47" s="62"/>
+      <c r="AH47" s="62"/>
+      <c r="AI47" s="62"/>
       <c r="AU47" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AV47" s="68" t="s">
+      <c r="AV47" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="AW47" s="68"/>
+      <c r="AW47" s="65"/>
       <c r="AX47" s="24"/>
       <c r="AY47" s="24"/>
       <c r="AZ47" s="24"/>
@@ -47990,21 +47991,21 @@
         <v>53</v>
       </c>
       <c r="AU48" s="27"/>
-      <c r="AV48" s="69" t="s">
+      <c r="AV48" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="AW48" s="69"/>
-      <c r="AX48" s="69"/>
-      <c r="AY48" s="69" t="s">
+      <c r="AW48" s="62"/>
+      <c r="AX48" s="62"/>
+      <c r="AY48" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="AZ48" s="69"/>
-      <c r="BA48" s="69"/>
-      <c r="BB48" s="69" t="s">
+      <c r="AZ48" s="62"/>
+      <c r="BA48" s="62"/>
+      <c r="BB48" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="BC48" s="69"/>
-      <c r="BD48" s="70"/>
+      <c r="BC48" s="62"/>
+      <c r="BD48" s="64"/>
       <c r="BG48" s="2" t="s">
         <v>180</v>
       </c>
@@ -48287,7 +48288,7 @@
         <f t="shared" ref="AO50:AO79" si="42">AI50-AG50</f>
         <v>1450</v>
       </c>
-      <c r="AU50" s="71" t="s">
+      <c r="AU50" s="69" t="s">
         <v>160</v>
       </c>
       <c r="AV50" s="51">
@@ -48444,7 +48445,7 @@
         <f t="shared" si="42"/>
         <v>725</v>
       </c>
-      <c r="AU51" s="71"/>
+      <c r="AU51" s="69"/>
       <c r="AV51" s="27">
         <v>-1.1499587328259999E-4</v>
       </c>
@@ -48563,11 +48564,11 @@
       </c>
     </row>
     <row r="52" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
       <c r="AF52" s="2">
         <v>3</v>
       </c>
@@ -48604,22 +48605,22 @@
         <f t="shared" si="42"/>
         <v>362.5</v>
       </c>
-      <c r="AU52" s="71"/>
-      <c r="AV52" s="63">
+      <c r="AU52" s="69"/>
+      <c r="AV52" s="66">
         <v>-2.4012358386552801</v>
       </c>
-      <c r="AW52" s="64"/>
-      <c r="AX52" s="65"/>
-      <c r="AY52" s="63">
+      <c r="AW52" s="67"/>
+      <c r="AX52" s="68"/>
+      <c r="AY52" s="66">
         <v>0.149391545914075</v>
       </c>
-      <c r="AZ52" s="64"/>
-      <c r="BA52" s="65"/>
-      <c r="BB52" s="63">
+      <c r="AZ52" s="67"/>
+      <c r="BA52" s="68"/>
+      <c r="BB52" s="66">
         <v>3.65120250353774</v>
       </c>
-      <c r="BC52" s="64"/>
-      <c r="BD52" s="65"/>
+      <c r="BC52" s="67"/>
+      <c r="BD52" s="68"/>
       <c r="BG52" s="2" t="s">
         <v>190</v>
       </c>
@@ -48753,7 +48754,7 @@
         <f t="shared" si="42"/>
         <v>181.25</v>
       </c>
-      <c r="AU53" s="71" t="s">
+      <c r="AU53" s="69" t="s">
         <v>164</v>
       </c>
       <c r="AV53" s="51">
@@ -48920,7 +48921,7 @@
         <f t="shared" si="42"/>
         <v>90.625</v>
       </c>
-      <c r="AU54" s="71"/>
+      <c r="AU54" s="69"/>
       <c r="AV54" s="27">
         <v>-2.5152080542999999E-6</v>
       </c>
@@ -49085,22 +49086,22 @@
         <f t="shared" si="42"/>
         <v>45.3125</v>
       </c>
-      <c r="AU55" s="72"/>
-      <c r="AV55" s="63">
+      <c r="AU55" s="70"/>
+      <c r="AV55" s="66">
         <v>-1.5880058514071E-2</v>
       </c>
-      <c r="AW55" s="64"/>
-      <c r="AX55" s="65"/>
-      <c r="AY55" s="64">
+      <c r="AW55" s="67"/>
+      <c r="AX55" s="68"/>
+      <c r="AY55" s="67">
         <v>0.110802661807325</v>
       </c>
-      <c r="AZ55" s="64"/>
-      <c r="BA55" s="64"/>
-      <c r="BB55" s="63">
+      <c r="AZ55" s="67"/>
+      <c r="BA55" s="67"/>
+      <c r="BB55" s="66">
         <v>7.4721088420790002E-3</v>
       </c>
-      <c r="BC55" s="64"/>
-      <c r="BD55" s="65"/>
+      <c r="BC55" s="67"/>
+      <c r="BD55" s="68"/>
       <c r="BG55" s="2" t="s">
         <v>194</v>
       </c>
@@ -49455,11 +49456,11 @@
       </c>
     </row>
     <row r="58" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
       <c r="AF58" s="2">
         <v>9</v>
       </c>
@@ -49755,17 +49756,17 @@
         <f t="shared" si="42"/>
         <v>1.416015625</v>
       </c>
-      <c r="BG60" s="62" t="s">
+      <c r="BG60" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="BH60" s="62"/>
-      <c r="BI60" s="62"/>
+      <c r="BH60" s="61"/>
+      <c r="BI60" s="61"/>
       <c r="BJ60" s="2"/>
-      <c r="BK60" s="62" t="s">
+      <c r="BK60" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="BL60" s="62"/>
-      <c r="BM60" s="62"/>
+      <c r="BL60" s="61"/>
+      <c r="BM60" s="61"/>
       <c r="BO60" s="2">
         <v>22</v>
       </c>
@@ -50108,11 +50109,11 @@
       </c>
     </row>
     <row r="63" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B63" s="53" t="s">
+      <c r="B63" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
       <c r="AF63" s="2">
         <v>14</v>
       </c>
@@ -50922,11 +50923,11 @@
       </c>
     </row>
     <row r="69" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B69" s="53" t="s">
+      <c r="B69" s="57" t="s">
         <v>273</v>
       </c>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
       <c r="AF69" s="2">
         <v>20</v>
       </c>
@@ -51378,7 +51379,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="BS73" s="2">
-        <f t="dataTable" ref="BS73:BS102" dt2D="0" dtr="0" r1="BH42"/>
+        <f t="dataTable" ref="BS73:BS102" dt2D="0" dtr="0" r1="BH42" ca="1"/>
         <v>0.49862817611758425</v>
       </c>
       <c r="BT73" s="2">
@@ -51425,7 +51426,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="CF73" s="2">
-        <f t="dataTable" ref="CF73:CF102" dt2D="0" dtr="0" r1="BL42"/>
+        <f t="dataTable" ref="CF73:CF102" dt2D="0" dtr="0" r1="BL42" ca="1"/>
         <v>1.1103587785650133</v>
       </c>
       <c r="CG73" s="2">
@@ -51569,11 +51570,11 @@
       </c>
     </row>
     <row r="75" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B75" s="53" t="s">
+      <c r="B75" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
       <c r="AF75" s="2">
         <v>26</v>
       </c>
@@ -54056,7 +54057,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="BS107" s="2">
-        <f t="dataTable" ref="BS107:BS136" dt2D="0" dtr="0" r1="BH61"/>
+        <f t="dataTable" ref="BS107:BS136" dt2D="0" dtr="0" r1="BH61" ca="1"/>
         <v>0.49032565941316025</v>
       </c>
       <c r="BT107" s="2">
@@ -54095,7 +54096,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="CD107" s="2">
-        <f t="dataTable" ref="CD107:CD136" dt2D="0" dtr="0" r1="BL61"/>
+        <f t="dataTable" ref="CD107:CD136" dt2D="0" dtr="0" r1="BL61" ca="1"/>
         <v>0.55739287553719252</v>
       </c>
       <c r="CE107" s="2">
@@ -56267,17 +56268,65 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="BB52:BD52"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="AV47:AW47"/>
-    <mergeCell ref="AV48:AX48"/>
-    <mergeCell ref="AU50:AU52"/>
-    <mergeCell ref="AV52:AX52"/>
-    <mergeCell ref="AY52:BA52"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="AQ7:AS7"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AY2:BE2"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="BC30:BE30"/>
+    <mergeCell ref="AQ35:AQ42"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="AV42:AX42"/>
+    <mergeCell ref="AY42:BB42"/>
+    <mergeCell ref="BC42:BE42"/>
+    <mergeCell ref="AQ27:AQ34"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AY30:BA30"/>
+    <mergeCell ref="AQ19:AQ26"/>
+    <mergeCell ref="AY21:BA21"/>
+    <mergeCell ref="BC21:BE21"/>
+    <mergeCell ref="AU53:AU55"/>
+    <mergeCell ref="AV55:AX55"/>
+    <mergeCell ref="AQ11:AQ18"/>
+    <mergeCell ref="AY12:BA12"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="BK22:BM22"/>
+    <mergeCell ref="AU23:AU29"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="BG22:BI22"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AU14:AW14"/>
+    <mergeCell ref="AU22:AW22"/>
+    <mergeCell ref="BO36:BX36"/>
+    <mergeCell ref="BZ36:CI36"/>
+    <mergeCell ref="AV41:AW41"/>
+    <mergeCell ref="BG41:BI41"/>
+    <mergeCell ref="BK41:BM41"/>
+    <mergeCell ref="BZ2:CI2"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BG2:BM2"/>
+    <mergeCell ref="BO2:BX2"/>
     <mergeCell ref="BO104:BX104"/>
     <mergeCell ref="BZ104:CI104"/>
     <mergeCell ref="B63:D63"/>
@@ -56294,65 +56343,17 @@
     <mergeCell ref="BB55:BD55"/>
     <mergeCell ref="AY48:BA48"/>
     <mergeCell ref="BB48:BD48"/>
-    <mergeCell ref="BZ2:CI2"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="BG3:BI3"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BG2:BM2"/>
-    <mergeCell ref="BO2:BX2"/>
-    <mergeCell ref="BO36:BX36"/>
-    <mergeCell ref="BZ36:CI36"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="BG41:BI41"/>
-    <mergeCell ref="BK41:BM41"/>
-    <mergeCell ref="AQ11:AQ18"/>
-    <mergeCell ref="AY12:BA12"/>
-    <mergeCell ref="BC12:BE12"/>
-    <mergeCell ref="BK22:BM22"/>
-    <mergeCell ref="AU23:AU29"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="BG22:BI22"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AU14:AW14"/>
-    <mergeCell ref="AU22:AW22"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="BC30:BE30"/>
-    <mergeCell ref="AQ35:AQ42"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="AV42:AX42"/>
-    <mergeCell ref="AY42:BB42"/>
-    <mergeCell ref="BC42:BE42"/>
-    <mergeCell ref="AQ27:AQ34"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AY30:BA30"/>
-    <mergeCell ref="AQ19:AQ26"/>
-    <mergeCell ref="AY21:BA21"/>
-    <mergeCell ref="BC21:BE21"/>
-    <mergeCell ref="AU53:AU55"/>
-    <mergeCell ref="AV55:AX55"/>
-    <mergeCell ref="AQ7:AS7"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AY2:BE2"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="BB52:BD52"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="AV47:AW47"/>
+    <mergeCell ref="AV48:AX48"/>
+    <mergeCell ref="AU50:AU52"/>
+    <mergeCell ref="AV52:AX52"/>
+    <mergeCell ref="AY52:BA52"/>
   </mergeCells>
   <conditionalFormatting sqref="G12">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FALSE">

--- a/examples/mtow_estimation/estimate_mtow.xlsx
+++ b/examples/mtow_estimation/estimate_mtow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/examples/mtow_estimation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC46B70C-5D89-0B44-8BD5-1D18696A6D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9EC88B-178D-A742-A18A-4257673A4181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="1" activeTab="4" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" firstSheet="1" activeTab="4" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="multirotor_fidelity0" sheetId="13" r:id="rId1"/>
@@ -1114,7 +1114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1268,7 +1268,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1277,34 +1292,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1316,34 +1310,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15418,7 +15403,7 @@
   <dimension ref="B1:AO54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15462,11 +15447,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -15477,26 +15462,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="F3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="J3" s="57" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="N3" s="57" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
       <c r="U3" s="7" t="s">
         <v>44</v>
       </c>
@@ -15741,14 +15726,14 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
         <v>-993.53018731711279</v>
       </c>
       <c r="AI5" s="3">
         <v>5000</v>
       </c>
       <c r="AJ5" s="2">
-        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5"/>
+        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5" ca="1"/>
         <v>1409.7404053106566</v>
       </c>
       <c r="AK5" s="2">
@@ -15896,11 +15881,11 @@
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
       <c r="N7" t="s">
         <v>123</v>
       </c>
@@ -16309,11 +16294,11 @@
       </c>
     </row>
     <row r="11" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
       <c r="F11" s="42" t="s">
         <v>85</v>
       </c>
@@ -16324,11 +16309,11 @@
       <c r="H11" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
       <c r="N11" s="6" t="s">
         <v>118</v>
       </c>
@@ -16519,11 +16504,11 @@
       <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
       <c r="J13" s="11" t="s">
         <v>55</v>
       </c>
@@ -16534,11 +16519,11 @@
       <c r="L13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="53" t="s">
+      <c r="N13" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
       <c r="U13" s="2">
         <v>9</v>
       </c>
@@ -16833,11 +16818,11 @@
       </c>
     </row>
     <row r="16" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
       <c r="F16" s="6" t="s">
         <v>133</v>
       </c>
@@ -16961,11 +16946,11 @@
       <c r="L17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="53" t="s">
+      <c r="N17" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
       <c r="U17" s="2">
         <v>13</v>
       </c>
@@ -17485,11 +17470,11 @@
       </c>
     </row>
     <row r="22" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
       <c r="J22" s="14" t="s">
         <v>117</v>
       </c>
@@ -17591,11 +17576,11 @@
         <v>6</v>
       </c>
       <c r="D23"/>
-      <c r="F23" s="53" t="s">
+      <c r="F23" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
       <c r="J23" s="15" t="s">
         <v>67</v>
       </c>
@@ -18025,11 +18010,11 @@
       </c>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
       <c r="F27" t="s">
         <v>21</v>
       </c>
@@ -18360,11 +18345,11 @@
       <c r="H30" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="J30" s="57" t="s">
+      <c r="J30" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
       <c r="U30" s="2">
         <v>26</v>
       </c>
@@ -18624,11 +18609,11 @@
       </c>
     </row>
     <row r="33" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
       <c r="F33" s="9"/>
       <c r="J33" s="19" t="s">
         <v>81</v>
@@ -18959,16 +18944,16 @@
       </c>
     </row>
     <row r="38" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="J38" s="57" t="s">
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="J38" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
       <c r="AF38" s="2">
         <v>34</v>
       </c>
@@ -19283,11 +19268,11 @@
       </c>
     </row>
     <row r="44" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
       <c r="J44" s="10" t="s">
         <v>62</v>
       </c>
@@ -19356,11 +19341,11 @@
       <c r="D46" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="J46" s="57" t="s">
+      <c r="J46" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
     </row>
     <row r="47" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
@@ -19417,11 +19402,11 @@
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
       <c r="J50" s="10" t="s">
         <v>62</v>
       </c>
@@ -19467,16 +19452,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="J38:L38"/>
     <mergeCell ref="N17:P17"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D3"/>
@@ -19489,6 +19464,16 @@
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="J38:L38"/>
   </mergeCells>
   <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="FALSE">
@@ -19519,8 +19504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1D4AB6-557E-EC41-AEF7-F524A5AEEAA8}">
   <dimension ref="B1:AS68"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19569,11 +19554,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="2:45" x14ac:dyDescent="0.2">
       <c r="Y2" s="16" t="s">
@@ -19584,31 +19569,31 @@
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="F3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="J3" s="57" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="N3" s="57" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="R3" s="57" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="R3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
       <c r="Y3" s="7" t="s">
         <v>44</v>
       </c>
@@ -19720,7 +19705,7 @@
       <c r="Y4" s="2">
         <v>0</v>
       </c>
-      <c r="Z4" s="75">
+      <c r="Z4" s="53">
         <v>1.0000000000000001E-15</v>
       </c>
       <c r="AA4" s="37">
@@ -19872,7 +19857,7 @@
         <v>500</v>
       </c>
       <c r="AL5" s="2">
-        <f t="dataTable" ref="AL5:AL44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AL5:AL44" dt2D="0" dtr="0" r1="C5"/>
         <v>-995.50744882381332</v>
       </c>
       <c r="AM5" s="3">
@@ -19887,7 +19872,7 @@
         <v>2750</v>
       </c>
       <c r="AP5" s="2">
-        <f t="dataTable" ref="AP5:AP44" dt2D="0" dtr="0" r1="C5"/>
+        <f t="dataTable" ref="AP5:AP44" dt2D="0" dtr="0" r1="C5" ca="1"/>
         <v>355.78630347705734</v>
       </c>
       <c r="AQ5" s="2">
@@ -19910,7 +19895,7 @@
       <c r="C6" s="22">
         <v>350</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="6" t="s">
         <v>134</v>
       </c>
       <c r="F6" t="s">
@@ -20025,18 +20010,18 @@
       <c r="F7" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="8">
         <f>$C$6*2*PI()/60*$C$9</f>
         <v>146.60765716752366</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
       <c r="N7" t="s">
         <v>123</v>
       </c>
@@ -20498,11 +20483,11 @@
       <c r="H11" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
       <c r="N11" s="6" t="s">
         <v>118</v>
       </c>
@@ -20593,11 +20578,11 @@
       </c>
     </row>
     <row r="12" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
       <c r="F12" t="s">
         <v>282</v>
       </c>
@@ -20722,16 +20707,16 @@
       <c r="L13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="53" t="s">
+      <c r="N13" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="R13" s="53" t="s">
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="R13" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
       <c r="Y13" s="2">
         <v>9</v>
       </c>
@@ -21041,11 +21026,11 @@
       </c>
     </row>
     <row r="16" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
       <c r="J16" s="13" t="s">
         <v>56</v>
       </c>
@@ -21133,11 +21118,11 @@
       </c>
     </row>
     <row r="17" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
       <c r="F17" s="9" t="s">
         <v>92</v>
       </c>
@@ -21158,16 +21143,16 @@
       <c r="L17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="53" t="s">
+      <c r="N17" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="R17" s="53" t="s">
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="R17" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
       <c r="Y17" s="2">
         <v>13</v>
       </c>
@@ -21844,11 +21829,11 @@
       </c>
     </row>
     <row r="23" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
       <c r="F23" s="9" t="s">
         <v>277</v>
       </c>
@@ -22198,11 +22183,11 @@
       <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
       <c r="J26" s="15" t="s">
         <v>70</v>
       </c>
@@ -22421,11 +22406,11 @@
       </c>
     </row>
     <row r="28" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
       <c r="F28" t="s">
         <v>94</v>
       </c>
@@ -22656,11 +22641,11 @@
       <c r="H30" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="57" t="s">
+      <c r="J30" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
       <c r="Y30" s="2">
         <v>26</v>
       </c>
@@ -23046,11 +23031,11 @@
       </c>
     </row>
     <row r="34" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
       <c r="J34" s="20" t="s">
         <v>72</v>
       </c>
@@ -23081,11 +23066,11 @@
         <v>-1.1753510664735956E-9</v>
       </c>
       <c r="AD34" s="5">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> (Z34 + AB34)/2</f>
         <v>5.7494134176523437E-2</v>
       </c>
       <c r="AE34" s="37">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> $O$21 * TAN($O$18/180*PI()) + $O$22 / (2 * SQRT($O$21^2 + AD34^2)) - AD34</f>
         <v>-3.843498158628833E-10</v>
       </c>
       <c r="AF34" s="2">
@@ -23327,11 +23312,11 @@
       </c>
     </row>
     <row r="38" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="J38" s="57" t="s">
+      <c r="J38" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
       <c r="Y38" s="2">
         <v>0</v>
       </c>
@@ -23407,11 +23392,11 @@
       </c>
     </row>
     <row r="39" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
       <c r="J39" s="6" t="s">
         <v>60</v>
       </c>
@@ -23970,11 +23955,11 @@
       </c>
     </row>
     <row r="45" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
       <c r="Y45" s="2">
         <v>7</v>
       </c>
@@ -24025,11 +24010,11 @@
       <c r="D46" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="57" t="s">
+      <c r="J46" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
       <c r="Y46" s="2">
         <v>8</v>
       </c>
@@ -24302,11 +24287,11 @@
       </c>
     </row>
     <row r="51" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
       <c r="Y51" s="2">
         <v>13</v>
       </c>
@@ -25070,6 +25055,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="J46:L46"/>
     <mergeCell ref="B51:D51"/>
@@ -25086,15 +25080,6 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="F16:H16"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="J7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="FALSE">
@@ -25204,11 +25189,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="2:87" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -25217,85 +25202,85 @@
       <c r="AF2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AQ2" s="60" t="s">
+      <c r="AQ2" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
       <c r="AT2"/>
-      <c r="AU2" s="60" t="s">
+      <c r="AU2" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
       <c r="AX2"/>
-      <c r="AY2" s="60" t="s">
+      <c r="AY2" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="60"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BE2" s="61"/>
       <c r="BF2"/>
-      <c r="BG2" s="60" t="s">
+      <c r="BG2" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="BH2" s="60"/>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="60"/>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
+      <c r="BH2" s="61"/>
+      <c r="BI2" s="61"/>
+      <c r="BJ2" s="61"/>
+      <c r="BK2" s="61"/>
+      <c r="BL2" s="61"/>
+      <c r="BM2" s="61"/>
       <c r="BN2"/>
-      <c r="BO2" s="60" t="s">
+      <c r="BO2" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="BP2" s="60"/>
-      <c r="BQ2" s="60"/>
-      <c r="BR2" s="60"/>
-      <c r="BS2" s="60"/>
-      <c r="BT2" s="60"/>
-      <c r="BU2" s="60"/>
-      <c r="BV2" s="60"/>
-      <c r="BW2" s="60"/>
-      <c r="BX2" s="60"/>
+      <c r="BP2" s="61"/>
+      <c r="BQ2" s="61"/>
+      <c r="BR2" s="61"/>
+      <c r="BS2" s="61"/>
+      <c r="BT2" s="61"/>
+      <c r="BU2" s="61"/>
+      <c r="BV2" s="61"/>
+      <c r="BW2" s="61"/>
+      <c r="BX2" s="61"/>
       <c r="BY2"/>
-      <c r="BZ2" s="60" t="s">
+      <c r="BZ2" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="CA2" s="60"/>
-      <c r="CB2" s="60"/>
-      <c r="CC2" s="60"/>
-      <c r="CD2" s="60"/>
-      <c r="CE2" s="60"/>
-      <c r="CF2" s="60"/>
-      <c r="CG2" s="60"/>
-      <c r="CH2" s="60"/>
-      <c r="CI2" s="60"/>
+      <c r="CA2" s="61"/>
+      <c r="CB2" s="61"/>
+      <c r="CC2" s="61"/>
+      <c r="CD2" s="61"/>
+      <c r="CE2" s="61"/>
+      <c r="CF2" s="61"/>
+      <c r="CG2" s="61"/>
+      <c r="CH2" s="61"/>
+      <c r="CI2" s="61"/>
     </row>
     <row r="3" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="F3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="J3" s="57" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="N3" s="57" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
       <c r="U3" s="7" t="s">
         <v>44</v>
       </c>
@@ -25378,29 +25363,29 @@
         <v>8</v>
       </c>
       <c r="AX3"/>
-      <c r="AY3" s="61" t="s">
+      <c r="AY3" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="63"/>
       <c r="BB3"/>
-      <c r="BC3" s="61" t="s">
+      <c r="BC3" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="BD3" s="61"/>
-      <c r="BE3" s="61"/>
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
       <c r="BF3"/>
-      <c r="BG3" s="61" t="s">
+      <c r="BG3" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="BH3" s="61"/>
-      <c r="BI3" s="61"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
       <c r="BJ3" s="2"/>
-      <c r="BK3" s="61" t="s">
+      <c r="BK3" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="BL3" s="61"/>
-      <c r="BM3" s="61"/>
+      <c r="BL3" s="63"/>
+      <c r="BM3" s="63"/>
       <c r="BN3"/>
       <c r="BO3" s="7" t="s">
         <v>44</v>
@@ -25756,7 +25741,7 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
         <v>-1109.6381341663828</v>
       </c>
       <c r="AI5" s="3">
@@ -25859,7 +25844,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="BQ5" s="2">
-        <f t="dataTable" ref="BQ5:BQ34" dt2D="0" dtr="0" r1="BH4" ca="1"/>
+        <f t="dataTable" ref="BQ5:BQ34" dt2D="0" dtr="0" r1="BH4"/>
         <v>-2.3673228762944749</v>
       </c>
       <c r="BR5" s="3">
@@ -25875,7 +25860,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="BU5" s="2">
-        <f t="dataTable" ref="BU5:BU34" dt2D="0" dtr="0" r1="BH4"/>
+        <f t="dataTable" ref="BU5:BU34" dt2D="0" dtr="0" r1="BH4" ca="1"/>
         <v>1.0861838500730727</v>
       </c>
       <c r="BV5" s="2">
@@ -25899,7 +25884,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="CB5" s="2">
-        <f t="dataTable" ref="CB5:CB34" dt2D="0" dtr="0" r1="BL4" ca="1"/>
+        <f t="dataTable" ref="CB5:CB34" dt2D="0" dtr="0" r1="BL4"/>
         <v>-1.3214200304781507</v>
       </c>
       <c r="CC5" s="3">
@@ -25907,7 +25892,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="CD5" s="2">
-        <f t="dataTable" ref="CD5:CD34" dt2D="0" dtr="0" r1="BL4"/>
+        <f t="dataTable" ref="CD5:CD34" dt2D="0" dtr="0" r1="BL4" ca="1"/>
         <v>0.43990838910458613</v>
       </c>
       <c r="CE5" s="2">
@@ -26187,11 +26172,11 @@
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
       <c r="N7" t="s">
         <v>123</v>
       </c>
@@ -26273,11 +26258,11 @@
         <f t="shared" si="20"/>
         <v>1125</v>
       </c>
-      <c r="AQ7" s="60" t="s">
+      <c r="AQ7" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="AR7" s="60"/>
-      <c r="AS7" s="60"/>
+      <c r="AR7" s="61"/>
+      <c r="AS7" s="61"/>
       <c r="AT7"/>
       <c r="AU7" s="2" t="s">
         <v>166</v>
@@ -26767,11 +26752,11 @@
         <v>8</v>
       </c>
       <c r="AT9"/>
-      <c r="AU9" s="60" t="s">
+      <c r="AU9" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="AV9" s="60"/>
-      <c r="AW9" s="60"/>
+      <c r="AV9" s="61"/>
+      <c r="AW9" s="61"/>
       <c r="AX9"/>
       <c r="AY9" s="2" t="s">
         <v>174</v>
@@ -27137,11 +27122,11 @@
       <c r="H11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
       <c r="N11" s="6" t="s">
         <v>118</v>
       </c>
@@ -27224,7 +27209,7 @@
         <f t="shared" si="20"/>
         <v>70.3125</v>
       </c>
-      <c r="AQ11" s="63" t="s">
+      <c r="AQ11" s="67" t="s">
         <v>181</v>
       </c>
       <c r="AR11" s="3" t="s">
@@ -27344,11 +27329,11 @@
       </c>
     </row>
     <row r="12" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
       <c r="F12" s="6" t="s">
         <v>217</v>
       </c>
@@ -27441,7 +27426,7 @@
         <f t="shared" si="20"/>
         <v>35.15625</v>
       </c>
-      <c r="AQ12" s="63"/>
+      <c r="AQ12" s="67"/>
       <c r="AR12" s="3" t="s">
         <v>219</v>
       </c>
@@ -27458,17 +27443,17 @@
         <v>104</v>
       </c>
       <c r="AX12"/>
-      <c r="AY12" s="61" t="s">
+      <c r="AY12" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="AZ12" s="61"/>
-      <c r="BA12" s="61"/>
+      <c r="AZ12" s="63"/>
+      <c r="BA12" s="63"/>
       <c r="BB12"/>
-      <c r="BC12" s="61" t="s">
+      <c r="BC12" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="BD12" s="61"/>
-      <c r="BE12" s="61"/>
+      <c r="BD12" s="63"/>
+      <c r="BE12" s="63"/>
       <c r="BF12"/>
       <c r="BG12" s="2" t="s">
         <v>187</v>
@@ -27593,11 +27578,11 @@
       <c r="L13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="53" t="s">
+      <c r="N13" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
       <c r="U13" s="2">
         <v>9</v>
       </c>
@@ -27673,7 +27658,7 @@
         <f t="shared" si="20"/>
         <v>17.578125</v>
       </c>
-      <c r="AQ13" s="63"/>
+      <c r="AQ13" s="67"/>
       <c r="AR13" s="3" t="s">
         <v>219</v>
       </c>
@@ -27902,17 +27887,17 @@
         <f t="shared" si="20"/>
         <v>8.7890625</v>
       </c>
-      <c r="AQ14" s="63"/>
+      <c r="AQ14" s="67"/>
       <c r="AR14" s="3" t="s">
         <v>219</v>
       </c>
       <c r="AS14" s="26"/>
       <c r="AT14"/>
-      <c r="AU14" s="60" t="s">
+      <c r="AU14" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="AV14" s="60"/>
-      <c r="AW14" s="60"/>
+      <c r="AV14" s="61"/>
+      <c r="AW14" s="61"/>
       <c r="AX14"/>
       <c r="AY14" s="2" t="s">
         <v>158</v>
@@ -28035,11 +28020,11 @@
       <c r="C15" s="17">
         <v>1</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
       <c r="J15" s="12" t="s">
         <v>136</v>
       </c>
@@ -28132,7 +28117,7 @@
         <f t="shared" si="20"/>
         <v>4.39453125</v>
       </c>
-      <c r="AQ15" s="63"/>
+      <c r="AQ15" s="67"/>
       <c r="AR15" s="3" t="s">
         <v>219</v>
       </c>
@@ -28363,7 +28348,7 @@
         <f t="shared" si="20"/>
         <v>2.197265625</v>
       </c>
-      <c r="AQ16" s="63"/>
+      <c r="AQ16" s="67"/>
       <c r="AR16" s="3" t="s">
         <v>219</v>
       </c>
@@ -28493,11 +28478,11 @@
       </c>
     </row>
     <row r="17" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
       <c r="F17" t="s">
         <v>130</v>
       </c>
@@ -28518,11 +28503,11 @@
       <c r="L17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="53" t="s">
+      <c r="N17" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
       <c r="U17" s="2">
         <v>13</v>
       </c>
@@ -28598,7 +28583,7 @@
         <f t="shared" si="20"/>
         <v>1.0986328125</v>
       </c>
-      <c r="AQ17" s="63"/>
+      <c r="AQ17" s="67"/>
       <c r="AR17" s="3" t="s">
         <v>219</v>
       </c>
@@ -28835,7 +28820,7 @@
         <f t="shared" si="20"/>
         <v>0.54931640625</v>
       </c>
-      <c r="AQ18" s="63"/>
+      <c r="AQ18" s="67"/>
       <c r="AR18" s="3" t="s">
         <v>219</v>
       </c>
@@ -29076,7 +29061,7 @@
         <f t="shared" si="20"/>
         <v>0.274658203125</v>
       </c>
-      <c r="AQ19" s="63" t="s">
+      <c r="AQ19" s="67" t="s">
         <v>195</v>
       </c>
       <c r="AR19" s="3">
@@ -29323,7 +29308,7 @@
         <f t="shared" si="20"/>
         <v>0.1373291015625</v>
       </c>
-      <c r="AQ20" s="63"/>
+      <c r="AQ20" s="67"/>
       <c r="AR20" s="3">
         <f>0.285*($AR$9/2)</f>
         <v>1.1399999999999999</v>
@@ -29540,7 +29525,7 @@
         <f t="shared" si="20"/>
         <v>6.866455078125E-2</v>
       </c>
-      <c r="AQ21" s="63"/>
+      <c r="AQ21" s="67"/>
       <c r="AR21" s="3">
         <f>0.395*($AR$9/2)</f>
         <v>1.58</v>
@@ -29553,17 +29538,17 @@
       <c r="AV21"/>
       <c r="AW21" s="39"/>
       <c r="AX21"/>
-      <c r="AY21" s="61" t="s">
+      <c r="AY21" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="AZ21" s="61"/>
-      <c r="BA21" s="61"/>
+      <c r="AZ21" s="63"/>
+      <c r="BA21" s="63"/>
       <c r="BB21"/>
-      <c r="BC21" s="61" t="s">
+      <c r="BC21" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="BD21" s="61"/>
-      <c r="BE21" s="61"/>
+      <c r="BD21" s="63"/>
+      <c r="BE21" s="63"/>
       <c r="BF21"/>
       <c r="BG21" s="2"/>
       <c r="BH21" s="2"/>
@@ -29648,11 +29633,11 @@
       </c>
     </row>
     <row r="22" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
       <c r="J22" s="14" t="s">
         <v>117</v>
       </c>
@@ -29745,7 +29730,7 @@
         <f t="shared" si="20"/>
         <v>3.4332275390625E-2</v>
       </c>
-      <c r="AQ22" s="63"/>
+      <c r="AQ22" s="67"/>
       <c r="AR22" s="3">
         <f>0.505*($AR$9/2)</f>
         <v>2.02</v>
@@ -29754,11 +29739,11 @@
         <v>8</v>
       </c>
       <c r="AT22"/>
-      <c r="AU22" s="60" t="s">
+      <c r="AU22" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="AV22" s="60"/>
-      <c r="AW22" s="60"/>
+      <c r="AV22" s="61"/>
+      <c r="AW22" s="61"/>
       <c r="AX22"/>
       <c r="AY22" s="2" t="s">
         <v>153</v>
@@ -29782,17 +29767,17 @@
         <v>8</v>
       </c>
       <c r="BF22"/>
-      <c r="BG22" s="61" t="s">
+      <c r="BG22" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="BH22" s="61"/>
-      <c r="BI22" s="61"/>
+      <c r="BH22" s="63"/>
+      <c r="BI22" s="63"/>
       <c r="BJ22" s="2"/>
-      <c r="BK22" s="61" t="s">
+      <c r="BK22" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="BL22" s="61"/>
-      <c r="BM22" s="61"/>
+      <c r="BL22" s="63"/>
+      <c r="BM22" s="63"/>
       <c r="BN22"/>
       <c r="BO22" s="2">
         <v>18</v>
@@ -29869,11 +29854,11 @@
       </c>
     </row>
     <row r="23" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
       <c r="F23" t="s">
         <v>88</v>
       </c>
@@ -29975,7 +29960,7 @@
         <f t="shared" si="20"/>
         <v>1.71661376953125E-2</v>
       </c>
-      <c r="AQ23" s="63"/>
+      <c r="AQ23" s="67"/>
       <c r="AR23" s="3">
         <f>0.615*($AR$9/2)</f>
         <v>2.46</v>
@@ -29984,14 +29969,14 @@
         <v>8</v>
       </c>
       <c r="AT23"/>
-      <c r="AU23" s="62" t="s">
+      <c r="AU23" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="AV23" s="63">
+      <c r="AV23" s="67">
         <f>BH20</f>
         <v>4.5094475792373245E-9</v>
       </c>
-      <c r="AW23" s="63"/>
+      <c r="AW23" s="67"/>
       <c r="AX23"/>
       <c r="AY23" s="2" t="s">
         <v>158</v>
@@ -30224,7 +30209,7 @@
         <f t="shared" si="20"/>
         <v>8.58306884765625E-3</v>
       </c>
-      <c r="AQ24" s="63"/>
+      <c r="AQ24" s="67"/>
       <c r="AR24" s="3">
         <f>0.725*($AR$9/2)</f>
         <v>2.9</v>
@@ -30233,12 +30218,12 @@
         <v>8</v>
       </c>
       <c r="AT24"/>
-      <c r="AU24" s="62"/>
-      <c r="AV24" s="63">
+      <c r="AU24" s="70"/>
+      <c r="AV24" s="67">
         <f>BL20</f>
         <v>-5.9246087896758226E-10</v>
       </c>
-      <c r="AW24" s="63"/>
+      <c r="AW24" s="67"/>
       <c r="AX24"/>
       <c r="AY24" s="2" t="s">
         <v>163</v>
@@ -30470,7 +30455,7 @@
         <f t="shared" si="20"/>
         <v>4.291534423828125E-3</v>
       </c>
-      <c r="AQ25" s="63"/>
+      <c r="AQ25" s="67"/>
       <c r="AR25" s="3">
         <f>0.835*($AR$9/2)</f>
         <v>3.34</v>
@@ -30479,12 +30464,12 @@
         <v>8</v>
       </c>
       <c r="AT25"/>
-      <c r="AU25" s="62"/>
-      <c r="AV25" s="63">
+      <c r="AU25" s="70"/>
+      <c r="AV25" s="67">
         <f>BH39</f>
         <v>5.4337276067517593E-9</v>
       </c>
-      <c r="AW25" s="63"/>
+      <c r="AW25" s="67"/>
       <c r="AX25"/>
       <c r="AY25" s="2" t="s">
         <v>167</v>
@@ -30719,7 +30704,7 @@
         <f t="shared" si="20"/>
         <v>2.1457672119140625E-3</v>
       </c>
-      <c r="AQ26" s="63"/>
+      <c r="AQ26" s="67"/>
       <c r="AR26" s="3">
         <f>0.945*($AR$9/2)</f>
         <v>3.78</v>
@@ -30728,12 +30713,12 @@
         <v>8</v>
       </c>
       <c r="AT26"/>
-      <c r="AU26" s="62"/>
-      <c r="AV26" s="63">
+      <c r="AU26" s="70"/>
+      <c r="AV26" s="67">
         <f>BL39</f>
         <v>-2.5539294845611238E-9</v>
       </c>
-      <c r="AW26" s="63"/>
+      <c r="AW26" s="67"/>
       <c r="AX26"/>
       <c r="AY26" s="2" t="s">
         <v>170</v>
@@ -30952,7 +30937,7 @@
         <f t="shared" si="20"/>
         <v>1.0728836059570312E-3</v>
       </c>
-      <c r="AQ27" s="63" t="s">
+      <c r="AQ27" s="67" t="s">
         <v>204</v>
       </c>
       <c r="AR27" s="3">
@@ -30963,12 +30948,12 @@
         <v>8</v>
       </c>
       <c r="AT27"/>
-      <c r="AU27" s="62"/>
-      <c r="AV27" s="63">
+      <c r="AU27" s="70"/>
+      <c r="AV27" s="67">
         <f>BH58</f>
         <v>3.5025512559738736E-9</v>
       </c>
-      <c r="AW27" s="63"/>
+      <c r="AW27" s="67"/>
       <c r="AX27"/>
       <c r="AY27" s="2" t="s">
         <v>174</v>
@@ -31085,11 +31070,11 @@
       </c>
     </row>
     <row r="28" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
       <c r="J28" s="6" t="s">
         <v>58</v>
       </c>
@@ -31178,7 +31163,7 @@
         <f t="shared" si="20"/>
         <v>5.3644180297851562E-4</v>
       </c>
-      <c r="AQ28" s="63"/>
+      <c r="AQ28" s="67"/>
       <c r="AR28" s="3">
         <f>0.069425*($AR$9/2)</f>
         <v>0.2777</v>
@@ -31187,12 +31172,12 @@
         <v>8</v>
       </c>
       <c r="AT28"/>
-      <c r="AU28" s="62"/>
-      <c r="AV28" s="63">
+      <c r="AU28" s="70"/>
+      <c r="AV28" s="67">
         <f>BL58</f>
         <v>5.4190308282353605E-9</v>
       </c>
-      <c r="AW28" s="63"/>
+      <c r="AW28" s="67"/>
       <c r="AX28"/>
       <c r="AY28" s="2" t="s">
         <v>178</v>
@@ -31397,7 +31382,7 @@
         <f t="shared" si="20"/>
         <v>2.6822090148925781E-4</v>
       </c>
-      <c r="AQ29" s="63"/>
+      <c r="AQ29" s="67"/>
       <c r="AR29" s="3">
         <f>0.067375*($AR$9/2)</f>
         <v>0.26950000000000002</v>
@@ -31406,12 +31391,12 @@
         <v>8</v>
       </c>
       <c r="AT29"/>
-      <c r="AU29" s="62"/>
-      <c r="AV29" s="63">
+      <c r="AU29" s="70"/>
+      <c r="AV29" s="67">
         <f>BH77</f>
         <v>-3.9115081694462983E-9</v>
       </c>
-      <c r="AW29" s="63"/>
+      <c r="AW29" s="67"/>
       <c r="AX29"/>
       <c r="AY29"/>
       <c r="AZ29"/>
@@ -31522,11 +31507,11 @@
         <v>1.4E-2</v>
       </c>
       <c r="F30" s="9"/>
-      <c r="J30" s="57" t="s">
+      <c r="J30" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
       <c r="U30" s="2">
         <v>26</v>
       </c>
@@ -31602,7 +31587,7 @@
         <f t="shared" si="20"/>
         <v>1.3411045074462891E-4</v>
       </c>
-      <c r="AQ30" s="63"/>
+      <c r="AQ30" s="67"/>
       <c r="AR30" s="3">
         <f>0.065325*($AR$9/2)</f>
         <v>0.26129999999999998</v>
@@ -31614,23 +31599,23 @@
       <c r="AU30" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="AV30" s="63" t="b">
+      <c r="AV30" s="67" t="b">
         <f>IF(AV23&lt;0.00001,IF(AV24&lt;0.00001,IF(AV25&lt;0.00001,IF(AV26&lt;0.00001,IF(AV27&lt;0.00001,IF(AV28&lt;0.00001,IF(AV29&lt;0.00001,TRUE,FALSE),FALSE),FALSE),FALSE),FALSE),FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AW30" s="63"/>
+      <c r="AW30" s="67"/>
       <c r="AX30"/>
-      <c r="AY30" s="61" t="s">
+      <c r="AY30" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="AZ30" s="61"/>
-      <c r="BA30" s="61"/>
+      <c r="AZ30" s="63"/>
+      <c r="BA30" s="63"/>
       <c r="BB30"/>
-      <c r="BC30" s="61" t="s">
+      <c r="BC30" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="BD30" s="61"/>
-      <c r="BE30" s="61"/>
+      <c r="BD30" s="63"/>
+      <c r="BE30" s="63"/>
       <c r="BF30"/>
       <c r="BG30" s="2" t="s">
         <v>183</v>
@@ -31819,7 +31804,7 @@
         <f t="shared" si="20"/>
         <v>6.7055225372314453E-5</v>
       </c>
-      <c r="AQ31" s="63"/>
+      <c r="AQ31" s="67"/>
       <c r="AR31" s="3">
         <f>0.063275*($AR$9/2)</f>
         <v>0.25309999999999999</v>
@@ -32040,7 +32025,7 @@
         <f t="shared" si="20"/>
         <v>3.3527612686157227E-5</v>
       </c>
-      <c r="AQ32" s="63"/>
+      <c r="AQ32" s="67"/>
       <c r="AR32" s="3">
         <f>0.061225*($AR$9/2)</f>
         <v>0.24490000000000001</v>
@@ -32253,7 +32238,7 @@
         <f t="shared" si="20"/>
         <v>1.6763806343078613E-5</v>
       </c>
-      <c r="AQ33" s="63"/>
+      <c r="AQ33" s="67"/>
       <c r="AR33" s="3">
         <f>0.059175*($AR$9/2)</f>
         <v>0.23669999999999999</v>
@@ -32381,11 +32366,11 @@
       </c>
     </row>
     <row r="34" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
       <c r="J34" s="20" t="s">
         <v>72</v>
       </c>
@@ -32471,7 +32456,7 @@
         <f t="shared" si="20"/>
         <v>8.3819031715393066E-6</v>
       </c>
-      <c r="AQ34" s="63"/>
+      <c r="AQ34" s="67"/>
       <c r="AR34" s="3">
         <f>0.057125*($AR$9/2)</f>
         <v>0.22850000000000001</v>
@@ -32654,7 +32639,7 @@
         <f t="shared" si="20"/>
         <v>4.1909515857696533E-6</v>
       </c>
-      <c r="AQ35" s="63" t="s">
+      <c r="AQ35" s="67" t="s">
         <v>223</v>
       </c>
       <c r="AR35" s="3">
@@ -32779,7 +32764,7 @@
         <f t="shared" si="20"/>
         <v>2.0954757928848267E-6</v>
       </c>
-      <c r="AQ36" s="63"/>
+      <c r="AQ36" s="67"/>
       <c r="AR36" s="3">
         <v>5.58</v>
       </c>
@@ -32831,31 +32816,31 @@
       </c>
       <c r="BM36" s="2"/>
       <c r="BN36"/>
-      <c r="BO36" s="60" t="s">
+      <c r="BO36" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="BP36" s="60"/>
-      <c r="BQ36" s="60"/>
-      <c r="BR36" s="60"/>
-      <c r="BS36" s="60"/>
-      <c r="BT36" s="60"/>
-      <c r="BU36" s="60"/>
-      <c r="BV36" s="60"/>
-      <c r="BW36" s="60"/>
-      <c r="BX36" s="60"/>
+      <c r="BP36" s="61"/>
+      <c r="BQ36" s="61"/>
+      <c r="BR36" s="61"/>
+      <c r="BS36" s="61"/>
+      <c r="BT36" s="61"/>
+      <c r="BU36" s="61"/>
+      <c r="BV36" s="61"/>
+      <c r="BW36" s="61"/>
+      <c r="BX36" s="61"/>
       <c r="BY36"/>
-      <c r="BZ36" s="60" t="s">
+      <c r="BZ36" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="CA36" s="60"/>
-      <c r="CB36" s="60"/>
-      <c r="CC36" s="60"/>
-      <c r="CD36" s="60"/>
-      <c r="CE36" s="60"/>
-      <c r="CF36" s="60"/>
-      <c r="CG36" s="60"/>
-      <c r="CH36" s="60"/>
-      <c r="CI36" s="60"/>
+      <c r="CA36" s="61"/>
+      <c r="CB36" s="61"/>
+      <c r="CC36" s="61"/>
+      <c r="CD36" s="61"/>
+      <c r="CE36" s="61"/>
+      <c r="CF36" s="61"/>
+      <c r="CG36" s="61"/>
+      <c r="CH36" s="61"/>
+      <c r="CI36" s="61"/>
     </row>
     <row r="37" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
@@ -32900,7 +32885,7 @@
         <f t="shared" si="20"/>
         <v>1.0477378964424133E-6</v>
       </c>
-      <c r="AQ37" s="63"/>
+      <c r="AQ37" s="67"/>
       <c r="AR37" s="3">
         <v>4.26</v>
       </c>
@@ -33015,11 +33000,11 @@
       </c>
     </row>
     <row r="38" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="J38" s="57" t="s">
+      <c r="J38" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
       <c r="AF38" s="2">
         <v>34</v>
       </c>
@@ -33056,7 +33041,7 @@
         <f t="shared" si="20"/>
         <v>5.2386894822120667E-7</v>
       </c>
-      <c r="AQ38" s="63"/>
+      <c r="AQ38" s="67"/>
       <c r="AR38" s="3">
         <v>2.94</v>
       </c>
@@ -33139,11 +33124,11 @@
       <c r="CI38" s="30"/>
     </row>
     <row r="39" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
       <c r="J39" s="6" t="s">
         <v>60</v>
       </c>
@@ -33190,7 +33175,7 @@
         <f t="shared" si="20"/>
         <v>2.6193447411060333E-7</v>
       </c>
-      <c r="AQ39" s="63"/>
+      <c r="AQ39" s="67"/>
       <c r="AR39" s="3">
         <v>1.62</v>
       </c>
@@ -33236,7 +33221,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="BQ39" s="2">
-        <f t="dataTable" ref="BQ39:BQ68" dt2D="0" dtr="0" r1="BH23" ca="1"/>
+        <f t="dataTable" ref="BQ39:BQ68" dt2D="0" dtr="0" r1="BH23"/>
         <v>-0.84941800375191279</v>
       </c>
       <c r="BR39" s="3">
@@ -33244,7 +33229,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="BS39" s="2">
-        <f t="dataTable" ref="BS39:BS68" dt2D="0" dtr="0" r1="BH23"/>
+        <f t="dataTable" ref="BS39:BS68" dt2D="0" dtr="0" r1="BH23" ca="1"/>
         <v>0.40071946721134732</v>
       </c>
       <c r="BT39" s="2">
@@ -33276,7 +33261,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="CB39" s="2">
-        <f t="dataTable" ref="CB39:CB68" dt2D="0" dtr="0" r1="BL23" ca="1"/>
+        <f t="dataTable" ref="CB39:CB68" dt2D="0" dtr="0" r1="BL23"/>
         <v>-0.57847689812257175</v>
       </c>
       <c r="CC39" s="3">
@@ -33284,7 +33269,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="CD39" s="2">
-        <f t="dataTable" ref="CD39:CD68" dt2D="0" dtr="0" r1="BL23"/>
+        <f t="dataTable" ref="CD39:CD68" dt2D="0" dtr="0" r1="BL23" ca="1"/>
         <v>0.37932440325865435</v>
       </c>
       <c r="CE39" s="2">
@@ -33364,7 +33349,7 @@
         <f t="shared" si="20"/>
         <v>1.3096723705530167E-7</v>
       </c>
-      <c r="AQ40" s="63"/>
+      <c r="AQ40" s="67"/>
       <c r="AR40" s="3">
         <v>0.3</v>
       </c>
@@ -33522,7 +33507,7 @@
         <f t="shared" si="20"/>
         <v>6.5483618527650833E-8</v>
       </c>
-      <c r="AQ41" s="63"/>
+      <c r="AQ41" s="67"/>
       <c r="AR41" s="3">
         <v>-1.02</v>
       </c>
@@ -33533,10 +33518,10 @@
       <c r="AU41" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AV41" s="65" t="s">
+      <c r="AV41" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="AW41" s="65"/>
+      <c r="AW41" s="69"/>
       <c r="AX41" s="24"/>
       <c r="AY41" s="24"/>
       <c r="AZ41" s="24"/>
@@ -33546,17 +33531,17 @@
       <c r="BD41" s="24"/>
       <c r="BE41" s="25"/>
       <c r="BF41"/>
-      <c r="BG41" s="61" t="s">
+      <c r="BG41" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="BH41" s="61"/>
-      <c r="BI41" s="61"/>
+      <c r="BH41" s="63"/>
+      <c r="BI41" s="63"/>
       <c r="BJ41" s="2"/>
-      <c r="BK41" s="61" t="s">
+      <c r="BK41" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="BL41" s="61"/>
-      <c r="BM41" s="61"/>
+      <c r="BL41" s="63"/>
+      <c r="BM41" s="63"/>
       <c r="BN41"/>
       <c r="BO41" s="2">
         <v>3</v>
@@ -33688,7 +33673,7 @@
         <f t="shared" si="20"/>
         <v>3.2741809263825417E-8</v>
       </c>
-      <c r="AQ42" s="63"/>
+      <c r="AQ42" s="67"/>
       <c r="AR42" s="3">
         <v>-2.34</v>
       </c>
@@ -33697,22 +33682,22 @@
       </c>
       <c r="AT42"/>
       <c r="AU42" s="27"/>
-      <c r="AV42" s="62" t="s">
+      <c r="AV42" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="AW42" s="62"/>
-      <c r="AX42" s="62"/>
-      <c r="AY42" s="62" t="s">
+      <c r="AW42" s="70"/>
+      <c r="AX42" s="70"/>
+      <c r="AY42" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="AZ42" s="62"/>
-      <c r="BA42" s="62"/>
-      <c r="BB42" s="62"/>
-      <c r="BC42" s="62" t="s">
+      <c r="AZ42" s="70"/>
+      <c r="BA42" s="70"/>
+      <c r="BB42" s="70"/>
+      <c r="BC42" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="BD42" s="62"/>
-      <c r="BE42" s="64"/>
+      <c r="BD42" s="70"/>
+      <c r="BE42" s="71"/>
       <c r="BF42"/>
       <c r="BG42" s="28" t="s">
         <v>154</v>
@@ -33880,10 +33865,10 @@
       <c r="AX43" s="2">
         <v>-9.5</v>
       </c>
-      <c r="AY43" s="62" t="s">
+      <c r="AY43" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="AZ43" s="62"/>
+      <c r="AZ43" s="70"/>
       <c r="BA43" s="2">
         <v>-9.5</v>
       </c>
@@ -34043,11 +34028,11 @@
         <f t="shared" si="20"/>
         <v>8.1854523159563541E-9</v>
       </c>
-      <c r="AQ44" s="60" t="s">
+      <c r="AQ44" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="AR44" s="60"/>
-      <c r="AS44" s="60"/>
+      <c r="AR44" s="61"/>
+      <c r="AS44" s="61"/>
       <c r="AT44"/>
       <c r="AU44" s="32" t="s">
         <v>160</v>
@@ -34180,11 +34165,11 @@
       </c>
     </row>
     <row r="45" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
       <c r="AQ45" s="2" t="s">
         <v>19</v>
       </c>
@@ -34461,12 +34446,12 @@
       <c r="D47" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="AF47" s="71" t="s">
+      <c r="AF47" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="AG47" s="71"/>
-      <c r="AH47" s="71"/>
-      <c r="AI47" s="71"/>
+      <c r="AG47" s="62"/>
+      <c r="AH47" s="62"/>
+      <c r="AI47" s="62"/>
       <c r="AJ47" s="2"/>
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
@@ -34477,10 +34462,10 @@
       <c r="AU47" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AV47" s="65" t="s">
+      <c r="AV47" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="AW47" s="65"/>
+      <c r="AW47" s="69"/>
       <c r="AX47" s="24"/>
       <c r="AY47" s="24"/>
       <c r="AZ47" s="24"/>
@@ -34624,21 +34609,21 @@
       </c>
       <c r="AT48"/>
       <c r="AU48" s="27"/>
-      <c r="AV48" s="62" t="s">
+      <c r="AV48" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="AW48" s="62"/>
-      <c r="AX48" s="62"/>
-      <c r="AY48" s="62" t="s">
+      <c r="AW48" s="70"/>
+      <c r="AX48" s="70"/>
+      <c r="AY48" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="AZ48" s="62"/>
-      <c r="BA48" s="62"/>
-      <c r="BB48" s="62" t="s">
+      <c r="AZ48" s="70"/>
+      <c r="BA48" s="70"/>
+      <c r="BB48" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="BC48" s="62"/>
-      <c r="BD48" s="62"/>
+      <c r="BC48" s="70"/>
+      <c r="BD48" s="70"/>
       <c r="BE48" s="49"/>
       <c r="BF48"/>
       <c r="BG48" s="2" t="s">
@@ -34926,7 +34911,7 @@
         <v>1450</v>
       </c>
       <c r="AT50"/>
-      <c r="AU50" s="69" t="s">
+      <c r="AU50" s="72" t="s">
         <v>160</v>
       </c>
       <c r="AV50" s="51">
@@ -35051,11 +35036,11 @@
       </c>
     </row>
     <row r="51" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
       <c r="AF51" s="2">
         <v>2</v>
       </c>
@@ -35093,7 +35078,7 @@
         <v>725</v>
       </c>
       <c r="AT51"/>
-      <c r="AU51" s="69"/>
+      <c r="AU51" s="72"/>
       <c r="AV51" s="27">
         <v>-1.144044407873E-4</v>
       </c>
@@ -35259,22 +35244,22 @@
         <v>362.5</v>
       </c>
       <c r="AT52"/>
-      <c r="AU52" s="69"/>
-      <c r="AV52" s="66">
+      <c r="AU52" s="72"/>
+      <c r="AV52" s="64">
         <v>-2.2751380819795499</v>
       </c>
-      <c r="AW52" s="67"/>
-      <c r="AX52" s="68"/>
-      <c r="AY52" s="66">
+      <c r="AW52" s="65"/>
+      <c r="AX52" s="66"/>
+      <c r="AY52" s="64">
         <v>0.14939144598517301</v>
       </c>
-      <c r="AZ52" s="67"/>
-      <c r="BA52" s="68"/>
-      <c r="BB52" s="63">
+      <c r="AZ52" s="65"/>
+      <c r="BA52" s="66"/>
+      <c r="BB52" s="67">
         <v>3.3811980767955601</v>
       </c>
-      <c r="BC52" s="63"/>
-      <c r="BD52" s="72"/>
+      <c r="BC52" s="67"/>
+      <c r="BD52" s="68"/>
       <c r="BE52" s="27"/>
       <c r="BF52"/>
       <c r="BG52" s="2" t="s">
@@ -35413,7 +35398,7 @@
         <v>181.25</v>
       </c>
       <c r="AT53"/>
-      <c r="AU53" s="69" t="s">
+      <c r="AU53" s="72" t="s">
         <v>164</v>
       </c>
       <c r="AV53" s="51">
@@ -35581,7 +35566,7 @@
         <v>90.625</v>
       </c>
       <c r="AT54"/>
-      <c r="AU54" s="69"/>
+      <c r="AU54" s="72"/>
       <c r="AV54" s="27">
         <v>-3.2678211540000002E-6</v>
       </c>
@@ -35747,22 +35732,22 @@
         <v>45.3125</v>
       </c>
       <c r="AT55"/>
-      <c r="AU55" s="70"/>
-      <c r="AV55" s="66">
+      <c r="AU55" s="73"/>
+      <c r="AV55" s="64">
         <v>-2.92797950805124E-2</v>
       </c>
-      <c r="AW55" s="67"/>
-      <c r="AX55" s="68"/>
-      <c r="AY55" s="67">
+      <c r="AW55" s="65"/>
+      <c r="AX55" s="66"/>
+      <c r="AY55" s="65">
         <v>4.8575804011639703E-2</v>
       </c>
-      <c r="AZ55" s="67"/>
-      <c r="BA55" s="67"/>
-      <c r="BB55" s="66">
+      <c r="AZ55" s="65"/>
+      <c r="BA55" s="65"/>
+      <c r="BB55" s="64">
         <v>7.4720850653456003E-3</v>
       </c>
-      <c r="BC55" s="67"/>
-      <c r="BD55" s="68"/>
+      <c r="BC55" s="65"/>
+      <c r="BD55" s="66"/>
       <c r="BE55"/>
       <c r="BF55"/>
       <c r="BG55" s="2" t="s">
@@ -36465,17 +36450,17 @@
       <c r="BD60"/>
       <c r="BE60"/>
       <c r="BF60"/>
-      <c r="BG60" s="61" t="s">
+      <c r="BG60" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="BH60" s="61"/>
-      <c r="BI60" s="61"/>
+      <c r="BH60" s="63"/>
+      <c r="BI60" s="63"/>
       <c r="BJ60" s="2"/>
-      <c r="BK60" s="61" t="s">
+      <c r="BK60" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="BL60" s="61"/>
-      <c r="BM60" s="61"/>
+      <c r="BL60" s="63"/>
+      <c r="BM60" s="63"/>
       <c r="BN60"/>
       <c r="BO60" s="2">
         <v>22</v>
@@ -37870,31 +37855,31 @@
       </c>
       <c r="BM70" s="2"/>
       <c r="BN70"/>
-      <c r="BO70" s="60" t="s">
+      <c r="BO70" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="BP70" s="60"/>
-      <c r="BQ70" s="60"/>
-      <c r="BR70" s="60"/>
-      <c r="BS70" s="60"/>
-      <c r="BT70" s="60"/>
-      <c r="BU70" s="60"/>
-      <c r="BV70" s="60"/>
-      <c r="BW70" s="60"/>
-      <c r="BX70" s="60"/>
+      <c r="BP70" s="61"/>
+      <c r="BQ70" s="61"/>
+      <c r="BR70" s="61"/>
+      <c r="BS70" s="61"/>
+      <c r="BT70" s="61"/>
+      <c r="BU70" s="61"/>
+      <c r="BV70" s="61"/>
+      <c r="BW70" s="61"/>
+      <c r="BX70" s="61"/>
       <c r="BY70"/>
-      <c r="BZ70" s="60" t="s">
+      <c r="BZ70" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="CA70" s="60"/>
-      <c r="CB70" s="60"/>
-      <c r="CC70" s="60"/>
-      <c r="CD70" s="60"/>
-      <c r="CE70" s="60"/>
-      <c r="CF70" s="60"/>
-      <c r="CG70" s="60"/>
-      <c r="CH70" s="60"/>
-      <c r="CI70" s="60"/>
+      <c r="CA70" s="61"/>
+      <c r="CB70" s="61"/>
+      <c r="CC70" s="61"/>
+      <c r="CD70" s="61"/>
+      <c r="CE70" s="61"/>
+      <c r="CF70" s="61"/>
+      <c r="CG70" s="61"/>
+      <c r="CH70" s="61"/>
+      <c r="CI70" s="61"/>
     </row>
     <row r="71" spans="32:87" x14ac:dyDescent="0.2">
       <c r="AF71" s="2">
@@ -38239,7 +38224,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="BU73" s="2">
-        <f t="dataTable" ref="BU73:BU102" dt2D="0" dtr="0" r1="BH42"/>
+        <f t="dataTable" ref="BU73:BU102" dt2D="0" dtr="0" r1="BH42" ca="1"/>
         <v>1.0131854209192939</v>
       </c>
       <c r="BV73" s="2">
@@ -38279,7 +38264,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="CF73" s="2">
-        <f t="dataTable" ref="CF73:CF102" dt2D="0" dtr="0" r1="BL42"/>
+        <f t="dataTable" ref="CF73:CF102" dt2D="0" dtr="0" r1="BL42" ca="1"/>
         <v>1.0134626966312792</v>
       </c>
       <c r="CG73" s="2">
@@ -41494,31 +41479,31 @@
       <c r="BL104"/>
       <c r="BM104"/>
       <c r="BN104"/>
-      <c r="BO104" s="60" t="s">
+      <c r="BO104" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="BP104" s="60"/>
-      <c r="BQ104" s="60"/>
-      <c r="BR104" s="60"/>
-      <c r="BS104" s="60"/>
-      <c r="BT104" s="60"/>
-      <c r="BU104" s="60"/>
-      <c r="BV104" s="60"/>
-      <c r="BW104" s="60"/>
-      <c r="BX104" s="60"/>
+      <c r="BP104" s="61"/>
+      <c r="BQ104" s="61"/>
+      <c r="BR104" s="61"/>
+      <c r="BS104" s="61"/>
+      <c r="BT104" s="61"/>
+      <c r="BU104" s="61"/>
+      <c r="BV104" s="61"/>
+      <c r="BW104" s="61"/>
+      <c r="BX104" s="61"/>
       <c r="BY104"/>
-      <c r="BZ104" s="60" t="s">
+      <c r="BZ104" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="CA104" s="60"/>
-      <c r="CB104" s="60"/>
-      <c r="CC104" s="60"/>
-      <c r="CD104" s="60"/>
-      <c r="CE104" s="60"/>
-      <c r="CF104" s="60"/>
-      <c r="CG104" s="60"/>
-      <c r="CH104" s="60"/>
-      <c r="CI104" s="60"/>
+      <c r="CA104" s="61"/>
+      <c r="CB104" s="61"/>
+      <c r="CC104" s="61"/>
+      <c r="CD104" s="61"/>
+      <c r="CE104" s="61"/>
+      <c r="CF104" s="61"/>
+      <c r="CG104" s="61"/>
+      <c r="CH104" s="61"/>
+      <c r="CI104" s="61"/>
     </row>
     <row r="105" spans="43:87" x14ac:dyDescent="0.2">
       <c r="AQ105"/>
@@ -41725,7 +41710,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="BU107" s="2">
-        <f t="dataTable" ref="BU107:BU136" dt2D="0" dtr="0" r1="BH61"/>
+        <f t="dataTable" ref="BU107:BU136" dt2D="0" dtr="0" r1="BH61" ca="1"/>
         <v>1.0168662478820092</v>
       </c>
       <c r="BV107" s="2">
@@ -41765,7 +41750,7 @@
         <v>1.4152874904422017</v>
       </c>
       <c r="CF107" s="2">
-        <f t="dataTable" ref="CF107:CF136" dt2D="0" dtr="0" r1="BL61"/>
+        <f t="dataTable" ref="CF107:CF136" dt2D="0" dtr="0" r1="BL61" ca="1"/>
         <v>1.0301832013930095</v>
       </c>
       <c r="CG107" s="2">
@@ -44641,20 +44626,61 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="BZ104:CI104"/>
-    <mergeCell ref="AF47:AI47"/>
-    <mergeCell ref="BO104:BX104"/>
-    <mergeCell ref="BG60:BI60"/>
-    <mergeCell ref="BO70:BX70"/>
-    <mergeCell ref="BZ70:CI70"/>
-    <mergeCell ref="AY52:BA52"/>
-    <mergeCell ref="AY55:BA55"/>
-    <mergeCell ref="BB52:BD52"/>
-    <mergeCell ref="BB55:BD55"/>
-    <mergeCell ref="AV47:AW47"/>
-    <mergeCell ref="AV48:AX48"/>
-    <mergeCell ref="AY48:BA48"/>
-    <mergeCell ref="BB48:BD48"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="BZ2:CI2"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AY2:BE2"/>
+    <mergeCell ref="BG2:BM2"/>
+    <mergeCell ref="BO2:BX2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BK22:BM22"/>
+    <mergeCell ref="AU23:AU29"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AU14:AW14"/>
+    <mergeCell ref="AU22:AW22"/>
+    <mergeCell ref="BG22:BI22"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AQ27:AQ34"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AY30:BA30"/>
+    <mergeCell ref="BC30:BE30"/>
+    <mergeCell ref="AQ7:AS7"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AY12:BA12"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="AY21:BA21"/>
+    <mergeCell ref="BC21:BE21"/>
+    <mergeCell ref="AQ11:AQ18"/>
+    <mergeCell ref="AQ19:AQ26"/>
     <mergeCell ref="AQ35:AQ42"/>
     <mergeCell ref="AV42:AX42"/>
     <mergeCell ref="BK60:BM60"/>
@@ -44671,61 +44697,20 @@
     <mergeCell ref="AU50:AU52"/>
     <mergeCell ref="AU53:AU55"/>
     <mergeCell ref="AV55:AX55"/>
-    <mergeCell ref="AQ7:AS7"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AY12:BA12"/>
-    <mergeCell ref="BC12:BE12"/>
-    <mergeCell ref="AY21:BA21"/>
-    <mergeCell ref="BC21:BE21"/>
-    <mergeCell ref="AQ11:AQ18"/>
-    <mergeCell ref="AQ19:AQ26"/>
-    <mergeCell ref="AQ27:AQ34"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AY30:BA30"/>
-    <mergeCell ref="BC30:BE30"/>
-    <mergeCell ref="BK22:BM22"/>
-    <mergeCell ref="AU23:AU29"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AU14:AW14"/>
-    <mergeCell ref="AU22:AW22"/>
-    <mergeCell ref="BG22:BI22"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="BZ2:CI2"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="BG3:BI3"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AY2:BE2"/>
-    <mergeCell ref="BG2:BM2"/>
-    <mergeCell ref="BO2:BX2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="BZ104:CI104"/>
+    <mergeCell ref="AF47:AI47"/>
+    <mergeCell ref="BO104:BX104"/>
+    <mergeCell ref="BG60:BI60"/>
+    <mergeCell ref="BO70:BX70"/>
+    <mergeCell ref="BZ70:CI70"/>
+    <mergeCell ref="AY52:BA52"/>
+    <mergeCell ref="AY55:BA55"/>
+    <mergeCell ref="BB52:BD52"/>
+    <mergeCell ref="BB55:BD55"/>
+    <mergeCell ref="AV47:AW47"/>
+    <mergeCell ref="AV48:AX48"/>
+    <mergeCell ref="AY48:BA48"/>
+    <mergeCell ref="BB48:BD48"/>
   </mergeCells>
   <conditionalFormatting sqref="G12">
     <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="FALSE">
@@ -44818,11 +44803,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -44833,26 +44818,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="F3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="J3" s="57" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="N3" s="57" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
       <c r="U3" s="7" t="s">
         <v>44</v>
       </c>
@@ -45474,11 +45459,11 @@
       <c r="H9" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
       <c r="N9" s="6" t="s">
         <v>122</v>
       </c>
@@ -45792,11 +45777,11 @@
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
       <c r="N12" s="6" t="s">
         <v>235</v>
       </c>
@@ -46093,11 +46078,11 @@
       </c>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
       <c r="F15" s="6" t="s">
         <v>240</v>
       </c>
@@ -46447,11 +46432,11 @@
       <c r="L18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="53" t="s">
+      <c r="N18" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
       <c r="U18" s="2">
         <v>14</v>
       </c>
@@ -46633,11 +46618,11 @@
       </c>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
       <c r="F20" s="44" t="s">
         <v>225</v>
       </c>
@@ -46854,11 +46839,11 @@
       <c r="C22" s="17">
         <v>2</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
       <c r="J22" s="14" t="s">
         <v>241</v>
       </c>
@@ -47280,11 +47265,11 @@
       </c>
     </row>
     <row r="26" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
       <c r="F26" s="6" t="s">
         <v>21</v>
       </c>
@@ -47906,11 +47891,11 @@
       </c>
     </row>
     <row r="32" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
       <c r="U32" s="2">
         <v>28</v>
       </c>
@@ -48277,11 +48262,11 @@
       </c>
     </row>
     <row r="37" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
       <c r="J37" s="20" t="s">
         <v>72</v>
       </c>
@@ -48492,11 +48477,11 @@
       <c r="C41" s="17">
         <v>5.7</v>
       </c>
-      <c r="J41" s="57" t="s">
+      <c r="J41" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
       <c r="AF41" s="2">
         <v>37</v>
       </c>
@@ -48583,11 +48568,11 @@
       </c>
     </row>
     <row r="43" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
       <c r="J43" s="11" t="s">
         <v>55</v>
       </c>
@@ -48702,11 +48687,11 @@
       </c>
     </row>
     <row r="46" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
       <c r="J46" s="15" t="s">
         <v>73</v>
       </c>
@@ -48761,11 +48746,11 @@
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
@@ -48811,11 +48796,11 @@
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
@@ -48845,11 +48830,11 @@
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
@@ -48896,11 +48881,11 @@
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="6" t="s">
@@ -48947,11 +48932,11 @@
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B74" s="57" t="s">
+      <c r="B74" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
@@ -48998,28 +48983,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B68:D68"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="J41:L41"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="FALSE">
@@ -49050,8 +49035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C31E77-07DC-9243-A410-566ED0D9F438}">
   <dimension ref="B1:AS80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49097,46 +49082,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="2:45" x14ac:dyDescent="0.2">
       <c r="Y2" s="16" t="s">
-        <v>96</v>
+        <v>279</v>
       </c>
       <c r="AJ2" s="48" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="F3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="J3" s="57" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="N3" s="57" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="R3" s="57" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="R3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
       <c r="Y3" s="7" t="s">
         <v>44</v>
       </c>
@@ -49247,37 +49232,37 @@
       <c r="Y4" s="2">
         <v>0</v>
       </c>
-      <c r="Z4" s="76">
+      <c r="Z4" s="3">
         <v>1.0000000000000001E-15</v>
       </c>
-      <c r="AA4" s="77">
+      <c r="AA4" s="2">
         <f xml:space="preserve"> $O$22 * TAN($O$19/180*PI()) + $O$23 / (2 * SQRT($O$22^2 + Z4^2)) - Z4</f>
         <v>8389452042442.4121</v>
       </c>
-      <c r="AB4" s="76">
+      <c r="AB4" s="3">
         <v>1</v>
       </c>
-      <c r="AC4" s="77">
+      <c r="AC4" s="2">
         <f xml:space="preserve"> $O$22 * TAN($O$19/180*PI()) + $O$23 / (2 * SQRT($O$22^2 + AB4^2)) - AB4</f>
         <v>-0.97392666047343013</v>
       </c>
-      <c r="AD4" s="77">
+      <c r="AD4" s="2">
         <f xml:space="preserve"> (Z4 + AB4)/2</f>
         <v>0.50000000000000056</v>
       </c>
-      <c r="AE4" s="77">
+      <c r="AE4" s="2">
         <f xml:space="preserve"> $O$22 * TAN($O$19/180*PI()) + $O$23 / (2 * SQRT($O$22^2 + AD4^2)) - AD4</f>
         <v>-0.46553720351262701</v>
       </c>
-      <c r="AF4" s="77">
+      <c r="AF4" s="2">
         <f>AA4*AE4</f>
         <v>-3905602042841.9375</v>
       </c>
-      <c r="AG4" s="77">
+      <c r="AG4" s="2">
         <f>AC4*AE4</f>
         <v>0.45339909394319244</v>
       </c>
-      <c r="AH4" s="77">
+      <c r="AH4" s="2">
         <f>AB4-Z4</f>
         <v>0.999999999999999</v>
       </c>
@@ -49351,39 +49336,39 @@
       <c r="Y5" s="2">
         <v>1</v>
       </c>
-      <c r="Z5" s="77">
+      <c r="Z5" s="2">
         <f>IF(AF4&gt;0, AD4, Z4)</f>
         <v>1.0000000000000001E-15</v>
       </c>
-      <c r="AA5" s="77">
+      <c r="AA5" s="2">
         <f t="shared" ref="AA5:AA34" si="0" xml:space="preserve"> $O$22 * TAN($O$19/180*PI()) + $O$23 / (2 * SQRT($O$22^2 + Z5^2)) - Z5</f>
         <v>8389452042442.4121</v>
       </c>
-      <c r="AB5" s="77">
+      <c r="AB5" s="2">
         <f>IF(AG4&gt;0, AD4, AB4)</f>
         <v>0.50000000000000056</v>
       </c>
-      <c r="AC5" s="77">
+      <c r="AC5" s="2">
         <f t="shared" ref="AC5:AC34" si="1" xml:space="preserve"> $O$22 * TAN($O$19/180*PI()) + $O$23 / (2 * SQRT($O$22^2 + AB5^2)) - AB5</f>
         <v>-0.46553720351262701</v>
       </c>
-      <c r="AD5" s="77">
+      <c r="AD5" s="2">
         <f t="shared" ref="AD5:AD34" si="2" xml:space="preserve"> (Z5 + AB5)/2</f>
         <v>0.25000000000000078</v>
       </c>
-      <c r="AE5" s="77">
+      <c r="AE5" s="2">
         <f t="shared" ref="AE5:AE34" si="3" xml:space="preserve"> $O$22 * TAN($O$19/180*PI()) + $O$23 / (2 * SQRT($O$22^2 + AD5^2)) - AD5</f>
         <v>-0.19875828959101993</v>
       </c>
-      <c r="AF5" s="77">
+      <c r="AF5" s="2">
         <f t="shared" ref="AF5:AF34" si="4">AA5*AE5</f>
         <v>-1667473138561.7427</v>
       </c>
-      <c r="AG5" s="77">
+      <c r="AG5" s="2">
         <f t="shared" ref="AG5:AG34" si="5">AC5*AE5</f>
         <v>9.2529378311156305E-2</v>
       </c>
-      <c r="AH5" s="77">
+      <c r="AH5" s="2">
         <f t="shared" ref="AH5:AH34" si="6">AB5-Z5</f>
         <v>0.49999999999999956</v>
       </c>
@@ -49394,7 +49379,7 @@
         <v>500</v>
       </c>
       <c r="AL5" s="2">
-        <f t="dataTable" ref="AL5:AL44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AL5:AL44" dt2D="0" dtr="0" r1="C5"/>
         <v>-755.68724560105102</v>
       </c>
       <c r="AM5" s="3">
@@ -49409,7 +49394,7 @@
         <v>2750</v>
       </c>
       <c r="AP5" s="2">
-        <f t="dataTable" ref="AP5:AP44" dt2D="0" dtr="0" r1="C5"/>
+        <f t="dataTable" ref="AP5:AP44" dt2D="0" dtr="0" r1="C5" ca="1"/>
         <v>224.53753753227306</v>
       </c>
       <c r="AQ5" s="2">
@@ -49477,39 +49462,39 @@
       <c r="Y6" s="2">
         <v>2</v>
       </c>
-      <c r="Z6" s="77">
+      <c r="Z6" s="2">
         <f t="shared" ref="Z6:Z29" si="7">IF(AF5&gt;0, AD5, Z5)</f>
         <v>1.0000000000000001E-15</v>
       </c>
-      <c r="AA6" s="77">
+      <c r="AA6" s="2">
         <f t="shared" si="0"/>
         <v>8389452042442.4121</v>
       </c>
-      <c r="AB6" s="77">
+      <c r="AB6" s="2">
         <f t="shared" ref="AB6:AB34" si="8">IF(AG5&gt;0, AD5, AB5)</f>
         <v>0.25000000000000078</v>
       </c>
-      <c r="AC6" s="77">
+      <c r="AC6" s="2">
         <f t="shared" si="1"/>
         <v>-0.19875828959101993</v>
       </c>
-      <c r="AD6" s="77">
+      <c r="AD6" s="2">
         <f t="shared" si="2"/>
         <v>0.12500000000000089</v>
       </c>
-      <c r="AE6" s="77">
+      <c r="AE6" s="2">
         <f t="shared" si="3"/>
         <v>-4.0200461747805574E-2</v>
       </c>
-      <c r="AF6" s="77">
+      <c r="AF6" s="2">
         <f t="shared" si="4"/>
         <v>-337259845917.25555</v>
       </c>
-      <c r="AG6" s="77">
+      <c r="AG6" s="2">
         <f t="shared" si="5"/>
         <v>7.9901750177630588E-3</v>
       </c>
-      <c r="AH6" s="77">
+      <c r="AH6" s="2">
         <f t="shared" si="6"/>
         <v>0.24999999999999978</v>
       </c>
@@ -49563,7 +49548,7 @@
       <c r="F7" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="8">
         <f>$C$6*2*PI()/60*$C$9</f>
         <v>143.63361612212535</v>
       </c>
@@ -49597,39 +49582,39 @@
       <c r="Y7" s="2">
         <v>3</v>
       </c>
-      <c r="Z7" s="77">
+      <c r="Z7" s="2">
         <f t="shared" si="7"/>
         <v>1.0000000000000001E-15</v>
       </c>
-      <c r="AA7" s="77">
+      <c r="AA7" s="2">
         <f t="shared" si="0"/>
         <v>8389452042442.4121</v>
       </c>
-      <c r="AB7" s="77">
+      <c r="AB7" s="2">
         <f t="shared" si="8"/>
         <v>0.12500000000000089</v>
       </c>
-      <c r="AC7" s="77">
+      <c r="AC7" s="2">
         <f t="shared" si="1"/>
         <v>-4.0200461747805574E-2</v>
       </c>
-      <c r="AD7" s="77">
+      <c r="AD7" s="2">
         <f t="shared" si="2"/>
         <v>6.2500000000000944E-2</v>
       </c>
-      <c r="AE7" s="77">
+      <c r="AE7" s="2">
         <f t="shared" si="3"/>
         <v>8.9415193938622434E-2</v>
       </c>
-      <c r="AF7" s="77">
+      <c r="AF7" s="2">
         <f t="shared" si="4"/>
         <v>750144481413.76038</v>
       </c>
-      <c r="AG7" s="77">
+      <c r="AG7" s="2">
         <f t="shared" si="5"/>
         <v>-3.5945320836022082E-3</v>
       </c>
-      <c r="AH7" s="77">
+      <c r="AH7" s="2">
         <f t="shared" si="6"/>
         <v>0.12499999999999989</v>
       </c>
@@ -49705,39 +49690,39 @@
       <c r="Y8" s="2">
         <v>4</v>
       </c>
-      <c r="Z8" s="77">
+      <c r="Z8" s="2">
         <f t="shared" si="7"/>
         <v>6.2500000000000944E-2</v>
       </c>
-      <c r="AA8" s="77">
+      <c r="AA8" s="2">
         <f t="shared" si="0"/>
         <v>8.9415193938622434E-2</v>
       </c>
-      <c r="AB8" s="77">
+      <c r="AB8" s="2">
         <f t="shared" si="8"/>
         <v>0.12500000000000089</v>
       </c>
-      <c r="AC8" s="77">
+      <c r="AC8" s="2">
         <f t="shared" si="1"/>
         <v>-4.0200461747805574E-2</v>
       </c>
-      <c r="AD8" s="77">
+      <c r="AD8" s="2">
         <f t="shared" si="2"/>
         <v>9.3750000000000916E-2</v>
       </c>
-      <c r="AE8" s="77">
+      <c r="AE8" s="2">
         <f t="shared" si="3"/>
         <v>1.3421423481003877E-2</v>
       </c>
-      <c r="AF8" s="77">
+      <c r="AF8" s="2">
         <f t="shared" si="4"/>
         <v>1.2000791834863426E-3</v>
       </c>
-      <c r="AG8" s="77">
+      <c r="AG8" s="2">
         <f t="shared" si="5"/>
         <v>-5.3954742124919593E-4</v>
       </c>
-      <c r="AH8" s="77">
+      <c r="AH8" s="2">
         <f t="shared" si="6"/>
         <v>6.2499999999999944E-2</v>
       </c>
@@ -49798,11 +49783,11 @@
       <c r="H9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
       <c r="N9" s="6" t="s">
         <v>122</v>
       </c>
@@ -49820,39 +49805,39 @@
       <c r="Y9" s="2">
         <v>5</v>
       </c>
-      <c r="Z9" s="77">
+      <c r="Z9" s="2">
         <f t="shared" si="7"/>
         <v>9.3750000000000916E-2</v>
       </c>
-      <c r="AA9" s="77">
+      <c r="AA9" s="2">
         <f t="shared" si="0"/>
         <v>1.3421423481003877E-2</v>
       </c>
-      <c r="AB9" s="77">
+      <c r="AB9" s="2">
         <f t="shared" si="8"/>
         <v>0.12500000000000089</v>
       </c>
-      <c r="AC9" s="77">
+      <c r="AC9" s="2">
         <f t="shared" si="1"/>
         <v>-4.0200461747805574E-2</v>
       </c>
-      <c r="AD9" s="77">
+      <c r="AD9" s="2">
         <f t="shared" si="2"/>
         <v>0.1093750000000009</v>
       </c>
-      <c r="AE9" s="77">
+      <c r="AE9" s="2">
         <f t="shared" si="3"/>
         <v>-1.4987510935458664E-2</v>
       </c>
-      <c r="AF9" s="77">
+      <c r="AF9" s="2">
         <f t="shared" si="4"/>
         <v>-2.0115373119096731E-4</v>
       </c>
-      <c r="AG9" s="77">
+      <c r="AG9" s="2">
         <f t="shared" si="5"/>
         <v>6.0250486005572381E-4</v>
       </c>
-      <c r="AH9" s="77">
+      <c r="AH9" s="2">
         <f t="shared" si="6"/>
         <v>3.1249999999999972E-2</v>
       </c>
@@ -49947,39 +49932,39 @@
       <c r="Y10" s="2">
         <v>6</v>
       </c>
-      <c r="Z10" s="77">
+      <c r="Z10" s="2">
         <f t="shared" si="7"/>
         <v>9.3750000000000916E-2</v>
       </c>
-      <c r="AA10" s="77">
+      <c r="AA10" s="2">
         <f t="shared" si="0"/>
         <v>1.3421423481003877E-2</v>
       </c>
-      <c r="AB10" s="77">
+      <c r="AB10" s="2">
         <f t="shared" si="8"/>
         <v>0.1093750000000009</v>
       </c>
-      <c r="AC10" s="77">
+      <c r="AC10" s="2">
         <f t="shared" si="1"/>
         <v>-1.4987510935458664E-2</v>
       </c>
-      <c r="AD10" s="77">
+      <c r="AD10" s="2">
         <f t="shared" si="2"/>
         <v>0.10156250000000092</v>
       </c>
-      <c r="AE10" s="77">
+      <c r="AE10" s="2">
         <f t="shared" si="3"/>
         <v>-1.2747335124759646E-3</v>
       </c>
-      <c r="AF10" s="77">
+      <c r="AF10" s="2">
         <f t="shared" si="4"/>
         <v>-1.7108738296367458E-5</v>
       </c>
-      <c r="AG10" s="77">
+      <c r="AG10" s="2">
         <f t="shared" si="5"/>
         <v>1.9105082458029151E-5</v>
       </c>
-      <c r="AH10" s="77">
+      <c r="AH10" s="2">
         <f t="shared" si="6"/>
         <v>1.5624999999999986E-2</v>
       </c>
@@ -50066,39 +50051,39 @@
       <c r="Y11" s="2">
         <v>7</v>
       </c>
-      <c r="Z11" s="77">
+      <c r="Z11" s="2">
         <f t="shared" si="7"/>
         <v>9.3750000000000916E-2</v>
       </c>
-      <c r="AA11" s="77">
+      <c r="AA11" s="2">
         <f t="shared" si="0"/>
         <v>1.3421423481003877E-2</v>
       </c>
-      <c r="AB11" s="77">
+      <c r="AB11" s="2">
         <f t="shared" si="8"/>
         <v>0.10156250000000092</v>
       </c>
-      <c r="AC11" s="77">
+      <c r="AC11" s="2">
         <f t="shared" si="1"/>
         <v>-1.2747335124759646E-3</v>
       </c>
-      <c r="AD11" s="77">
+      <c r="AD11" s="2">
         <f t="shared" si="2"/>
         <v>9.7656250000000916E-2</v>
       </c>
-      <c r="AE11" s="77">
+      <c r="AE11" s="2">
         <f t="shared" si="3"/>
         <v>5.9356718443943635E-3</v>
       </c>
-      <c r="AF11" s="77">
+      <c r="AF11" s="2">
         <f t="shared" si="4"/>
         <v>7.9665165467888107E-5</v>
       </c>
-      <c r="AG11" s="77">
+      <c r="AG11" s="2">
         <f t="shared" si="5"/>
         <v>-7.5663998191095141E-6</v>
       </c>
-      <c r="AH11" s="77">
+      <c r="AH11" s="2">
         <f t="shared" si="6"/>
         <v>7.8125E-3</v>
       </c>
@@ -50174,39 +50159,39 @@
       <c r="Y12" s="2">
         <v>8</v>
       </c>
-      <c r="Z12" s="77">
+      <c r="Z12" s="2">
         <f t="shared" si="7"/>
         <v>9.7656250000000916E-2</v>
       </c>
-      <c r="AA12" s="77">
+      <c r="AA12" s="2">
         <f t="shared" si="0"/>
         <v>5.9356718443943635E-3</v>
       </c>
-      <c r="AB12" s="77">
+      <c r="AB12" s="2">
         <f t="shared" si="8"/>
         <v>0.10156250000000092</v>
       </c>
-      <c r="AC12" s="77">
+      <c r="AC12" s="2">
         <f t="shared" si="1"/>
         <v>-1.2747335124759646E-3</v>
       </c>
-      <c r="AD12" s="77">
+      <c r="AD12" s="2">
         <f t="shared" si="2"/>
         <v>9.9609375000000916E-2</v>
       </c>
-      <c r="AE12" s="77">
+      <c r="AE12" s="2">
         <f t="shared" si="3"/>
         <v>2.2980754859898839E-3</v>
       </c>
-      <c r="AF12" s="77">
+      <c r="AF12" s="2">
         <f t="shared" si="4"/>
         <v>1.3640621958483047E-5</v>
       </c>
-      <c r="AG12" s="77">
+      <c r="AG12" s="2">
         <f t="shared" si="5"/>
         <v>-2.9294338361907939E-6</v>
       </c>
-      <c r="AH12" s="77">
+      <c r="AH12" s="2">
         <f t="shared" si="6"/>
         <v>3.90625E-3</v>
       </c>
@@ -50288,39 +50273,39 @@
       <c r="Y13" s="2">
         <v>9</v>
       </c>
-      <c r="Z13" s="77">
+      <c r="Z13" s="2">
         <f t="shared" si="7"/>
         <v>9.9609375000000916E-2</v>
       </c>
-      <c r="AA13" s="77">
+      <c r="AA13" s="2">
         <f t="shared" si="0"/>
         <v>2.2980754859898839E-3</v>
       </c>
-      <c r="AB13" s="77">
+      <c r="AB13" s="2">
         <f t="shared" si="8"/>
         <v>0.10156250000000092</v>
       </c>
-      <c r="AC13" s="77">
+      <c r="AC13" s="2">
         <f t="shared" si="1"/>
         <v>-1.2747335124759646E-3</v>
       </c>
-      <c r="AD13" s="77">
+      <c r="AD13" s="2">
         <f t="shared" si="2"/>
         <v>0.10058593750000092</v>
       </c>
-      <c r="AE13" s="77">
+      <c r="AE13" s="2">
         <f t="shared" si="3"/>
         <v>5.0380844307508499E-4</v>
       </c>
-      <c r="AF13" s="77">
+      <c r="AF13" s="2">
         <f t="shared" si="4"/>
         <v>1.1577898326655827E-6</v>
       </c>
-      <c r="AG13" s="77">
+      <c r="AG13" s="2">
         <f t="shared" si="5"/>
         <v>-6.4222150625615012E-7</v>
       </c>
-      <c r="AH13" s="77">
+      <c r="AH13" s="2">
         <f t="shared" si="6"/>
         <v>1.953125E-3</v>
       </c>
@@ -50411,39 +50396,39 @@
       <c r="Y14" s="2">
         <v>10</v>
       </c>
-      <c r="Z14" s="77">
+      <c r="Z14" s="2">
         <f t="shared" si="7"/>
         <v>0.10058593750000092</v>
       </c>
-      <c r="AA14" s="77">
+      <c r="AA14" s="2">
         <f t="shared" si="0"/>
         <v>5.0380844307508499E-4</v>
       </c>
-      <c r="AB14" s="77">
+      <c r="AB14" s="2">
         <f t="shared" si="8"/>
         <v>0.10156250000000092</v>
       </c>
-      <c r="AC14" s="77">
+      <c r="AC14" s="2">
         <f t="shared" si="1"/>
         <v>-1.2747335124759646E-3</v>
       </c>
-      <c r="AD14" s="77">
+      <c r="AD14" s="2">
         <f t="shared" si="2"/>
         <v>0.10107421875000092</v>
       </c>
-      <c r="AE14" s="77">
+      <c r="AE14" s="2">
         <f t="shared" si="3"/>
         <v>-3.8739968314380202E-4</v>
       </c>
-      <c r="AF14" s="77">
+      <c r="AF14" s="2">
         <f t="shared" si="4"/>
         <v>-1.9517523121246015E-7</v>
       </c>
-      <c r="AG14" s="77">
+      <c r="AG14" s="2">
         <f t="shared" si="5"/>
         <v>4.9383135882597452E-7</v>
       </c>
-      <c r="AH14" s="77">
+      <c r="AH14" s="2">
         <f t="shared" si="6"/>
         <v>9.765625E-4</v>
       </c>
@@ -50511,39 +50496,39 @@
       <c r="Y15" s="2">
         <v>11</v>
       </c>
-      <c r="Z15" s="77">
+      <c r="Z15" s="2">
         <f t="shared" si="7"/>
         <v>0.10058593750000092</v>
       </c>
-      <c r="AA15" s="77">
+      <c r="AA15" s="2">
         <f t="shared" si="0"/>
         <v>5.0380844307508499E-4</v>
       </c>
-      <c r="AB15" s="77">
+      <c r="AB15" s="2">
         <f t="shared" si="8"/>
         <v>0.10107421875000092</v>
       </c>
-      <c r="AC15" s="77">
+      <c r="AC15" s="2">
         <f t="shared" si="1"/>
         <v>-3.8739968314380202E-4</v>
       </c>
-      <c r="AD15" s="77">
+      <c r="AD15" s="2">
         <f t="shared" si="2"/>
         <v>0.10083007812500092</v>
       </c>
-      <c r="AE15" s="77">
+      <c r="AE15" s="2">
         <f t="shared" si="3"/>
         <v>5.7716575030758444E-5</v>
       </c>
-      <c r="AF15" s="77">
+      <c r="AF15" s="2">
         <f t="shared" si="4"/>
         <v>2.9078097805872736E-8</v>
       </c>
-      <c r="AG15" s="77">
+      <c r="AG15" s="2">
         <f t="shared" si="5"/>
         <v>-2.2359382879061296E-8</v>
       </c>
-      <c r="AH15" s="77">
+      <c r="AH15" s="2">
         <f t="shared" si="6"/>
         <v>4.8828125E-4</v>
       </c>
@@ -50585,16 +50570,16 @@
       </c>
     </row>
     <row r="16" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="F16" s="53" t="s">
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="F16" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
       <c r="J16" s="12" t="s">
         <v>135</v>
       </c>
@@ -50622,39 +50607,39 @@
       <c r="Y16" s="2">
         <v>12</v>
       </c>
-      <c r="Z16" s="77">
+      <c r="Z16" s="2">
         <f t="shared" si="7"/>
         <v>0.10083007812500092</v>
       </c>
-      <c r="AA16" s="77">
+      <c r="AA16" s="2">
         <f t="shared" si="0"/>
         <v>5.7716575030758444E-5</v>
       </c>
-      <c r="AB16" s="77">
+      <c r="AB16" s="2">
         <f t="shared" si="8"/>
         <v>0.10107421875000092</v>
       </c>
-      <c r="AC16" s="77">
+      <c r="AC16" s="2">
         <f t="shared" si="1"/>
         <v>-3.8739968314380202E-4</v>
       </c>
-      <c r="AD16" s="77">
+      <c r="AD16" s="2">
         <f t="shared" si="2"/>
         <v>0.10095214843750092</v>
       </c>
-      <c r="AE16" s="77">
+      <c r="AE16" s="2">
         <f t="shared" si="3"/>
         <v>-1.6496306290365859E-4</v>
       </c>
-      <c r="AF16" s="77">
+      <c r="AF16" s="2">
         <f t="shared" si="4"/>
         <v>-9.5211029973827355E-9</v>
       </c>
-      <c r="AG16" s="77">
+      <c r="AG16" s="2">
         <f t="shared" si="5"/>
         <v>6.3906638299308424E-8</v>
       </c>
-      <c r="AH16" s="77">
+      <c r="AH16" s="2">
         <f t="shared" si="6"/>
         <v>2.44140625E-4</v>
       </c>
@@ -50728,39 +50713,39 @@
       <c r="Y17" s="2">
         <v>13</v>
       </c>
-      <c r="Z17" s="77">
+      <c r="Z17" s="2">
         <f t="shared" si="7"/>
         <v>0.10083007812500092</v>
       </c>
-      <c r="AA17" s="77">
+      <c r="AA17" s="2">
         <f t="shared" si="0"/>
         <v>5.7716575030758444E-5</v>
       </c>
-      <c r="AB17" s="77">
+      <c r="AB17" s="2">
         <f t="shared" si="8"/>
         <v>0.10095214843750092</v>
       </c>
-      <c r="AC17" s="77">
+      <c r="AC17" s="2">
         <f t="shared" si="1"/>
         <v>-1.6496306290365859E-4</v>
       </c>
-      <c r="AD17" s="77">
+      <c r="AD17" s="2">
         <f t="shared" si="2"/>
         <v>0.10089111328125092</v>
       </c>
-      <c r="AE17" s="77">
+      <c r="AE17" s="2">
         <f t="shared" si="3"/>
         <v>-5.365367627929718E-5</v>
       </c>
-      <c r="AF17" s="77">
+      <c r="AF17" s="2">
         <f t="shared" si="4"/>
         <v>-3.0967064326500801E-9</v>
       </c>
-      <c r="AG17" s="77">
+      <c r="AG17" s="2">
         <f t="shared" si="5"/>
         <v>8.8508747750742348E-9</v>
       </c>
-      <c r="AH17" s="77">
+      <c r="AH17" s="2">
         <f t="shared" si="6"/>
         <v>1.220703125E-4</v>
       </c>
@@ -50831,52 +50816,52 @@
       <c r="L18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="53" t="s">
+      <c r="N18" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="R18" s="53" t="s">
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="R18" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
       <c r="Y18" s="2">
         <v>14</v>
       </c>
-      <c r="Z18" s="77">
+      <c r="Z18" s="2">
         <f t="shared" si="7"/>
         <v>0.10083007812500092</v>
       </c>
-      <c r="AA18" s="77">
+      <c r="AA18" s="2">
         <f t="shared" si="0"/>
         <v>5.7716575030758444E-5</v>
       </c>
-      <c r="AB18" s="77">
+      <c r="AB18" s="2">
         <f t="shared" si="8"/>
         <v>0.10089111328125092</v>
       </c>
-      <c r="AC18" s="77">
+      <c r="AC18" s="2">
         <f t="shared" si="1"/>
         <v>-5.365367627929718E-5</v>
       </c>
-      <c r="AD18" s="77">
+      <c r="AD18" s="2">
         <f t="shared" si="2"/>
         <v>0.10086059570312592</v>
       </c>
-      <c r="AE18" s="77">
+      <c r="AE18" s="2">
         <f t="shared" si="3"/>
         <v>2.0238343840378592E-6</v>
       </c>
-      <c r="AF18" s="77">
+      <c r="AF18" s="2">
         <f t="shared" si="4"/>
         <v>1.1680878907614991E-10</v>
       </c>
-      <c r="AG18" s="77">
+      <c r="AG18" s="2">
         <f t="shared" si="5"/>
         <v>-1.085861548840781E-10</v>
       </c>
-      <c r="AH18" s="77">
+      <c r="AH18" s="2">
         <f t="shared" si="6"/>
         <v>6.103515625E-5</v>
       </c>
@@ -50967,39 +50952,39 @@
       <c r="Y19" s="2">
         <v>15</v>
       </c>
-      <c r="Z19" s="77">
+      <c r="Z19" s="2">
         <f t="shared" si="7"/>
         <v>0.10086059570312592</v>
       </c>
-      <c r="AA19" s="77">
+      <c r="AA19" s="2">
         <f t="shared" si="0"/>
         <v>2.0238343840378592E-6</v>
       </c>
-      <c r="AB19" s="77">
+      <c r="AB19" s="2">
         <f t="shared" si="8"/>
         <v>0.10089111328125092</v>
       </c>
-      <c r="AC19" s="77">
+      <c r="AC19" s="2">
         <f t="shared" si="1"/>
         <v>-5.365367627929718E-5</v>
       </c>
-      <c r="AD19" s="77">
+      <c r="AD19" s="2">
         <f t="shared" si="2"/>
         <v>0.10087585449218842</v>
       </c>
-      <c r="AE19" s="77">
+      <c r="AE19" s="2">
         <f t="shared" si="3"/>
         <v>-2.5816823831653624E-5</v>
       </c>
-      <c r="AF19" s="77">
+      <c r="AF19" s="2">
         <f t="shared" si="4"/>
         <v>-5.2248975757148636E-11</v>
       </c>
-      <c r="AG19" s="77">
+      <c r="AG19" s="2">
         <f t="shared" si="5"/>
         <v>1.3851675084231882E-9</v>
       </c>
-      <c r="AH19" s="77">
+      <c r="AH19" s="2">
         <f t="shared" si="6"/>
         <v>3.0517578125E-5</v>
       </c>
@@ -51084,39 +51069,39 @@
       <c r="Y20" s="2">
         <v>16</v>
       </c>
-      <c r="Z20" s="77">
+      <c r="Z20" s="2">
         <f t="shared" si="7"/>
         <v>0.10086059570312592</v>
       </c>
-      <c r="AA20" s="77">
+      <c r="AA20" s="2">
         <f t="shared" si="0"/>
         <v>2.0238343840378592E-6</v>
       </c>
-      <c r="AB20" s="77">
+      <c r="AB20" s="2">
         <f t="shared" si="8"/>
         <v>0.10087585449218842</v>
       </c>
-      <c r="AC20" s="77">
+      <c r="AC20" s="2">
         <f t="shared" si="1"/>
         <v>-2.5816823831653624E-5</v>
       </c>
-      <c r="AD20" s="77">
+      <c r="AD20" s="2">
         <f t="shared" si="2"/>
         <v>0.10086822509765717</v>
       </c>
-      <c r="AE20" s="77">
+      <c r="AE20" s="2">
         <f t="shared" si="3"/>
         <v>-1.1896970552760511E-5</v>
       </c>
-      <c r="AF20" s="77">
+      <c r="AF20" s="2">
         <f t="shared" si="4"/>
         <v>-2.4077498070562619E-11</v>
       </c>
-      <c r="AG20" s="77">
+      <c r="AG20" s="2">
         <f t="shared" si="5"/>
         <v>3.0714199289098896E-10</v>
       </c>
-      <c r="AH20" s="77">
+      <c r="AH20" s="2">
         <f t="shared" si="6"/>
         <v>1.52587890625E-5</v>
       </c>
@@ -51158,11 +51143,11 @@
       </c>
     </row>
     <row r="21" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
       <c r="F21" s="9" t="s">
         <v>100</v>
       </c>
@@ -51206,39 +51191,39 @@
       <c r="Y21" s="2">
         <v>17</v>
       </c>
-      <c r="Z21" s="77">
+      <c r="Z21" s="2">
         <f t="shared" si="7"/>
         <v>0.10086059570312592</v>
       </c>
-      <c r="AA21" s="77">
+      <c r="AA21" s="2">
         <f t="shared" si="0"/>
         <v>2.0238343840378592E-6</v>
       </c>
-      <c r="AB21" s="77">
+      <c r="AB21" s="2">
         <f t="shared" si="8"/>
         <v>0.10086822509765717</v>
       </c>
-      <c r="AC21" s="77">
+      <c r="AC21" s="2">
         <f t="shared" si="1"/>
         <v>-1.1896970552760511E-5</v>
       </c>
-      <c r="AD21" s="77">
+      <c r="AD21" s="2">
         <f t="shared" si="2"/>
         <v>0.10086441040039154</v>
       </c>
-      <c r="AE21" s="77">
+      <c r="AE21" s="2">
         <f t="shared" si="3"/>
         <v>-4.9366870550904274E-6</v>
       </c>
-      <c r="AF21" s="77">
+      <c r="AF21" s="2">
         <f t="shared" si="4"/>
         <v>-9.9910370053266086E-12</v>
       </c>
-      <c r="AG21" s="77">
+      <c r="AG21" s="2">
         <f t="shared" si="5"/>
         <v>5.8731620522604819E-11</v>
       </c>
-      <c r="AH21" s="77">
+      <c r="AH21" s="2">
         <f t="shared" si="6"/>
         <v>7.62939453125E-6</v>
       </c>
@@ -51323,39 +51308,39 @@
       <c r="Y22" s="2">
         <v>18</v>
       </c>
-      <c r="Z22" s="77">
+      <c r="Z22" s="2">
         <f t="shared" si="7"/>
         <v>0.10086059570312592</v>
       </c>
-      <c r="AA22" s="77">
+      <c r="AA22" s="2">
         <f t="shared" si="0"/>
         <v>2.0238343840378592E-6</v>
       </c>
-      <c r="AB22" s="77">
+      <c r="AB22" s="2">
         <f t="shared" si="8"/>
         <v>0.10086441040039154</v>
       </c>
-      <c r="AC22" s="77">
+      <c r="AC22" s="2">
         <f t="shared" si="1"/>
         <v>-4.9366870550904274E-6</v>
       </c>
-      <c r="AD22" s="77">
+      <c r="AD22" s="2">
         <f t="shared" si="2"/>
         <v>0.10086250305175873</v>
       </c>
-      <c r="AE22" s="77">
+      <c r="AE22" s="2">
         <f t="shared" si="3"/>
         <v>-1.456456079892976E-6</v>
       </c>
-      <c r="AF22" s="77">
+      <c r="AF22" s="2">
         <f t="shared" si="4"/>
         <v>-2.9476258933283963E-12</v>
       </c>
-      <c r="AG22" s="77">
+      <c r="AG22" s="2">
         <f t="shared" si="5"/>
         <v>7.1900678759154041E-12</v>
       </c>
-      <c r="AH22" s="77">
+      <c r="AH22" s="2">
         <f t="shared" si="6"/>
         <v>3.814697265625E-6</v>
       </c>
@@ -51437,39 +51422,39 @@
       <c r="Y23" s="2">
         <v>19</v>
       </c>
-      <c r="Z23" s="77">
+      <c r="Z23" s="2">
         <f t="shared" si="7"/>
         <v>0.10086059570312592</v>
       </c>
-      <c r="AA23" s="77">
+      <c r="AA23" s="2">
         <f t="shared" si="0"/>
         <v>2.0238343840378592E-6</v>
       </c>
-      <c r="AB23" s="77">
+      <c r="AB23" s="2">
         <f t="shared" si="8"/>
         <v>0.10086250305175873</v>
       </c>
-      <c r="AC23" s="77">
+      <c r="AC23" s="2">
         <f t="shared" si="1"/>
         <v>-1.456456079892976E-6</v>
       </c>
-      <c r="AD23" s="77">
+      <c r="AD23" s="2">
         <f t="shared" si="2"/>
         <v>0.10086154937744232</v>
       </c>
-      <c r="AE23" s="77">
+      <c r="AE23" s="2">
         <f t="shared" si="3"/>
         <v>2.8368171577086709E-7</v>
       </c>
-      <c r="AF23" s="77">
+      <c r="AF23" s="2">
         <f t="shared" si="4"/>
         <v>5.7412481049993588E-13</v>
       </c>
-      <c r="AG23" s="77">
+      <c r="AG23" s="2">
         <f t="shared" si="5"/>
         <v>-4.1316995968895051E-13</v>
       </c>
-      <c r="AH23" s="77">
+      <c r="AH23" s="2">
         <f t="shared" si="6"/>
         <v>1.9073486328125E-6</v>
       </c>
@@ -51553,39 +51538,39 @@
       <c r="Y24" s="2">
         <v>20</v>
       </c>
-      <c r="Z24" s="77">
+      <c r="Z24" s="2">
         <f t="shared" si="7"/>
         <v>0.10086154937744232</v>
       </c>
-      <c r="AA24" s="77">
+      <c r="AA24" s="2">
         <f t="shared" si="0"/>
         <v>2.8368171577086709E-7</v>
       </c>
-      <c r="AB24" s="77">
+      <c r="AB24" s="2">
         <f t="shared" si="8"/>
         <v>0.10086250305175873</v>
       </c>
-      <c r="AC24" s="77">
+      <c r="AC24" s="2">
         <f t="shared" si="1"/>
         <v>-1.456456079892976E-6</v>
       </c>
-      <c r="AD24" s="77">
+      <c r="AD24" s="2">
         <f t="shared" si="2"/>
         <v>0.10086202621460053</v>
       </c>
-      <c r="AE24" s="77">
+      <c r="AE24" s="2">
         <f t="shared" si="3"/>
         <v>-5.8638904111563139E-7</v>
       </c>
-      <c r="AF24" s="77">
+      <c r="AF24" s="2">
         <f t="shared" si="4"/>
         <v>-1.6634784929291584E-13</v>
       </c>
-      <c r="AG24" s="77">
+      <c r="AG24" s="2">
         <f t="shared" si="5"/>
         <v>8.5404988411547361E-13</v>
       </c>
-      <c r="AH24" s="77">
+      <c r="AH24" s="2">
         <f t="shared" si="6"/>
         <v>9.5367431640625E-7</v>
       </c>
@@ -51666,39 +51651,39 @@
       <c r="Y25" s="2">
         <v>21</v>
       </c>
-      <c r="Z25" s="77">
+      <c r="Z25" s="2">
         <f t="shared" si="7"/>
         <v>0.10086154937744232</v>
       </c>
-      <c r="AA25" s="77">
+      <c r="AA25" s="2">
         <f t="shared" si="0"/>
         <v>2.8368171577086709E-7</v>
       </c>
-      <c r="AB25" s="77">
+      <c r="AB25" s="2">
         <f t="shared" si="8"/>
         <v>0.10086202621460053</v>
       </c>
-      <c r="AC25" s="77">
+      <c r="AC25" s="2">
         <f t="shared" si="1"/>
         <v>-5.8638904111563139E-7</v>
       </c>
-      <c r="AD25" s="77">
+      <c r="AD25" s="2">
         <f t="shared" si="2"/>
         <v>0.10086178779602142</v>
       </c>
-      <c r="AE25" s="77">
+      <c r="AE25" s="2">
         <f t="shared" si="3"/>
         <v>-1.5135412743949583E-7</v>
       </c>
-      <c r="AF25" s="77">
+      <c r="AF25" s="2">
         <f t="shared" si="4"/>
         <v>-4.2936398561038655E-14</v>
       </c>
-      <c r="AG25" s="77">
+      <c r="AG25" s="2">
         <f t="shared" si="5"/>
         <v>8.8752401658139033E-14</v>
       </c>
-      <c r="AH25" s="77">
+      <c r="AH25" s="2">
         <f t="shared" si="6"/>
         <v>4.76837158203125E-7</v>
       </c>
@@ -51740,11 +51725,11 @@
       </c>
     </row>
     <row r="26" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
       <c r="J26" s="15" t="s">
         <v>67</v>
       </c>
@@ -51772,39 +51757,39 @@
       <c r="Y26" s="2">
         <v>22</v>
       </c>
-      <c r="Z26" s="77">
+      <c r="Z26" s="2">
         <f t="shared" si="7"/>
         <v>0.10086154937744232</v>
       </c>
-      <c r="AA26" s="77">
+      <c r="AA26" s="2">
         <f t="shared" si="0"/>
         <v>2.8368171577086709E-7</v>
       </c>
-      <c r="AB26" s="77">
+      <c r="AB26" s="2">
         <f t="shared" si="8"/>
         <v>0.10086178779602142</v>
       </c>
-      <c r="AC26" s="77">
+      <c r="AC26" s="2">
         <f t="shared" si="1"/>
         <v>-1.5135412743949583E-7</v>
       </c>
-      <c r="AD26" s="77">
+      <c r="AD26" s="2">
         <f t="shared" si="2"/>
         <v>0.10086166858673187</v>
       </c>
-      <c r="AE26" s="77">
+      <c r="AE26" s="2">
         <f t="shared" si="3"/>
         <v>6.6163677980846103E-8</v>
       </c>
-      <c r="AF26" s="77">
+      <c r="AF26" s="2">
         <f t="shared" si="4"/>
         <v>1.8769425691317561E-14</v>
       </c>
-      <c r="AG26" s="77">
+      <c r="AG26" s="2">
         <f t="shared" si="5"/>
         <v>-1.0014145748978745E-14</v>
       </c>
-      <c r="AH26" s="77">
+      <c r="AH26" s="2">
         <f t="shared" si="6"/>
         <v>2.384185791015625E-7</v>
       </c>
@@ -51846,11 +51831,11 @@
       </c>
     </row>
     <row r="27" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
       <c r="F27" s="6" t="s">
         <v>88</v>
       </c>
@@ -51894,39 +51879,39 @@
       <c r="Y27" s="2">
         <v>23</v>
       </c>
-      <c r="Z27" s="77">
+      <c r="Z27" s="2">
         <f t="shared" si="7"/>
         <v>0.10086166858673187</v>
       </c>
-      <c r="AA27" s="77">
+      <c r="AA27" s="2">
         <f t="shared" si="0"/>
         <v>6.6163677980846103E-8</v>
       </c>
-      <c r="AB27" s="77">
+      <c r="AB27" s="2">
         <f t="shared" si="8"/>
         <v>0.10086178779602142</v>
       </c>
-      <c r="AC27" s="77">
+      <c r="AC27" s="2">
         <f t="shared" si="1"/>
         <v>-1.5135412743949583E-7</v>
       </c>
-      <c r="AD27" s="77">
+      <c r="AD27" s="2">
         <f t="shared" si="2"/>
         <v>0.10086172819137665</v>
       </c>
-      <c r="AE27" s="77">
+      <c r="AE27" s="2">
         <f t="shared" si="3"/>
         <v>-4.2595253782473641E-8</v>
       </c>
-      <c r="AF27" s="77">
+      <c r="AF27" s="2">
         <f t="shared" si="4"/>
         <v>-2.818258654776003E-15</v>
       </c>
-      <c r="AG27" s="77">
+      <c r="AG27" s="2">
         <f t="shared" si="5"/>
         <v>6.4469674693101825E-15</v>
       </c>
-      <c r="AH27" s="77">
+      <c r="AH27" s="2">
         <f t="shared" si="6"/>
         <v>1.1920928955078125E-7</v>
       </c>
@@ -52011,39 +51996,39 @@
       <c r="Y28" s="2">
         <v>24</v>
       </c>
-      <c r="Z28" s="77">
+      <c r="Z28" s="2">
         <f t="shared" si="7"/>
         <v>0.10086166858673187</v>
       </c>
-      <c r="AA28" s="77">
+      <c r="AA28" s="2">
         <f t="shared" si="0"/>
         <v>6.6163677980846103E-8</v>
       </c>
-      <c r="AB28" s="77">
+      <c r="AB28" s="2">
         <f t="shared" si="8"/>
         <v>0.10086172819137665</v>
       </c>
-      <c r="AC28" s="77">
+      <c r="AC28" s="2">
         <f t="shared" si="1"/>
         <v>-4.2595253782473641E-8</v>
       </c>
-      <c r="AD28" s="77">
+      <c r="AD28" s="2">
         <f t="shared" si="2"/>
         <v>0.10086169838905426</v>
       </c>
-      <c r="AE28" s="77">
+      <c r="AE28" s="2">
         <f t="shared" si="3"/>
         <v>1.1784204834164314E-8</v>
       </c>
-      <c r="AF28" s="77">
+      <c r="AF28" s="2">
         <f t="shared" si="4"/>
         <v>7.796863339079776E-16</v>
       </c>
-      <c r="AG28" s="77">
+      <c r="AG28" s="2">
         <f t="shared" si="5"/>
         <v>-5.0195119553588168E-16</v>
       </c>
-      <c r="AH28" s="77">
+      <c r="AH28" s="2">
         <f t="shared" si="6"/>
         <v>5.9604644775390625E-8</v>
       </c>
@@ -52126,39 +52111,39 @@
       <c r="Y29" s="2">
         <v>25</v>
       </c>
-      <c r="Z29" s="77">
+      <c r="Z29" s="2">
         <f t="shared" si="7"/>
         <v>0.10086169838905426</v>
       </c>
-      <c r="AA29" s="77">
+      <c r="AA29" s="2">
         <f t="shared" si="0"/>
         <v>1.1784204834164314E-8</v>
       </c>
-      <c r="AB29" s="77">
+      <c r="AB29" s="2">
         <f t="shared" si="8"/>
         <v>0.10086172819137665</v>
       </c>
-      <c r="AC29" s="77">
+      <c r="AC29" s="2">
         <f t="shared" si="1"/>
         <v>-4.2595253782473641E-8</v>
       </c>
-      <c r="AD29" s="77">
+      <c r="AD29" s="2">
         <f t="shared" si="2"/>
         <v>0.10086171329021545</v>
       </c>
-      <c r="AE29" s="77">
+      <c r="AE29" s="2">
         <f t="shared" si="3"/>
         <v>-1.5405526285205973E-8</v>
       </c>
-      <c r="AF29" s="77">
+      <c r="AF29" s="2">
         <f t="shared" si="4"/>
         <v>-1.8154187732296962E-16</v>
       </c>
-      <c r="AG29" s="77">
+      <c r="AG29" s="2">
         <f t="shared" si="5"/>
         <v>6.5620230177091678E-16</v>
       </c>
-      <c r="AH29" s="77">
+      <c r="AH29" s="2">
         <f t="shared" si="6"/>
         <v>2.9802322387695312E-8</v>
       </c>
@@ -52244,39 +52229,39 @@
       <c r="Y30" s="2">
         <v>26</v>
       </c>
-      <c r="Z30" s="77">
+      <c r="Z30" s="2">
         <f>IF(AF29&gt;0, AD29, Z29)</f>
         <v>0.10086169838905426</v>
       </c>
-      <c r="AA30" s="77">
+      <c r="AA30" s="2">
         <f t="shared" si="0"/>
         <v>1.1784204834164314E-8</v>
       </c>
-      <c r="AB30" s="77">
+      <c r="AB30" s="2">
         <f t="shared" si="8"/>
         <v>0.10086171329021545</v>
       </c>
-      <c r="AC30" s="77">
+      <c r="AC30" s="2">
         <f t="shared" si="1"/>
         <v>-1.5405526285205973E-8</v>
       </c>
-      <c r="AD30" s="77">
+      <c r="AD30" s="2">
         <f t="shared" si="2"/>
         <v>0.10086170583963486</v>
       </c>
-      <c r="AE30" s="77">
+      <c r="AE30" s="2">
         <f t="shared" si="3"/>
         <v>-1.8106611765489333E-9</v>
       </c>
-      <c r="AF30" s="77">
+      <c r="AF30" s="2">
         <f t="shared" si="4"/>
         <v>-2.1337202189721584E-17</v>
       </c>
-      <c r="AG30" s="77">
+      <c r="AG30" s="2">
         <f t="shared" si="5"/>
         <v>2.7894188348926568E-17</v>
       </c>
-      <c r="AH30" s="77">
+      <c r="AH30" s="2">
         <f t="shared" si="6"/>
         <v>1.4901161193847656E-8</v>
       </c>
@@ -52344,39 +52329,39 @@
       <c r="Y31" s="2">
         <v>27</v>
       </c>
-      <c r="Z31" s="77">
+      <c r="Z31" s="2">
         <f t="shared" ref="Z31:Z34" si="15">IF(AF30&gt;0, AD30, Z30)</f>
         <v>0.10086169838905426</v>
       </c>
-      <c r="AA31" s="77">
+      <c r="AA31" s="2">
         <f t="shared" si="0"/>
         <v>1.1784204834164314E-8</v>
       </c>
-      <c r="AB31" s="77">
+      <c r="AB31" s="2">
         <f t="shared" si="8"/>
         <v>0.10086170583963486</v>
       </c>
-      <c r="AC31" s="77">
+      <c r="AC31" s="2">
         <f t="shared" si="1"/>
         <v>-1.8106611765489333E-9</v>
       </c>
-      <c r="AD31" s="77">
+      <c r="AD31" s="2">
         <f t="shared" si="2"/>
         <v>0.10086170211434456</v>
       </c>
-      <c r="AE31" s="77">
+      <c r="AE31" s="2">
         <f t="shared" si="3"/>
         <v>4.9867717177853876E-9</v>
       </c>
-      <c r="AF31" s="77">
+      <c r="AF31" s="2">
         <f t="shared" si="4"/>
         <v>5.8765139383600437E-17</v>
       </c>
-      <c r="AG31" s="77">
+      <c r="AG31" s="2">
         <f t="shared" si="5"/>
         <v>-9.0293539457062353E-18</v>
       </c>
-      <c r="AH31" s="77">
+      <c r="AH31" s="2">
         <f t="shared" si="6"/>
         <v>7.4505805969238281E-9</v>
       </c>
@@ -52431,39 +52416,39 @@
       <c r="Y32" s="2">
         <v>28</v>
       </c>
-      <c r="Z32" s="77">
+      <c r="Z32" s="2">
         <f t="shared" si="15"/>
         <v>0.10086170211434456</v>
       </c>
-      <c r="AA32" s="77">
+      <c r="AA32" s="2">
         <f t="shared" si="0"/>
         <v>4.9867717177853876E-9</v>
       </c>
-      <c r="AB32" s="77">
+      <c r="AB32" s="2">
         <f t="shared" si="8"/>
         <v>0.10086170583963486</v>
       </c>
-      <c r="AC32" s="77">
+      <c r="AC32" s="2">
         <f t="shared" si="1"/>
         <v>-1.8106611765489333E-9</v>
       </c>
-      <c r="AD32" s="77">
+      <c r="AD32" s="2">
         <f t="shared" si="2"/>
         <v>0.10086170397698971</v>
       </c>
-      <c r="AE32" s="77">
+      <c r="AE32" s="2">
         <f t="shared" si="3"/>
         <v>1.5880552428626515E-9</v>
       </c>
-      <c r="AF32" s="77">
+      <c r="AF32" s="2">
         <f t="shared" si="4"/>
         <v>7.9192689713882758E-18</v>
       </c>
-      <c r="AG32" s="77">
+      <c r="AG32" s="2">
         <f t="shared" si="5"/>
         <v>-2.8754299744663907E-18</v>
       </c>
-      <c r="AH32" s="77">
+      <c r="AH32" s="2">
         <f t="shared" si="6"/>
         <v>3.7252902984619141E-9</v>
       </c>
@@ -52505,11 +52490,11 @@
       </c>
     </row>
     <row r="33" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
       <c r="F33" s="43" t="s">
         <v>86</v>
       </c>
@@ -52528,39 +52513,39 @@
       <c r="Y33" s="2">
         <v>29</v>
       </c>
-      <c r="Z33" s="77">
+      <c r="Z33" s="2">
         <f t="shared" si="15"/>
         <v>0.10086170397698971</v>
       </c>
-      <c r="AA33" s="77">
+      <c r="AA33" s="2">
         <f t="shared" si="0"/>
         <v>1.5880552428626515E-9</v>
       </c>
-      <c r="AB33" s="77">
+      <c r="AB33" s="2">
         <f t="shared" si="8"/>
         <v>0.10086170583963486</v>
       </c>
-      <c r="AC33" s="77">
+      <c r="AC33" s="2">
         <f t="shared" si="1"/>
         <v>-1.8106611765489333E-9</v>
       </c>
-      <c r="AD33" s="77">
+      <c r="AD33" s="2">
         <f t="shared" si="2"/>
         <v>0.10086170490831228</v>
       </c>
-      <c r="AE33" s="77">
+      <c r="AE33" s="2">
         <f t="shared" si="3"/>
         <v>-1.113029807209287E-10</v>
       </c>
-      <c r="AF33" s="77">
+      <c r="AF33" s="2">
         <f t="shared" si="4"/>
         <v>-1.7675528208011145E-19</v>
       </c>
-      <c r="AG33" s="77">
+      <c r="AG33" s="2">
         <f t="shared" si="5"/>
         <v>2.0153198602556001E-19</v>
       </c>
-      <c r="AH33" s="77">
+      <c r="AH33" s="2">
         <f t="shared" si="6"/>
         <v>1.862645149230957E-9</v>
       </c>
@@ -52621,39 +52606,39 @@
       <c r="Y34" s="2">
         <v>30</v>
       </c>
-      <c r="Z34" s="77">
+      <c r="Z34" s="2">
         <f t="shared" si="15"/>
         <v>0.10086170397698971</v>
       </c>
-      <c r="AA34" s="77">
+      <c r="AA34" s="2">
         <f t="shared" si="0"/>
         <v>1.5880552428626515E-9</v>
       </c>
-      <c r="AB34" s="77">
+      <c r="AB34" s="2">
         <f t="shared" si="8"/>
         <v>0.10086170490831228</v>
       </c>
-      <c r="AC34" s="77">
+      <c r="AC34" s="2">
         <f t="shared" si="1"/>
         <v>-1.113029807209287E-10</v>
       </c>
-      <c r="AD34" s="78">
+      <c r="AD34" s="5">
         <f t="shared" si="2"/>
         <v>0.100861704442651</v>
       </c>
-      <c r="AE34" s="77">
+      <c r="AE34" s="2">
         <f t="shared" si="3"/>
         <v>7.3837612413196752E-10</v>
       </c>
-      <c r="AF34" s="77">
+      <c r="AF34" s="2">
         <f t="shared" si="4"/>
         <v>1.172582075132375E-18</v>
       </c>
-      <c r="AG34" s="77">
+      <c r="AG34" s="2">
         <f t="shared" si="5"/>
         <v>-8.2183463509054438E-20</v>
       </c>
-      <c r="AH34" s="77">
+      <c r="AH34" s="2">
         <f t="shared" si="6"/>
         <v>9.3132257461547852E-10</v>
       </c>
@@ -52890,11 +52875,11 @@
       </c>
     </row>
     <row r="38" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
       <c r="J38" s="15" t="s">
         <v>73</v>
       </c>
@@ -53166,11 +53151,11 @@
       <c r="D41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="57" t="s">
+      <c r="J41" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
       <c r="Y41" s="2">
         <v>3</v>
       </c>
@@ -53428,11 +53413,11 @@
       </c>
     </row>
     <row r="44" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
       <c r="J44" s="19" t="s">
         <v>81</v>
       </c>
@@ -53628,11 +53613,11 @@
       </c>
     </row>
     <row r="47" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
       <c r="J47" s="10" t="s">
         <v>62</v>
       </c>
@@ -53874,11 +53859,11 @@
       </c>
     </row>
     <row r="52" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
       <c r="Y52" s="2">
         <v>14</v>
       </c>
@@ -54160,11 +54145,11 @@
       </c>
     </row>
     <row r="58" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
       <c r="Y58" s="2">
         <v>20</v>
       </c>
@@ -54391,11 +54376,11 @@
       </c>
     </row>
     <row r="63" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
       <c r="Y63" s="2">
         <v>25</v>
       </c>
@@ -54678,11 +54663,11 @@
       </c>
     </row>
     <row r="69" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
     </row>
     <row r="70" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
@@ -54729,11 +54714,11 @@
       </c>
     </row>
     <row r="75" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="57"/>
-      <c r="D75" s="57"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="54"/>
     </row>
     <row r="76" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
@@ -54780,6 +54765,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="J9:L9"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B69:D69"/>
@@ -54794,16 +54789,6 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="J9:L9"/>
   </mergeCells>
   <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="FALSE">
@@ -54894,11 +54879,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="2:87" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -54907,80 +54892,80 @@
       <c r="AF2" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="AQ2" s="60" t="s">
+      <c r="AQ2" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AU2" s="60" t="s">
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AU2" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AY2" s="60" t="s">
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AY2" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="60"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BG2" s="60" t="s">
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BE2" s="61"/>
+      <c r="BG2" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="BH2" s="60"/>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="60"/>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BO2" s="60" t="s">
+      <c r="BH2" s="61"/>
+      <c r="BI2" s="61"/>
+      <c r="BJ2" s="61"/>
+      <c r="BK2" s="61"/>
+      <c r="BL2" s="61"/>
+      <c r="BM2" s="61"/>
+      <c r="BO2" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="BP2" s="60"/>
-      <c r="BQ2" s="60"/>
-      <c r="BR2" s="60"/>
-      <c r="BS2" s="60"/>
-      <c r="BT2" s="60"/>
-      <c r="BU2" s="60"/>
-      <c r="BV2" s="60"/>
-      <c r="BW2" s="60"/>
-      <c r="BX2" s="60"/>
-      <c r="BZ2" s="60" t="s">
+      <c r="BP2" s="61"/>
+      <c r="BQ2" s="61"/>
+      <c r="BR2" s="61"/>
+      <c r="BS2" s="61"/>
+      <c r="BT2" s="61"/>
+      <c r="BU2" s="61"/>
+      <c r="BV2" s="61"/>
+      <c r="BW2" s="61"/>
+      <c r="BX2" s="61"/>
+      <c r="BZ2" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="CA2" s="60"/>
-      <c r="CB2" s="60"/>
-      <c r="CC2" s="60"/>
-      <c r="CD2" s="60"/>
-      <c r="CE2" s="60"/>
-      <c r="CF2" s="60"/>
-      <c r="CG2" s="60"/>
-      <c r="CH2" s="60"/>
-      <c r="CI2" s="60"/>
+      <c r="CA2" s="61"/>
+      <c r="CB2" s="61"/>
+      <c r="CC2" s="61"/>
+      <c r="CD2" s="61"/>
+      <c r="CE2" s="61"/>
+      <c r="CF2" s="61"/>
+      <c r="CG2" s="61"/>
+      <c r="CH2" s="61"/>
+      <c r="CI2" s="61"/>
     </row>
     <row r="3" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="F3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="J3" s="57" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="N3" s="57" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
       <c r="U3" s="7" t="s">
         <v>44</v>
       </c>
@@ -55061,27 +55046,27 @@
       <c r="AW3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AY3" s="61" t="s">
+      <c r="AY3" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
-      <c r="BC3" s="61" t="s">
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="63"/>
+      <c r="BC3" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="BD3" s="61"/>
-      <c r="BE3" s="61"/>
-      <c r="BG3" s="61" t="s">
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
+      <c r="BG3" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="BH3" s="61"/>
-      <c r="BI3" s="61"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
       <c r="BJ3" s="2"/>
-      <c r="BK3" s="61" t="s">
+      <c r="BK3" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="BL3" s="61"/>
-      <c r="BM3" s="61"/>
+      <c r="BL3" s="63"/>
+      <c r="BM3" s="63"/>
       <c r="BO3" s="7" t="s">
         <v>44</v>
       </c>
@@ -55422,7 +55407,7 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
         <v>-1007.0218600678832</v>
       </c>
       <c r="AI5" s="3">
@@ -55520,7 +55505,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="BQ5" s="2">
-        <f t="dataTable" ref="BQ5:BQ34" dt2D="0" dtr="0" r1="BH4" ca="1"/>
+        <f t="dataTable" ref="BQ5:BQ34" dt2D="0" dtr="0" r1="BH4"/>
         <v>-7.4374526188360992</v>
       </c>
       <c r="BR5" s="3">
@@ -55536,7 +55521,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="BU5" s="2">
-        <f t="dataTable" ref="BU5:BU34" dt2D="0" dtr="0" r1="BH4"/>
+        <f t="dataTable" ref="BU5:BU34" dt2D="0" dtr="0" r1="BH4" ca="1"/>
         <v>1.3254151102375213</v>
       </c>
       <c r="BV5" s="2">
@@ -55559,7 +55544,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="CB5" s="2">
-        <f t="dataTable" ref="CB5:CB34" dt2D="0" dtr="0" r1="BL4" ca="1"/>
+        <f t="dataTable" ref="CB5:CB34" dt2D="0" dtr="0" r1="BL4"/>
         <v>-4.5723507353059505</v>
       </c>
       <c r="CC5" s="3">
@@ -55945,11 +55930,11 @@
         <f t="shared" si="20"/>
         <v>1125</v>
       </c>
-      <c r="AQ7" s="60" t="s">
+      <c r="AQ7" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="AR7" s="60"/>
-      <c r="AS7" s="60"/>
+      <c r="AR7" s="61"/>
+      <c r="AS7" s="61"/>
       <c r="AU7" s="2" t="s">
         <v>166</v>
       </c>
@@ -56306,11 +56291,11 @@
       <c r="H9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
       <c r="N9" s="6" t="s">
         <v>122</v>
       </c>
@@ -56403,11 +56388,11 @@
       <c r="AS9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU9" s="60" t="s">
+      <c r="AU9" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="AV9" s="60"/>
-      <c r="AW9" s="60"/>
+      <c r="AV9" s="61"/>
+      <c r="AW9" s="61"/>
       <c r="AY9" s="2" t="s">
         <v>174</v>
       </c>
@@ -56876,7 +56861,7 @@
         <f t="shared" si="20"/>
         <v>70.3125</v>
       </c>
-      <c r="AQ11" s="63" t="s">
+      <c r="AQ11" s="67" t="s">
         <v>181</v>
       </c>
       <c r="AR11" s="3" t="s">
@@ -57084,7 +57069,7 @@
         <f t="shared" si="20"/>
         <v>35.15625</v>
       </c>
-      <c r="AQ12" s="63"/>
+      <c r="AQ12" s="67"/>
       <c r="AR12" s="3" t="s">
         <v>219</v>
       </c>
@@ -57099,16 +57084,16 @@
       <c r="AW12" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="AY12" s="61" t="s">
+      <c r="AY12" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="AZ12" s="61"/>
-      <c r="BA12" s="61"/>
-      <c r="BC12" s="61" t="s">
+      <c r="AZ12" s="63"/>
+      <c r="BA12" s="63"/>
+      <c r="BC12" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="BD12" s="61"/>
-      <c r="BE12" s="61"/>
+      <c r="BD12" s="63"/>
+      <c r="BE12" s="63"/>
       <c r="BG12" s="2" t="s">
         <v>187</v>
       </c>
@@ -57306,7 +57291,7 @@
         <f t="shared" si="20"/>
         <v>17.578125</v>
       </c>
-      <c r="AQ13" s="63"/>
+      <c r="AQ13" s="67"/>
       <c r="AR13" s="3" t="s">
         <v>219</v>
       </c>
@@ -57523,16 +57508,16 @@
         <f t="shared" si="20"/>
         <v>8.7890625</v>
       </c>
-      <c r="AQ14" s="63"/>
+      <c r="AQ14" s="67"/>
       <c r="AR14" s="3" t="s">
         <v>219</v>
       </c>
       <c r="AS14" s="26"/>
-      <c r="AU14" s="60" t="s">
+      <c r="AU14" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="AV14" s="60"/>
-      <c r="AW14" s="60"/>
+      <c r="AV14" s="61"/>
+      <c r="AW14" s="61"/>
       <c r="AY14" s="2" t="s">
         <v>158</v>
       </c>
@@ -57644,11 +57629,11 @@
       </c>
     </row>
     <row r="15" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
       <c r="J15" s="11" t="s">
         <v>55</v>
       </c>
@@ -57741,7 +57726,7 @@
         <f t="shared" si="20"/>
         <v>4.39453125</v>
       </c>
-      <c r="AQ15" s="63"/>
+      <c r="AQ15" s="67"/>
       <c r="AR15" s="3" t="s">
         <v>219</v>
       </c>
@@ -57867,11 +57852,11 @@
       </c>
     </row>
     <row r="16" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
       <c r="F16" s="9" t="s">
         <v>92</v>
       </c>
@@ -57974,7 +57959,7 @@
         <f t="shared" si="20"/>
         <v>2.197265625</v>
       </c>
-      <c r="AQ16" s="63"/>
+      <c r="AQ16" s="67"/>
       <c r="AR16" s="3" t="s">
         <v>219</v>
       </c>
@@ -58202,7 +58187,7 @@
         <f t="shared" si="20"/>
         <v>1.0986328125</v>
       </c>
-      <c r="AQ17" s="63"/>
+      <c r="AQ17" s="67"/>
       <c r="AR17" s="3" t="s">
         <v>219</v>
       </c>
@@ -58351,11 +58336,11 @@
       <c r="L18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="53" t="s">
+      <c r="N18" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
       <c r="U18" s="2">
         <v>14</v>
       </c>
@@ -58431,7 +58416,7 @@
         <f t="shared" si="20"/>
         <v>0.54931640625</v>
       </c>
-      <c r="AQ18" s="63"/>
+      <c r="AQ18" s="67"/>
       <c r="AR18" s="3" t="s">
         <v>219</v>
       </c>
@@ -58665,7 +58650,7 @@
         <f t="shared" si="20"/>
         <v>0.274658203125</v>
       </c>
-      <c r="AQ19" s="63" t="s">
+      <c r="AQ19" s="67" t="s">
         <v>195</v>
       </c>
       <c r="AR19" s="3">
@@ -58899,7 +58884,7 @@
         <f t="shared" si="20"/>
         <v>0.1373291015625</v>
       </c>
-      <c r="AQ20" s="63"/>
+      <c r="AQ20" s="67"/>
       <c r="AR20" s="3">
         <f>0.358125*($AR$9/2)</f>
         <v>0.54578250000000006</v>
@@ -59006,11 +58991,11 @@
       </c>
     </row>
     <row r="21" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
       <c r="J21" s="14" t="s">
         <v>64</v>
       </c>
@@ -59106,7 +59091,7 @@
         <f t="shared" si="20"/>
         <v>6.866455078125E-2</v>
       </c>
-      <c r="AQ21" s="63"/>
+      <c r="AQ21" s="67"/>
       <c r="AR21" s="3">
         <f>0.456875*($AR$9/2)</f>
         <v>0.69627749999999999</v>
@@ -59115,16 +59100,16 @@
         <v>8</v>
       </c>
       <c r="AW21" s="26"/>
-      <c r="AY21" s="61" t="s">
+      <c r="AY21" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="AZ21" s="61"/>
-      <c r="BA21" s="61"/>
-      <c r="BC21" s="61" t="s">
+      <c r="AZ21" s="63"/>
+      <c r="BA21" s="63"/>
+      <c r="BC21" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="BD21" s="61"/>
-      <c r="BE21" s="61"/>
+      <c r="BD21" s="63"/>
+      <c r="BE21" s="63"/>
       <c r="BG21" s="2"/>
       <c r="BH21" s="2"/>
       <c r="BI21" s="2"/>
@@ -59212,11 +59197,11 @@
       <c r="C22" s="17">
         <v>8</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
       <c r="J22" s="14" t="s">
         <v>241</v>
       </c>
@@ -59309,7 +59294,7 @@
         <f t="shared" si="20"/>
         <v>3.4332275390625E-2</v>
       </c>
-      <c r="AQ22" s="63"/>
+      <c r="AQ22" s="67"/>
       <c r="AR22" s="3">
         <f>0.555625*($AR$9/2)</f>
         <v>0.84677250000000004</v>
@@ -59317,11 +59302,11 @@
       <c r="AS22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU22" s="60" t="s">
+      <c r="AU22" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="AV22" s="60"/>
-      <c r="AW22" s="60"/>
+      <c r="AV22" s="61"/>
+      <c r="AW22" s="61"/>
       <c r="AY22" s="2" t="s">
         <v>153</v>
       </c>
@@ -59342,17 +59327,17 @@
       <c r="BE22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BG22" s="61" t="s">
+      <c r="BG22" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="BH22" s="61"/>
-      <c r="BI22" s="61"/>
+      <c r="BH22" s="63"/>
+      <c r="BI22" s="63"/>
       <c r="BJ22" s="2"/>
-      <c r="BK22" s="61" t="s">
+      <c r="BK22" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="BL22" s="61"/>
-      <c r="BM22" s="61"/>
+      <c r="BL22" s="63"/>
+      <c r="BM22" s="63"/>
       <c r="BO22" s="2">
         <v>18</v>
       </c>
@@ -59535,7 +59520,7 @@
         <f t="shared" si="20"/>
         <v>1.71661376953125E-2</v>
       </c>
-      <c r="AQ23" s="63"/>
+      <c r="AQ23" s="67"/>
       <c r="AR23" s="3">
         <f>0.654375*($AR$9/2)</f>
         <v>0.99726750000000008</v>
@@ -59543,14 +59528,14 @@
       <c r="AS23" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU23" s="62" t="s">
+      <c r="AU23" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="AV23" s="63">
+      <c r="AV23" s="67">
         <f>BH20</f>
         <v>-8.4734595867663742E-9</v>
       </c>
-      <c r="AW23" s="63"/>
+      <c r="AW23" s="67"/>
       <c r="AY23" s="2" t="s">
         <v>158</v>
       </c>
@@ -59774,7 +59759,7 @@
         <f t="shared" si="20"/>
         <v>8.58306884765625E-3</v>
       </c>
-      <c r="AQ24" s="63"/>
+      <c r="AQ24" s="67"/>
       <c r="AR24" s="3">
         <f>0.753125*($AR$9/2)</f>
         <v>1.1477625</v>
@@ -59782,12 +59767,12 @@
       <c r="AS24" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU24" s="62"/>
-      <c r="AV24" s="63">
+      <c r="AU24" s="70"/>
+      <c r="AV24" s="67">
         <f>BL20</f>
         <v>1.1665570176511153E-9</v>
       </c>
-      <c r="AW24" s="63"/>
+      <c r="AW24" s="67"/>
       <c r="AY24" s="2" t="s">
         <v>163</v>
       </c>
@@ -60014,7 +59999,7 @@
         <f t="shared" si="20"/>
         <v>4.291534423828125E-3</v>
       </c>
-      <c r="AQ25" s="63"/>
+      <c r="AQ25" s="67"/>
       <c r="AR25" s="3">
         <f>0.851875*($AR$9/2)</f>
         <v>1.2982575000000001</v>
@@ -60022,12 +60007,12 @@
       <c r="AS25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU25" s="62"/>
-      <c r="AV25" s="63">
+      <c r="AU25" s="70"/>
+      <c r="AV25" s="67">
         <f>BH39</f>
         <v>6.6491878669694415E-10</v>
       </c>
-      <c r="AW25" s="63"/>
+      <c r="AW25" s="67"/>
       <c r="AY25" s="2" t="s">
         <v>167</v>
       </c>
@@ -60245,7 +60230,7 @@
         <f t="shared" si="20"/>
         <v>2.1457672119140625E-3</v>
       </c>
-      <c r="AQ26" s="63"/>
+      <c r="AQ26" s="67"/>
       <c r="AR26" s="3">
         <f>0.950625*($AR$9/2)</f>
         <v>1.4487525000000001</v>
@@ -60253,12 +60238,12 @@
       <c r="AS26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AU26" s="62"/>
-      <c r="AV26" s="63">
+      <c r="AU26" s="70"/>
+      <c r="AV26" s="67">
         <f>BL39</f>
         <v>-3.6167899578054552E-9</v>
       </c>
-      <c r="AW26" s="63"/>
+      <c r="AW26" s="67"/>
       <c r="AY26" s="2" t="s">
         <v>170</v>
       </c>
@@ -60370,11 +60355,11 @@
       </c>
     </row>
     <row r="27" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
       <c r="F27" s="43" t="s">
         <v>86</v>
       </c>
@@ -60480,7 +60465,7 @@
         <f t="shared" si="20"/>
         <v>1.0728836059570312E-3</v>
       </c>
-      <c r="AQ27" s="63" t="s">
+      <c r="AQ27" s="67" t="s">
         <v>204</v>
       </c>
       <c r="AR27" s="3">
@@ -60490,12 +60475,12 @@
       <c r="AS27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU27" s="62"/>
-      <c r="AV27" s="63">
+      <c r="AU27" s="70"/>
+      <c r="AV27" s="67">
         <f>BH58</f>
         <v>-2.2940410057681326E-9</v>
       </c>
-      <c r="AW27" s="63"/>
+      <c r="AW27" s="67"/>
       <c r="AY27" s="2" t="s">
         <v>174</v>
       </c>
@@ -60705,7 +60690,7 @@
         <f t="shared" si="20"/>
         <v>5.3644180297851562E-4</v>
       </c>
-      <c r="AQ28" s="63"/>
+      <c r="AQ28" s="67"/>
       <c r="AR28" s="3">
         <f>0.530863*($AR$9/2)</f>
         <v>0.80903521199999995</v>
@@ -60713,12 +60698,12 @@
       <c r="AS28" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU28" s="62"/>
-      <c r="AV28" s="63">
+      <c r="AU28" s="70"/>
+      <c r="AV28" s="67">
         <f>BL58</f>
         <v>-3.3090320275541707E-9</v>
       </c>
-      <c r="AW28" s="63"/>
+      <c r="AW28" s="67"/>
       <c r="AY28" s="2" t="s">
         <v>178</v>
       </c>
@@ -60927,7 +60912,7 @@
         <f t="shared" si="20"/>
         <v>2.6822090148925781E-4</v>
       </c>
-      <c r="AQ29" s="63"/>
+      <c r="AQ29" s="67"/>
       <c r="AR29" s="3">
         <f>0.513438*($AR$9/2)</f>
         <v>0.78247951199999999</v>
@@ -60935,12 +60920,12 @@
       <c r="AS29" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU29" s="62"/>
-      <c r="AV29" s="63">
+      <c r="AU29" s="70"/>
+      <c r="AV29" s="67">
         <f>BH77</f>
         <v>6.3166378308499027E-9</v>
       </c>
-      <c r="AW29" s="63"/>
+      <c r="AW29" s="67"/>
       <c r="BG29" s="2" t="s">
         <v>180</v>
       </c>
@@ -61131,7 +61116,7 @@
         <f t="shared" si="20"/>
         <v>1.3411045074462891E-4</v>
       </c>
-      <c r="AQ30" s="63"/>
+      <c r="AQ30" s="67"/>
       <c r="AR30" s="3">
         <f>0.496013*($AR$9/2)</f>
         <v>0.75592381200000003</v>
@@ -61142,21 +61127,21 @@
       <c r="AU30" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="AV30" s="63" t="b">
+      <c r="AV30" s="67" t="b">
         <f>IF(AV23&lt;0.00001,IF(AV24&lt;0.00001,IF(AV25&lt;0.00001,IF(AV26&lt;0.00001,IF(AV27&lt;0.00001,IF(AV28&lt;0.00001,IF(AV29&lt;0.00001,TRUE,FALSE),FALSE),FALSE),FALSE),FALSE),FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AW30" s="63"/>
-      <c r="AY30" s="61" t="s">
+      <c r="AW30" s="67"/>
+      <c r="AY30" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="AZ30" s="61"/>
-      <c r="BA30" s="61"/>
-      <c r="BC30" s="61" t="s">
+      <c r="AZ30" s="63"/>
+      <c r="BA30" s="63"/>
+      <c r="BC30" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="BD30" s="61"/>
-      <c r="BE30" s="61"/>
+      <c r="BD30" s="63"/>
+      <c r="BE30" s="63"/>
       <c r="BG30" s="2" t="s">
         <v>183</v>
       </c>
@@ -61336,7 +61321,7 @@
         <f t="shared" si="20"/>
         <v>6.7055225372314453E-5</v>
       </c>
-      <c r="AQ31" s="63"/>
+      <c r="AQ31" s="67"/>
       <c r="AR31" s="3">
         <f>0.478588*($AR$9/2)</f>
         <v>0.72936811200000007</v>
@@ -61530,7 +61515,7 @@
         <f t="shared" si="20"/>
         <v>3.3527612686157227E-5</v>
       </c>
-      <c r="AQ32" s="63"/>
+      <c r="AQ32" s="67"/>
       <c r="AR32" s="3">
         <f>0.461163*($AR$9/2)</f>
         <v>0.702812412</v>
@@ -61649,11 +61634,11 @@
       </c>
     </row>
     <row r="33" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
       <c r="J33" s="46" t="s">
         <v>59</v>
       </c>
@@ -61734,7 +61719,7 @@
         <f t="shared" si="20"/>
         <v>1.6763806343078613E-5</v>
       </c>
-      <c r="AQ33" s="63"/>
+      <c r="AQ33" s="67"/>
       <c r="AR33" s="3">
         <f>0.443738*($AR$9/2)</f>
         <v>0.67625671200000004</v>
@@ -61943,7 +61928,7 @@
         <f t="shared" si="20"/>
         <v>8.3819031715393066E-6</v>
       </c>
-      <c r="AQ34" s="63"/>
+      <c r="AQ34" s="67"/>
       <c r="AR34" s="3">
         <f>0.426313*($AR$9/2)</f>
         <v>0.64970101199999997</v>
@@ -62116,7 +62101,7 @@
         <f t="shared" si="20"/>
         <v>4.1909515857696533E-6</v>
       </c>
-      <c r="AQ35" s="63" t="s">
+      <c r="AQ35" s="67" t="s">
         <v>223</v>
       </c>
       <c r="AR35" s="3">
@@ -62224,7 +62209,7 @@
         <f t="shared" si="20"/>
         <v>2.0954757928848267E-6</v>
       </c>
-      <c r="AQ36" s="63"/>
+      <c r="AQ36" s="67"/>
       <c r="AR36" s="3">
         <v>5.8781249999999998</v>
       </c>
@@ -62267,30 +62252,30 @@
         <v>7.807373927878916</v>
       </c>
       <c r="BM36" s="2"/>
-      <c r="BO36" s="60" t="s">
+      <c r="BO36" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="BP36" s="60"/>
-      <c r="BQ36" s="60"/>
-      <c r="BR36" s="60"/>
-      <c r="BS36" s="60"/>
-      <c r="BT36" s="60"/>
-      <c r="BU36" s="60"/>
-      <c r="BV36" s="60"/>
-      <c r="BW36" s="60"/>
-      <c r="BX36" s="60"/>
-      <c r="BZ36" s="60" t="s">
+      <c r="BP36" s="61"/>
+      <c r="BQ36" s="61"/>
+      <c r="BR36" s="61"/>
+      <c r="BS36" s="61"/>
+      <c r="BT36" s="61"/>
+      <c r="BU36" s="61"/>
+      <c r="BV36" s="61"/>
+      <c r="BW36" s="61"/>
+      <c r="BX36" s="61"/>
+      <c r="BZ36" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="CA36" s="60"/>
-      <c r="CB36" s="60"/>
-      <c r="CC36" s="60"/>
-      <c r="CD36" s="60"/>
-      <c r="CE36" s="60"/>
-      <c r="CF36" s="60"/>
-      <c r="CG36" s="60"/>
-      <c r="CH36" s="60"/>
-      <c r="CI36" s="60"/>
+      <c r="CA36" s="61"/>
+      <c r="CB36" s="61"/>
+      <c r="CC36" s="61"/>
+      <c r="CD36" s="61"/>
+      <c r="CE36" s="61"/>
+      <c r="CF36" s="61"/>
+      <c r="CG36" s="61"/>
+      <c r="CH36" s="61"/>
+      <c r="CI36" s="61"/>
     </row>
     <row r="37" spans="2:87" x14ac:dyDescent="0.2">
       <c r="J37" s="20" t="s">
@@ -62339,7 +62324,7 @@
         <f t="shared" si="20"/>
         <v>1.0477378964424133E-6</v>
       </c>
-      <c r="AQ37" s="63"/>
+      <c r="AQ37" s="67"/>
       <c r="AR37" s="3">
         <v>4.3968749999999996</v>
       </c>
@@ -62444,11 +62429,11 @@
       </c>
     </row>
     <row r="38" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
       <c r="J38" s="15" t="s">
         <v>73</v>
       </c>
@@ -62495,7 +62480,7 @@
         <f t="shared" si="20"/>
         <v>5.2386894822120667E-7</v>
       </c>
-      <c r="AQ38" s="63"/>
+      <c r="AQ38" s="67"/>
       <c r="AR38" s="3">
         <v>2.9156249999999999</v>
       </c>
@@ -62614,7 +62599,7 @@
         <f t="shared" si="20"/>
         <v>2.6193447411060333E-7</v>
       </c>
-      <c r="AQ39" s="63"/>
+      <c r="AQ39" s="67"/>
       <c r="AR39" s="3">
         <v>1.434375</v>
       </c>
@@ -62645,7 +62630,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="BQ39" s="2">
-        <f t="dataTable" ref="BQ39:BQ68" dt2D="0" dtr="0" r1="BH23" ca="1"/>
+        <f t="dataTable" ref="BQ39:BQ68" dt2D="0" dtr="0" r1="BH23"/>
         <v>-3.2979629773064287</v>
       </c>
       <c r="BR39" s="3">
@@ -62684,7 +62669,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="CB39" s="2">
-        <f t="dataTable" ref="CB39:CB68" dt2D="0" dtr="0" r1="BL23" ca="1"/>
+        <f t="dataTable" ref="CB39:CB68" dt2D="0" dtr="0" r1="BL23"/>
         <v>-2.5930113655146974</v>
       </c>
       <c r="CC39" s="3">
@@ -62760,7 +62745,7 @@
         <f t="shared" si="20"/>
         <v>1.3096723705530167E-7</v>
       </c>
-      <c r="AQ40" s="63"/>
+      <c r="AQ40" s="67"/>
       <c r="AR40" s="3">
         <v>-4.6875E-2</v>
       </c>
@@ -62850,11 +62835,11 @@
       <c r="D41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="57" t="s">
+      <c r="J41" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
       <c r="AF41" s="2">
         <v>37</v>
       </c>
@@ -62891,7 +62876,7 @@
         <f t="shared" si="20"/>
         <v>6.5483618527650833E-8</v>
       </c>
-      <c r="AQ41" s="63"/>
+      <c r="AQ41" s="67"/>
       <c r="AR41" s="3">
         <v>-1.528125</v>
       </c>
@@ -62901,10 +62886,10 @@
       <c r="AU41" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AV41" s="65" t="s">
+      <c r="AV41" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="AW41" s="65"/>
+      <c r="AW41" s="69"/>
       <c r="AX41" s="24"/>
       <c r="AY41" s="24"/>
       <c r="AZ41" s="24"/>
@@ -62913,17 +62898,17 @@
       <c r="BC41" s="24"/>
       <c r="BD41" s="24"/>
       <c r="BE41" s="25"/>
-      <c r="BG41" s="61" t="s">
+      <c r="BG41" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="BH41" s="61"/>
-      <c r="BI41" s="61"/>
+      <c r="BH41" s="63"/>
+      <c r="BI41" s="63"/>
       <c r="BJ41" s="2"/>
-      <c r="BK41" s="61" t="s">
+      <c r="BK41" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="BL41" s="61"/>
-      <c r="BM41" s="61"/>
+      <c r="BL41" s="63"/>
+      <c r="BM41" s="63"/>
       <c r="BO41" s="2">
         <v>3</v>
       </c>
@@ -63050,7 +63035,7 @@
         <f t="shared" si="20"/>
         <v>3.2741809263825417E-8</v>
       </c>
-      <c r="AQ42" s="63"/>
+      <c r="AQ42" s="67"/>
       <c r="AR42" s="3">
         <v>-3.0093749999999999</v>
       </c>
@@ -63058,22 +63043,22 @@
         <v>43</v>
       </c>
       <c r="AU42" s="27"/>
-      <c r="AV42" s="62" t="s">
+      <c r="AV42" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="AW42" s="62"/>
-      <c r="AX42" s="62"/>
-      <c r="AY42" s="62" t="s">
+      <c r="AW42" s="70"/>
+      <c r="AX42" s="70"/>
+      <c r="AY42" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="AZ42" s="62"/>
-      <c r="BA42" s="62"/>
-      <c r="BB42" s="62"/>
-      <c r="BC42" s="62" t="s">
+      <c r="AZ42" s="70"/>
+      <c r="BA42" s="70"/>
+      <c r="BB42" s="70"/>
+      <c r="BC42" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="BD42" s="62"/>
-      <c r="BE42" s="64"/>
+      <c r="BD42" s="70"/>
+      <c r="BE42" s="71"/>
       <c r="BG42" s="28" t="s">
         <v>154</v>
       </c>
@@ -63228,10 +63213,10 @@
       <c r="AX43" s="2">
         <v>-9.5</v>
       </c>
-      <c r="AY43" s="62" t="s">
+      <c r="AY43" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="AZ43" s="62"/>
+      <c r="AZ43" s="70"/>
       <c r="BA43" s="2">
         <v>-9.5</v>
       </c>
@@ -63342,11 +63327,11 @@
       </c>
     </row>
     <row r="44" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
       <c r="J44" s="19" t="s">
         <v>81</v>
       </c>
@@ -63393,11 +63378,11 @@
         <f t="shared" si="20"/>
         <v>8.1854523159563541E-9</v>
       </c>
-      <c r="AQ44" s="60" t="s">
+      <c r="AQ44" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="AR44" s="60"/>
-      <c r="AS44" s="60"/>
+      <c r="AR44" s="61"/>
+      <c r="AS44" s="61"/>
       <c r="AU44" s="32" t="s">
         <v>160</v>
       </c>
@@ -63791,11 +63776,11 @@
       </c>
     </row>
     <row r="47" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
       <c r="J47" s="10" t="s">
         <v>62</v>
       </c>
@@ -63806,19 +63791,19 @@
       <c r="L47" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AF47" s="62" t="s">
+      <c r="AF47" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="AG47" s="62"/>
-      <c r="AH47" s="62"/>
-      <c r="AI47" s="62"/>
+      <c r="AG47" s="70"/>
+      <c r="AH47" s="70"/>
+      <c r="AI47" s="70"/>
       <c r="AU47" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AV47" s="65" t="s">
+      <c r="AV47" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="AW47" s="65"/>
+      <c r="AW47" s="69"/>
       <c r="AX47" s="24"/>
       <c r="AY47" s="24"/>
       <c r="AZ47" s="24"/>
@@ -63954,21 +63939,21 @@
         <v>53</v>
       </c>
       <c r="AU48" s="27"/>
-      <c r="AV48" s="62" t="s">
+      <c r="AV48" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="AW48" s="62"/>
-      <c r="AX48" s="62"/>
-      <c r="AY48" s="62" t="s">
+      <c r="AW48" s="70"/>
+      <c r="AX48" s="70"/>
+      <c r="AY48" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="AZ48" s="62"/>
-      <c r="BA48" s="62"/>
-      <c r="BB48" s="62" t="s">
+      <c r="AZ48" s="70"/>
+      <c r="BA48" s="70"/>
+      <c r="BB48" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="BC48" s="62"/>
-      <c r="BD48" s="64"/>
+      <c r="BC48" s="70"/>
+      <c r="BD48" s="71"/>
       <c r="BG48" s="2" t="s">
         <v>180</v>
       </c>
@@ -64251,7 +64236,7 @@
         <f t="shared" ref="AO50:AO79" si="42">AI50-AG50</f>
         <v>1450</v>
       </c>
-      <c r="AU50" s="69" t="s">
+      <c r="AU50" s="72" t="s">
         <v>160</v>
       </c>
       <c r="AV50" s="51">
@@ -64408,7 +64393,7 @@
         <f t="shared" si="42"/>
         <v>725</v>
       </c>
-      <c r="AU51" s="69"/>
+      <c r="AU51" s="72"/>
       <c r="AV51" s="27">
         <v>-1.1499587328259999E-4</v>
       </c>
@@ -64527,11 +64512,11 @@
       </c>
     </row>
     <row r="52" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
       <c r="AF52" s="2">
         <v>3</v>
       </c>
@@ -64568,22 +64553,22 @@
         <f t="shared" si="42"/>
         <v>362.5</v>
       </c>
-      <c r="AU52" s="69"/>
-      <c r="AV52" s="66">
+      <c r="AU52" s="72"/>
+      <c r="AV52" s="64">
         <v>-2.4012358386552801</v>
       </c>
-      <c r="AW52" s="67"/>
-      <c r="AX52" s="68"/>
-      <c r="AY52" s="66">
+      <c r="AW52" s="65"/>
+      <c r="AX52" s="66"/>
+      <c r="AY52" s="64">
         <v>0.149391545914075</v>
       </c>
-      <c r="AZ52" s="67"/>
-      <c r="BA52" s="68"/>
-      <c r="BB52" s="66">
+      <c r="AZ52" s="65"/>
+      <c r="BA52" s="66"/>
+      <c r="BB52" s="64">
         <v>3.65120250353774</v>
       </c>
-      <c r="BC52" s="67"/>
-      <c r="BD52" s="68"/>
+      <c r="BC52" s="65"/>
+      <c r="BD52" s="66"/>
       <c r="BG52" s="2" t="s">
         <v>190</v>
       </c>
@@ -64717,7 +64702,7 @@
         <f t="shared" si="42"/>
         <v>181.25</v>
       </c>
-      <c r="AU53" s="69" t="s">
+      <c r="AU53" s="72" t="s">
         <v>164</v>
       </c>
       <c r="AV53" s="51">
@@ -64884,7 +64869,7 @@
         <f t="shared" si="42"/>
         <v>90.625</v>
       </c>
-      <c r="AU54" s="69"/>
+      <c r="AU54" s="72"/>
       <c r="AV54" s="27">
         <v>-2.5152080542999999E-6</v>
       </c>
@@ -65049,22 +65034,22 @@
         <f t="shared" si="42"/>
         <v>45.3125</v>
       </c>
-      <c r="AU55" s="70"/>
-      <c r="AV55" s="66">
+      <c r="AU55" s="73"/>
+      <c r="AV55" s="64">
         <v>-1.5880058514071E-2</v>
       </c>
-      <c r="AW55" s="67"/>
-      <c r="AX55" s="68"/>
-      <c r="AY55" s="67">
+      <c r="AW55" s="65"/>
+      <c r="AX55" s="66"/>
+      <c r="AY55" s="65">
         <v>0.110802661807325</v>
       </c>
-      <c r="AZ55" s="67"/>
-      <c r="BA55" s="67"/>
-      <c r="BB55" s="66">
+      <c r="AZ55" s="65"/>
+      <c r="BA55" s="65"/>
+      <c r="BB55" s="64">
         <v>7.4721088420790002E-3</v>
       </c>
-      <c r="BC55" s="67"/>
-      <c r="BD55" s="68"/>
+      <c r="BC55" s="65"/>
+      <c r="BD55" s="66"/>
       <c r="BG55" s="2" t="s">
         <v>194</v>
       </c>
@@ -65419,11 +65404,11 @@
       </c>
     </row>
     <row r="58" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
       <c r="AF58" s="2">
         <v>9</v>
       </c>
@@ -65719,17 +65704,17 @@
         <f t="shared" si="42"/>
         <v>1.416015625</v>
       </c>
-      <c r="BG60" s="61" t="s">
+      <c r="BG60" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="BH60" s="61"/>
-      <c r="BI60" s="61"/>
+      <c r="BH60" s="63"/>
+      <c r="BI60" s="63"/>
       <c r="BJ60" s="2"/>
-      <c r="BK60" s="61" t="s">
+      <c r="BK60" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="BL60" s="61"/>
-      <c r="BM60" s="61"/>
+      <c r="BL60" s="63"/>
+      <c r="BM60" s="63"/>
       <c r="BO60" s="2">
         <v>22</v>
       </c>
@@ -66072,11 +66057,11 @@
       </c>
     </row>
     <row r="63" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
       <c r="AF63" s="2">
         <v>14</v>
       </c>
@@ -66886,11 +66871,11 @@
       </c>
     </row>
     <row r="69" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
       <c r="AF69" s="2">
         <v>20</v>
       </c>
@@ -67008,30 +66993,30 @@
         <v>5.6367555875605851E-2</v>
       </c>
       <c r="BM70" s="2"/>
-      <c r="BO70" s="60" t="s">
+      <c r="BO70" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="BP70" s="60"/>
-      <c r="BQ70" s="60"/>
-      <c r="BR70" s="60"/>
-      <c r="BS70" s="60"/>
-      <c r="BT70" s="60"/>
-      <c r="BU70" s="60"/>
-      <c r="BV70" s="60"/>
-      <c r="BW70" s="60"/>
-      <c r="BX70" s="60"/>
-      <c r="BZ70" s="60" t="s">
+      <c r="BP70" s="61"/>
+      <c r="BQ70" s="61"/>
+      <c r="BR70" s="61"/>
+      <c r="BS70" s="61"/>
+      <c r="BT70" s="61"/>
+      <c r="BU70" s="61"/>
+      <c r="BV70" s="61"/>
+      <c r="BW70" s="61"/>
+      <c r="BX70" s="61"/>
+      <c r="BZ70" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="CA70" s="60"/>
-      <c r="CB70" s="60"/>
-      <c r="CC70" s="60"/>
-      <c r="CD70" s="60"/>
-      <c r="CE70" s="60"/>
-      <c r="CF70" s="60"/>
-      <c r="CG70" s="60"/>
-      <c r="CH70" s="60"/>
-      <c r="CI70" s="60"/>
+      <c r="CA70" s="61"/>
+      <c r="CB70" s="61"/>
+      <c r="CC70" s="61"/>
+      <c r="CD70" s="61"/>
+      <c r="CE70" s="61"/>
+      <c r="CF70" s="61"/>
+      <c r="CG70" s="61"/>
+      <c r="CH70" s="61"/>
+      <c r="CI70" s="61"/>
     </row>
     <row r="71" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
@@ -67533,11 +67518,11 @@
       </c>
     </row>
     <row r="75" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="57"/>
-      <c r="D75" s="57"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="54"/>
       <c r="AF75" s="2">
         <v>26</v>
       </c>
@@ -69872,30 +69857,30 @@
       </c>
     </row>
     <row r="104" spans="67:87" x14ac:dyDescent="0.2">
-      <c r="BO104" s="60" t="s">
+      <c r="BO104" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="BP104" s="60"/>
-      <c r="BQ104" s="60"/>
-      <c r="BR104" s="60"/>
-      <c r="BS104" s="60"/>
-      <c r="BT104" s="60"/>
-      <c r="BU104" s="60"/>
-      <c r="BV104" s="60"/>
-      <c r="BW104" s="60"/>
-      <c r="BX104" s="60"/>
-      <c r="BZ104" s="60" t="s">
+      <c r="BP104" s="61"/>
+      <c r="BQ104" s="61"/>
+      <c r="BR104" s="61"/>
+      <c r="BS104" s="61"/>
+      <c r="BT104" s="61"/>
+      <c r="BU104" s="61"/>
+      <c r="BV104" s="61"/>
+      <c r="BW104" s="61"/>
+      <c r="BX104" s="61"/>
+      <c r="BZ104" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="CA104" s="60"/>
-      <c r="CB104" s="60"/>
-      <c r="CC104" s="60"/>
-      <c r="CD104" s="60"/>
-      <c r="CE104" s="60"/>
-      <c r="CF104" s="60"/>
-      <c r="CG104" s="60"/>
-      <c r="CH104" s="60"/>
-      <c r="CI104" s="60"/>
+      <c r="CA104" s="61"/>
+      <c r="CB104" s="61"/>
+      <c r="CC104" s="61"/>
+      <c r="CD104" s="61"/>
+      <c r="CE104" s="61"/>
+      <c r="CF104" s="61"/>
+      <c r="CG104" s="61"/>
+      <c r="CH104" s="61"/>
+      <c r="CI104" s="61"/>
     </row>
     <row r="105" spans="67:87" x14ac:dyDescent="0.2">
       <c r="BO105" s="7" t="s">
@@ -70067,7 +70052,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="CF107" s="2">
-        <f t="dataTable" ref="CF107:CF136" dt2D="0" dtr="0" r1="BL61"/>
+        <f t="dataTable" ref="CF107:CF136" dt2D="0" dtr="0" r1="BL61" ca="1"/>
         <v>1.2113952682273292</v>
       </c>
       <c r="CG107" s="2">
@@ -72231,22 +72216,60 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="AQ7:AS7"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AY2:BE2"/>
-    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="BB52:BD52"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="AV47:AW47"/>
+    <mergeCell ref="AV48:AX48"/>
+    <mergeCell ref="AU50:AU52"/>
+    <mergeCell ref="AV52:AX52"/>
+    <mergeCell ref="AY52:BA52"/>
+    <mergeCell ref="BO104:BX104"/>
+    <mergeCell ref="BZ104:CI104"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="AF47:AI47"/>
+    <mergeCell ref="AY43:AZ43"/>
+    <mergeCell ref="AQ44:AS44"/>
+    <mergeCell ref="BG60:BI60"/>
+    <mergeCell ref="BK60:BM60"/>
+    <mergeCell ref="BO70:BX70"/>
+    <mergeCell ref="BZ70:CI70"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="AY55:BA55"/>
+    <mergeCell ref="BB55:BD55"/>
+    <mergeCell ref="AY48:BA48"/>
+    <mergeCell ref="BB48:BD48"/>
+    <mergeCell ref="BZ2:CI2"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BG2:BM2"/>
+    <mergeCell ref="BO2:BX2"/>
+    <mergeCell ref="BO36:BX36"/>
+    <mergeCell ref="BZ36:CI36"/>
+    <mergeCell ref="AV41:AW41"/>
+    <mergeCell ref="BG41:BI41"/>
+    <mergeCell ref="BK41:BM41"/>
+    <mergeCell ref="AQ11:AQ18"/>
+    <mergeCell ref="AY12:BA12"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="BK22:BM22"/>
+    <mergeCell ref="AU23:AU29"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="BG22:BI22"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AU14:AW14"/>
+    <mergeCell ref="AU22:AW22"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="BC30:BE30"/>
@@ -72263,60 +72286,22 @@
     <mergeCell ref="BC21:BE21"/>
     <mergeCell ref="AU53:AU55"/>
     <mergeCell ref="AV55:AX55"/>
-    <mergeCell ref="AQ11:AQ18"/>
-    <mergeCell ref="AY12:BA12"/>
-    <mergeCell ref="BC12:BE12"/>
-    <mergeCell ref="BK22:BM22"/>
-    <mergeCell ref="AU23:AU29"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="BG22:BI22"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AU14:AW14"/>
-    <mergeCell ref="AU22:AW22"/>
-    <mergeCell ref="BO36:BX36"/>
-    <mergeCell ref="BZ36:CI36"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="BG41:BI41"/>
-    <mergeCell ref="BK41:BM41"/>
-    <mergeCell ref="BZ2:CI2"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="BG3:BI3"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BG2:BM2"/>
-    <mergeCell ref="BO2:BX2"/>
-    <mergeCell ref="BO104:BX104"/>
-    <mergeCell ref="BZ104:CI104"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="AF47:AI47"/>
-    <mergeCell ref="AY43:AZ43"/>
-    <mergeCell ref="AQ44:AS44"/>
-    <mergeCell ref="BG60:BI60"/>
-    <mergeCell ref="BK60:BM60"/>
-    <mergeCell ref="BO70:BX70"/>
-    <mergeCell ref="BZ70:CI70"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="AY55:BA55"/>
-    <mergeCell ref="BB55:BD55"/>
-    <mergeCell ref="AY48:BA48"/>
-    <mergeCell ref="BB48:BD48"/>
-    <mergeCell ref="BB52:BD52"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="AV47:AW47"/>
-    <mergeCell ref="AV48:AX48"/>
-    <mergeCell ref="AU50:AU52"/>
-    <mergeCell ref="AV52:AX52"/>
-    <mergeCell ref="AY52:BA52"/>
+    <mergeCell ref="AQ7:AS7"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AY2:BE2"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="G12">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FALSE">

--- a/examples/mtow_estimation/estimate_mtow.xlsx
+++ b/examples/mtow_estimation/estimate_mtow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/examples/mtow_estimation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFEE632-F083-1746-BA7F-6EAB2993DFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A8BBFD-BFAF-0D48-B409-0944FA098126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" activeTab="5" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="multirotor_fidelity0" sheetId="13" r:id="rId1"/>
@@ -1293,6 +1293,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1301,34 +1313,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1340,16 +1331,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15423,8 +15423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE37D87-B951-4841-B7CA-13CC46090773}">
   <dimension ref="B1:AO56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15468,11 +15468,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -15483,26 +15483,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="F3" s="54" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="F3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="J3" s="58" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="N3" s="58" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
       <c r="U3" s="7" t="s">
         <v>44</v>
       </c>
@@ -15747,14 +15747,14 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
         <v>-1350.9822589205626</v>
       </c>
       <c r="AI5" s="3">
         <v>5000</v>
       </c>
       <c r="AJ5" s="2">
-        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5"/>
+        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5" ca="1"/>
         <v>642.28373568142933</v>
       </c>
       <c r="AK5" s="2">
@@ -15901,11 +15901,11 @@
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
       <c r="N7" t="s">
         <v>123</v>
       </c>
@@ -16334,11 +16334,11 @@
       <c r="H11" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="J11" s="54" t="s">
+      <c r="J11" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
       <c r="N11" s="6" t="s">
         <v>118</v>
       </c>
@@ -16423,11 +16423,11 @@
       </c>
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
       <c r="F12" s="42" t="s">
         <v>85</v>
       </c>
@@ -16545,11 +16545,11 @@
       <c r="L13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="54" t="s">
+      <c r="N13" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
       <c r="U13" s="2">
         <v>9</v>
       </c>
@@ -16636,11 +16636,11 @@
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
       <c r="J14" s="12" t="s">
         <v>135</v>
       </c>
@@ -16945,11 +16945,11 @@
       </c>
     </row>
     <row r="17" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
       <c r="F17" s="6" t="s">
         <v>133</v>
       </c>
@@ -16970,11 +16970,11 @@
       <c r="L17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="54" t="s">
+      <c r="N17" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
       <c r="U17" s="2">
         <v>13</v>
       </c>
@@ -17706,16 +17706,16 @@
       </c>
     </row>
     <row r="24" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="F24" s="54" t="s">
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="F24" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
       <c r="J24" s="15" t="s">
         <v>68</v>
       </c>
@@ -18253,11 +18253,11 @@
       </c>
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
       <c r="F29" t="s">
         <v>100</v>
       </c>
@@ -18368,11 +18368,11 @@
       <c r="H30" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="J30" s="58" t="s">
+      <c r="J30" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
       <c r="U30" s="2">
         <v>26</v>
       </c>
@@ -18658,11 +18658,11 @@
         <v>0.80011066800000008</v>
       </c>
       <c r="D33"/>
-      <c r="F33" s="54" t="s">
+      <c r="F33" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
       <c r="J33" s="19" t="s">
         <v>81</v>
       </c>
@@ -18847,11 +18847,11 @@
       </c>
     </row>
     <row r="35" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
       <c r="F35" s="44" t="s">
         <v>225</v>
       </c>
@@ -19017,11 +19017,11 @@
       <c r="C38" s="17">
         <v>0.8</v>
       </c>
-      <c r="J38" s="58" t="s">
+      <c r="J38" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
       <c r="AF38" s="2">
         <v>34</v>
       </c>
@@ -19108,11 +19108,11 @@
       </c>
     </row>
     <row r="40" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
       <c r="J40" s="11" t="s">
         <v>55</v>
       </c>
@@ -19407,16 +19407,16 @@
       </c>
     </row>
     <row r="46" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="J46" s="58" t="s">
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="J46" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
       <c r="N46" s="6" t="s">
         <v>283</v>
       </c>
@@ -19530,11 +19530,11 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
@@ -19570,17 +19570,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="F33:H33"/>
     <mergeCell ref="N17:P17"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D3"/>
@@ -19593,6 +19582,17 @@
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="F33:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="FALSE">
@@ -19623,7 +19623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1D4AB6-557E-EC41-AEF7-F524A5AEEAA8}">
   <dimension ref="B1:AS68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C2" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -19673,11 +19673,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="2:45" x14ac:dyDescent="0.2">
       <c r="Y2" s="16" t="s">
@@ -19688,31 +19688,31 @@
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="F3" s="54" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="F3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="J3" s="58" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="N3" s="58" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="R3" s="58" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="R3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
       <c r="Y3" s="7" t="s">
         <v>44</v>
       </c>
@@ -19976,14 +19976,14 @@
         <v>500</v>
       </c>
       <c r="AL5" s="2">
-        <f t="dataTable" ref="AL5:AL44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AL5:AL44" dt2D="0" dtr="0" r1="C5"/>
         <v>-1367.0679092077576</v>
       </c>
       <c r="AM5" s="3">
         <v>5000</v>
       </c>
       <c r="AN5" s="2">
-        <f t="dataTable" ref="AN5:AN44" dt2D="0" dtr="0" r1="C5"/>
+        <f t="dataTable" ref="AN5:AN44" dt2D="0" dtr="0" r1="C5" ca="1"/>
         <v>662.99081192180029</v>
       </c>
       <c r="AO5" s="2">
@@ -20136,11 +20136,11 @@
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
       <c r="N7" t="s">
         <v>123</v>
       </c>
@@ -20602,11 +20602,11 @@
       <c r="H11" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="J11" s="54" t="s">
+      <c r="J11" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
       <c r="N11" s="6" t="s">
         <v>118</v>
       </c>
@@ -20697,11 +20697,11 @@
       </c>
     </row>
     <row r="12" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
       <c r="F12" t="s">
         <v>281</v>
       </c>
@@ -20826,16 +20826,16 @@
       <c r="L13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="54" t="s">
+      <c r="N13" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="R13" s="54" t="s">
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="R13" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
       <c r="Y13" s="2">
         <v>9</v>
       </c>
@@ -21145,11 +21145,11 @@
       </c>
     </row>
     <row r="16" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
       <c r="J16" s="13" t="s">
         <v>56</v>
       </c>
@@ -21237,11 +21237,11 @@
       </c>
     </row>
     <row r="17" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
       <c r="F17" s="9" t="s">
         <v>92</v>
       </c>
@@ -21262,16 +21262,16 @@
       <c r="L17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="54" t="s">
+      <c r="N17" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="R17" s="54" t="s">
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="R17" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
       <c r="Y17" s="2">
         <v>13</v>
       </c>
@@ -22063,11 +22063,11 @@
       </c>
     </row>
     <row r="24" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
       <c r="F24" s="44" t="s">
         <v>225</v>
       </c>
@@ -22302,11 +22302,11 @@
       <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="54" t="s">
+      <c r="F26" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
       <c r="J26" s="15" t="s">
         <v>70</v>
       </c>
@@ -22640,11 +22640,11 @@
       </c>
     </row>
     <row r="29" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
       <c r="F29" t="s">
         <v>93</v>
       </c>
@@ -22762,11 +22762,11 @@
       <c r="H30" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="58" t="s">
+      <c r="J30" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
       <c r="Y30" s="2">
         <v>26</v>
       </c>
@@ -23246,16 +23246,16 @@
       </c>
     </row>
     <row r="35" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="F35" s="54" t="s">
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="F35" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
       <c r="J35" s="15" t="s">
         <v>73</v>
       </c>
@@ -23464,11 +23464,11 @@
       <c r="C38" s="17">
         <v>0.8</v>
       </c>
-      <c r="J38" s="58" t="s">
+      <c r="J38" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
       <c r="Y38" s="2">
         <v>0</v>
       </c>
@@ -23631,11 +23631,11 @@
       </c>
     </row>
     <row r="40" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
       <c r="J40" s="11" t="s">
         <v>55</v>
       </c>
@@ -24148,16 +24148,16 @@
       </c>
     </row>
     <row r="46" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="J46" s="58" t="s">
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="J46" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
       <c r="Y46" s="2">
         <v>8</v>
       </c>
@@ -24480,11 +24480,11 @@
       </c>
     </row>
     <row r="52" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
       <c r="Y52" s="2">
         <v>14</v>
       </c>
@@ -25207,6 +25207,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="F35:H35"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="J46:L46"/>
@@ -25223,16 +25233,6 @@
     <mergeCell ref="J38:L38"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="J11:L11"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="J7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="FALSE">
@@ -25263,7 +25263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3661B753-A267-5243-ABFD-E2825908B8D2}">
   <dimension ref="B1:CI136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -25342,11 +25342,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="2:87" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -25414,26 +25414,26 @@
       <c r="CI2" s="61"/>
     </row>
     <row r="3" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="F3" s="54" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="F3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="J3" s="58" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="N3" s="58" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
       <c r="U3" s="7" t="s">
         <v>44</v>
       </c>
@@ -25516,29 +25516,29 @@
         <v>8</v>
       </c>
       <c r="AX3"/>
-      <c r="AY3" s="62" t="s">
+      <c r="AY3" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="63"/>
       <c r="BB3"/>
-      <c r="BC3" s="62" t="s">
+      <c r="BC3" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
       <c r="BF3"/>
-      <c r="BG3" s="62" t="s">
+      <c r="BG3" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
       <c r="BJ3" s="2"/>
-      <c r="BK3" s="62" t="s">
+      <c r="BK3" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
+      <c r="BL3" s="63"/>
+      <c r="BM3" s="63"/>
       <c r="BN3"/>
       <c r="BO3" s="7" t="s">
         <v>44</v>
@@ -25893,7 +25893,7 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
         <v>-1496.8103024680602</v>
       </c>
       <c r="AI5" s="3">
@@ -25996,7 +25996,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="BQ5" s="2">
-        <f t="dataTable" ref="BQ5:BQ34" dt2D="0" dtr="0" r1="BH4" ca="1"/>
+        <f t="dataTable" ref="BQ5:BQ34" dt2D="0" dtr="0" r1="BH4"/>
         <v>-2.2153866853628879</v>
       </c>
       <c r="BR5" s="3">
@@ -26004,7 +26004,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="BS5" s="2">
-        <f t="dataTable" ref="BS5:BS34" dt2D="0" dtr="0" r1="BH4"/>
+        <f t="dataTable" ref="BS5:BS34" dt2D="0" dtr="0" r1="BH4" ca="1"/>
         <v>0.60006811948502936</v>
       </c>
       <c r="BT5" s="2">
@@ -26036,7 +26036,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="CB5" s="2">
-        <f t="dataTable" ref="CB5:CB34" dt2D="0" dtr="0" r1="BL4"/>
+        <f t="dataTable" ref="CB5:CB34" dt2D="0" dtr="0" r1="BL4" ca="1"/>
         <v>-1.2360980017963086</v>
       </c>
       <c r="CC5" s="3">
@@ -26044,7 +26044,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="CD5" s="2">
-        <f t="dataTable" ref="CD5:CD34" dt2D="0" dtr="0" r1="BL4" ca="1"/>
+        <f t="dataTable" ref="CD5:CD34" dt2D="0" dtr="0" r1="BL4"/>
         <v>0.47217678593414675</v>
       </c>
       <c r="CE5" s="2">
@@ -26323,11 +26323,11 @@
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
       <c r="N7" t="s">
         <v>123</v>
       </c>
@@ -27273,11 +27273,11 @@
       <c r="H11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="54" t="s">
+      <c r="J11" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
       <c r="N11" s="6" t="s">
         <v>118</v>
       </c>
@@ -27360,7 +27360,7 @@
         <f t="shared" si="20"/>
         <v>70.3125</v>
       </c>
-      <c r="AQ11" s="64" t="s">
+      <c r="AQ11" s="67" t="s">
         <v>181</v>
       </c>
       <c r="AR11" s="3" t="s">
@@ -27480,11 +27480,11 @@
       </c>
     </row>
     <row r="12" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
       <c r="F12" s="6" t="s">
         <v>217</v>
       </c>
@@ -27577,7 +27577,7 @@
         <f t="shared" si="20"/>
         <v>35.15625</v>
       </c>
-      <c r="AQ12" s="64"/>
+      <c r="AQ12" s="67"/>
       <c r="AR12" s="3" t="s">
         <v>219</v>
       </c>
@@ -27594,17 +27594,17 @@
         <v>104</v>
       </c>
       <c r="AX12"/>
-      <c r="AY12" s="62" t="s">
+      <c r="AY12" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="AZ12" s="62"/>
-      <c r="BA12" s="62"/>
+      <c r="AZ12" s="63"/>
+      <c r="BA12" s="63"/>
       <c r="BB12"/>
-      <c r="BC12" s="62" t="s">
+      <c r="BC12" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="BD12" s="62"/>
-      <c r="BE12" s="62"/>
+      <c r="BD12" s="63"/>
+      <c r="BE12" s="63"/>
       <c r="BF12"/>
       <c r="BG12" s="2" t="s">
         <v>187</v>
@@ -27729,11 +27729,11 @@
       <c r="L13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="54" t="s">
+      <c r="N13" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
       <c r="U13" s="2">
         <v>9</v>
       </c>
@@ -27809,7 +27809,7 @@
         <f t="shared" si="20"/>
         <v>17.578125</v>
       </c>
-      <c r="AQ13" s="64"/>
+      <c r="AQ13" s="67"/>
       <c r="AR13" s="3" t="s">
         <v>219</v>
       </c>
@@ -28038,7 +28038,7 @@
         <f t="shared" si="20"/>
         <v>8.7890625</v>
       </c>
-      <c r="AQ14" s="64"/>
+      <c r="AQ14" s="67"/>
       <c r="AR14" s="3" t="s">
         <v>219</v>
       </c>
@@ -28171,11 +28171,11 @@
       <c r="C15" s="17">
         <v>1</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
       <c r="J15" s="12" t="s">
         <v>136</v>
       </c>
@@ -28268,7 +28268,7 @@
         <f t="shared" si="20"/>
         <v>4.39453125</v>
       </c>
-      <c r="AQ15" s="64"/>
+      <c r="AQ15" s="67"/>
       <c r="AR15" s="3" t="s">
         <v>219</v>
       </c>
@@ -28499,7 +28499,7 @@
         <f t="shared" si="20"/>
         <v>2.197265625</v>
       </c>
-      <c r="AQ16" s="64"/>
+      <c r="AQ16" s="67"/>
       <c r="AR16" s="3" t="s">
         <v>219</v>
       </c>
@@ -28629,11 +28629,11 @@
       </c>
     </row>
     <row r="17" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
       <c r="F17" t="s">
         <v>130</v>
       </c>
@@ -28654,11 +28654,11 @@
       <c r="L17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="54" t="s">
+      <c r="N17" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
       <c r="U17" s="2">
         <v>13</v>
       </c>
@@ -28734,7 +28734,7 @@
         <f t="shared" si="20"/>
         <v>1.0986328125</v>
       </c>
-      <c r="AQ17" s="64"/>
+      <c r="AQ17" s="67"/>
       <c r="AR17" s="3" t="s">
         <v>219</v>
       </c>
@@ -28971,7 +28971,7 @@
         <f t="shared" si="20"/>
         <v>0.54931640625</v>
       </c>
-      <c r="AQ18" s="64"/>
+      <c r="AQ18" s="67"/>
       <c r="AR18" s="3" t="s">
         <v>219</v>
       </c>
@@ -29212,7 +29212,7 @@
         <f t="shared" si="20"/>
         <v>0.274658203125</v>
       </c>
-      <c r="AQ19" s="64" t="s">
+      <c r="AQ19" s="67" t="s">
         <v>195</v>
       </c>
       <c r="AR19" s="3">
@@ -29459,7 +29459,7 @@
         <f t="shared" si="20"/>
         <v>0.1373291015625</v>
       </c>
-      <c r="AQ20" s="64"/>
+      <c r="AQ20" s="67"/>
       <c r="AR20" s="3">
         <f>0.285*($AR$9/2)</f>
         <v>1.1399999999999999</v>
@@ -29676,7 +29676,7 @@
         <f t="shared" si="20"/>
         <v>6.866455078125E-2</v>
       </c>
-      <c r="AQ21" s="64"/>
+      <c r="AQ21" s="67"/>
       <c r="AR21" s="3">
         <f>0.395*($AR$9/2)</f>
         <v>1.58</v>
@@ -29689,17 +29689,17 @@
       <c r="AV21"/>
       <c r="AW21" s="39"/>
       <c r="AX21"/>
-      <c r="AY21" s="62" t="s">
+      <c r="AY21" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="AZ21" s="62"/>
-      <c r="BA21" s="62"/>
+      <c r="AZ21" s="63"/>
+      <c r="BA21" s="63"/>
       <c r="BB21"/>
-      <c r="BC21" s="62" t="s">
+      <c r="BC21" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="BD21" s="62"/>
-      <c r="BE21" s="62"/>
+      <c r="BD21" s="63"/>
+      <c r="BE21" s="63"/>
       <c r="BF21"/>
       <c r="BG21" s="2"/>
       <c r="BH21" s="2"/>
@@ -29793,11 +29793,11 @@
       <c r="D22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
       <c r="J22" s="14" t="s">
         <v>117</v>
       </c>
@@ -29890,7 +29890,7 @@
         <f t="shared" si="20"/>
         <v>3.4332275390625E-2</v>
       </c>
-      <c r="AQ22" s="64"/>
+      <c r="AQ22" s="67"/>
       <c r="AR22" s="3">
         <f>0.505*($AR$9/2)</f>
         <v>2.02</v>
@@ -29927,17 +29927,17 @@
         <v>8</v>
       </c>
       <c r="BF22"/>
-      <c r="BG22" s="62" t="s">
+      <c r="BG22" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="BH22" s="62"/>
-      <c r="BI22" s="62"/>
+      <c r="BH22" s="63"/>
+      <c r="BI22" s="63"/>
       <c r="BJ22" s="2"/>
-      <c r="BK22" s="62" t="s">
+      <c r="BK22" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="BL22" s="62"/>
-      <c r="BM22" s="62"/>
+      <c r="BL22" s="63"/>
+      <c r="BM22" s="63"/>
       <c r="BN22"/>
       <c r="BO22" s="2">
         <v>18</v>
@@ -30115,7 +30115,7 @@
         <f t="shared" si="20"/>
         <v>1.71661376953125E-2</v>
       </c>
-      <c r="AQ23" s="64"/>
+      <c r="AQ23" s="67"/>
       <c r="AR23" s="3">
         <f>0.615*($AR$9/2)</f>
         <v>2.46</v>
@@ -30124,14 +30124,14 @@
         <v>8</v>
       </c>
       <c r="AT23"/>
-      <c r="AU23" s="63" t="s">
+      <c r="AU23" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="AV23" s="64">
+      <c r="AV23" s="67">
         <f>BH20</f>
         <v>-1.7565500720628791E-9</v>
       </c>
-      <c r="AW23" s="64"/>
+      <c r="AW23" s="67"/>
       <c r="AX23"/>
       <c r="AY23" s="2" t="s">
         <v>158</v>
@@ -30252,11 +30252,11 @@
       </c>
     </row>
     <row r="24" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
       <c r="F24" t="s">
         <v>94</v>
       </c>
@@ -30362,7 +30362,7 @@
         <f t="shared" si="20"/>
         <v>8.58306884765625E-3</v>
       </c>
-      <c r="AQ24" s="64"/>
+      <c r="AQ24" s="67"/>
       <c r="AR24" s="3">
         <f>0.725*($AR$9/2)</f>
         <v>2.9</v>
@@ -30371,12 +30371,12 @@
         <v>8</v>
       </c>
       <c r="AT24"/>
-      <c r="AU24" s="63"/>
-      <c r="AV24" s="64">
+      <c r="AU24" s="70"/>
+      <c r="AV24" s="67">
         <f>BL20</f>
         <v>3.5749579546662247E-9</v>
       </c>
-      <c r="AW24" s="64"/>
+      <c r="AW24" s="67"/>
       <c r="AX24"/>
       <c r="AY24" s="2" t="s">
         <v>163</v>
@@ -30606,7 +30606,7 @@
         <f t="shared" si="20"/>
         <v>4.291534423828125E-3</v>
       </c>
-      <c r="AQ25" s="64"/>
+      <c r="AQ25" s="67"/>
       <c r="AR25" s="3">
         <f>0.835*($AR$9/2)</f>
         <v>3.34</v>
@@ -30615,12 +30615,12 @@
         <v>8</v>
       </c>
       <c r="AT25"/>
-      <c r="AU25" s="63"/>
-      <c r="AV25" s="64">
+      <c r="AU25" s="70"/>
+      <c r="AV25" s="67">
         <f>BH39</f>
         <v>-3.3095017282214201E-9</v>
       </c>
-      <c r="AW25" s="64"/>
+      <c r="AW25" s="67"/>
       <c r="AX25"/>
       <c r="AY25" s="2" t="s">
         <v>167</v>
@@ -30855,7 +30855,7 @@
         <f t="shared" si="20"/>
         <v>2.1457672119140625E-3</v>
       </c>
-      <c r="AQ26" s="64"/>
+      <c r="AQ26" s="67"/>
       <c r="AR26" s="3">
         <f>0.945*($AR$9/2)</f>
         <v>3.78</v>
@@ -30864,12 +30864,12 @@
         <v>8</v>
       </c>
       <c r="AT26"/>
-      <c r="AU26" s="63"/>
-      <c r="AV26" s="64">
+      <c r="AU26" s="70"/>
+      <c r="AV26" s="67">
         <f>BL39</f>
         <v>-3.4190485859175723E-10</v>
       </c>
-      <c r="AW26" s="64"/>
+      <c r="AW26" s="67"/>
       <c r="AX26"/>
       <c r="AY26" s="2" t="s">
         <v>170</v>
@@ -31097,7 +31097,7 @@
         <f t="shared" si="20"/>
         <v>1.0728836059570312E-3</v>
       </c>
-      <c r="AQ27" s="64" t="s">
+      <c r="AQ27" s="67" t="s">
         <v>204</v>
       </c>
       <c r="AR27" s="3">
@@ -31108,12 +31108,12 @@
         <v>8</v>
       </c>
       <c r="AT27"/>
-      <c r="AU27" s="63"/>
-      <c r="AV27" s="64">
+      <c r="AU27" s="70"/>
+      <c r="AV27" s="67">
         <f>BH58</f>
         <v>-5.942139558179349E-10</v>
       </c>
-      <c r="AW27" s="64"/>
+      <c r="AW27" s="67"/>
       <c r="AX27"/>
       <c r="AY27" s="2" t="s">
         <v>174</v>
@@ -31318,7 +31318,7 @@
         <f t="shared" si="20"/>
         <v>5.3644180297851562E-4</v>
       </c>
-      <c r="AQ28" s="64"/>
+      <c r="AQ28" s="67"/>
       <c r="AR28" s="3">
         <f>0.069425*($AR$9/2)</f>
         <v>0.2777</v>
@@ -31327,12 +31327,12 @@
         <v>8</v>
       </c>
       <c r="AT28"/>
-      <c r="AU28" s="63"/>
-      <c r="AV28" s="64">
+      <c r="AU28" s="70"/>
+      <c r="AV28" s="67">
         <f>BL58</f>
         <v>4.158961265654515E-9</v>
       </c>
-      <c r="AW28" s="64"/>
+      <c r="AW28" s="67"/>
       <c r="AX28"/>
       <c r="AY28" s="2" t="s">
         <v>178</v>
@@ -31449,16 +31449,16 @@
       </c>
     </row>
     <row r="29" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="F29" s="54" t="s">
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="F29" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
       <c r="N29" s="6" t="s">
         <v>38</v>
       </c>
@@ -31541,7 +31541,7 @@
         <f t="shared" si="20"/>
         <v>2.6822090148925781E-4</v>
       </c>
-      <c r="AQ29" s="64"/>
+      <c r="AQ29" s="67"/>
       <c r="AR29" s="3">
         <f>0.067375*($AR$9/2)</f>
         <v>0.26950000000000002</v>
@@ -31550,12 +31550,12 @@
         <v>8</v>
       </c>
       <c r="AT29"/>
-      <c r="AU29" s="63"/>
-      <c r="AV29" s="64">
+      <c r="AU29" s="70"/>
+      <c r="AV29" s="67">
         <f>BH77</f>
         <v>1.4573390445804524E-9</v>
       </c>
-      <c r="AW29" s="64"/>
+      <c r="AW29" s="67"/>
       <c r="AX29"/>
       <c r="AY29"/>
       <c r="AZ29"/>
@@ -31674,11 +31674,11 @@
       <c r="H30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="58" t="s">
+      <c r="J30" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
       <c r="U30" s="2">
         <v>26</v>
       </c>
@@ -31754,7 +31754,7 @@
         <f t="shared" si="20"/>
         <v>1.3411045074462891E-4</v>
       </c>
-      <c r="AQ30" s="64"/>
+      <c r="AQ30" s="67"/>
       <c r="AR30" s="3">
         <f>0.065325*($AR$9/2)</f>
         <v>0.26129999999999998</v>
@@ -31766,23 +31766,23 @@
       <c r="AU30" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="AV30" s="64" t="b">
+      <c r="AV30" s="67" t="b">
         <f>IF(AV23&lt;0.00001,IF(AV24&lt;0.00001,IF(AV25&lt;0.00001,IF(AV26&lt;0.00001,IF(AV27&lt;0.00001,IF(AV28&lt;0.00001,IF(AV29&lt;0.00001,TRUE,FALSE),FALSE),FALSE),FALSE),FALSE),FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AW30" s="64"/>
+      <c r="AW30" s="67"/>
       <c r="AX30"/>
-      <c r="AY30" s="62" t="s">
+      <c r="AY30" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="AZ30" s="62"/>
-      <c r="BA30" s="62"/>
+      <c r="AZ30" s="63"/>
+      <c r="BA30" s="63"/>
       <c r="BB30"/>
-      <c r="BC30" s="62" t="s">
+      <c r="BC30" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="BD30" s="62"/>
-      <c r="BE30" s="62"/>
+      <c r="BD30" s="63"/>
+      <c r="BE30" s="63"/>
       <c r="BF30"/>
       <c r="BG30" s="2" t="s">
         <v>183</v>
@@ -31979,7 +31979,7 @@
         <f t="shared" si="20"/>
         <v>6.7055225372314453E-5</v>
       </c>
-      <c r="AQ31" s="64"/>
+      <c r="AQ31" s="67"/>
       <c r="AR31" s="3">
         <f>0.063275*($AR$9/2)</f>
         <v>0.25309999999999999</v>
@@ -32201,7 +32201,7 @@
         <f t="shared" si="20"/>
         <v>3.3527612686157227E-5</v>
       </c>
-      <c r="AQ32" s="64"/>
+      <c r="AQ32" s="67"/>
       <c r="AR32" s="3">
         <f>0.061225*($AR$9/2)</f>
         <v>0.24490000000000001</v>
@@ -32422,7 +32422,7 @@
         <f t="shared" si="20"/>
         <v>1.6763806343078613E-5</v>
       </c>
-      <c r="AQ33" s="64"/>
+      <c r="AQ33" s="67"/>
       <c r="AR33" s="3">
         <f>0.059175*($AR$9/2)</f>
         <v>0.23669999999999999</v>
@@ -32635,7 +32635,7 @@
         <f t="shared" si="20"/>
         <v>8.3819031715393066E-6</v>
       </c>
-      <c r="AQ34" s="64"/>
+      <c r="AQ34" s="67"/>
       <c r="AR34" s="3">
         <f>0.057125*($AR$9/2)</f>
         <v>0.22850000000000001</v>
@@ -32763,11 +32763,11 @@
       </c>
     </row>
     <row r="35" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
       <c r="J35" s="15" t="s">
         <v>73</v>
       </c>
@@ -32814,7 +32814,7 @@
         <f t="shared" si="20"/>
         <v>4.1909515857696533E-6</v>
       </c>
-      <c r="AQ35" s="64" t="s">
+      <c r="AQ35" s="67" t="s">
         <v>223</v>
       </c>
       <c r="AR35" s="3">
@@ -32942,7 +32942,7 @@
         <f t="shared" si="20"/>
         <v>2.0954757928848267E-6</v>
       </c>
-      <c r="AQ36" s="64"/>
+      <c r="AQ36" s="67"/>
       <c r="AR36" s="3">
         <v>5.58</v>
       </c>
@@ -33063,7 +33063,7 @@
         <f t="shared" si="20"/>
         <v>1.0477378964424133E-6</v>
       </c>
-      <c r="AQ37" s="64"/>
+      <c r="AQ37" s="67"/>
       <c r="AR37" s="3">
         <v>4.26</v>
       </c>
@@ -33184,11 +33184,11 @@
       <c r="C38" s="17">
         <v>0.8</v>
       </c>
-      <c r="J38" s="58" t="s">
+      <c r="J38" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
       <c r="AF38" s="2">
         <v>34</v>
       </c>
@@ -33225,7 +33225,7 @@
         <f t="shared" si="20"/>
         <v>5.2386894822120667E-7</v>
       </c>
-      <c r="AQ38" s="64"/>
+      <c r="AQ38" s="67"/>
       <c r="AR38" s="3">
         <v>2.94</v>
       </c>
@@ -33354,7 +33354,7 @@
         <f t="shared" si="20"/>
         <v>2.6193447411060333E-7</v>
       </c>
-      <c r="AQ39" s="64"/>
+      <c r="AQ39" s="67"/>
       <c r="AR39" s="3">
         <v>1.62</v>
       </c>
@@ -33400,7 +33400,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="BQ39" s="2">
-        <f t="dataTable" ref="BQ39:BQ68" dt2D="0" dtr="0" r1="BH23"/>
+        <f t="dataTable" ref="BQ39:BQ68" dt2D="0" dtr="0" r1="BH23" ca="1"/>
         <v>-0.85202725234676735</v>
       </c>
       <c r="BR39" s="3">
@@ -33408,7 +33408,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="BS39" s="2">
-        <f t="dataTable" ref="BS39:BS68" dt2D="0" dtr="0" r1="BH23" ca="1"/>
+        <f t="dataTable" ref="BS39:BS68" dt2D="0" dtr="0" r1="BH23"/>
         <v>0.42314911590202797</v>
       </c>
       <c r="BT39" s="2">
@@ -33440,7 +33440,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="CB39" s="2">
-        <f t="dataTable" ref="CB39:CB68" dt2D="0" dtr="0" r1="BL23" ca="1"/>
+        <f t="dataTable" ref="CB39:CB68" dt2D="0" dtr="0" r1="BL23"/>
         <v>-0.64775761411762633</v>
       </c>
       <c r="CC39" s="3">
@@ -33456,7 +33456,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="CF39" s="2">
-        <f t="dataTable" ref="CF39:CF68" dt2D="0" dtr="0" r1="BL23"/>
+        <f t="dataTable" ref="CF39:CF68" dt2D="0" dtr="0" r1="BL23" ca="1"/>
         <v>1.0074862094704096</v>
       </c>
       <c r="CG39" s="2">
@@ -33473,11 +33473,11 @@
       </c>
     </row>
     <row r="40" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
       <c r="J40" s="11" t="s">
         <v>55</v>
       </c>
@@ -33524,7 +33524,7 @@
         <f t="shared" si="20"/>
         <v>1.3096723705530167E-7</v>
       </c>
-      <c r="AQ40" s="64"/>
+      <c r="AQ40" s="67"/>
       <c r="AR40" s="3">
         <v>0.3</v>
       </c>
@@ -33682,7 +33682,7 @@
         <f t="shared" si="20"/>
         <v>6.5483618527650833E-8</v>
       </c>
-      <c r="AQ41" s="64"/>
+      <c r="AQ41" s="67"/>
       <c r="AR41" s="3">
         <v>-1.02</v>
       </c>
@@ -33693,10 +33693,10 @@
       <c r="AU41" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AV41" s="66" t="s">
+      <c r="AV41" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="AW41" s="66"/>
+      <c r="AW41" s="69"/>
       <c r="AX41" s="24"/>
       <c r="AY41" s="24"/>
       <c r="AZ41" s="24"/>
@@ -33706,17 +33706,17 @@
       <c r="BD41" s="24"/>
       <c r="BE41" s="25"/>
       <c r="BF41"/>
-      <c r="BG41" s="62" t="s">
+      <c r="BG41" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="BH41" s="62"/>
-      <c r="BI41" s="62"/>
+      <c r="BH41" s="63"/>
+      <c r="BI41" s="63"/>
       <c r="BJ41" s="2"/>
-      <c r="BK41" s="62" t="s">
+      <c r="BK41" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="BL41" s="62"/>
-      <c r="BM41" s="62"/>
+      <c r="BL41" s="63"/>
+      <c r="BM41" s="63"/>
       <c r="BN41"/>
       <c r="BO41" s="2">
         <v>3</v>
@@ -33848,7 +33848,7 @@
         <f t="shared" si="20"/>
         <v>3.2741809263825417E-8</v>
       </c>
-      <c r="AQ42" s="64"/>
+      <c r="AQ42" s="67"/>
       <c r="AR42" s="3">
         <v>-2.34</v>
       </c>
@@ -33857,22 +33857,22 @@
       </c>
       <c r="AT42"/>
       <c r="AU42" s="27"/>
-      <c r="AV42" s="63" t="s">
+      <c r="AV42" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="AW42" s="63"/>
-      <c r="AX42" s="63"/>
-      <c r="AY42" s="63" t="s">
+      <c r="AW42" s="70"/>
+      <c r="AX42" s="70"/>
+      <c r="AY42" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="AZ42" s="63"/>
-      <c r="BA42" s="63"/>
-      <c r="BB42" s="63"/>
-      <c r="BC42" s="63" t="s">
+      <c r="AZ42" s="70"/>
+      <c r="BA42" s="70"/>
+      <c r="BB42" s="70"/>
+      <c r="BC42" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="BD42" s="63"/>
-      <c r="BE42" s="65"/>
+      <c r="BD42" s="70"/>
+      <c r="BE42" s="71"/>
       <c r="BF42"/>
       <c r="BG42" s="28" t="s">
         <v>154</v>
@@ -34040,10 +34040,10 @@
       <c r="AX43" s="2">
         <v>-9.5</v>
       </c>
-      <c r="AY43" s="63" t="s">
+      <c r="AY43" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="AZ43" s="63"/>
+      <c r="AZ43" s="70"/>
       <c r="BA43" s="2">
         <v>-9.5</v>
       </c>
@@ -34491,11 +34491,11 @@
       </c>
     </row>
     <row r="46" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
       <c r="AQ46" s="2" t="s">
         <v>31</v>
       </c>
@@ -34621,12 +34621,12 @@
       <c r="D47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AF47" s="72" t="s">
+      <c r="AF47" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="AG47" s="72"/>
-      <c r="AH47" s="72"/>
-      <c r="AI47" s="72"/>
+      <c r="AG47" s="62"/>
+      <c r="AH47" s="62"/>
+      <c r="AI47" s="62"/>
       <c r="AJ47" s="2"/>
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
@@ -34637,10 +34637,10 @@
       <c r="AU47" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AV47" s="66" t="s">
+      <c r="AV47" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="AW47" s="66"/>
+      <c r="AW47" s="69"/>
       <c r="AX47" s="24"/>
       <c r="AY47" s="24"/>
       <c r="AZ47" s="24"/>
@@ -34784,21 +34784,21 @@
       </c>
       <c r="AT48"/>
       <c r="AU48" s="27"/>
-      <c r="AV48" s="63" t="s">
+      <c r="AV48" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="AW48" s="63"/>
-      <c r="AX48" s="63"/>
-      <c r="AY48" s="63" t="s">
+      <c r="AW48" s="70"/>
+      <c r="AX48" s="70"/>
+      <c r="AY48" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="AZ48" s="63"/>
-      <c r="BA48" s="63"/>
-      <c r="BB48" s="63" t="s">
+      <c r="AZ48" s="70"/>
+      <c r="BA48" s="70"/>
+      <c r="BB48" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="BC48" s="63"/>
-      <c r="BD48" s="63"/>
+      <c r="BC48" s="70"/>
+      <c r="BD48" s="70"/>
       <c r="BE48" s="49"/>
       <c r="BF48"/>
       <c r="BG48" s="2" t="s">
@@ -35095,7 +35095,7 @@
         <v>1450</v>
       </c>
       <c r="AT50"/>
-      <c r="AU50" s="70" t="s">
+      <c r="AU50" s="72" t="s">
         <v>160</v>
       </c>
       <c r="AV50" s="51">
@@ -35257,7 +35257,7 @@
         <v>725</v>
       </c>
       <c r="AT51"/>
-      <c r="AU51" s="70"/>
+      <c r="AU51" s="72"/>
       <c r="AV51" s="27">
         <v>-1.144044407873E-4</v>
       </c>
@@ -35380,11 +35380,11 @@
       </c>
     </row>
     <row r="52" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
       <c r="AF52" s="2">
         <v>3</v>
       </c>
@@ -35422,22 +35422,22 @@
         <v>362.5</v>
       </c>
       <c r="AT52"/>
-      <c r="AU52" s="70"/>
-      <c r="AV52" s="67">
+      <c r="AU52" s="72"/>
+      <c r="AV52" s="64">
         <v>-2.2751380819795499</v>
       </c>
-      <c r="AW52" s="68"/>
-      <c r="AX52" s="69"/>
-      <c r="AY52" s="67">
+      <c r="AW52" s="65"/>
+      <c r="AX52" s="66"/>
+      <c r="AY52" s="64">
         <v>0.14939144598517301</v>
       </c>
-      <c r="AZ52" s="68"/>
-      <c r="BA52" s="69"/>
-      <c r="BB52" s="64">
+      <c r="AZ52" s="65"/>
+      <c r="BA52" s="66"/>
+      <c r="BB52" s="67">
         <v>3.3811980767955601</v>
       </c>
-      <c r="BC52" s="64"/>
-      <c r="BD52" s="73"/>
+      <c r="BC52" s="67"/>
+      <c r="BD52" s="68"/>
       <c r="BE52" s="27"/>
       <c r="BF52"/>
       <c r="BG52" s="2" t="s">
@@ -35576,7 +35576,7 @@
         <v>181.25</v>
       </c>
       <c r="AT53"/>
-      <c r="AU53" s="70" t="s">
+      <c r="AU53" s="72" t="s">
         <v>164</v>
       </c>
       <c r="AV53" s="51">
@@ -35744,7 +35744,7 @@
         <v>90.625</v>
       </c>
       <c r="AT54"/>
-      <c r="AU54" s="70"/>
+      <c r="AU54" s="72"/>
       <c r="AV54" s="27">
         <v>-3.2678211540000002E-6</v>
       </c>
@@ -35910,22 +35910,22 @@
         <v>45.3125</v>
       </c>
       <c r="AT55"/>
-      <c r="AU55" s="71"/>
-      <c r="AV55" s="67">
+      <c r="AU55" s="73"/>
+      <c r="AV55" s="64">
         <v>-2.92797950805124E-2</v>
       </c>
-      <c r="AW55" s="68"/>
-      <c r="AX55" s="69"/>
-      <c r="AY55" s="68">
+      <c r="AW55" s="65"/>
+      <c r="AX55" s="66"/>
+      <c r="AY55" s="65">
         <v>4.8575804011639703E-2</v>
       </c>
-      <c r="AZ55" s="68"/>
-      <c r="BA55" s="68"/>
-      <c r="BB55" s="67">
+      <c r="AZ55" s="65"/>
+      <c r="BA55" s="65"/>
+      <c r="BB55" s="64">
         <v>7.4720850653456003E-3</v>
       </c>
-      <c r="BC55" s="68"/>
-      <c r="BD55" s="69"/>
+      <c r="BC55" s="65"/>
+      <c r="BD55" s="66"/>
       <c r="BE55"/>
       <c r="BF55"/>
       <c r="BG55" s="2" t="s">
@@ -36634,17 +36634,17 @@
       <c r="BD60"/>
       <c r="BE60"/>
       <c r="BF60"/>
-      <c r="BG60" s="62" t="s">
+      <c r="BG60" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="BH60" s="62"/>
-      <c r="BI60" s="62"/>
+      <c r="BH60" s="63"/>
+      <c r="BI60" s="63"/>
       <c r="BJ60" s="2"/>
-      <c r="BK60" s="62" t="s">
+      <c r="BK60" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="BL60" s="62"/>
-      <c r="BM60" s="62"/>
+      <c r="BL60" s="63"/>
+      <c r="BM60" s="63"/>
       <c r="BN60"/>
       <c r="BO60" s="2">
         <v>22</v>
@@ -38400,7 +38400,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="BS73" s="2">
-        <f t="dataTable" ref="BS73:BS102" dt2D="0" dtr="0" r1="BH42"/>
+        <f t="dataTable" ref="BS73:BS102" dt2D="0" dtr="0" r1="BH42" ca="1"/>
         <v>0.38036050401391713</v>
       </c>
       <c r="BT73" s="2">
@@ -38432,7 +38432,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="CB73" s="2">
-        <f t="dataTable" ref="CB73:CB102" dt2D="0" dtr="0" r1="BL42"/>
+        <f t="dataTable" ref="CB73:CB102" dt2D="0" dtr="0" r1="BL42" ca="1"/>
         <v>-0.43475555326502296</v>
       </c>
       <c r="CC73" s="3">
@@ -41878,7 +41878,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="BQ107" s="2">
-        <f t="dataTable" ref="BQ107:BQ136" dt2D="0" dtr="0" r1="BH61"/>
+        <f t="dataTable" ref="BQ107:BQ136" dt2D="0" dtr="0" r1="BH61" ca="1"/>
         <v>-0.37243580075700961</v>
       </c>
       <c r="BR107" s="3">
@@ -41918,7 +41918,7 @@
         <v>3.1415926535897933E-3</v>
       </c>
       <c r="CB107" s="2">
-        <f t="dataTable" ref="CB107:CB136" dt2D="0" dtr="0" r1="BL61"/>
+        <f t="dataTable" ref="CB107:CB136" dt2D="0" dtr="0" r1="BL61" ca="1"/>
         <v>-3.1899178801243284</v>
       </c>
       <c r="CC107" s="3">
@@ -44810,20 +44810,62 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="BZ104:CI104"/>
-    <mergeCell ref="AF47:AI47"/>
-    <mergeCell ref="BO104:BX104"/>
-    <mergeCell ref="BG60:BI60"/>
-    <mergeCell ref="BO70:BX70"/>
-    <mergeCell ref="BZ70:CI70"/>
-    <mergeCell ref="AY52:BA52"/>
-    <mergeCell ref="AY55:BA55"/>
-    <mergeCell ref="BB52:BD52"/>
-    <mergeCell ref="BB55:BD55"/>
-    <mergeCell ref="AV47:AW47"/>
-    <mergeCell ref="AV48:AX48"/>
-    <mergeCell ref="AY48:BA48"/>
-    <mergeCell ref="BB48:BD48"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="BZ2:CI2"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AY2:BE2"/>
+    <mergeCell ref="BG2:BM2"/>
+    <mergeCell ref="BO2:BX2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BK22:BM22"/>
+    <mergeCell ref="AU23:AU29"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AU14:AW14"/>
+    <mergeCell ref="AU22:AW22"/>
+    <mergeCell ref="BG22:BI22"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AQ27:AQ34"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AY30:BA30"/>
+    <mergeCell ref="BC30:BE30"/>
+    <mergeCell ref="AQ7:AS7"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AY12:BA12"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="AY21:BA21"/>
+    <mergeCell ref="BC21:BE21"/>
+    <mergeCell ref="AQ11:AQ18"/>
+    <mergeCell ref="AQ19:AQ26"/>
     <mergeCell ref="AQ35:AQ42"/>
     <mergeCell ref="AV42:AX42"/>
     <mergeCell ref="BK60:BM60"/>
@@ -44840,62 +44882,20 @@
     <mergeCell ref="AU50:AU52"/>
     <mergeCell ref="AU53:AU55"/>
     <mergeCell ref="AV55:AX55"/>
-    <mergeCell ref="AQ7:AS7"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AY12:BA12"/>
-    <mergeCell ref="BC12:BE12"/>
-    <mergeCell ref="AY21:BA21"/>
-    <mergeCell ref="BC21:BE21"/>
-    <mergeCell ref="AQ11:AQ18"/>
-    <mergeCell ref="AQ19:AQ26"/>
-    <mergeCell ref="AQ27:AQ34"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AY30:BA30"/>
-    <mergeCell ref="BC30:BE30"/>
-    <mergeCell ref="BK22:BM22"/>
-    <mergeCell ref="AU23:AU29"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AU14:AW14"/>
-    <mergeCell ref="AU22:AW22"/>
-    <mergeCell ref="BG22:BI22"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="BZ2:CI2"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="BG3:BI3"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AY2:BE2"/>
-    <mergeCell ref="BG2:BM2"/>
-    <mergeCell ref="BO2:BX2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="BZ104:CI104"/>
+    <mergeCell ref="AF47:AI47"/>
+    <mergeCell ref="BO104:BX104"/>
+    <mergeCell ref="BG60:BI60"/>
+    <mergeCell ref="BO70:BX70"/>
+    <mergeCell ref="BZ70:CI70"/>
+    <mergeCell ref="AY52:BA52"/>
+    <mergeCell ref="AY55:BA55"/>
+    <mergeCell ref="BB52:BD52"/>
+    <mergeCell ref="BB55:BD55"/>
+    <mergeCell ref="AV47:AW47"/>
+    <mergeCell ref="AV48:AX48"/>
+    <mergeCell ref="AY48:BA48"/>
+    <mergeCell ref="BB48:BD48"/>
   </mergeCells>
   <conditionalFormatting sqref="G12">
     <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="FALSE">
@@ -44947,7 +44947,7 @@
   <dimension ref="B1:AO81"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44988,11 +44988,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -45003,26 +45003,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="F3" s="54" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="F3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="J3" s="58" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="N3" s="58" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
       <c r="U3" s="7" t="s">
         <v>44</v>
       </c>
@@ -45261,14 +45261,14 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
         <v>-815.62123672201335</v>
       </c>
       <c r="AI5" s="3">
         <v>3500</v>
       </c>
       <c r="AJ5" s="2">
-        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5"/>
         <v>9.0430574924180291</v>
       </c>
       <c r="AK5" s="2">
@@ -45644,11 +45644,11 @@
       <c r="H9" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="J9" s="58" t="s">
+      <c r="J9" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
       <c r="N9" s="6" t="s">
         <v>122</v>
       </c>
@@ -45962,11 +45962,11 @@
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
       <c r="N12" s="6" t="s">
         <v>235</v>
       </c>
@@ -46263,11 +46263,11 @@
       </c>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
       <c r="F15" s="6" t="s">
         <v>240</v>
       </c>
@@ -46617,11 +46617,11 @@
       <c r="L18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="54" t="s">
+      <c r="N18" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
       <c r="U18" s="2">
         <v>14</v>
       </c>
@@ -46803,11 +46803,11 @@
       </c>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
       <c r="F20" s="44" t="s">
         <v>225</v>
       </c>
@@ -47024,11 +47024,11 @@
       <c r="C22" s="17">
         <v>2</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
       <c r="J22" s="14" t="s">
         <v>241</v>
       </c>
@@ -47563,11 +47563,11 @@
       </c>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
       <c r="F27" t="s">
         <v>100</v>
       </c>
@@ -48001,11 +48001,11 @@
       <c r="C31" s="17">
         <v>0.75</v>
       </c>
-      <c r="F31" s="54" t="s">
+      <c r="F31" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
       <c r="J31" s="6" t="s">
         <v>58</v>
       </c>
@@ -48278,11 +48278,11 @@
       </c>
     </row>
     <row r="34" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
       <c r="J34" s="6" t="s">
         <v>60</v>
       </c>
@@ -48586,11 +48586,11 @@
       </c>
     </row>
     <row r="39" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
       <c r="J39" s="10" t="s">
         <v>62</v>
       </c>
@@ -48690,11 +48690,11 @@
         <f>IF(C40="wheeled",0.0325,0.014)</f>
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="J41" s="58" t="s">
+      <c r="J41" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
       <c r="AF41" s="2">
         <v>37</v>
       </c>
@@ -48892,11 +48892,11 @@
       </c>
     </row>
     <row r="45" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
       <c r="J45" s="20" t="s">
         <v>72</v>
       </c>
@@ -48939,11 +48939,11 @@
       </c>
     </row>
     <row r="48" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
@@ -48978,11 +48978,11 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
@@ -49028,11 +49028,11 @@
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
@@ -49062,11 +49062,11 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="58" t="s">
+      <c r="B64" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
@@ -49113,11 +49113,11 @@
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
@@ -49164,11 +49164,11 @@
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="58" t="s">
+      <c r="B76" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="58"/>
-      <c r="D76" s="58"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
@@ -49215,16 +49215,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B70:D70"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B39:D39"/>
@@ -49232,12 +49228,16 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="FALSE">
@@ -49315,11 +49315,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="2:45" x14ac:dyDescent="0.2">
       <c r="Y2" s="16" t="s">
@@ -49330,31 +49330,31 @@
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="F3" s="54" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="F3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="J3" s="58" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="N3" s="58" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="R3" s="58" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="R3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
       <c r="Y3" s="7" t="s">
         <v>44</v>
       </c>
@@ -49612,14 +49612,14 @@
         <v>500</v>
       </c>
       <c r="AL5" s="2">
-        <f t="dataTable" ref="AL5:AL44" dt2D="0" dtr="0" r1="C5"/>
+        <f t="dataTable" ref="AL5:AL44" dt2D="0" dtr="0" r1="C5" ca="1"/>
         <v>-850.68796843081941</v>
       </c>
       <c r="AM5" s="3">
         <v>4000</v>
       </c>
       <c r="AN5" s="2">
-        <f t="dataTable" ref="AN5:AN44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AN5:AN44" dt2D="0" dtr="0" r1="C5"/>
         <v>703.27001597063463</v>
       </c>
       <c r="AO5" s="2">
@@ -50016,11 +50016,11 @@
       <c r="H9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="58" t="s">
+      <c r="J9" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
       <c r="N9" s="6" t="s">
         <v>122</v>
       </c>
@@ -50803,16 +50803,16 @@
       </c>
     </row>
     <row r="16" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="F16" s="54" t="s">
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="F16" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
       <c r="J16" s="12" t="s">
         <v>135</v>
       </c>
@@ -51049,16 +51049,16 @@
       <c r="L18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="54" t="s">
+      <c r="N18" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="R18" s="54" t="s">
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="R18" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
       <c r="Y18" s="2">
         <v>14</v>
       </c>
@@ -51376,11 +51376,11 @@
       </c>
     </row>
     <row r="21" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
       <c r="F21" s="9" t="s">
         <v>100</v>
       </c>
@@ -51967,11 +51967,11 @@
       <c r="D26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="58" t="s">
+      <c r="F26" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
       <c r="J26" s="15" t="s">
         <v>67</v>
       </c>
@@ -52190,11 +52190,11 @@
       </c>
     </row>
     <row r="28" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
       <c r="F28" s="6" t="s">
         <v>94</v>
       </c>
@@ -52920,16 +52920,16 @@
       </c>
     </row>
     <row r="35" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="F35" s="54" t="s">
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="F35" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
       <c r="J35" s="11" t="s">
         <v>55</v>
       </c>
@@ -53323,11 +53323,11 @@
       </c>
     </row>
     <row r="40" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
       <c r="Y40" s="2">
         <v>2</v>
       </c>
@@ -53411,11 +53411,11 @@
       <c r="C41" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="J41" s="58" t="s">
+      <c r="J41" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
       <c r="Y41" s="2">
         <v>3</v>
       </c>
@@ -53827,11 +53827,11 @@
       </c>
     </row>
     <row r="46" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
       <c r="J46" s="15" t="s">
         <v>73</v>
       </c>
@@ -53981,11 +53981,11 @@
       </c>
     </row>
     <row r="49" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
       <c r="Y49" s="2">
         <v>11</v>
       </c>
@@ -54217,11 +54217,11 @@
       </c>
     </row>
     <row r="54" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
       <c r="Y54" s="2">
         <v>16</v>
       </c>
@@ -54503,11 +54503,11 @@
       </c>
     </row>
     <row r="60" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B60" s="54" t="s">
+      <c r="B60" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
       <c r="Y60" s="2">
         <v>22</v>
       </c>
@@ -54734,11 +54734,11 @@
       </c>
     </row>
     <row r="65" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B65" s="58" t="s">
+      <c r="B65" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
       <c r="Y65" s="2">
         <v>27</v>
       </c>
@@ -54941,11 +54941,11 @@
       </c>
     </row>
     <row r="71" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B71" s="58" t="s">
+      <c r="B71" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
     </row>
     <row r="72" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B72" s="6" t="s">
@@ -54992,11 +54992,11 @@
       </c>
     </row>
     <row r="77" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B77" s="58" t="s">
+      <c r="B77" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
     </row>
     <row r="78" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
@@ -55043,6 +55043,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="J9:L9"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B71:D71"/>
@@ -55058,16 +55068,6 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F35:H35"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="J9:L9"/>
   </mergeCells>
   <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="FALSE">
@@ -55098,8 +55098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8895AA02-1E62-EB44-9405-A51AF8F8C1C2}">
   <dimension ref="B1:CI136"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55158,11 +55158,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="2:87" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -55225,26 +55225,26 @@
       <c r="CI2" s="61"/>
     </row>
     <row r="3" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="F3" s="54" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="F3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="J3" s="58" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="N3" s="58" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
       <c r="U3" s="7" t="s">
         <v>44</v>
       </c>
@@ -55325,27 +55325,27 @@
       <c r="AW3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AY3" s="62" t="s">
+      <c r="AY3" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
-      <c r="BC3" s="62" t="s">
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="63"/>
+      <c r="BC3" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BG3" s="62" t="s">
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
+      <c r="BG3" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
       <c r="BJ3" s="2"/>
-      <c r="BK3" s="62" t="s">
+      <c r="BK3" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
+      <c r="BL3" s="63"/>
+      <c r="BM3" s="63"/>
       <c r="BO3" s="7" t="s">
         <v>44</v>
       </c>
@@ -55686,7 +55686,7 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
         <v>-1297.0564557602911</v>
       </c>
       <c r="AI5" s="3">
@@ -55784,7 +55784,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="BQ5" s="2">
-        <f t="dataTable" ref="BQ5:BQ34" dt2D="0" dtr="0" r1="BH4" ca="1"/>
+        <f t="dataTable" ref="BQ5:BQ34" dt2D="0" dtr="0" r1="BH4"/>
         <v>-6.5982753989283145</v>
       </c>
       <c r="BR5" s="3">
@@ -55800,7 +55800,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="BU5" s="2">
-        <f t="dataTable" ref="BU5:BU34" dt2D="0" dtr="0" r1="BH4"/>
+        <f t="dataTable" ref="BU5:BU34" dt2D="0" dtr="0" r1="BH4" ca="1"/>
         <v>1.3405469406660548</v>
       </c>
       <c r="BV5" s="2">
@@ -55823,7 +55823,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="CB5" s="2">
-        <f t="dataTable" ref="CB5:CB34" dt2D="0" dtr="0" r1="BL4"/>
+        <f t="dataTable" ref="CB5:CB34" dt2D="0" dtr="0" r1="BL4" ca="1"/>
         <v>-4.3660696820048361</v>
       </c>
       <c r="CC5" s="3">
@@ -55831,7 +55831,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="CD5" s="2">
-        <f t="dataTable" ref="CD5:CD34" dt2D="0" dtr="0" r1="BL4" ca="1"/>
+        <f t="dataTable" ref="CD5:CD34" dt2D="0" dtr="0" r1="BL4"/>
         <v>0.67139601770704371</v>
       </c>
       <c r="CE5" s="2">
@@ -56570,11 +56570,11 @@
       <c r="H9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="58" t="s">
+      <c r="J9" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
       <c r="N9" s="6" t="s">
         <v>122</v>
       </c>
@@ -57140,7 +57140,7 @@
         <f t="shared" si="20"/>
         <v>70.3125</v>
       </c>
-      <c r="AQ11" s="64" t="s">
+      <c r="AQ11" s="67" t="s">
         <v>181</v>
       </c>
       <c r="AR11" s="3" t="s">
@@ -57348,7 +57348,7 @@
         <f t="shared" si="20"/>
         <v>35.15625</v>
       </c>
-      <c r="AQ12" s="64"/>
+      <c r="AQ12" s="67"/>
       <c r="AR12" s="3" t="s">
         <v>219</v>
       </c>
@@ -57363,16 +57363,16 @@
       <c r="AW12" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="AY12" s="62" t="s">
+      <c r="AY12" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="AZ12" s="62"/>
-      <c r="BA12" s="62"/>
-      <c r="BC12" s="62" t="s">
+      <c r="AZ12" s="63"/>
+      <c r="BA12" s="63"/>
+      <c r="BC12" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="BD12" s="62"/>
-      <c r="BE12" s="62"/>
+      <c r="BD12" s="63"/>
+      <c r="BE12" s="63"/>
       <c r="BG12" s="2" t="s">
         <v>187</v>
       </c>
@@ -57570,7 +57570,7 @@
         <f t="shared" si="20"/>
         <v>17.578125</v>
       </c>
-      <c r="AQ13" s="64"/>
+      <c r="AQ13" s="67"/>
       <c r="AR13" s="3" t="s">
         <v>219</v>
       </c>
@@ -57787,7 +57787,7 @@
         <f t="shared" si="20"/>
         <v>8.7890625</v>
       </c>
-      <c r="AQ14" s="64"/>
+      <c r="AQ14" s="67"/>
       <c r="AR14" s="3" t="s">
         <v>219</v>
       </c>
@@ -57908,11 +57908,11 @@
       </c>
     </row>
     <row r="15" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
       <c r="J15" s="11" t="s">
         <v>55</v>
       </c>
@@ -58005,7 +58005,7 @@
         <f t="shared" si="20"/>
         <v>4.39453125</v>
       </c>
-      <c r="AQ15" s="64"/>
+      <c r="AQ15" s="67"/>
       <c r="AR15" s="3" t="s">
         <v>219</v>
       </c>
@@ -58131,11 +58131,11 @@
       </c>
     </row>
     <row r="16" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
       <c r="F16" s="9" t="s">
         <v>92</v>
       </c>
@@ -58238,7 +58238,7 @@
         <f t="shared" si="20"/>
         <v>2.197265625</v>
       </c>
-      <c r="AQ16" s="64"/>
+      <c r="AQ16" s="67"/>
       <c r="AR16" s="3" t="s">
         <v>219</v>
       </c>
@@ -58466,7 +58466,7 @@
         <f t="shared" si="20"/>
         <v>1.0986328125</v>
       </c>
-      <c r="AQ17" s="64"/>
+      <c r="AQ17" s="67"/>
       <c r="AR17" s="3" t="s">
         <v>219</v>
       </c>
@@ -58615,11 +58615,11 @@
       <c r="L18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="54" t="s">
+      <c r="N18" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
       <c r="U18" s="2">
         <v>14</v>
       </c>
@@ -58695,7 +58695,7 @@
         <f t="shared" si="20"/>
         <v>0.54931640625</v>
       </c>
-      <c r="AQ18" s="64"/>
+      <c r="AQ18" s="67"/>
       <c r="AR18" s="3" t="s">
         <v>219</v>
       </c>
@@ -58929,7 +58929,7 @@
         <f t="shared" si="20"/>
         <v>0.274658203125</v>
       </c>
-      <c r="AQ19" s="64" t="s">
+      <c r="AQ19" s="67" t="s">
         <v>195</v>
       </c>
       <c r="AR19" s="3">
@@ -59163,7 +59163,7 @@
         <f t="shared" si="20"/>
         <v>0.1373291015625</v>
       </c>
-      <c r="AQ20" s="64"/>
+      <c r="AQ20" s="67"/>
       <c r="AR20" s="3">
         <f>0.358125*($AR$9/2)</f>
         <v>0.54578250000000006</v>
@@ -59270,11 +59270,11 @@
       </c>
     </row>
     <row r="21" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
       <c r="J21" s="14" t="s">
         <v>64</v>
       </c>
@@ -59370,7 +59370,7 @@
         <f t="shared" si="20"/>
         <v>6.866455078125E-2</v>
       </c>
-      <c r="AQ21" s="64"/>
+      <c r="AQ21" s="67"/>
       <c r="AR21" s="3">
         <f>0.456875*($AR$9/2)</f>
         <v>0.69627749999999999</v>
@@ -59379,16 +59379,16 @@
         <v>8</v>
       </c>
       <c r="AW21" s="26"/>
-      <c r="AY21" s="62" t="s">
+      <c r="AY21" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="AZ21" s="62"/>
-      <c r="BA21" s="62"/>
-      <c r="BC21" s="62" t="s">
+      <c r="AZ21" s="63"/>
+      <c r="BA21" s="63"/>
+      <c r="BC21" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="BD21" s="62"/>
-      <c r="BE21" s="62"/>
+      <c r="BD21" s="63"/>
+      <c r="BE21" s="63"/>
       <c r="BG21" s="2"/>
       <c r="BH21" s="2"/>
       <c r="BI21" s="2"/>
@@ -59476,11 +59476,11 @@
       <c r="C22" s="17">
         <v>8</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
       <c r="J22" s="14" t="s">
         <v>241</v>
       </c>
@@ -59573,7 +59573,7 @@
         <f t="shared" si="20"/>
         <v>3.4332275390625E-2</v>
       </c>
-      <c r="AQ22" s="64"/>
+      <c r="AQ22" s="67"/>
       <c r="AR22" s="3">
         <f>0.555625*($AR$9/2)</f>
         <v>0.84677250000000004</v>
@@ -59606,17 +59606,17 @@
       <c r="BE22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BG22" s="62" t="s">
+      <c r="BG22" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="BH22" s="62"/>
-      <c r="BI22" s="62"/>
+      <c r="BH22" s="63"/>
+      <c r="BI22" s="63"/>
       <c r="BJ22" s="2"/>
-      <c r="BK22" s="62" t="s">
+      <c r="BK22" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="BL22" s="62"/>
-      <c r="BM22" s="62"/>
+      <c r="BL22" s="63"/>
+      <c r="BM22" s="63"/>
       <c r="BO22" s="2">
         <v>18</v>
       </c>
@@ -59799,7 +59799,7 @@
         <f t="shared" si="20"/>
         <v>1.71661376953125E-2</v>
       </c>
-      <c r="AQ23" s="64"/>
+      <c r="AQ23" s="67"/>
       <c r="AR23" s="3">
         <f>0.654375*($AR$9/2)</f>
         <v>0.99726750000000008</v>
@@ -59807,14 +59807,14 @@
       <c r="AS23" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU23" s="63" t="s">
+      <c r="AU23" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="AV23" s="64">
+      <c r="AV23" s="67">
         <f>BH20</f>
         <v>8.035629328606575E-9</v>
       </c>
-      <c r="AW23" s="64"/>
+      <c r="AW23" s="67"/>
       <c r="AY23" s="2" t="s">
         <v>158</v>
       </c>
@@ -60038,7 +60038,7 @@
         <f t="shared" si="20"/>
         <v>8.58306884765625E-3</v>
       </c>
-      <c r="AQ24" s="64"/>
+      <c r="AQ24" s="67"/>
       <c r="AR24" s="3">
         <f>0.753125*($AR$9/2)</f>
         <v>1.1477625</v>
@@ -60046,12 +60046,12 @@
       <c r="AS24" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU24" s="63"/>
-      <c r="AV24" s="64">
+      <c r="AU24" s="70"/>
+      <c r="AV24" s="67">
         <f>BL20</f>
         <v>5.9086911474715009E-9</v>
       </c>
-      <c r="AW24" s="64"/>
+      <c r="AW24" s="67"/>
       <c r="AY24" s="2" t="s">
         <v>163</v>
       </c>
@@ -60278,7 +60278,7 @@
         <f t="shared" si="20"/>
         <v>4.291534423828125E-3</v>
       </c>
-      <c r="AQ25" s="64"/>
+      <c r="AQ25" s="67"/>
       <c r="AR25" s="3">
         <f>0.851875*($AR$9/2)</f>
         <v>1.2982575000000001</v>
@@ -60286,12 +60286,12 @@
       <c r="AS25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU25" s="63"/>
-      <c r="AV25" s="64">
+      <c r="AU25" s="70"/>
+      <c r="AV25" s="67">
         <f>BH39</f>
         <v>3.7158728524722129E-9</v>
       </c>
-      <c r="AW25" s="64"/>
+      <c r="AW25" s="67"/>
       <c r="AY25" s="2" t="s">
         <v>167</v>
       </c>
@@ -60518,7 +60518,7 @@
         <f t="shared" si="20"/>
         <v>2.1457672119140625E-3</v>
       </c>
-      <c r="AQ26" s="64"/>
+      <c r="AQ26" s="67"/>
       <c r="AR26" s="3">
         <f>0.950625*($AR$9/2)</f>
         <v>1.4487525000000001</v>
@@ -60526,12 +60526,12 @@
       <c r="AS26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AU26" s="63"/>
-      <c r="AV26" s="64">
+      <c r="AU26" s="70"/>
+      <c r="AV26" s="67">
         <f>BL39</f>
         <v>1.3610837526489838E-9</v>
       </c>
-      <c r="AW26" s="64"/>
+      <c r="AW26" s="67"/>
       <c r="AY26" s="2" t="s">
         <v>170</v>
       </c>
@@ -60748,7 +60748,7 @@
         <f t="shared" si="20"/>
         <v>1.0728836059570312E-3</v>
       </c>
-      <c r="AQ27" s="64" t="s">
+      <c r="AQ27" s="67" t="s">
         <v>204</v>
       </c>
       <c r="AR27" s="3">
@@ -60758,12 +60758,12 @@
       <c r="AS27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU27" s="63"/>
-      <c r="AV27" s="64">
+      <c r="AU27" s="70"/>
+      <c r="AV27" s="67">
         <f>BH58</f>
         <v>-5.6457712810376037E-9</v>
       </c>
-      <c r="AW27" s="64"/>
+      <c r="AW27" s="67"/>
       <c r="AY27" s="2" t="s">
         <v>174</v>
       </c>
@@ -60875,11 +60875,11 @@
       </c>
     </row>
     <row r="28" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
       <c r="J28" s="15" t="s">
         <v>69</v>
       </c>
@@ -60972,7 +60972,7 @@
         <f t="shared" si="20"/>
         <v>5.3644180297851562E-4</v>
       </c>
-      <c r="AQ28" s="64"/>
+      <c r="AQ28" s="67"/>
       <c r="AR28" s="3">
         <f>0.530863*($AR$9/2)</f>
         <v>0.80903521199999995</v>
@@ -60980,12 +60980,12 @@
       <c r="AS28" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU28" s="63"/>
-      <c r="AV28" s="64">
+      <c r="AU28" s="70"/>
+      <c r="AV28" s="67">
         <f>BL58</f>
         <v>-3.968280197497176E-9</v>
       </c>
-      <c r="AW28" s="64"/>
+      <c r="AW28" s="67"/>
       <c r="AY28" s="2" t="s">
         <v>178</v>
       </c>
@@ -61103,11 +61103,11 @@
       <c r="C29" s="17">
         <v>1</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
       <c r="J29" s="15" t="s">
         <v>70</v>
       </c>
@@ -61199,7 +61199,7 @@
         <f t="shared" si="20"/>
         <v>2.6822090148925781E-4</v>
       </c>
-      <c r="AQ29" s="64"/>
+      <c r="AQ29" s="67"/>
       <c r="AR29" s="3">
         <f>0.513438*($AR$9/2)</f>
         <v>0.78247951199999999</v>
@@ -61207,12 +61207,12 @@
       <c r="AS29" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU29" s="63"/>
-      <c r="AV29" s="64">
+      <c r="AU29" s="70"/>
+      <c r="AV29" s="67">
         <f>BH77</f>
         <v>-1.4129099626392083E-10</v>
       </c>
-      <c r="AW29" s="64"/>
+      <c r="AW29" s="67"/>
       <c r="BG29" s="2" t="s">
         <v>180</v>
       </c>
@@ -61412,7 +61412,7 @@
         <f t="shared" si="20"/>
         <v>1.3411045074462891E-4</v>
       </c>
-      <c r="AQ30" s="64"/>
+      <c r="AQ30" s="67"/>
       <c r="AR30" s="3">
         <f>0.496013*($AR$9/2)</f>
         <v>0.75592381200000003</v>
@@ -61423,21 +61423,21 @@
       <c r="AU30" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="AV30" s="64" t="b">
+      <c r="AV30" s="67" t="b">
         <f>IF(AV23&lt;0.00001,IF(AV24&lt;0.00001,IF(AV25&lt;0.00001,IF(AV26&lt;0.00001,IF(AV27&lt;0.00001,IF(AV28&lt;0.00001,IF(AV29&lt;0.00001,TRUE,FALSE),FALSE),FALSE),FALSE),FALSE),FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AW30" s="64"/>
-      <c r="AY30" s="62" t="s">
+      <c r="AW30" s="67"/>
+      <c r="AY30" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="AZ30" s="62"/>
-      <c r="BA30" s="62"/>
-      <c r="BC30" s="62" t="s">
+      <c r="AZ30" s="63"/>
+      <c r="BA30" s="63"/>
+      <c r="BC30" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="BD30" s="62"/>
-      <c r="BE30" s="62"/>
+      <c r="BD30" s="63"/>
+      <c r="BE30" s="63"/>
       <c r="BG30" s="2" t="s">
         <v>183</v>
       </c>
@@ -61628,7 +61628,7 @@
         <f t="shared" si="20"/>
         <v>6.7055225372314453E-5</v>
       </c>
-      <c r="AQ31" s="64"/>
+      <c r="AQ31" s="67"/>
       <c r="AR31" s="3">
         <f>0.478588*($AR$9/2)</f>
         <v>0.72936811200000007</v>
@@ -61828,7 +61828,7 @@
         <f t="shared" si="20"/>
         <v>3.3527612686157227E-5</v>
       </c>
-      <c r="AQ32" s="64"/>
+      <c r="AQ32" s="67"/>
       <c r="AR32" s="3">
         <f>0.461163*($AR$9/2)</f>
         <v>0.702812412</v>
@@ -62036,7 +62036,7 @@
         <f t="shared" si="20"/>
         <v>1.6763806343078613E-5</v>
       </c>
-      <c r="AQ33" s="64"/>
+      <c r="AQ33" s="67"/>
       <c r="AR33" s="3">
         <f>0.443738*($AR$9/2)</f>
         <v>0.67625671200000004</v>
@@ -62239,7 +62239,7 @@
         <f t="shared" si="20"/>
         <v>8.3819031715393066E-6</v>
       </c>
-      <c r="AQ34" s="64"/>
+      <c r="AQ34" s="67"/>
       <c r="AR34" s="3">
         <f>0.426313*($AR$9/2)</f>
         <v>0.64970101199999997</v>
@@ -62357,11 +62357,11 @@
       </c>
     </row>
     <row r="35" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
       <c r="J35" s="11" t="s">
         <v>55</v>
       </c>
@@ -62408,7 +62408,7 @@
         <f t="shared" si="20"/>
         <v>4.1909515857696533E-6</v>
       </c>
-      <c r="AQ35" s="64" t="s">
+      <c r="AQ35" s="67" t="s">
         <v>223</v>
       </c>
       <c r="AR35" s="3">
@@ -62513,7 +62513,7 @@
         <f t="shared" si="20"/>
         <v>2.0954757928848267E-6</v>
       </c>
-      <c r="AQ36" s="64"/>
+      <c r="AQ36" s="67"/>
       <c r="AR36" s="3">
         <v>5.8781249999999998</v>
       </c>
@@ -62637,7 +62637,7 @@
         <f t="shared" si="20"/>
         <v>1.0477378964424133E-6</v>
       </c>
-      <c r="AQ37" s="64"/>
+      <c r="AQ37" s="67"/>
       <c r="AR37" s="3">
         <v>4.3968749999999996</v>
       </c>
@@ -62797,7 +62797,7 @@
         <f t="shared" si="20"/>
         <v>5.2386894822120667E-7</v>
       </c>
-      <c r="AQ38" s="64"/>
+      <c r="AQ38" s="67"/>
       <c r="AR38" s="3">
         <v>2.9156249999999999</v>
       </c>
@@ -62910,7 +62910,7 @@
         <f t="shared" si="20"/>
         <v>2.6193447411060333E-7</v>
       </c>
-      <c r="AQ39" s="64"/>
+      <c r="AQ39" s="67"/>
       <c r="AR39" s="3">
         <v>1.434375</v>
       </c>
@@ -62941,7 +62941,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="BQ39" s="2">
-        <f t="dataTable" ref="BQ39:BQ68" dt2D="0" dtr="0" r1="BH23" ca="1"/>
+        <f t="dataTable" ref="BQ39:BQ68" dt2D="0" dtr="0" r1="BH23"/>
         <v>-3.2834366419172389</v>
       </c>
       <c r="BR39" s="3">
@@ -62957,7 +62957,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="BU39" s="2">
-        <f t="dataTable" ref="BU39:BU68" dt2D="0" dtr="0" r1="BH23"/>
+        <f t="dataTable" ref="BU39:BU68" dt2D="0" dtr="0" r1="BH23" ca="1"/>
         <v>1.1341842817627055</v>
       </c>
       <c r="BV39" s="2">
@@ -62980,7 +62980,7 @@
         <v>3.1415926535897934E-2</v>
       </c>
       <c r="CB39" s="2">
-        <f t="dataTable" ref="CB39:CB68" dt2D="0" dtr="0" r1="BL23" ca="1"/>
+        <f t="dataTable" ref="CB39:CB68" dt2D="0" dtr="0" r1="BL23"/>
         <v>-2.6452396411593737</v>
       </c>
       <c r="CC39" s="3">
@@ -62996,7 +62996,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="CF39" s="2">
-        <f t="dataTable" ref="CF39:CF68" dt2D="0" dtr="0" r1="BL23"/>
+        <f t="dataTable" ref="CF39:CF68" dt2D="0" dtr="0" r1="BL23" ca="1"/>
         <v>1.1170593244003044</v>
       </c>
       <c r="CG39" s="2">
@@ -63013,11 +63013,11 @@
       </c>
     </row>
     <row r="40" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
       <c r="AF40" s="2">
         <v>36</v>
       </c>
@@ -63054,7 +63054,7 @@
         <f t="shared" si="20"/>
         <v>1.3096723705530167E-7</v>
       </c>
-      <c r="AQ40" s="64"/>
+      <c r="AQ40" s="67"/>
       <c r="AR40" s="3">
         <v>-4.6875E-2</v>
       </c>
@@ -63141,11 +63141,11 @@
       <c r="C41" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="J41" s="58" t="s">
+      <c r="J41" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
       <c r="AF41" s="2">
         <v>37</v>
       </c>
@@ -63182,7 +63182,7 @@
         <f t="shared" si="20"/>
         <v>6.5483618527650833E-8</v>
       </c>
-      <c r="AQ41" s="64"/>
+      <c r="AQ41" s="67"/>
       <c r="AR41" s="3">
         <v>-1.528125</v>
       </c>
@@ -63192,10 +63192,10 @@
       <c r="AU41" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AV41" s="66" t="s">
+      <c r="AV41" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="AW41" s="66"/>
+      <c r="AW41" s="69"/>
       <c r="AX41" s="24"/>
       <c r="AY41" s="24"/>
       <c r="AZ41" s="24"/>
@@ -63204,17 +63204,17 @@
       <c r="BC41" s="24"/>
       <c r="BD41" s="24"/>
       <c r="BE41" s="25"/>
-      <c r="BG41" s="62" t="s">
+      <c r="BG41" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="BH41" s="62"/>
-      <c r="BI41" s="62"/>
+      <c r="BH41" s="63"/>
+      <c r="BI41" s="63"/>
       <c r="BJ41" s="2"/>
-      <c r="BK41" s="62" t="s">
+      <c r="BK41" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="BL41" s="62"/>
-      <c r="BM41" s="62"/>
+      <c r="BL41" s="63"/>
+      <c r="BM41" s="63"/>
       <c r="BO41" s="2">
         <v>3</v>
       </c>
@@ -63342,7 +63342,7 @@
         <f t="shared" si="20"/>
         <v>3.2741809263825417E-8</v>
       </c>
-      <c r="AQ42" s="64"/>
+      <c r="AQ42" s="67"/>
       <c r="AR42" s="3">
         <v>-3.0093749999999999</v>
       </c>
@@ -63350,22 +63350,22 @@
         <v>43</v>
       </c>
       <c r="AU42" s="27"/>
-      <c r="AV42" s="63" t="s">
+      <c r="AV42" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="AW42" s="63"/>
-      <c r="AX42" s="63"/>
-      <c r="AY42" s="63" t="s">
+      <c r="AW42" s="70"/>
+      <c r="AX42" s="70"/>
+      <c r="AY42" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="AZ42" s="63"/>
-      <c r="BA42" s="63"/>
-      <c r="BB42" s="63"/>
-      <c r="BC42" s="63" t="s">
+      <c r="AZ42" s="70"/>
+      <c r="BA42" s="70"/>
+      <c r="BB42" s="70"/>
+      <c r="BC42" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="BD42" s="63"/>
-      <c r="BE42" s="65"/>
+      <c r="BD42" s="70"/>
+      <c r="BE42" s="71"/>
       <c r="BG42" s="28" t="s">
         <v>154</v>
       </c>
@@ -63529,10 +63529,10 @@
       <c r="AX43" s="2">
         <v>-9.5</v>
       </c>
-      <c r="AY43" s="63" t="s">
+      <c r="AY43" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="AZ43" s="63"/>
+      <c r="AZ43" s="70"/>
       <c r="BA43" s="2">
         <v>-9.5</v>
       </c>
@@ -63976,11 +63976,11 @@
       </c>
     </row>
     <row r="46" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
       <c r="J46" s="15" t="s">
         <v>73</v>
       </c>
@@ -64108,19 +64108,19 @@
       <c r="L47" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AF47" s="63" t="s">
+      <c r="AF47" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="AG47" s="63"/>
-      <c r="AH47" s="63"/>
-      <c r="AI47" s="63"/>
+      <c r="AG47" s="70"/>
+      <c r="AH47" s="70"/>
+      <c r="AI47" s="70"/>
       <c r="AU47" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AV47" s="66" t="s">
+      <c r="AV47" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="AW47" s="66"/>
+      <c r="AW47" s="69"/>
       <c r="AX47" s="24"/>
       <c r="AY47" s="24"/>
       <c r="AZ47" s="24"/>
@@ -64250,21 +64250,21 @@
         <v>53</v>
       </c>
       <c r="AU48" s="27"/>
-      <c r="AV48" s="63" t="s">
+      <c r="AV48" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="AW48" s="63"/>
-      <c r="AX48" s="63"/>
-      <c r="AY48" s="63" t="s">
+      <c r="AW48" s="70"/>
+      <c r="AX48" s="70"/>
+      <c r="AY48" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="AZ48" s="63"/>
-      <c r="BA48" s="63"/>
-      <c r="BB48" s="63" t="s">
+      <c r="AZ48" s="70"/>
+      <c r="BA48" s="70"/>
+      <c r="BB48" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="BC48" s="63"/>
-      <c r="BD48" s="65"/>
+      <c r="BC48" s="70"/>
+      <c r="BD48" s="71"/>
       <c r="BG48" s="2" t="s">
         <v>180</v>
       </c>
@@ -64356,11 +64356,11 @@
       </c>
     </row>
     <row r="49" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
       <c r="AF49" s="2">
         <v>0</v>
       </c>
@@ -64538,7 +64538,7 @@
         <f t="shared" ref="AO50:AO79" si="42">AI50-AG50</f>
         <v>1450</v>
       </c>
-      <c r="AU50" s="70" t="s">
+      <c r="AU50" s="72" t="s">
         <v>160</v>
       </c>
       <c r="AV50" s="51">
@@ -64705,7 +64705,7 @@
         <f t="shared" si="42"/>
         <v>725</v>
       </c>
-      <c r="AU51" s="70"/>
+      <c r="AU51" s="72"/>
       <c r="AV51" s="27">
         <v>-1.1499587328259999E-4</v>
       </c>
@@ -64870,22 +64870,22 @@
         <f t="shared" si="42"/>
         <v>362.5</v>
       </c>
-      <c r="AU52" s="70"/>
-      <c r="AV52" s="67">
+      <c r="AU52" s="72"/>
+      <c r="AV52" s="64">
         <v>-2.4012358386552801</v>
       </c>
-      <c r="AW52" s="68"/>
-      <c r="AX52" s="69"/>
-      <c r="AY52" s="67">
+      <c r="AW52" s="65"/>
+      <c r="AX52" s="66"/>
+      <c r="AY52" s="64">
         <v>0.149391545914075</v>
       </c>
-      <c r="AZ52" s="68"/>
-      <c r="BA52" s="69"/>
-      <c r="BB52" s="67">
+      <c r="AZ52" s="65"/>
+      <c r="BA52" s="66"/>
+      <c r="BB52" s="64">
         <v>3.65120250353774</v>
       </c>
-      <c r="BC52" s="68"/>
-      <c r="BD52" s="69"/>
+      <c r="BC52" s="65"/>
+      <c r="BD52" s="66"/>
       <c r="BG52" s="2" t="s">
         <v>190</v>
       </c>
@@ -65013,7 +65013,7 @@
         <f t="shared" si="42"/>
         <v>181.25</v>
       </c>
-      <c r="AU53" s="70" t="s">
+      <c r="AU53" s="72" t="s">
         <v>164</v>
       </c>
       <c r="AV53" s="51">
@@ -65134,11 +65134,11 @@
       </c>
     </row>
     <row r="54" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
       <c r="AF54" s="2">
         <v>5</v>
       </c>
@@ -65175,7 +65175,7 @@
         <f t="shared" si="42"/>
         <v>90.625</v>
       </c>
-      <c r="AU54" s="70"/>
+      <c r="AU54" s="72"/>
       <c r="AV54" s="27">
         <v>-2.5152080542999999E-6</v>
       </c>
@@ -65336,22 +65336,22 @@
         <f t="shared" si="42"/>
         <v>45.3125</v>
       </c>
-      <c r="AU55" s="71"/>
-      <c r="AV55" s="67">
+      <c r="AU55" s="73"/>
+      <c r="AV55" s="64">
         <v>-1.5880058514071E-2</v>
       </c>
-      <c r="AW55" s="68"/>
-      <c r="AX55" s="69"/>
-      <c r="AY55" s="68">
+      <c r="AW55" s="65"/>
+      <c r="AX55" s="66"/>
+      <c r="AY55" s="65">
         <v>0.110802661807325</v>
       </c>
-      <c r="AZ55" s="68"/>
-      <c r="BA55" s="68"/>
-      <c r="BB55" s="67">
+      <c r="AZ55" s="65"/>
+      <c r="BA55" s="65"/>
+      <c r="BB55" s="64">
         <v>7.4721088420790002E-3</v>
       </c>
-      <c r="BC55" s="68"/>
-      <c r="BD55" s="69"/>
+      <c r="BC55" s="65"/>
+      <c r="BD55" s="66"/>
       <c r="BG55" s="2" t="s">
         <v>194</v>
       </c>
@@ -65970,11 +65970,11 @@
       </c>
     </row>
     <row r="60" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B60" s="54" t="s">
+      <c r="B60" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
       <c r="AF60" s="2">
         <v>11</v>
       </c>
@@ -66011,17 +66011,17 @@
         <f t="shared" si="42"/>
         <v>1.416015625</v>
       </c>
-      <c r="BG60" s="62" t="s">
+      <c r="BG60" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="BH60" s="62"/>
-      <c r="BI60" s="62"/>
+      <c r="BH60" s="63"/>
+      <c r="BI60" s="63"/>
       <c r="BJ60" s="2"/>
-      <c r="BK60" s="62" t="s">
+      <c r="BK60" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="BL60" s="62"/>
-      <c r="BM60" s="62"/>
+      <c r="BL60" s="63"/>
+      <c r="BM60" s="63"/>
       <c r="BO60" s="2">
         <v>22</v>
       </c>
@@ -66641,11 +66641,11 @@
       </c>
     </row>
     <row r="65" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B65" s="58" t="s">
+      <c r="B65" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
       <c r="AF65" s="2">
         <v>16</v>
       </c>
@@ -67327,11 +67327,11 @@
       <c r="CI70" s="61"/>
     </row>
     <row r="71" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B71" s="58" t="s">
+      <c r="B71" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
       <c r="AF71" s="2">
         <v>22</v>
       </c>
@@ -67631,7 +67631,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="BS73" s="2">
-        <f t="dataTable" ref="BS73:BS102" dt2D="0" dtr="0" r1="BH42"/>
+        <f t="dataTable" ref="BS73:BS102" dt2D="0" dtr="0" r1="BH42" ca="1"/>
         <v>0.49041073500955168</v>
       </c>
       <c r="BT73" s="2">
@@ -67670,7 +67670,7 @@
         <v>2.8274333882308138</v>
       </c>
       <c r="CD73" s="2">
-        <f t="dataTable" ref="CD73:CD102" dt2D="0" dtr="0" r1="BL42"/>
+        <f t="dataTable" ref="CD73:CD102" dt2D="0" dtr="0" r1="BL42" ca="1"/>
         <v>0.47817345363749991</v>
       </c>
       <c r="CE73" s="2">
@@ -68093,11 +68093,11 @@
       </c>
     </row>
     <row r="77" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B77" s="58" t="s">
+      <c r="B77" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
       <c r="AF77" s="2">
         <v>28</v>
       </c>
@@ -70335,7 +70335,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="BU107" s="2">
-        <f t="dataTable" ref="BU107:BU136" dt2D="0" dtr="0" r1="BH61"/>
+        <f t="dataTable" ref="BU107:BU136" dt2D="0" dtr="0" r1="BH61" ca="1"/>
         <v>1.1358906375579021</v>
       </c>
       <c r="BV107" s="2">
@@ -70374,7 +70374,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="CF107" s="2">
-        <f t="dataTable" ref="CF107:CF136" dt2D="0" dtr="0" r1="BL61"/>
+        <f t="dataTable" ref="CF107:CF136" dt2D="0" dtr="0" r1="BL61" ca="1"/>
         <v>1.2201332261292821</v>
       </c>
       <c r="CG107" s="2">
@@ -72538,23 +72538,60 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="AQ7:AS7"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AY2:BE2"/>
-    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="BB52:BD52"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="AY52:BA52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="AV47:AW47"/>
+    <mergeCell ref="AV48:AX48"/>
+    <mergeCell ref="AU50:AU52"/>
+    <mergeCell ref="AV52:AX52"/>
+    <mergeCell ref="BO104:BX104"/>
+    <mergeCell ref="BZ104:CI104"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="AF47:AI47"/>
+    <mergeCell ref="AY43:AZ43"/>
+    <mergeCell ref="AQ44:AS44"/>
+    <mergeCell ref="BG60:BI60"/>
+    <mergeCell ref="BK60:BM60"/>
+    <mergeCell ref="BO70:BX70"/>
+    <mergeCell ref="BZ70:CI70"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="AY55:BA55"/>
+    <mergeCell ref="BB55:BD55"/>
+    <mergeCell ref="AY48:BA48"/>
+    <mergeCell ref="BB48:BD48"/>
+    <mergeCell ref="BZ2:CI2"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BG2:BM2"/>
+    <mergeCell ref="BO2:BX2"/>
+    <mergeCell ref="BO36:BX36"/>
+    <mergeCell ref="BZ36:CI36"/>
+    <mergeCell ref="AV41:AW41"/>
+    <mergeCell ref="BG41:BI41"/>
+    <mergeCell ref="BK41:BM41"/>
+    <mergeCell ref="AQ11:AQ18"/>
+    <mergeCell ref="AY12:BA12"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="BK22:BM22"/>
+    <mergeCell ref="AU23:AU29"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="BG22:BI22"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AU14:AW14"/>
+    <mergeCell ref="AU22:AW22"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="BC30:BE30"/>
@@ -72571,60 +72608,23 @@
     <mergeCell ref="BC21:BE21"/>
     <mergeCell ref="AU53:AU55"/>
     <mergeCell ref="AV55:AX55"/>
-    <mergeCell ref="AQ11:AQ18"/>
-    <mergeCell ref="AY12:BA12"/>
-    <mergeCell ref="BC12:BE12"/>
-    <mergeCell ref="BK22:BM22"/>
-    <mergeCell ref="AU23:AU29"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="BG22:BI22"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AU14:AW14"/>
-    <mergeCell ref="AU22:AW22"/>
-    <mergeCell ref="BO36:BX36"/>
-    <mergeCell ref="BZ36:CI36"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="BG41:BI41"/>
-    <mergeCell ref="BK41:BM41"/>
-    <mergeCell ref="BZ2:CI2"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="BG3:BI3"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BG2:BM2"/>
-    <mergeCell ref="BO2:BX2"/>
-    <mergeCell ref="BO104:BX104"/>
-    <mergeCell ref="BZ104:CI104"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="AF47:AI47"/>
-    <mergeCell ref="AY43:AZ43"/>
-    <mergeCell ref="AQ44:AS44"/>
-    <mergeCell ref="BG60:BI60"/>
-    <mergeCell ref="BK60:BM60"/>
-    <mergeCell ref="BO70:BX70"/>
-    <mergeCell ref="BZ70:CI70"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="AY55:BA55"/>
-    <mergeCell ref="BB55:BD55"/>
-    <mergeCell ref="AY48:BA48"/>
-    <mergeCell ref="BB48:BD48"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="AV47:AW47"/>
-    <mergeCell ref="AV48:AX48"/>
-    <mergeCell ref="AU50:AU52"/>
-    <mergeCell ref="AV52:AX52"/>
-    <mergeCell ref="BB52:BD52"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="AY52:BA52"/>
+    <mergeCell ref="AQ7:AS7"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AY2:BE2"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="G12">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FALSE">

--- a/examples/mtow_estimation/estimate_mtow.xlsx
+++ b/examples/mtow_estimation/estimate_mtow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/examples/mtow_estimation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A8BBFD-BFAF-0D48-B409-0944FA098126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695DC1EE-B99A-E047-AF77-5211844AF0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" activeTab="5" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="multirotor_fidelity0" sheetId="13" r:id="rId1"/>
@@ -1293,18 +1293,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1313,13 +1301,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1331,25 +1340,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15423,8 +15423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE37D87-B951-4841-B7CA-13CC46090773}">
   <dimension ref="B1:AO56"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15468,11 +15468,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -15483,26 +15483,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="F3" s="57" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="F3" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="J3" s="54" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="J3" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="N3" s="54" t="s">
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="N3" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
       <c r="U3" s="7" t="s">
         <v>44</v>
       </c>
@@ -15901,11 +15901,11 @@
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="J7" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
       <c r="N7" t="s">
         <v>123</v>
       </c>
@@ -16334,11 +16334,11 @@
       <c r="H11" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="J11" s="57" t="s">
+      <c r="J11" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
       <c r="N11" s="6" t="s">
         <v>118</v>
       </c>
@@ -16423,11 +16423,11 @@
       </c>
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
       <c r="F12" s="42" t="s">
         <v>85</v>
       </c>
@@ -16545,11 +16545,11 @@
       <c r="L13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="57" t="s">
+      <c r="N13" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
       <c r="U13" s="2">
         <v>9</v>
       </c>
@@ -16636,11 +16636,11 @@
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
       <c r="J14" s="12" t="s">
         <v>135</v>
       </c>
@@ -16945,11 +16945,11 @@
       </c>
     </row>
     <row r="17" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
       <c r="F17" s="6" t="s">
         <v>133</v>
       </c>
@@ -16970,11 +16970,11 @@
       <c r="L17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="57" t="s">
+      <c r="N17" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
       <c r="U17" s="2">
         <v>13</v>
       </c>
@@ -17706,16 +17706,16 @@
       </c>
     </row>
     <row r="24" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="F24" s="57" t="s">
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="F24" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
       <c r="J24" s="15" t="s">
         <v>68</v>
       </c>
@@ -18253,11 +18253,11 @@
       </c>
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
       <c r="F29" t="s">
         <v>100</v>
       </c>
@@ -18368,11 +18368,11 @@
       <c r="H30" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="J30" s="54" t="s">
+      <c r="J30" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
       <c r="U30" s="2">
         <v>26</v>
       </c>
@@ -18658,11 +18658,11 @@
         <v>0.80011066800000008</v>
       </c>
       <c r="D33"/>
-      <c r="F33" s="57" t="s">
+      <c r="F33" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
       <c r="J33" s="19" t="s">
         <v>81</v>
       </c>
@@ -18847,11 +18847,11 @@
       </c>
     </row>
     <row r="35" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
       <c r="F35" s="44" t="s">
         <v>225</v>
       </c>
@@ -19017,11 +19017,11 @@
       <c r="C38" s="17">
         <v>0.8</v>
       </c>
-      <c r="J38" s="54" t="s">
+      <c r="J38" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
       <c r="AF38" s="2">
         <v>34</v>
       </c>
@@ -19108,11 +19108,11 @@
       </c>
     </row>
     <row r="40" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
       <c r="J40" s="11" t="s">
         <v>55</v>
       </c>
@@ -19407,16 +19407,16 @@
       </c>
     </row>
     <row r="46" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="J46" s="54" t="s">
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="J46" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
       <c r="N46" s="6" t="s">
         <v>283</v>
       </c>
@@ -19530,11 +19530,11 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
@@ -19570,6 +19570,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="F33:H33"/>
     <mergeCell ref="N17:P17"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D3"/>
@@ -19582,17 +19593,6 @@
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="F33:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="FALSE">
@@ -19624,7 +19624,7 @@
   <dimension ref="B1:AS68"/>
   <sheetViews>
     <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19673,11 +19673,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="2:45" x14ac:dyDescent="0.2">
       <c r="Y2" s="16" t="s">
@@ -19688,31 +19688,31 @@
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="F3" s="57" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="F3" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="J3" s="54" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="J3" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="N3" s="54" t="s">
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="N3" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="R3" s="54" t="s">
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="R3" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
       <c r="Y3" s="7" t="s">
         <v>44</v>
       </c>
@@ -20136,11 +20136,11 @@
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="J7" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
       <c r="N7" t="s">
         <v>123</v>
       </c>
@@ -20602,11 +20602,11 @@
       <c r="H11" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="J11" s="57" t="s">
+      <c r="J11" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
       <c r="N11" s="6" t="s">
         <v>118</v>
       </c>
@@ -20697,11 +20697,11 @@
       </c>
     </row>
     <row r="12" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
       <c r="F12" t="s">
         <v>281</v>
       </c>
@@ -20826,16 +20826,16 @@
       <c r="L13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="57" t="s">
+      <c r="N13" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="R13" s="57" t="s">
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="R13" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
       <c r="Y13" s="2">
         <v>9</v>
       </c>
@@ -21145,11 +21145,11 @@
       </c>
     </row>
     <row r="16" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
       <c r="J16" s="13" t="s">
         <v>56</v>
       </c>
@@ -21237,11 +21237,11 @@
       </c>
     </row>
     <row r="17" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
       <c r="F17" s="9" t="s">
         <v>92</v>
       </c>
@@ -21262,16 +21262,16 @@
       <c r="L17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="57" t="s">
+      <c r="N17" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="R17" s="57" t="s">
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="R17" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
       <c r="Y17" s="2">
         <v>13</v>
       </c>
@@ -22063,11 +22063,11 @@
       </c>
     </row>
     <row r="24" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
       <c r="F24" s="44" t="s">
         <v>225</v>
       </c>
@@ -22302,11 +22302,11 @@
       <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
       <c r="J26" s="15" t="s">
         <v>70</v>
       </c>
@@ -22640,11 +22640,11 @@
       </c>
     </row>
     <row r="29" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
       <c r="F29" t="s">
         <v>93</v>
       </c>
@@ -22762,11 +22762,11 @@
       <c r="H30" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="54" t="s">
+      <c r="J30" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
       <c r="Y30" s="2">
         <v>26</v>
       </c>
@@ -23246,16 +23246,16 @@
       </c>
     </row>
     <row r="35" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="F35" s="57" t="s">
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="F35" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
       <c r="J35" s="15" t="s">
         <v>73</v>
       </c>
@@ -23464,11 +23464,11 @@
       <c r="C38" s="17">
         <v>0.8</v>
       </c>
-      <c r="J38" s="54" t="s">
+      <c r="J38" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
       <c r="Y38" s="2">
         <v>0</v>
       </c>
@@ -23631,11 +23631,11 @@
       </c>
     </row>
     <row r="40" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
       <c r="J40" s="11" t="s">
         <v>55</v>
       </c>
@@ -24148,16 +24148,16 @@
       </c>
     </row>
     <row r="46" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="J46" s="54" t="s">
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="J46" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
       <c r="Y46" s="2">
         <v>8</v>
       </c>
@@ -24480,11 +24480,11 @@
       </c>
     </row>
     <row r="52" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
       <c r="Y52" s="2">
         <v>14</v>
       </c>
@@ -25207,16 +25207,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="J7:L7"/>
     <mergeCell ref="F35:H35"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="J46:L46"/>
@@ -25233,6 +25223,16 @@
     <mergeCell ref="J38:L38"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="J11:L11"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="J7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="FALSE">
@@ -25263,8 +25263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3661B753-A267-5243-ABFD-E2825908B8D2}">
   <dimension ref="B1:CI136"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25342,11 +25342,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="2:87" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -25414,26 +25414,26 @@
       <c r="CI2" s="61"/>
     </row>
     <row r="3" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="F3" s="57" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="F3" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="J3" s="54" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="J3" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="N3" s="54" t="s">
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="N3" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
       <c r="U3" s="7" t="s">
         <v>44</v>
       </c>
@@ -25516,29 +25516,29 @@
         <v>8</v>
       </c>
       <c r="AX3"/>
-      <c r="AY3" s="63" t="s">
+      <c r="AY3" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63"/>
+      <c r="AZ3" s="62"/>
+      <c r="BA3" s="62"/>
       <c r="BB3"/>
-      <c r="BC3" s="63" t="s">
+      <c r="BC3" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
+      <c r="BD3" s="62"/>
+      <c r="BE3" s="62"/>
       <c r="BF3"/>
-      <c r="BG3" s="63" t="s">
+      <c r="BG3" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="BH3" s="63"/>
-      <c r="BI3" s="63"/>
+      <c r="BH3" s="62"/>
+      <c r="BI3" s="62"/>
       <c r="BJ3" s="2"/>
-      <c r="BK3" s="63" t="s">
+      <c r="BK3" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="BL3" s="63"/>
-      <c r="BM3" s="63"/>
+      <c r="BL3" s="62"/>
+      <c r="BM3" s="62"/>
       <c r="BN3"/>
       <c r="BO3" s="7" t="s">
         <v>44</v>
@@ -26323,11 +26323,11 @@
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="J7" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
       <c r="N7" t="s">
         <v>123</v>
       </c>
@@ -27273,11 +27273,11 @@
       <c r="H11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="57" t="s">
+      <c r="J11" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
       <c r="N11" s="6" t="s">
         <v>118</v>
       </c>
@@ -27360,7 +27360,7 @@
         <f t="shared" si="20"/>
         <v>70.3125</v>
       </c>
-      <c r="AQ11" s="67" t="s">
+      <c r="AQ11" s="64" t="s">
         <v>181</v>
       </c>
       <c r="AR11" s="3" t="s">
@@ -27480,11 +27480,11 @@
       </c>
     </row>
     <row r="12" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
       <c r="F12" s="6" t="s">
         <v>217</v>
       </c>
@@ -27577,7 +27577,7 @@
         <f t="shared" si="20"/>
         <v>35.15625</v>
       </c>
-      <c r="AQ12" s="67"/>
+      <c r="AQ12" s="64"/>
       <c r="AR12" s="3" t="s">
         <v>219</v>
       </c>
@@ -27594,17 +27594,17 @@
         <v>104</v>
       </c>
       <c r="AX12"/>
-      <c r="AY12" s="63" t="s">
+      <c r="AY12" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="AZ12" s="63"/>
-      <c r="BA12" s="63"/>
+      <c r="AZ12" s="62"/>
+      <c r="BA12" s="62"/>
       <c r="BB12"/>
-      <c r="BC12" s="63" t="s">
+      <c r="BC12" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="BD12" s="63"/>
-      <c r="BE12" s="63"/>
+      <c r="BD12" s="62"/>
+      <c r="BE12" s="62"/>
       <c r="BF12"/>
       <c r="BG12" s="2" t="s">
         <v>187</v>
@@ -27729,11 +27729,11 @@
       <c r="L13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="57" t="s">
+      <c r="N13" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
       <c r="U13" s="2">
         <v>9</v>
       </c>
@@ -27809,7 +27809,7 @@
         <f t="shared" si="20"/>
         <v>17.578125</v>
       </c>
-      <c r="AQ13" s="67"/>
+      <c r="AQ13" s="64"/>
       <c r="AR13" s="3" t="s">
         <v>219</v>
       </c>
@@ -28038,7 +28038,7 @@
         <f t="shared" si="20"/>
         <v>8.7890625</v>
       </c>
-      <c r="AQ14" s="67"/>
+      <c r="AQ14" s="64"/>
       <c r="AR14" s="3" t="s">
         <v>219</v>
       </c>
@@ -28171,11 +28171,11 @@
       <c r="C15" s="17">
         <v>1</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
       <c r="J15" s="12" t="s">
         <v>136</v>
       </c>
@@ -28268,7 +28268,7 @@
         <f t="shared" si="20"/>
         <v>4.39453125</v>
       </c>
-      <c r="AQ15" s="67"/>
+      <c r="AQ15" s="64"/>
       <c r="AR15" s="3" t="s">
         <v>219</v>
       </c>
@@ -28499,7 +28499,7 @@
         <f t="shared" si="20"/>
         <v>2.197265625</v>
       </c>
-      <c r="AQ16" s="67"/>
+      <c r="AQ16" s="64"/>
       <c r="AR16" s="3" t="s">
         <v>219</v>
       </c>
@@ -28629,11 +28629,11 @@
       </c>
     </row>
     <row r="17" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
       <c r="F17" t="s">
         <v>130</v>
       </c>
@@ -28654,11 +28654,11 @@
       <c r="L17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="57" t="s">
+      <c r="N17" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
       <c r="U17" s="2">
         <v>13</v>
       </c>
@@ -28734,7 +28734,7 @@
         <f t="shared" si="20"/>
         <v>1.0986328125</v>
       </c>
-      <c r="AQ17" s="67"/>
+      <c r="AQ17" s="64"/>
       <c r="AR17" s="3" t="s">
         <v>219</v>
       </c>
@@ -28971,7 +28971,7 @@
         <f t="shared" si="20"/>
         <v>0.54931640625</v>
       </c>
-      <c r="AQ18" s="67"/>
+      <c r="AQ18" s="64"/>
       <c r="AR18" s="3" t="s">
         <v>219</v>
       </c>
@@ -29212,7 +29212,7 @@
         <f t="shared" si="20"/>
         <v>0.274658203125</v>
       </c>
-      <c r="AQ19" s="67" t="s">
+      <c r="AQ19" s="64" t="s">
         <v>195</v>
       </c>
       <c r="AR19" s="3">
@@ -29459,7 +29459,7 @@
         <f t="shared" si="20"/>
         <v>0.1373291015625</v>
       </c>
-      <c r="AQ20" s="67"/>
+      <c r="AQ20" s="64"/>
       <c r="AR20" s="3">
         <f>0.285*($AR$9/2)</f>
         <v>1.1399999999999999</v>
@@ -29676,7 +29676,7 @@
         <f t="shared" si="20"/>
         <v>6.866455078125E-2</v>
       </c>
-      <c r="AQ21" s="67"/>
+      <c r="AQ21" s="64"/>
       <c r="AR21" s="3">
         <f>0.395*($AR$9/2)</f>
         <v>1.58</v>
@@ -29689,17 +29689,17 @@
       <c r="AV21"/>
       <c r="AW21" s="39"/>
       <c r="AX21"/>
-      <c r="AY21" s="63" t="s">
+      <c r="AY21" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="AZ21" s="63"/>
-      <c r="BA21" s="63"/>
+      <c r="AZ21" s="62"/>
+      <c r="BA21" s="62"/>
       <c r="BB21"/>
-      <c r="BC21" s="63" t="s">
+      <c r="BC21" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="BD21" s="63"/>
-      <c r="BE21" s="63"/>
+      <c r="BD21" s="62"/>
+      <c r="BE21" s="62"/>
       <c r="BF21"/>
       <c r="BG21" s="2"/>
       <c r="BH21" s="2"/>
@@ -29793,11 +29793,11 @@
       <c r="D22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
       <c r="J22" s="14" t="s">
         <v>117</v>
       </c>
@@ -29890,7 +29890,7 @@
         <f t="shared" si="20"/>
         <v>3.4332275390625E-2</v>
       </c>
-      <c r="AQ22" s="67"/>
+      <c r="AQ22" s="64"/>
       <c r="AR22" s="3">
         <f>0.505*($AR$9/2)</f>
         <v>2.02</v>
@@ -29927,17 +29927,17 @@
         <v>8</v>
       </c>
       <c r="BF22"/>
-      <c r="BG22" s="63" t="s">
+      <c r="BG22" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="BH22" s="63"/>
-      <c r="BI22" s="63"/>
+      <c r="BH22" s="62"/>
+      <c r="BI22" s="62"/>
       <c r="BJ22" s="2"/>
-      <c r="BK22" s="63" t="s">
+      <c r="BK22" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="BL22" s="63"/>
-      <c r="BM22" s="63"/>
+      <c r="BL22" s="62"/>
+      <c r="BM22" s="62"/>
       <c r="BN22"/>
       <c r="BO22" s="2">
         <v>18</v>
@@ -30115,7 +30115,7 @@
         <f t="shared" si="20"/>
         <v>1.71661376953125E-2</v>
       </c>
-      <c r="AQ23" s="67"/>
+      <c r="AQ23" s="64"/>
       <c r="AR23" s="3">
         <f>0.615*($AR$9/2)</f>
         <v>2.46</v>
@@ -30124,14 +30124,14 @@
         <v>8</v>
       </c>
       <c r="AT23"/>
-      <c r="AU23" s="70" t="s">
+      <c r="AU23" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="AV23" s="67">
+      <c r="AV23" s="64">
         <f>BH20</f>
         <v>-1.7565500720628791E-9</v>
       </c>
-      <c r="AW23" s="67"/>
+      <c r="AW23" s="64"/>
       <c r="AX23"/>
       <c r="AY23" s="2" t="s">
         <v>158</v>
@@ -30252,11 +30252,11 @@
       </c>
     </row>
     <row r="24" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
       <c r="F24" t="s">
         <v>94</v>
       </c>
@@ -30362,7 +30362,7 @@
         <f t="shared" si="20"/>
         <v>8.58306884765625E-3</v>
       </c>
-      <c r="AQ24" s="67"/>
+      <c r="AQ24" s="64"/>
       <c r="AR24" s="3">
         <f>0.725*($AR$9/2)</f>
         <v>2.9</v>
@@ -30371,12 +30371,12 @@
         <v>8</v>
       </c>
       <c r="AT24"/>
-      <c r="AU24" s="70"/>
-      <c r="AV24" s="67">
+      <c r="AU24" s="63"/>
+      <c r="AV24" s="64">
         <f>BL20</f>
         <v>3.5749579546662247E-9</v>
       </c>
-      <c r="AW24" s="67"/>
+      <c r="AW24" s="64"/>
       <c r="AX24"/>
       <c r="AY24" s="2" t="s">
         <v>163</v>
@@ -30606,7 +30606,7 @@
         <f t="shared" si="20"/>
         <v>4.291534423828125E-3</v>
       </c>
-      <c r="AQ25" s="67"/>
+      <c r="AQ25" s="64"/>
       <c r="AR25" s="3">
         <f>0.835*($AR$9/2)</f>
         <v>3.34</v>
@@ -30615,12 +30615,12 @@
         <v>8</v>
       </c>
       <c r="AT25"/>
-      <c r="AU25" s="70"/>
-      <c r="AV25" s="67">
+      <c r="AU25" s="63"/>
+      <c r="AV25" s="64">
         <f>BH39</f>
         <v>-3.3095017282214201E-9</v>
       </c>
-      <c r="AW25" s="67"/>
+      <c r="AW25" s="64"/>
       <c r="AX25"/>
       <c r="AY25" s="2" t="s">
         <v>167</v>
@@ -30855,7 +30855,7 @@
         <f t="shared" si="20"/>
         <v>2.1457672119140625E-3</v>
       </c>
-      <c r="AQ26" s="67"/>
+      <c r="AQ26" s="64"/>
       <c r="AR26" s="3">
         <f>0.945*($AR$9/2)</f>
         <v>3.78</v>
@@ -30864,12 +30864,12 @@
         <v>8</v>
       </c>
       <c r="AT26"/>
-      <c r="AU26" s="70"/>
-      <c r="AV26" s="67">
+      <c r="AU26" s="63"/>
+      <c r="AV26" s="64">
         <f>BL39</f>
         <v>-3.4190485859175723E-10</v>
       </c>
-      <c r="AW26" s="67"/>
+      <c r="AW26" s="64"/>
       <c r="AX26"/>
       <c r="AY26" s="2" t="s">
         <v>170</v>
@@ -31097,7 +31097,7 @@
         <f t="shared" si="20"/>
         <v>1.0728836059570312E-3</v>
       </c>
-      <c r="AQ27" s="67" t="s">
+      <c r="AQ27" s="64" t="s">
         <v>204</v>
       </c>
       <c r="AR27" s="3">
@@ -31108,12 +31108,12 @@
         <v>8</v>
       </c>
       <c r="AT27"/>
-      <c r="AU27" s="70"/>
-      <c r="AV27" s="67">
+      <c r="AU27" s="63"/>
+      <c r="AV27" s="64">
         <f>BH58</f>
         <v>-5.942139558179349E-10</v>
       </c>
-      <c r="AW27" s="67"/>
+      <c r="AW27" s="64"/>
       <c r="AX27"/>
       <c r="AY27" s="2" t="s">
         <v>174</v>
@@ -31318,7 +31318,7 @@
         <f t="shared" si="20"/>
         <v>5.3644180297851562E-4</v>
       </c>
-      <c r="AQ28" s="67"/>
+      <c r="AQ28" s="64"/>
       <c r="AR28" s="3">
         <f>0.069425*($AR$9/2)</f>
         <v>0.2777</v>
@@ -31327,12 +31327,12 @@
         <v>8</v>
       </c>
       <c r="AT28"/>
-      <c r="AU28" s="70"/>
-      <c r="AV28" s="67">
+      <c r="AU28" s="63"/>
+      <c r="AV28" s="64">
         <f>BL58</f>
         <v>4.158961265654515E-9</v>
       </c>
-      <c r="AW28" s="67"/>
+      <c r="AW28" s="64"/>
       <c r="AX28"/>
       <c r="AY28" s="2" t="s">
         <v>178</v>
@@ -31449,16 +31449,16 @@
       </c>
     </row>
     <row r="29" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="F29" s="57" t="s">
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="F29" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
       <c r="N29" s="6" t="s">
         <v>38</v>
       </c>
@@ -31541,7 +31541,7 @@
         <f t="shared" si="20"/>
         <v>2.6822090148925781E-4</v>
       </c>
-      <c r="AQ29" s="67"/>
+      <c r="AQ29" s="64"/>
       <c r="AR29" s="3">
         <f>0.067375*($AR$9/2)</f>
         <v>0.26950000000000002</v>
@@ -31550,12 +31550,12 @@
         <v>8</v>
       </c>
       <c r="AT29"/>
-      <c r="AU29" s="70"/>
-      <c r="AV29" s="67">
+      <c r="AU29" s="63"/>
+      <c r="AV29" s="64">
         <f>BH77</f>
         <v>1.4573390445804524E-9</v>
       </c>
-      <c r="AW29" s="67"/>
+      <c r="AW29" s="64"/>
       <c r="AX29"/>
       <c r="AY29"/>
       <c r="AZ29"/>
@@ -31674,11 +31674,11 @@
       <c r="H30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="54" t="s">
+      <c r="J30" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
       <c r="U30" s="2">
         <v>26</v>
       </c>
@@ -31754,7 +31754,7 @@
         <f t="shared" si="20"/>
         <v>1.3411045074462891E-4</v>
       </c>
-      <c r="AQ30" s="67"/>
+      <c r="AQ30" s="64"/>
       <c r="AR30" s="3">
         <f>0.065325*($AR$9/2)</f>
         <v>0.26129999999999998</v>
@@ -31766,23 +31766,23 @@
       <c r="AU30" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="AV30" s="67" t="b">
+      <c r="AV30" s="64" t="b">
         <f>IF(AV23&lt;0.00001,IF(AV24&lt;0.00001,IF(AV25&lt;0.00001,IF(AV26&lt;0.00001,IF(AV27&lt;0.00001,IF(AV28&lt;0.00001,IF(AV29&lt;0.00001,TRUE,FALSE),FALSE),FALSE),FALSE),FALSE),FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AW30" s="67"/>
+      <c r="AW30" s="64"/>
       <c r="AX30"/>
-      <c r="AY30" s="63" t="s">
+      <c r="AY30" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="AZ30" s="63"/>
-      <c r="BA30" s="63"/>
+      <c r="AZ30" s="62"/>
+      <c r="BA30" s="62"/>
       <c r="BB30"/>
-      <c r="BC30" s="63" t="s">
+      <c r="BC30" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="BD30" s="63"/>
-      <c r="BE30" s="63"/>
+      <c r="BD30" s="62"/>
+      <c r="BE30" s="62"/>
       <c r="BF30"/>
       <c r="BG30" s="2" t="s">
         <v>183</v>
@@ -31979,7 +31979,7 @@
         <f t="shared" si="20"/>
         <v>6.7055225372314453E-5</v>
       </c>
-      <c r="AQ31" s="67"/>
+      <c r="AQ31" s="64"/>
       <c r="AR31" s="3">
         <f>0.063275*($AR$9/2)</f>
         <v>0.25309999999999999</v>
@@ -32201,7 +32201,7 @@
         <f t="shared" si="20"/>
         <v>3.3527612686157227E-5</v>
       </c>
-      <c r="AQ32" s="67"/>
+      <c r="AQ32" s="64"/>
       <c r="AR32" s="3">
         <f>0.061225*($AR$9/2)</f>
         <v>0.24490000000000001</v>
@@ -32422,7 +32422,7 @@
         <f t="shared" si="20"/>
         <v>1.6763806343078613E-5</v>
       </c>
-      <c r="AQ33" s="67"/>
+      <c r="AQ33" s="64"/>
       <c r="AR33" s="3">
         <f>0.059175*($AR$9/2)</f>
         <v>0.23669999999999999</v>
@@ -32635,7 +32635,7 @@
         <f t="shared" si="20"/>
         <v>8.3819031715393066E-6</v>
       </c>
-      <c r="AQ34" s="67"/>
+      <c r="AQ34" s="64"/>
       <c r="AR34" s="3">
         <f>0.057125*($AR$9/2)</f>
         <v>0.22850000000000001</v>
@@ -32763,11 +32763,11 @@
       </c>
     </row>
     <row r="35" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
       <c r="J35" s="15" t="s">
         <v>73</v>
       </c>
@@ -32814,7 +32814,7 @@
         <f t="shared" si="20"/>
         <v>4.1909515857696533E-6</v>
       </c>
-      <c r="AQ35" s="67" t="s">
+      <c r="AQ35" s="64" t="s">
         <v>223</v>
       </c>
       <c r="AR35" s="3">
@@ -32942,7 +32942,7 @@
         <f t="shared" si="20"/>
         <v>2.0954757928848267E-6</v>
       </c>
-      <c r="AQ36" s="67"/>
+      <c r="AQ36" s="64"/>
       <c r="AR36" s="3">
         <v>5.58</v>
       </c>
@@ -33063,7 +33063,7 @@
         <f t="shared" si="20"/>
         <v>1.0477378964424133E-6</v>
       </c>
-      <c r="AQ37" s="67"/>
+      <c r="AQ37" s="64"/>
       <c r="AR37" s="3">
         <v>4.26</v>
       </c>
@@ -33184,11 +33184,11 @@
       <c r="C38" s="17">
         <v>0.8</v>
       </c>
-      <c r="J38" s="54" t="s">
+      <c r="J38" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
       <c r="AF38" s="2">
         <v>34</v>
       </c>
@@ -33225,7 +33225,7 @@
         <f t="shared" si="20"/>
         <v>5.2386894822120667E-7</v>
       </c>
-      <c r="AQ38" s="67"/>
+      <c r="AQ38" s="64"/>
       <c r="AR38" s="3">
         <v>2.94</v>
       </c>
@@ -33354,7 +33354,7 @@
         <f t="shared" si="20"/>
         <v>2.6193447411060333E-7</v>
       </c>
-      <c r="AQ39" s="67"/>
+      <c r="AQ39" s="64"/>
       <c r="AR39" s="3">
         <v>1.62</v>
       </c>
@@ -33473,11 +33473,11 @@
       </c>
     </row>
     <row r="40" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
       <c r="J40" s="11" t="s">
         <v>55</v>
       </c>
@@ -33524,7 +33524,7 @@
         <f t="shared" si="20"/>
         <v>1.3096723705530167E-7</v>
       </c>
-      <c r="AQ40" s="67"/>
+      <c r="AQ40" s="64"/>
       <c r="AR40" s="3">
         <v>0.3</v>
       </c>
@@ -33682,7 +33682,7 @@
         <f t="shared" si="20"/>
         <v>6.5483618527650833E-8</v>
       </c>
-      <c r="AQ41" s="67"/>
+      <c r="AQ41" s="64"/>
       <c r="AR41" s="3">
         <v>-1.02</v>
       </c>
@@ -33693,10 +33693,10 @@
       <c r="AU41" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AV41" s="69" t="s">
+      <c r="AV41" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="AW41" s="69"/>
+      <c r="AW41" s="66"/>
       <c r="AX41" s="24"/>
       <c r="AY41" s="24"/>
       <c r="AZ41" s="24"/>
@@ -33706,17 +33706,17 @@
       <c r="BD41" s="24"/>
       <c r="BE41" s="25"/>
       <c r="BF41"/>
-      <c r="BG41" s="63" t="s">
+      <c r="BG41" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="BH41" s="63"/>
-      <c r="BI41" s="63"/>
+      <c r="BH41" s="62"/>
+      <c r="BI41" s="62"/>
       <c r="BJ41" s="2"/>
-      <c r="BK41" s="63" t="s">
+      <c r="BK41" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="BL41" s="63"/>
-      <c r="BM41" s="63"/>
+      <c r="BL41" s="62"/>
+      <c r="BM41" s="62"/>
       <c r="BN41"/>
       <c r="BO41" s="2">
         <v>3</v>
@@ -33848,7 +33848,7 @@
         <f t="shared" si="20"/>
         <v>3.2741809263825417E-8</v>
       </c>
-      <c r="AQ42" s="67"/>
+      <c r="AQ42" s="64"/>
       <c r="AR42" s="3">
         <v>-2.34</v>
       </c>
@@ -33857,22 +33857,22 @@
       </c>
       <c r="AT42"/>
       <c r="AU42" s="27"/>
-      <c r="AV42" s="70" t="s">
+      <c r="AV42" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="AW42" s="70"/>
-      <c r="AX42" s="70"/>
-      <c r="AY42" s="70" t="s">
+      <c r="AW42" s="63"/>
+      <c r="AX42" s="63"/>
+      <c r="AY42" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="AZ42" s="70"/>
-      <c r="BA42" s="70"/>
-      <c r="BB42" s="70"/>
-      <c r="BC42" s="70" t="s">
+      <c r="AZ42" s="63"/>
+      <c r="BA42" s="63"/>
+      <c r="BB42" s="63"/>
+      <c r="BC42" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="BD42" s="70"/>
-      <c r="BE42" s="71"/>
+      <c r="BD42" s="63"/>
+      <c r="BE42" s="65"/>
       <c r="BF42"/>
       <c r="BG42" s="28" t="s">
         <v>154</v>
@@ -34040,10 +34040,10 @@
       <c r="AX43" s="2">
         <v>-9.5</v>
       </c>
-      <c r="AY43" s="70" t="s">
+      <c r="AY43" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="AZ43" s="70"/>
+      <c r="AZ43" s="63"/>
       <c r="BA43" s="2">
         <v>-9.5</v>
       </c>
@@ -34491,11 +34491,11 @@
       </c>
     </row>
     <row r="46" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
       <c r="AQ46" s="2" t="s">
         <v>31</v>
       </c>
@@ -34621,12 +34621,12 @@
       <c r="D47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AF47" s="62" t="s">
+      <c r="AF47" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="AG47" s="62"/>
-      <c r="AH47" s="62"/>
-      <c r="AI47" s="62"/>
+      <c r="AG47" s="72"/>
+      <c r="AH47" s="72"/>
+      <c r="AI47" s="72"/>
       <c r="AJ47" s="2"/>
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
@@ -34637,10 +34637,10 @@
       <c r="AU47" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AV47" s="69" t="s">
+      <c r="AV47" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="AW47" s="69"/>
+      <c r="AW47" s="66"/>
       <c r="AX47" s="24"/>
       <c r="AY47" s="24"/>
       <c r="AZ47" s="24"/>
@@ -34784,21 +34784,21 @@
       </c>
       <c r="AT48"/>
       <c r="AU48" s="27"/>
-      <c r="AV48" s="70" t="s">
+      <c r="AV48" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="AW48" s="70"/>
-      <c r="AX48" s="70"/>
-      <c r="AY48" s="70" t="s">
+      <c r="AW48" s="63"/>
+      <c r="AX48" s="63"/>
+      <c r="AY48" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="AZ48" s="70"/>
-      <c r="BA48" s="70"/>
-      <c r="BB48" s="70" t="s">
+      <c r="AZ48" s="63"/>
+      <c r="BA48" s="63"/>
+      <c r="BB48" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="BC48" s="70"/>
-      <c r="BD48" s="70"/>
+      <c r="BC48" s="63"/>
+      <c r="BD48" s="63"/>
       <c r="BE48" s="49"/>
       <c r="BF48"/>
       <c r="BG48" s="2" t="s">
@@ -35095,7 +35095,7 @@
         <v>1450</v>
       </c>
       <c r="AT50"/>
-      <c r="AU50" s="72" t="s">
+      <c r="AU50" s="70" t="s">
         <v>160</v>
       </c>
       <c r="AV50" s="51">
@@ -35257,7 +35257,7 @@
         <v>725</v>
       </c>
       <c r="AT51"/>
-      <c r="AU51" s="72"/>
+      <c r="AU51" s="70"/>
       <c r="AV51" s="27">
         <v>-1.144044407873E-4</v>
       </c>
@@ -35380,11 +35380,11 @@
       </c>
     </row>
     <row r="52" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
       <c r="AF52" s="2">
         <v>3</v>
       </c>
@@ -35422,22 +35422,22 @@
         <v>362.5</v>
       </c>
       <c r="AT52"/>
-      <c r="AU52" s="72"/>
-      <c r="AV52" s="64">
+      <c r="AU52" s="70"/>
+      <c r="AV52" s="67">
         <v>-2.2751380819795499</v>
       </c>
-      <c r="AW52" s="65"/>
-      <c r="AX52" s="66"/>
-      <c r="AY52" s="64">
+      <c r="AW52" s="68"/>
+      <c r="AX52" s="69"/>
+      <c r="AY52" s="67">
         <v>0.14939144598517301</v>
       </c>
-      <c r="AZ52" s="65"/>
-      <c r="BA52" s="66"/>
-      <c r="BB52" s="67">
+      <c r="AZ52" s="68"/>
+      <c r="BA52" s="69"/>
+      <c r="BB52" s="64">
         <v>3.3811980767955601</v>
       </c>
-      <c r="BC52" s="67"/>
-      <c r="BD52" s="68"/>
+      <c r="BC52" s="64"/>
+      <c r="BD52" s="73"/>
       <c r="BE52" s="27"/>
       <c r="BF52"/>
       <c r="BG52" s="2" t="s">
@@ -35576,7 +35576,7 @@
         <v>181.25</v>
       </c>
       <c r="AT53"/>
-      <c r="AU53" s="72" t="s">
+      <c r="AU53" s="70" t="s">
         <v>164</v>
       </c>
       <c r="AV53" s="51">
@@ -35744,7 +35744,7 @@
         <v>90.625</v>
       </c>
       <c r="AT54"/>
-      <c r="AU54" s="72"/>
+      <c r="AU54" s="70"/>
       <c r="AV54" s="27">
         <v>-3.2678211540000002E-6</v>
       </c>
@@ -35910,22 +35910,22 @@
         <v>45.3125</v>
       </c>
       <c r="AT55"/>
-      <c r="AU55" s="73"/>
-      <c r="AV55" s="64">
+      <c r="AU55" s="71"/>
+      <c r="AV55" s="67">
         <v>-2.92797950805124E-2</v>
       </c>
-      <c r="AW55" s="65"/>
-      <c r="AX55" s="66"/>
-      <c r="AY55" s="65">
+      <c r="AW55" s="68"/>
+      <c r="AX55" s="69"/>
+      <c r="AY55" s="68">
         <v>4.8575804011639703E-2</v>
       </c>
-      <c r="AZ55" s="65"/>
-      <c r="BA55" s="65"/>
-      <c r="BB55" s="64">
+      <c r="AZ55" s="68"/>
+      <c r="BA55" s="68"/>
+      <c r="BB55" s="67">
         <v>7.4720850653456003E-3</v>
       </c>
-      <c r="BC55" s="65"/>
-      <c r="BD55" s="66"/>
+      <c r="BC55" s="68"/>
+      <c r="BD55" s="69"/>
       <c r="BE55"/>
       <c r="BF55"/>
       <c r="BG55" s="2" t="s">
@@ -36634,17 +36634,17 @@
       <c r="BD60"/>
       <c r="BE60"/>
       <c r="BF60"/>
-      <c r="BG60" s="63" t="s">
+      <c r="BG60" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="BH60" s="63"/>
-      <c r="BI60" s="63"/>
+      <c r="BH60" s="62"/>
+      <c r="BI60" s="62"/>
       <c r="BJ60" s="2"/>
-      <c r="BK60" s="63" t="s">
+      <c r="BK60" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="BL60" s="63"/>
-      <c r="BM60" s="63"/>
+      <c r="BL60" s="62"/>
+      <c r="BM60" s="62"/>
       <c r="BN60"/>
       <c r="BO60" s="2">
         <v>22</v>
@@ -38408,7 +38408,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="BU73" s="2">
-        <f t="dataTable" ref="BU73:BU102" dt2D="0" dtr="0" r1="BH42" ca="1"/>
+        <f t="dataTable" ref="BU73:BU102" dt2D="0" dtr="0" r1="BH42"/>
         <v>1.0066183554337029</v>
       </c>
       <c r="BV73" s="2">
@@ -38448,7 +38448,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="CF73" s="2">
-        <f t="dataTable" ref="CF73:CF102" dt2D="0" dtr="0" r1="BL42" ca="1"/>
+        <f t="dataTable" ref="CF73:CF102" dt2D="0" dtr="0" r1="BL42"/>
         <v>1.0074826134077486</v>
       </c>
       <c r="CG73" s="2">
@@ -41894,7 +41894,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="BU107" s="2">
-        <f t="dataTable" ref="BU107:BU136" dt2D="0" dtr="0" r1="BH61" ca="1"/>
+        <f t="dataTable" ref="BU107:BU136" dt2D="0" dtr="0" r1="BH61"/>
         <v>1.0109046148669258</v>
       </c>
       <c r="BV107" s="2">
@@ -41934,7 +41934,7 @@
         <v>1.4152874904422017</v>
       </c>
       <c r="CF107" s="2">
-        <f t="dataTable" ref="CF107:CF136" dt2D="0" dtr="0" r1="BL61" ca="1"/>
+        <f t="dataTable" ref="CF107:CF136" dt2D="0" dtr="0" r1="BL61"/>
         <v>1.0222406911815489</v>
       </c>
       <c r="CG107" s="2">
@@ -44810,62 +44810,20 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="BZ2:CI2"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="BG3:BI3"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AY2:BE2"/>
-    <mergeCell ref="BG2:BM2"/>
-    <mergeCell ref="BO2:BX2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BK22:BM22"/>
-    <mergeCell ref="AU23:AU29"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AU14:AW14"/>
-    <mergeCell ref="AU22:AW22"/>
-    <mergeCell ref="BG22:BI22"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AQ27:AQ34"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AY30:BA30"/>
-    <mergeCell ref="BC30:BE30"/>
-    <mergeCell ref="AQ7:AS7"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AY12:BA12"/>
-    <mergeCell ref="BC12:BE12"/>
-    <mergeCell ref="AY21:BA21"/>
-    <mergeCell ref="BC21:BE21"/>
-    <mergeCell ref="AQ11:AQ18"/>
-    <mergeCell ref="AQ19:AQ26"/>
+    <mergeCell ref="BZ104:CI104"/>
+    <mergeCell ref="AF47:AI47"/>
+    <mergeCell ref="BO104:BX104"/>
+    <mergeCell ref="BG60:BI60"/>
+    <mergeCell ref="BO70:BX70"/>
+    <mergeCell ref="BZ70:CI70"/>
+    <mergeCell ref="AY52:BA52"/>
+    <mergeCell ref="AY55:BA55"/>
+    <mergeCell ref="BB52:BD52"/>
+    <mergeCell ref="BB55:BD55"/>
+    <mergeCell ref="AV47:AW47"/>
+    <mergeCell ref="AV48:AX48"/>
+    <mergeCell ref="AY48:BA48"/>
+    <mergeCell ref="BB48:BD48"/>
     <mergeCell ref="AQ35:AQ42"/>
     <mergeCell ref="AV42:AX42"/>
     <mergeCell ref="BK60:BM60"/>
@@ -44882,20 +44840,62 @@
     <mergeCell ref="AU50:AU52"/>
     <mergeCell ref="AU53:AU55"/>
     <mergeCell ref="AV55:AX55"/>
-    <mergeCell ref="BZ104:CI104"/>
-    <mergeCell ref="AF47:AI47"/>
-    <mergeCell ref="BO104:BX104"/>
-    <mergeCell ref="BG60:BI60"/>
-    <mergeCell ref="BO70:BX70"/>
-    <mergeCell ref="BZ70:CI70"/>
-    <mergeCell ref="AY52:BA52"/>
-    <mergeCell ref="AY55:BA55"/>
-    <mergeCell ref="BB52:BD52"/>
-    <mergeCell ref="BB55:BD55"/>
-    <mergeCell ref="AV47:AW47"/>
-    <mergeCell ref="AV48:AX48"/>
-    <mergeCell ref="AY48:BA48"/>
-    <mergeCell ref="BB48:BD48"/>
+    <mergeCell ref="AQ7:AS7"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AY12:BA12"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="AY21:BA21"/>
+    <mergeCell ref="BC21:BE21"/>
+    <mergeCell ref="AQ11:AQ18"/>
+    <mergeCell ref="AQ19:AQ26"/>
+    <mergeCell ref="AQ27:AQ34"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AY30:BA30"/>
+    <mergeCell ref="BC30:BE30"/>
+    <mergeCell ref="BK22:BM22"/>
+    <mergeCell ref="AU23:AU29"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AU14:AW14"/>
+    <mergeCell ref="AU22:AW22"/>
+    <mergeCell ref="BG22:BI22"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="BZ2:CI2"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AY2:BE2"/>
+    <mergeCell ref="BG2:BM2"/>
+    <mergeCell ref="BO2:BX2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="G12">
     <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="FALSE">
@@ -44947,7 +44947,7 @@
   <dimension ref="B1:AO81"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44988,11 +44988,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -45003,26 +45003,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="F3" s="57" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="F3" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="J3" s="54" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="J3" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="N3" s="54" t="s">
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="N3" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
       <c r="U3" s="7" t="s">
         <v>44</v>
       </c>
@@ -45644,11 +45644,11 @@
       <c r="H9" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="J9" s="54" t="s">
+      <c r="J9" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
       <c r="N9" s="6" t="s">
         <v>122</v>
       </c>
@@ -45962,11 +45962,11 @@
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
       <c r="N12" s="6" t="s">
         <v>235</v>
       </c>
@@ -46263,11 +46263,11 @@
       </c>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
       <c r="F15" s="6" t="s">
         <v>240</v>
       </c>
@@ -46617,11 +46617,11 @@
       <c r="L18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="57" t="s">
+      <c r="N18" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
       <c r="U18" s="2">
         <v>14</v>
       </c>
@@ -46803,11 +46803,11 @@
       </c>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
       <c r="F20" s="44" t="s">
         <v>225</v>
       </c>
@@ -47024,11 +47024,11 @@
       <c r="C22" s="17">
         <v>2</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
       <c r="J22" s="14" t="s">
         <v>241</v>
       </c>
@@ -47563,11 +47563,11 @@
       </c>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
       <c r="F27" t="s">
         <v>100</v>
       </c>
@@ -48001,11 +48001,11 @@
       <c r="C31" s="17">
         <v>0.75</v>
       </c>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
       <c r="J31" s="6" t="s">
         <v>58</v>
       </c>
@@ -48278,11 +48278,11 @@
       </c>
     </row>
     <row r="34" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
       <c r="J34" s="6" t="s">
         <v>60</v>
       </c>
@@ -48586,11 +48586,11 @@
       </c>
     </row>
     <row r="39" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
       <c r="J39" s="10" t="s">
         <v>62</v>
       </c>
@@ -48690,11 +48690,11 @@
         <f>IF(C40="wheeled",0.0325,0.014)</f>
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="J41" s="54" t="s">
+      <c r="J41" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
       <c r="AF41" s="2">
         <v>37</v>
       </c>
@@ -48892,11 +48892,11 @@
       </c>
     </row>
     <row r="45" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
       <c r="J45" s="20" t="s">
         <v>72</v>
       </c>
@@ -48939,11 +48939,11 @@
       </c>
     </row>
     <row r="48" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
@@ -48978,11 +48978,11 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="54" t="s">
+      <c r="B53" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
@@ -49028,11 +49028,11 @@
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
@@ -49062,11 +49062,11 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="54" t="s">
+      <c r="B64" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
@@ -49113,11 +49113,11 @@
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="54" t="s">
+      <c r="B70" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="60"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
@@ -49164,11 +49164,11 @@
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="54" t="s">
+      <c r="B76" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="58"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
@@ -49215,12 +49215,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B39:D39"/>
@@ -49228,16 +49232,12 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="F31:H31"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B70:D70"/>
   </mergeCells>
   <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="FALSE">
@@ -49315,11 +49315,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="2:45" x14ac:dyDescent="0.2">
       <c r="Y2" s="16" t="s">
@@ -49330,31 +49330,31 @@
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="F3" s="57" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="F3" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="J3" s="54" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="J3" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="N3" s="54" t="s">
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="N3" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="R3" s="54" t="s">
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="R3" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
       <c r="Y3" s="7" t="s">
         <v>44</v>
       </c>
@@ -50016,11 +50016,11 @@
       <c r="H9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="54" t="s">
+      <c r="J9" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
       <c r="N9" s="6" t="s">
         <v>122</v>
       </c>
@@ -50803,16 +50803,16 @@
       </c>
     </row>
     <row r="16" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="F16" s="57" t="s">
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="F16" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
       <c r="J16" s="12" t="s">
         <v>135</v>
       </c>
@@ -51049,16 +51049,16 @@
       <c r="L18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="57" t="s">
+      <c r="N18" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="R18" s="57" t="s">
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="R18" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
       <c r="Y18" s="2">
         <v>14</v>
       </c>
@@ -51376,11 +51376,11 @@
       </c>
     </row>
     <row r="21" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
       <c r="F21" s="9" t="s">
         <v>100</v>
       </c>
@@ -51967,11 +51967,11 @@
       <c r="D26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="54" t="s">
+      <c r="F26" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
       <c r="J26" s="15" t="s">
         <v>67</v>
       </c>
@@ -52190,11 +52190,11 @@
       </c>
     </row>
     <row r="28" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
       <c r="F28" s="6" t="s">
         <v>94</v>
       </c>
@@ -52920,16 +52920,16 @@
       </c>
     </row>
     <row r="35" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="F35" s="57" t="s">
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="F35" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
       <c r="J35" s="11" t="s">
         <v>55</v>
       </c>
@@ -53323,11 +53323,11 @@
       </c>
     </row>
     <row r="40" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
       <c r="Y40" s="2">
         <v>2</v>
       </c>
@@ -53411,11 +53411,11 @@
       <c r="C41" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="J41" s="54" t="s">
+      <c r="J41" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
       <c r="Y41" s="2">
         <v>3</v>
       </c>
@@ -53827,11 +53827,11 @@
       </c>
     </row>
     <row r="46" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
       <c r="J46" s="15" t="s">
         <v>73</v>
       </c>
@@ -53981,11 +53981,11 @@
       </c>
     </row>
     <row r="49" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
       <c r="Y49" s="2">
         <v>11</v>
       </c>
@@ -54217,11 +54217,11 @@
       </c>
     </row>
     <row r="54" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B54" s="54" t="s">
+      <c r="B54" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
       <c r="Y54" s="2">
         <v>16</v>
       </c>
@@ -54503,11 +54503,11 @@
       </c>
     </row>
     <row r="60" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
       <c r="Y60" s="2">
         <v>22</v>
       </c>
@@ -54734,11 +54734,11 @@
       </c>
     </row>
     <row r="65" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B65" s="54" t="s">
+      <c r="B65" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
       <c r="Y65" s="2">
         <v>27</v>
       </c>
@@ -54941,11 +54941,11 @@
       </c>
     </row>
     <row r="71" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B71" s="54" t="s">
+      <c r="B71" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
     </row>
     <row r="72" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B72" s="6" t="s">
@@ -54992,11 +54992,11 @@
       </c>
     </row>
     <row r="77" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B77" s="54" t="s">
+      <c r="B77" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="58"/>
     </row>
     <row r="78" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
@@ -55043,16 +55043,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="J9:L9"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B71:D71"/>
@@ -55068,6 +55058,16 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F35:H35"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="J9:L9"/>
   </mergeCells>
   <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="FALSE">
@@ -55098,8 +55098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8895AA02-1E62-EB44-9405-A51AF8F8C1C2}">
   <dimension ref="B1:CI136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55158,11 +55158,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="2:87" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -55225,26 +55225,26 @@
       <c r="CI2" s="61"/>
     </row>
     <row r="3" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="F3" s="57" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="F3" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="J3" s="54" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="J3" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="N3" s="54" t="s">
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="N3" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
       <c r="U3" s="7" t="s">
         <v>44</v>
       </c>
@@ -55325,27 +55325,27 @@
       <c r="AW3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AY3" s="63" t="s">
+      <c r="AY3" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63"/>
-      <c r="BC3" s="63" t="s">
+      <c r="AZ3" s="62"/>
+      <c r="BA3" s="62"/>
+      <c r="BC3" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
-      <c r="BG3" s="63" t="s">
+      <c r="BD3" s="62"/>
+      <c r="BE3" s="62"/>
+      <c r="BG3" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="BH3" s="63"/>
-      <c r="BI3" s="63"/>
+      <c r="BH3" s="62"/>
+      <c r="BI3" s="62"/>
       <c r="BJ3" s="2"/>
-      <c r="BK3" s="63" t="s">
+      <c r="BK3" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="BL3" s="63"/>
-      <c r="BM3" s="63"/>
+      <c r="BL3" s="62"/>
+      <c r="BM3" s="62"/>
       <c r="BO3" s="7" t="s">
         <v>44</v>
       </c>
@@ -56570,11 +56570,11 @@
       <c r="H9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="54" t="s">
+      <c r="J9" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
       <c r="N9" s="6" t="s">
         <v>122</v>
       </c>
@@ -57140,7 +57140,7 @@
         <f t="shared" si="20"/>
         <v>70.3125</v>
       </c>
-      <c r="AQ11" s="67" t="s">
+      <c r="AQ11" s="64" t="s">
         <v>181</v>
       </c>
       <c r="AR11" s="3" t="s">
@@ -57348,7 +57348,7 @@
         <f t="shared" si="20"/>
         <v>35.15625</v>
       </c>
-      <c r="AQ12" s="67"/>
+      <c r="AQ12" s="64"/>
       <c r="AR12" s="3" t="s">
         <v>219</v>
       </c>
@@ -57363,16 +57363,16 @@
       <c r="AW12" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="AY12" s="63" t="s">
+      <c r="AY12" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="AZ12" s="63"/>
-      <c r="BA12" s="63"/>
-      <c r="BC12" s="63" t="s">
+      <c r="AZ12" s="62"/>
+      <c r="BA12" s="62"/>
+      <c r="BC12" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="BD12" s="63"/>
-      <c r="BE12" s="63"/>
+      <c r="BD12" s="62"/>
+      <c r="BE12" s="62"/>
       <c r="BG12" s="2" t="s">
         <v>187</v>
       </c>
@@ -57570,7 +57570,7 @@
         <f t="shared" si="20"/>
         <v>17.578125</v>
       </c>
-      <c r="AQ13" s="67"/>
+      <c r="AQ13" s="64"/>
       <c r="AR13" s="3" t="s">
         <v>219</v>
       </c>
@@ -57787,7 +57787,7 @@
         <f t="shared" si="20"/>
         <v>8.7890625</v>
       </c>
-      <c r="AQ14" s="67"/>
+      <c r="AQ14" s="64"/>
       <c r="AR14" s="3" t="s">
         <v>219</v>
       </c>
@@ -57908,11 +57908,11 @@
       </c>
     </row>
     <row r="15" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
       <c r="J15" s="11" t="s">
         <v>55</v>
       </c>
@@ -58005,7 +58005,7 @@
         <f t="shared" si="20"/>
         <v>4.39453125</v>
       </c>
-      <c r="AQ15" s="67"/>
+      <c r="AQ15" s="64"/>
       <c r="AR15" s="3" t="s">
         <v>219</v>
       </c>
@@ -58131,11 +58131,11 @@
       </c>
     </row>
     <row r="16" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
       <c r="F16" s="9" t="s">
         <v>92</v>
       </c>
@@ -58238,7 +58238,7 @@
         <f t="shared" si="20"/>
         <v>2.197265625</v>
       </c>
-      <c r="AQ16" s="67"/>
+      <c r="AQ16" s="64"/>
       <c r="AR16" s="3" t="s">
         <v>219</v>
       </c>
@@ -58466,7 +58466,7 @@
         <f t="shared" si="20"/>
         <v>1.0986328125</v>
       </c>
-      <c r="AQ17" s="67"/>
+      <c r="AQ17" s="64"/>
       <c r="AR17" s="3" t="s">
         <v>219</v>
       </c>
@@ -58615,11 +58615,11 @@
       <c r="L18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="57" t="s">
+      <c r="N18" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
       <c r="U18" s="2">
         <v>14</v>
       </c>
@@ -58695,7 +58695,7 @@
         <f t="shared" si="20"/>
         <v>0.54931640625</v>
       </c>
-      <c r="AQ18" s="67"/>
+      <c r="AQ18" s="64"/>
       <c r="AR18" s="3" t="s">
         <v>219</v>
       </c>
@@ -58929,7 +58929,7 @@
         <f t="shared" si="20"/>
         <v>0.274658203125</v>
       </c>
-      <c r="AQ19" s="67" t="s">
+      <c r="AQ19" s="64" t="s">
         <v>195</v>
       </c>
       <c r="AR19" s="3">
@@ -59163,7 +59163,7 @@
         <f t="shared" si="20"/>
         <v>0.1373291015625</v>
       </c>
-      <c r="AQ20" s="67"/>
+      <c r="AQ20" s="64"/>
       <c r="AR20" s="3">
         <f>0.358125*($AR$9/2)</f>
         <v>0.54578250000000006</v>
@@ -59270,11 +59270,11 @@
       </c>
     </row>
     <row r="21" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
       <c r="J21" s="14" t="s">
         <v>64</v>
       </c>
@@ -59370,7 +59370,7 @@
         <f t="shared" si="20"/>
         <v>6.866455078125E-2</v>
       </c>
-      <c r="AQ21" s="67"/>
+      <c r="AQ21" s="64"/>
       <c r="AR21" s="3">
         <f>0.456875*($AR$9/2)</f>
         <v>0.69627749999999999</v>
@@ -59379,16 +59379,16 @@
         <v>8</v>
       </c>
       <c r="AW21" s="26"/>
-      <c r="AY21" s="63" t="s">
+      <c r="AY21" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="AZ21" s="63"/>
-      <c r="BA21" s="63"/>
-      <c r="BC21" s="63" t="s">
+      <c r="AZ21" s="62"/>
+      <c r="BA21" s="62"/>
+      <c r="BC21" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="BD21" s="63"/>
-      <c r="BE21" s="63"/>
+      <c r="BD21" s="62"/>
+      <c r="BE21" s="62"/>
       <c r="BG21" s="2"/>
       <c r="BH21" s="2"/>
       <c r="BI21" s="2"/>
@@ -59476,11 +59476,11 @@
       <c r="C22" s="17">
         <v>8</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
       <c r="J22" s="14" t="s">
         <v>241</v>
       </c>
@@ -59573,7 +59573,7 @@
         <f t="shared" si="20"/>
         <v>3.4332275390625E-2</v>
       </c>
-      <c r="AQ22" s="67"/>
+      <c r="AQ22" s="64"/>
       <c r="AR22" s="3">
         <f>0.555625*($AR$9/2)</f>
         <v>0.84677250000000004</v>
@@ -59606,17 +59606,17 @@
       <c r="BE22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BG22" s="63" t="s">
+      <c r="BG22" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="BH22" s="63"/>
-      <c r="BI22" s="63"/>
+      <c r="BH22" s="62"/>
+      <c r="BI22" s="62"/>
       <c r="BJ22" s="2"/>
-      <c r="BK22" s="63" t="s">
+      <c r="BK22" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="BL22" s="63"/>
-      <c r="BM22" s="63"/>
+      <c r="BL22" s="62"/>
+      <c r="BM22" s="62"/>
       <c r="BO22" s="2">
         <v>18</v>
       </c>
@@ -59799,7 +59799,7 @@
         <f t="shared" si="20"/>
         <v>1.71661376953125E-2</v>
       </c>
-      <c r="AQ23" s="67"/>
+      <c r="AQ23" s="64"/>
       <c r="AR23" s="3">
         <f>0.654375*($AR$9/2)</f>
         <v>0.99726750000000008</v>
@@ -59807,14 +59807,14 @@
       <c r="AS23" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU23" s="70" t="s">
+      <c r="AU23" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="AV23" s="67">
+      <c r="AV23" s="64">
         <f>BH20</f>
         <v>8.035629328606575E-9</v>
       </c>
-      <c r="AW23" s="67"/>
+      <c r="AW23" s="64"/>
       <c r="AY23" s="2" t="s">
         <v>158</v>
       </c>
@@ -60038,7 +60038,7 @@
         <f t="shared" si="20"/>
         <v>8.58306884765625E-3</v>
       </c>
-      <c r="AQ24" s="67"/>
+      <c r="AQ24" s="64"/>
       <c r="AR24" s="3">
         <f>0.753125*($AR$9/2)</f>
         <v>1.1477625</v>
@@ -60046,12 +60046,12 @@
       <c r="AS24" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU24" s="70"/>
-      <c r="AV24" s="67">
+      <c r="AU24" s="63"/>
+      <c r="AV24" s="64">
         <f>BL20</f>
         <v>5.9086911474715009E-9</v>
       </c>
-      <c r="AW24" s="67"/>
+      <c r="AW24" s="64"/>
       <c r="AY24" s="2" t="s">
         <v>163</v>
       </c>
@@ -60278,7 +60278,7 @@
         <f t="shared" si="20"/>
         <v>4.291534423828125E-3</v>
       </c>
-      <c r="AQ25" s="67"/>
+      <c r="AQ25" s="64"/>
       <c r="AR25" s="3">
         <f>0.851875*($AR$9/2)</f>
         <v>1.2982575000000001</v>
@@ -60286,12 +60286,12 @@
       <c r="AS25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU25" s="70"/>
-      <c r="AV25" s="67">
+      <c r="AU25" s="63"/>
+      <c r="AV25" s="64">
         <f>BH39</f>
         <v>3.7158728524722129E-9</v>
       </c>
-      <c r="AW25" s="67"/>
+      <c r="AW25" s="64"/>
       <c r="AY25" s="2" t="s">
         <v>167</v>
       </c>
@@ -60518,7 +60518,7 @@
         <f t="shared" si="20"/>
         <v>2.1457672119140625E-3</v>
       </c>
-      <c r="AQ26" s="67"/>
+      <c r="AQ26" s="64"/>
       <c r="AR26" s="3">
         <f>0.950625*($AR$9/2)</f>
         <v>1.4487525000000001</v>
@@ -60526,12 +60526,12 @@
       <c r="AS26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AU26" s="70"/>
-      <c r="AV26" s="67">
+      <c r="AU26" s="63"/>
+      <c r="AV26" s="64">
         <f>BL39</f>
         <v>1.3610837526489838E-9</v>
       </c>
-      <c r="AW26" s="67"/>
+      <c r="AW26" s="64"/>
       <c r="AY26" s="2" t="s">
         <v>170</v>
       </c>
@@ -60748,7 +60748,7 @@
         <f t="shared" si="20"/>
         <v>1.0728836059570312E-3</v>
       </c>
-      <c r="AQ27" s="67" t="s">
+      <c r="AQ27" s="64" t="s">
         <v>204</v>
       </c>
       <c r="AR27" s="3">
@@ -60758,12 +60758,12 @@
       <c r="AS27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU27" s="70"/>
-      <c r="AV27" s="67">
+      <c r="AU27" s="63"/>
+      <c r="AV27" s="64">
         <f>BH58</f>
         <v>-5.6457712810376037E-9</v>
       </c>
-      <c r="AW27" s="67"/>
+      <c r="AW27" s="64"/>
       <c r="AY27" s="2" t="s">
         <v>174</v>
       </c>
@@ -60875,11 +60875,11 @@
       </c>
     </row>
     <row r="28" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
       <c r="J28" s="15" t="s">
         <v>69</v>
       </c>
@@ -60972,7 +60972,7 @@
         <f t="shared" si="20"/>
         <v>5.3644180297851562E-4</v>
       </c>
-      <c r="AQ28" s="67"/>
+      <c r="AQ28" s="64"/>
       <c r="AR28" s="3">
         <f>0.530863*($AR$9/2)</f>
         <v>0.80903521199999995</v>
@@ -60980,12 +60980,12 @@
       <c r="AS28" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU28" s="70"/>
-      <c r="AV28" s="67">
+      <c r="AU28" s="63"/>
+      <c r="AV28" s="64">
         <f>BL58</f>
         <v>-3.968280197497176E-9</v>
       </c>
-      <c r="AW28" s="67"/>
+      <c r="AW28" s="64"/>
       <c r="AY28" s="2" t="s">
         <v>178</v>
       </c>
@@ -61103,11 +61103,11 @@
       <c r="C29" s="17">
         <v>1</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
       <c r="J29" s="15" t="s">
         <v>70</v>
       </c>
@@ -61199,7 +61199,7 @@
         <f t="shared" si="20"/>
         <v>2.6822090148925781E-4</v>
       </c>
-      <c r="AQ29" s="67"/>
+      <c r="AQ29" s="64"/>
       <c r="AR29" s="3">
         <f>0.513438*($AR$9/2)</f>
         <v>0.78247951199999999</v>
@@ -61207,12 +61207,12 @@
       <c r="AS29" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU29" s="70"/>
-      <c r="AV29" s="67">
+      <c r="AU29" s="63"/>
+      <c r="AV29" s="64">
         <f>BH77</f>
         <v>-1.4129099626392083E-10</v>
       </c>
-      <c r="AW29" s="67"/>
+      <c r="AW29" s="64"/>
       <c r="BG29" s="2" t="s">
         <v>180</v>
       </c>
@@ -61412,7 +61412,7 @@
         <f t="shared" si="20"/>
         <v>1.3411045074462891E-4</v>
       </c>
-      <c r="AQ30" s="67"/>
+      <c r="AQ30" s="64"/>
       <c r="AR30" s="3">
         <f>0.496013*($AR$9/2)</f>
         <v>0.75592381200000003</v>
@@ -61423,21 +61423,21 @@
       <c r="AU30" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="AV30" s="67" t="b">
+      <c r="AV30" s="64" t="b">
         <f>IF(AV23&lt;0.00001,IF(AV24&lt;0.00001,IF(AV25&lt;0.00001,IF(AV26&lt;0.00001,IF(AV27&lt;0.00001,IF(AV28&lt;0.00001,IF(AV29&lt;0.00001,TRUE,FALSE),FALSE),FALSE),FALSE),FALSE),FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AW30" s="67"/>
-      <c r="AY30" s="63" t="s">
+      <c r="AW30" s="64"/>
+      <c r="AY30" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="AZ30" s="63"/>
-      <c r="BA30" s="63"/>
-      <c r="BC30" s="63" t="s">
+      <c r="AZ30" s="62"/>
+      <c r="BA30" s="62"/>
+      <c r="BC30" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="BD30" s="63"/>
-      <c r="BE30" s="63"/>
+      <c r="BD30" s="62"/>
+      <c r="BE30" s="62"/>
       <c r="BG30" s="2" t="s">
         <v>183</v>
       </c>
@@ -61628,7 +61628,7 @@
         <f t="shared" si="20"/>
         <v>6.7055225372314453E-5</v>
       </c>
-      <c r="AQ31" s="67"/>
+      <c r="AQ31" s="64"/>
       <c r="AR31" s="3">
         <f>0.478588*($AR$9/2)</f>
         <v>0.72936811200000007</v>
@@ -61828,7 +61828,7 @@
         <f t="shared" si="20"/>
         <v>3.3527612686157227E-5</v>
       </c>
-      <c r="AQ32" s="67"/>
+      <c r="AQ32" s="64"/>
       <c r="AR32" s="3">
         <f>0.461163*($AR$9/2)</f>
         <v>0.702812412</v>
@@ -62036,7 +62036,7 @@
         <f t="shared" si="20"/>
         <v>1.6763806343078613E-5</v>
       </c>
-      <c r="AQ33" s="67"/>
+      <c r="AQ33" s="64"/>
       <c r="AR33" s="3">
         <f>0.443738*($AR$9/2)</f>
         <v>0.67625671200000004</v>
@@ -62239,7 +62239,7 @@
         <f t="shared" si="20"/>
         <v>8.3819031715393066E-6</v>
       </c>
-      <c r="AQ34" s="67"/>
+      <c r="AQ34" s="64"/>
       <c r="AR34" s="3">
         <f>0.426313*($AR$9/2)</f>
         <v>0.64970101199999997</v>
@@ -62357,11 +62357,11 @@
       </c>
     </row>
     <row r="35" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
       <c r="J35" s="11" t="s">
         <v>55</v>
       </c>
@@ -62408,7 +62408,7 @@
         <f t="shared" si="20"/>
         <v>4.1909515857696533E-6</v>
       </c>
-      <c r="AQ35" s="67" t="s">
+      <c r="AQ35" s="64" t="s">
         <v>223</v>
       </c>
       <c r="AR35" s="3">
@@ -62513,7 +62513,7 @@
         <f t="shared" si="20"/>
         <v>2.0954757928848267E-6</v>
       </c>
-      <c r="AQ36" s="67"/>
+      <c r="AQ36" s="64"/>
       <c r="AR36" s="3">
         <v>5.8781249999999998</v>
       </c>
@@ -62637,7 +62637,7 @@
         <f t="shared" si="20"/>
         <v>1.0477378964424133E-6</v>
       </c>
-      <c r="AQ37" s="67"/>
+      <c r="AQ37" s="64"/>
       <c r="AR37" s="3">
         <v>4.3968749999999996</v>
       </c>
@@ -62797,7 +62797,7 @@
         <f t="shared" si="20"/>
         <v>5.2386894822120667E-7</v>
       </c>
-      <c r="AQ38" s="67"/>
+      <c r="AQ38" s="64"/>
       <c r="AR38" s="3">
         <v>2.9156249999999999</v>
       </c>
@@ -62910,7 +62910,7 @@
         <f t="shared" si="20"/>
         <v>2.6193447411060333E-7</v>
       </c>
-      <c r="AQ39" s="67"/>
+      <c r="AQ39" s="64"/>
       <c r="AR39" s="3">
         <v>1.434375</v>
       </c>
@@ -63013,11 +63013,11 @@
       </c>
     </row>
     <row r="40" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
       <c r="AF40" s="2">
         <v>36</v>
       </c>
@@ -63054,7 +63054,7 @@
         <f t="shared" si="20"/>
         <v>1.3096723705530167E-7</v>
       </c>
-      <c r="AQ40" s="67"/>
+      <c r="AQ40" s="64"/>
       <c r="AR40" s="3">
         <v>-4.6875E-2</v>
       </c>
@@ -63141,11 +63141,11 @@
       <c r="C41" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="J41" s="54" t="s">
+      <c r="J41" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
       <c r="AF41" s="2">
         <v>37</v>
       </c>
@@ -63182,7 +63182,7 @@
         <f t="shared" si="20"/>
         <v>6.5483618527650833E-8</v>
       </c>
-      <c r="AQ41" s="67"/>
+      <c r="AQ41" s="64"/>
       <c r="AR41" s="3">
         <v>-1.528125</v>
       </c>
@@ -63192,10 +63192,10 @@
       <c r="AU41" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AV41" s="69" t="s">
+      <c r="AV41" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="AW41" s="69"/>
+      <c r="AW41" s="66"/>
       <c r="AX41" s="24"/>
       <c r="AY41" s="24"/>
       <c r="AZ41" s="24"/>
@@ -63204,17 +63204,17 @@
       <c r="BC41" s="24"/>
       <c r="BD41" s="24"/>
       <c r="BE41" s="25"/>
-      <c r="BG41" s="63" t="s">
+      <c r="BG41" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="BH41" s="63"/>
-      <c r="BI41" s="63"/>
+      <c r="BH41" s="62"/>
+      <c r="BI41" s="62"/>
       <c r="BJ41" s="2"/>
-      <c r="BK41" s="63" t="s">
+      <c r="BK41" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="BL41" s="63"/>
-      <c r="BM41" s="63"/>
+      <c r="BL41" s="62"/>
+      <c r="BM41" s="62"/>
       <c r="BO41" s="2">
         <v>3</v>
       </c>
@@ -63342,7 +63342,7 @@
         <f t="shared" si="20"/>
         <v>3.2741809263825417E-8</v>
       </c>
-      <c r="AQ42" s="67"/>
+      <c r="AQ42" s="64"/>
       <c r="AR42" s="3">
         <v>-3.0093749999999999</v>
       </c>
@@ -63350,22 +63350,22 @@
         <v>43</v>
       </c>
       <c r="AU42" s="27"/>
-      <c r="AV42" s="70" t="s">
+      <c r="AV42" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="AW42" s="70"/>
-      <c r="AX42" s="70"/>
-      <c r="AY42" s="70" t="s">
+      <c r="AW42" s="63"/>
+      <c r="AX42" s="63"/>
+      <c r="AY42" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="AZ42" s="70"/>
-      <c r="BA42" s="70"/>
-      <c r="BB42" s="70"/>
-      <c r="BC42" s="70" t="s">
+      <c r="AZ42" s="63"/>
+      <c r="BA42" s="63"/>
+      <c r="BB42" s="63"/>
+      <c r="BC42" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="BD42" s="70"/>
-      <c r="BE42" s="71"/>
+      <c r="BD42" s="63"/>
+      <c r="BE42" s="65"/>
       <c r="BG42" s="28" t="s">
         <v>154</v>
       </c>
@@ -63529,10 +63529,10 @@
       <c r="AX43" s="2">
         <v>-9.5</v>
       </c>
-      <c r="AY43" s="70" t="s">
+      <c r="AY43" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="AZ43" s="70"/>
+      <c r="AZ43" s="63"/>
       <c r="BA43" s="2">
         <v>-9.5</v>
       </c>
@@ -63976,11 +63976,11 @@
       </c>
     </row>
     <row r="46" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
       <c r="J46" s="15" t="s">
         <v>73</v>
       </c>
@@ -64108,19 +64108,19 @@
       <c r="L47" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AF47" s="70" t="s">
+      <c r="AF47" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="AG47" s="70"/>
-      <c r="AH47" s="70"/>
-      <c r="AI47" s="70"/>
+      <c r="AG47" s="63"/>
+      <c r="AH47" s="63"/>
+      <c r="AI47" s="63"/>
       <c r="AU47" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AV47" s="69" t="s">
+      <c r="AV47" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="AW47" s="69"/>
+      <c r="AW47" s="66"/>
       <c r="AX47" s="24"/>
       <c r="AY47" s="24"/>
       <c r="AZ47" s="24"/>
@@ -64250,21 +64250,21 @@
         <v>53</v>
       </c>
       <c r="AU48" s="27"/>
-      <c r="AV48" s="70" t="s">
+      <c r="AV48" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="AW48" s="70"/>
-      <c r="AX48" s="70"/>
-      <c r="AY48" s="70" t="s">
+      <c r="AW48" s="63"/>
+      <c r="AX48" s="63"/>
+      <c r="AY48" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="AZ48" s="70"/>
-      <c r="BA48" s="70"/>
-      <c r="BB48" s="70" t="s">
+      <c r="AZ48" s="63"/>
+      <c r="BA48" s="63"/>
+      <c r="BB48" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="BC48" s="70"/>
-      <c r="BD48" s="71"/>
+      <c r="BC48" s="63"/>
+      <c r="BD48" s="65"/>
       <c r="BG48" s="2" t="s">
         <v>180</v>
       </c>
@@ -64356,11 +64356,11 @@
       </c>
     </row>
     <row r="49" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
       <c r="AF49" s="2">
         <v>0</v>
       </c>
@@ -64538,7 +64538,7 @@
         <f t="shared" ref="AO50:AO79" si="42">AI50-AG50</f>
         <v>1450</v>
       </c>
-      <c r="AU50" s="72" t="s">
+      <c r="AU50" s="70" t="s">
         <v>160</v>
       </c>
       <c r="AV50" s="51">
@@ -64705,7 +64705,7 @@
         <f t="shared" si="42"/>
         <v>725</v>
       </c>
-      <c r="AU51" s="72"/>
+      <c r="AU51" s="70"/>
       <c r="AV51" s="27">
         <v>-1.1499587328259999E-4</v>
       </c>
@@ -64870,22 +64870,22 @@
         <f t="shared" si="42"/>
         <v>362.5</v>
       </c>
-      <c r="AU52" s="72"/>
-      <c r="AV52" s="64">
+      <c r="AU52" s="70"/>
+      <c r="AV52" s="67">
         <v>-2.4012358386552801</v>
       </c>
-      <c r="AW52" s="65"/>
-      <c r="AX52" s="66"/>
-      <c r="AY52" s="64">
+      <c r="AW52" s="68"/>
+      <c r="AX52" s="69"/>
+      <c r="AY52" s="67">
         <v>0.149391545914075</v>
       </c>
-      <c r="AZ52" s="65"/>
-      <c r="BA52" s="66"/>
-      <c r="BB52" s="64">
+      <c r="AZ52" s="68"/>
+      <c r="BA52" s="69"/>
+      <c r="BB52" s="67">
         <v>3.65120250353774</v>
       </c>
-      <c r="BC52" s="65"/>
-      <c r="BD52" s="66"/>
+      <c r="BC52" s="68"/>
+      <c r="BD52" s="69"/>
       <c r="BG52" s="2" t="s">
         <v>190</v>
       </c>
@@ -65013,7 +65013,7 @@
         <f t="shared" si="42"/>
         <v>181.25</v>
       </c>
-      <c r="AU53" s="72" t="s">
+      <c r="AU53" s="70" t="s">
         <v>164</v>
       </c>
       <c r="AV53" s="51">
@@ -65134,11 +65134,11 @@
       </c>
     </row>
     <row r="54" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B54" s="54" t="s">
+      <c r="B54" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
       <c r="AF54" s="2">
         <v>5</v>
       </c>
@@ -65175,7 +65175,7 @@
         <f t="shared" si="42"/>
         <v>90.625</v>
       </c>
-      <c r="AU54" s="72"/>
+      <c r="AU54" s="70"/>
       <c r="AV54" s="27">
         <v>-2.5152080542999999E-6</v>
       </c>
@@ -65336,22 +65336,22 @@
         <f t="shared" si="42"/>
         <v>45.3125</v>
       </c>
-      <c r="AU55" s="73"/>
-      <c r="AV55" s="64">
+      <c r="AU55" s="71"/>
+      <c r="AV55" s="67">
         <v>-1.5880058514071E-2</v>
       </c>
-      <c r="AW55" s="65"/>
-      <c r="AX55" s="66"/>
-      <c r="AY55" s="65">
+      <c r="AW55" s="68"/>
+      <c r="AX55" s="69"/>
+      <c r="AY55" s="68">
         <v>0.110802661807325</v>
       </c>
-      <c r="AZ55" s="65"/>
-      <c r="BA55" s="65"/>
-      <c r="BB55" s="64">
+      <c r="AZ55" s="68"/>
+      <c r="BA55" s="68"/>
+      <c r="BB55" s="67">
         <v>7.4721088420790002E-3</v>
       </c>
-      <c r="BC55" s="65"/>
-      <c r="BD55" s="66"/>
+      <c r="BC55" s="68"/>
+      <c r="BD55" s="69"/>
       <c r="BG55" s="2" t="s">
         <v>194</v>
       </c>
@@ -65970,11 +65970,11 @@
       </c>
     </row>
     <row r="60" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
       <c r="AF60" s="2">
         <v>11</v>
       </c>
@@ -66011,17 +66011,17 @@
         <f t="shared" si="42"/>
         <v>1.416015625</v>
       </c>
-      <c r="BG60" s="63" t="s">
+      <c r="BG60" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="BH60" s="63"/>
-      <c r="BI60" s="63"/>
+      <c r="BH60" s="62"/>
+      <c r="BI60" s="62"/>
       <c r="BJ60" s="2"/>
-      <c r="BK60" s="63" t="s">
+      <c r="BK60" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="BL60" s="63"/>
-      <c r="BM60" s="63"/>
+      <c r="BL60" s="62"/>
+      <c r="BM60" s="62"/>
       <c r="BO60" s="2">
         <v>22</v>
       </c>
@@ -66641,11 +66641,11 @@
       </c>
     </row>
     <row r="65" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B65" s="54" t="s">
+      <c r="B65" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
       <c r="AF65" s="2">
         <v>16</v>
       </c>
@@ -67327,11 +67327,11 @@
       <c r="CI70" s="61"/>
     </row>
     <row r="71" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B71" s="54" t="s">
+      <c r="B71" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
       <c r="AF71" s="2">
         <v>22</v>
       </c>
@@ -67639,7 +67639,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="BU73" s="2">
-        <f t="dataTable" ref="BU73:BU102" dt2D="0" dtr="0" r1="BH42" ca="1"/>
+        <f t="dataTable" ref="BU73:BU102" dt2D="0" dtr="0" r1="BH42"/>
         <v>1.1118383357407486</v>
       </c>
       <c r="BV73" s="2">
@@ -67678,7 +67678,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="CF73" s="2">
-        <f t="dataTable" ref="CF73:CF102" dt2D="0" dtr="0" r1="BL42" ca="1"/>
+        <f t="dataTable" ref="CF73:CF102" dt2D="0" dtr="0" r1="BL42"/>
         <v>1.1162112792863177</v>
       </c>
       <c r="CG73" s="2">
@@ -68093,11 +68093,11 @@
       </c>
     </row>
     <row r="77" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B77" s="54" t="s">
+      <c r="B77" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="58"/>
       <c r="AF77" s="2">
         <v>28</v>
       </c>
@@ -70335,7 +70335,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="BU107" s="2">
-        <f t="dataTable" ref="BU107:BU136" dt2D="0" dtr="0" r1="BH61" ca="1"/>
+        <f t="dataTable" ref="BU107:BU136" dt2D="0" dtr="0" r1="BH61"/>
         <v>1.1358906375579021</v>
       </c>
       <c r="BV107" s="2">
@@ -70374,7 +70374,7 @@
         <v>1.4294246573833558</v>
       </c>
       <c r="CF107" s="2">
-        <f t="dataTable" ref="CF107:CF136" dt2D="0" dtr="0" r1="BL61" ca="1"/>
+        <f t="dataTable" ref="CF107:CF136" dt2D="0" dtr="0" r1="BL61"/>
         <v>1.2201332261292821</v>
       </c>
       <c r="CG107" s="2">
@@ -72538,17 +72538,66 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="BB52:BD52"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="AY52:BA52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="AV47:AW47"/>
-    <mergeCell ref="AV48:AX48"/>
-    <mergeCell ref="AU50:AU52"/>
-    <mergeCell ref="AV52:AX52"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="AQ7:AS7"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AY2:BE2"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="BC30:BE30"/>
+    <mergeCell ref="AQ35:AQ42"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="AV42:AX42"/>
+    <mergeCell ref="AY42:BB42"/>
+    <mergeCell ref="BC42:BE42"/>
+    <mergeCell ref="AQ27:AQ34"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AY30:BA30"/>
+    <mergeCell ref="AQ19:AQ26"/>
+    <mergeCell ref="AY21:BA21"/>
+    <mergeCell ref="BC21:BE21"/>
+    <mergeCell ref="AU53:AU55"/>
+    <mergeCell ref="AV55:AX55"/>
+    <mergeCell ref="AQ11:AQ18"/>
+    <mergeCell ref="AY12:BA12"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="BK22:BM22"/>
+    <mergeCell ref="AU23:AU29"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="BG22:BI22"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AU14:AW14"/>
+    <mergeCell ref="AU22:AW22"/>
+    <mergeCell ref="BO36:BX36"/>
+    <mergeCell ref="BZ36:CI36"/>
+    <mergeCell ref="AV41:AW41"/>
+    <mergeCell ref="BG41:BI41"/>
+    <mergeCell ref="BK41:BM41"/>
+    <mergeCell ref="BZ2:CI2"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BG2:BM2"/>
+    <mergeCell ref="BO2:BX2"/>
     <mergeCell ref="BO104:BX104"/>
     <mergeCell ref="BZ104:CI104"/>
     <mergeCell ref="B65:D65"/>
@@ -72565,66 +72614,17 @@
     <mergeCell ref="BB55:BD55"/>
     <mergeCell ref="AY48:BA48"/>
     <mergeCell ref="BB48:BD48"/>
-    <mergeCell ref="BZ2:CI2"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="BG3:BI3"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BG2:BM2"/>
-    <mergeCell ref="BO2:BX2"/>
-    <mergeCell ref="BO36:BX36"/>
-    <mergeCell ref="BZ36:CI36"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="BG41:BI41"/>
-    <mergeCell ref="BK41:BM41"/>
-    <mergeCell ref="AQ11:AQ18"/>
-    <mergeCell ref="AY12:BA12"/>
-    <mergeCell ref="BC12:BE12"/>
-    <mergeCell ref="BK22:BM22"/>
-    <mergeCell ref="AU23:AU29"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="BG22:BI22"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AU14:AW14"/>
-    <mergeCell ref="AU22:AW22"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="BC30:BE30"/>
-    <mergeCell ref="AQ35:AQ42"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="AV42:AX42"/>
-    <mergeCell ref="AY42:BB42"/>
-    <mergeCell ref="BC42:BE42"/>
-    <mergeCell ref="AQ27:AQ34"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AY30:BA30"/>
-    <mergeCell ref="AQ19:AQ26"/>
-    <mergeCell ref="AY21:BA21"/>
-    <mergeCell ref="BC21:BE21"/>
-    <mergeCell ref="AU53:AU55"/>
-    <mergeCell ref="AV55:AX55"/>
-    <mergeCell ref="AQ7:AS7"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AY2:BE2"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="AV47:AW47"/>
+    <mergeCell ref="AV48:AX48"/>
+    <mergeCell ref="AU50:AU52"/>
+    <mergeCell ref="AV52:AX52"/>
+    <mergeCell ref="BB52:BD52"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="AY52:BA52"/>
   </mergeCells>
   <conditionalFormatting sqref="G12">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FALSE">

--- a/examples/mtow_estimation/estimate_mtow.xlsx
+++ b/examples/mtow_estimation/estimate_mtow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/examples/mtow_estimation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695DC1EE-B99A-E047-AF77-5211844AF0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A3572D-BE7E-634B-BBDF-0AB786CAAC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
@@ -1293,6 +1293,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1301,34 +1313,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1340,16 +1331,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15424,7 +15424,7 @@
   <dimension ref="B1:AO56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15468,11 +15468,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -15483,26 +15483,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="F3" s="54" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="F3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="J3" s="58" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="N3" s="58" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
       <c r="U3" s="7" t="s">
         <v>44</v>
       </c>
@@ -15901,11 +15901,11 @@
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
       <c r="N7" t="s">
         <v>123</v>
       </c>
@@ -16334,11 +16334,11 @@
       <c r="H11" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="J11" s="54" t="s">
+      <c r="J11" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
       <c r="N11" s="6" t="s">
         <v>118</v>
       </c>
@@ -16423,11 +16423,11 @@
       </c>
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
       <c r="F12" s="42" t="s">
         <v>85</v>
       </c>
@@ -16545,11 +16545,11 @@
       <c r="L13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="54" t="s">
+      <c r="N13" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
       <c r="U13" s="2">
         <v>9</v>
       </c>
@@ -16636,11 +16636,11 @@
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
       <c r="J14" s="12" t="s">
         <v>135</v>
       </c>
@@ -16945,11 +16945,11 @@
       </c>
     </row>
     <row r="17" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
       <c r="F17" s="6" t="s">
         <v>133</v>
       </c>
@@ -16970,11 +16970,11 @@
       <c r="L17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="54" t="s">
+      <c r="N17" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
       <c r="U17" s="2">
         <v>13</v>
       </c>
@@ -17706,16 +17706,16 @@
       </c>
     </row>
     <row r="24" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="F24" s="54" t="s">
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="F24" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
       <c r="J24" s="15" t="s">
         <v>68</v>
       </c>
@@ -18253,11 +18253,11 @@
       </c>
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
       <c r="F29" t="s">
         <v>100</v>
       </c>
@@ -18368,11 +18368,11 @@
       <c r="H30" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="J30" s="58" t="s">
+      <c r="J30" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
       <c r="U30" s="2">
         <v>26</v>
       </c>
@@ -18658,11 +18658,11 @@
         <v>0.80011066800000008</v>
       </c>
       <c r="D33"/>
-      <c r="F33" s="54" t="s">
+      <c r="F33" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
       <c r="J33" s="19" t="s">
         <v>81</v>
       </c>
@@ -18847,11 +18847,11 @@
       </c>
     </row>
     <row r="35" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
       <c r="F35" s="44" t="s">
         <v>225</v>
       </c>
@@ -19017,11 +19017,11 @@
       <c r="C38" s="17">
         <v>0.8</v>
       </c>
-      <c r="J38" s="58" t="s">
+      <c r="J38" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
       <c r="AF38" s="2">
         <v>34</v>
       </c>
@@ -19108,11 +19108,11 @@
       </c>
     </row>
     <row r="40" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
       <c r="J40" s="11" t="s">
         <v>55</v>
       </c>
@@ -19407,16 +19407,16 @@
       </c>
     </row>
     <row r="46" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="J46" s="58" t="s">
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="J46" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
       <c r="N46" s="6" t="s">
         <v>283</v>
       </c>
@@ -19530,11 +19530,11 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
@@ -19570,17 +19570,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="F33:H33"/>
     <mergeCell ref="N17:P17"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D3"/>
@@ -19593,6 +19582,17 @@
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="F33:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="FALSE">
@@ -19623,7 +19623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1D4AB6-557E-EC41-AEF7-F524A5AEEAA8}">
   <dimension ref="B1:AS68"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -19673,11 +19673,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="2:45" x14ac:dyDescent="0.2">
       <c r="Y2" s="16" t="s">
@@ -19688,31 +19688,31 @@
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="F3" s="54" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="F3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="J3" s="58" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="N3" s="58" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="R3" s="58" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="R3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
       <c r="Y3" s="7" t="s">
         <v>44</v>
       </c>
@@ -20136,11 +20136,11 @@
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
       <c r="N7" t="s">
         <v>123</v>
       </c>
@@ -20602,11 +20602,11 @@
       <c r="H11" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="J11" s="54" t="s">
+      <c r="J11" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
       <c r="N11" s="6" t="s">
         <v>118</v>
       </c>
@@ -20697,11 +20697,11 @@
       </c>
     </row>
     <row r="12" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
       <c r="F12" t="s">
         <v>281</v>
       </c>
@@ -20826,16 +20826,16 @@
       <c r="L13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="54" t="s">
+      <c r="N13" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="R13" s="54" t="s">
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="R13" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
       <c r="Y13" s="2">
         <v>9</v>
       </c>
@@ -21145,11 +21145,11 @@
       </c>
     </row>
     <row r="16" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
       <c r="J16" s="13" t="s">
         <v>56</v>
       </c>
@@ -21237,11 +21237,11 @@
       </c>
     </row>
     <row r="17" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
       <c r="F17" s="9" t="s">
         <v>92</v>
       </c>
@@ -21262,16 +21262,16 @@
       <c r="L17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="54" t="s">
+      <c r="N17" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="R17" s="54" t="s">
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="R17" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
       <c r="Y17" s="2">
         <v>13</v>
       </c>
@@ -22063,11 +22063,11 @@
       </c>
     </row>
     <row r="24" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
       <c r="F24" s="44" t="s">
         <v>225</v>
       </c>
@@ -22302,11 +22302,11 @@
       <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="54" t="s">
+      <c r="F26" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
       <c r="J26" s="15" t="s">
         <v>70</v>
       </c>
@@ -22640,11 +22640,11 @@
       </c>
     </row>
     <row r="29" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
       <c r="F29" t="s">
         <v>93</v>
       </c>
@@ -22762,11 +22762,11 @@
       <c r="H30" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="58" t="s">
+      <c r="J30" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
       <c r="Y30" s="2">
         <v>26</v>
       </c>
@@ -23246,16 +23246,16 @@
       </c>
     </row>
     <row r="35" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="F35" s="54" t="s">
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="F35" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
       <c r="J35" s="15" t="s">
         <v>73</v>
       </c>
@@ -23464,11 +23464,11 @@
       <c r="C38" s="17">
         <v>0.8</v>
       </c>
-      <c r="J38" s="58" t="s">
+      <c r="J38" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
       <c r="Y38" s="2">
         <v>0</v>
       </c>
@@ -23631,11 +23631,11 @@
       </c>
     </row>
     <row r="40" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
       <c r="J40" s="11" t="s">
         <v>55</v>
       </c>
@@ -24148,16 +24148,16 @@
       </c>
     </row>
     <row r="46" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="J46" s="58" t="s">
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="J46" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
       <c r="Y46" s="2">
         <v>8</v>
       </c>
@@ -24480,11 +24480,11 @@
       </c>
     </row>
     <row r="52" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
       <c r="Y52" s="2">
         <v>14</v>
       </c>
@@ -25207,6 +25207,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="F35:H35"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="J46:L46"/>
@@ -25223,16 +25233,6 @@
     <mergeCell ref="J38:L38"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="J11:L11"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="J7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="FALSE">
@@ -25263,7 +25263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3661B753-A267-5243-ABFD-E2825908B8D2}">
   <dimension ref="B1:CI136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -25342,11 +25342,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="2:87" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -25414,26 +25414,26 @@
       <c r="CI2" s="61"/>
     </row>
     <row r="3" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="F3" s="54" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="F3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="J3" s="58" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="N3" s="58" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
       <c r="U3" s="7" t="s">
         <v>44</v>
       </c>
@@ -25516,29 +25516,29 @@
         <v>8</v>
       </c>
       <c r="AX3"/>
-      <c r="AY3" s="62" t="s">
+      <c r="AY3" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="63"/>
       <c r="BB3"/>
-      <c r="BC3" s="62" t="s">
+      <c r="BC3" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
       <c r="BF3"/>
-      <c r="BG3" s="62" t="s">
+      <c r="BG3" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
       <c r="BJ3" s="2"/>
-      <c r="BK3" s="62" t="s">
+      <c r="BK3" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
+      <c r="BL3" s="63"/>
+      <c r="BM3" s="63"/>
       <c r="BN3"/>
       <c r="BO3" s="7" t="s">
         <v>44</v>
@@ -25893,7 +25893,7 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
         <v>-1496.8103024680602</v>
       </c>
       <c r="AI5" s="3">
@@ -26323,11 +26323,11 @@
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
       <c r="N7" t="s">
         <v>123</v>
       </c>
@@ -27273,11 +27273,11 @@
       <c r="H11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="54" t="s">
+      <c r="J11" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
       <c r="N11" s="6" t="s">
         <v>118</v>
       </c>
@@ -27360,7 +27360,7 @@
         <f t="shared" si="20"/>
         <v>70.3125</v>
       </c>
-      <c r="AQ11" s="64" t="s">
+      <c r="AQ11" s="67" t="s">
         <v>181</v>
       </c>
       <c r="AR11" s="3" t="s">
@@ -27480,11 +27480,11 @@
       </c>
     </row>
     <row r="12" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
       <c r="F12" s="6" t="s">
         <v>217</v>
       </c>
@@ -27577,7 +27577,7 @@
         <f t="shared" si="20"/>
         <v>35.15625</v>
       </c>
-      <c r="AQ12" s="64"/>
+      <c r="AQ12" s="67"/>
       <c r="AR12" s="3" t="s">
         <v>219</v>
       </c>
@@ -27594,17 +27594,17 @@
         <v>104</v>
       </c>
       <c r="AX12"/>
-      <c r="AY12" s="62" t="s">
+      <c r="AY12" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="AZ12" s="62"/>
-      <c r="BA12" s="62"/>
+      <c r="AZ12" s="63"/>
+      <c r="BA12" s="63"/>
       <c r="BB12"/>
-      <c r="BC12" s="62" t="s">
+      <c r="BC12" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="BD12" s="62"/>
-      <c r="BE12" s="62"/>
+      <c r="BD12" s="63"/>
+      <c r="BE12" s="63"/>
       <c r="BF12"/>
       <c r="BG12" s="2" t="s">
         <v>187</v>
@@ -27729,11 +27729,11 @@
       <c r="L13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="54" t="s">
+      <c r="N13" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
       <c r="U13" s="2">
         <v>9</v>
       </c>
@@ -27809,7 +27809,7 @@
         <f t="shared" si="20"/>
         <v>17.578125</v>
       </c>
-      <c r="AQ13" s="64"/>
+      <c r="AQ13" s="67"/>
       <c r="AR13" s="3" t="s">
         <v>219</v>
       </c>
@@ -28038,7 +28038,7 @@
         <f t="shared" si="20"/>
         <v>8.7890625</v>
       </c>
-      <c r="AQ14" s="64"/>
+      <c r="AQ14" s="67"/>
       <c r="AR14" s="3" t="s">
         <v>219</v>
       </c>
@@ -28171,11 +28171,11 @@
       <c r="C15" s="17">
         <v>1</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
       <c r="J15" s="12" t="s">
         <v>136</v>
       </c>
@@ -28268,7 +28268,7 @@
         <f t="shared" si="20"/>
         <v>4.39453125</v>
       </c>
-      <c r="AQ15" s="64"/>
+      <c r="AQ15" s="67"/>
       <c r="AR15" s="3" t="s">
         <v>219</v>
       </c>
@@ -28499,7 +28499,7 @@
         <f t="shared" si="20"/>
         <v>2.197265625</v>
       </c>
-      <c r="AQ16" s="64"/>
+      <c r="AQ16" s="67"/>
       <c r="AR16" s="3" t="s">
         <v>219</v>
       </c>
@@ -28629,11 +28629,11 @@
       </c>
     </row>
     <row r="17" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
       <c r="F17" t="s">
         <v>130</v>
       </c>
@@ -28654,11 +28654,11 @@
       <c r="L17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="54" t="s">
+      <c r="N17" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
       <c r="U17" s="2">
         <v>13</v>
       </c>
@@ -28734,7 +28734,7 @@
         <f t="shared" si="20"/>
         <v>1.0986328125</v>
       </c>
-      <c r="AQ17" s="64"/>
+      <c r="AQ17" s="67"/>
       <c r="AR17" s="3" t="s">
         <v>219</v>
       </c>
@@ -28971,7 +28971,7 @@
         <f t="shared" si="20"/>
         <v>0.54931640625</v>
       </c>
-      <c r="AQ18" s="64"/>
+      <c r="AQ18" s="67"/>
       <c r="AR18" s="3" t="s">
         <v>219</v>
       </c>
@@ -29212,7 +29212,7 @@
         <f t="shared" si="20"/>
         <v>0.274658203125</v>
       </c>
-      <c r="AQ19" s="64" t="s">
+      <c r="AQ19" s="67" t="s">
         <v>195</v>
       </c>
       <c r="AR19" s="3">
@@ -29459,7 +29459,7 @@
         <f t="shared" si="20"/>
         <v>0.1373291015625</v>
       </c>
-      <c r="AQ20" s="64"/>
+      <c r="AQ20" s="67"/>
       <c r="AR20" s="3">
         <f>0.285*($AR$9/2)</f>
         <v>1.1399999999999999</v>
@@ -29676,7 +29676,7 @@
         <f t="shared" si="20"/>
         <v>6.866455078125E-2</v>
       </c>
-      <c r="AQ21" s="64"/>
+      <c r="AQ21" s="67"/>
       <c r="AR21" s="3">
         <f>0.395*($AR$9/2)</f>
         <v>1.58</v>
@@ -29689,17 +29689,17 @@
       <c r="AV21"/>
       <c r="AW21" s="39"/>
       <c r="AX21"/>
-      <c r="AY21" s="62" t="s">
+      <c r="AY21" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="AZ21" s="62"/>
-      <c r="BA21" s="62"/>
+      <c r="AZ21" s="63"/>
+      <c r="BA21" s="63"/>
       <c r="BB21"/>
-      <c r="BC21" s="62" t="s">
+      <c r="BC21" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="BD21" s="62"/>
-      <c r="BE21" s="62"/>
+      <c r="BD21" s="63"/>
+      <c r="BE21" s="63"/>
       <c r="BF21"/>
       <c r="BG21" s="2"/>
       <c r="BH21" s="2"/>
@@ -29793,11 +29793,11 @@
       <c r="D22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
       <c r="J22" s="14" t="s">
         <v>117</v>
       </c>
@@ -29890,7 +29890,7 @@
         <f t="shared" si="20"/>
         <v>3.4332275390625E-2</v>
       </c>
-      <c r="AQ22" s="64"/>
+      <c r="AQ22" s="67"/>
       <c r="AR22" s="3">
         <f>0.505*($AR$9/2)</f>
         <v>2.02</v>
@@ -29927,17 +29927,17 @@
         <v>8</v>
       </c>
       <c r="BF22"/>
-      <c r="BG22" s="62" t="s">
+      <c r="BG22" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="BH22" s="62"/>
-      <c r="BI22" s="62"/>
+      <c r="BH22" s="63"/>
+      <c r="BI22" s="63"/>
       <c r="BJ22" s="2"/>
-      <c r="BK22" s="62" t="s">
+      <c r="BK22" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="BL22" s="62"/>
-      <c r="BM22" s="62"/>
+      <c r="BL22" s="63"/>
+      <c r="BM22" s="63"/>
       <c r="BN22"/>
       <c r="BO22" s="2">
         <v>18</v>
@@ -30115,7 +30115,7 @@
         <f t="shared" si="20"/>
         <v>1.71661376953125E-2</v>
       </c>
-      <c r="AQ23" s="64"/>
+      <c r="AQ23" s="67"/>
       <c r="AR23" s="3">
         <f>0.615*($AR$9/2)</f>
         <v>2.46</v>
@@ -30124,14 +30124,14 @@
         <v>8</v>
       </c>
       <c r="AT23"/>
-      <c r="AU23" s="63" t="s">
+      <c r="AU23" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="AV23" s="64">
+      <c r="AV23" s="67">
         <f>BH20</f>
         <v>-1.7565500720628791E-9</v>
       </c>
-      <c r="AW23" s="64"/>
+      <c r="AW23" s="67"/>
       <c r="AX23"/>
       <c r="AY23" s="2" t="s">
         <v>158</v>
@@ -30252,11 +30252,11 @@
       </c>
     </row>
     <row r="24" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
       <c r="F24" t="s">
         <v>94</v>
       </c>
@@ -30362,7 +30362,7 @@
         <f t="shared" si="20"/>
         <v>8.58306884765625E-3</v>
       </c>
-      <c r="AQ24" s="64"/>
+      <c r="AQ24" s="67"/>
       <c r="AR24" s="3">
         <f>0.725*($AR$9/2)</f>
         <v>2.9</v>
@@ -30371,12 +30371,12 @@
         <v>8</v>
       </c>
       <c r="AT24"/>
-      <c r="AU24" s="63"/>
-      <c r="AV24" s="64">
+      <c r="AU24" s="70"/>
+      <c r="AV24" s="67">
         <f>BL20</f>
         <v>3.5749579546662247E-9</v>
       </c>
-      <c r="AW24" s="64"/>
+      <c r="AW24" s="67"/>
       <c r="AX24"/>
       <c r="AY24" s="2" t="s">
         <v>163</v>
@@ -30606,7 +30606,7 @@
         <f t="shared" si="20"/>
         <v>4.291534423828125E-3</v>
       </c>
-      <c r="AQ25" s="64"/>
+      <c r="AQ25" s="67"/>
       <c r="AR25" s="3">
         <f>0.835*($AR$9/2)</f>
         <v>3.34</v>
@@ -30615,12 +30615,12 @@
         <v>8</v>
       </c>
       <c r="AT25"/>
-      <c r="AU25" s="63"/>
-      <c r="AV25" s="64">
+      <c r="AU25" s="70"/>
+      <c r="AV25" s="67">
         <f>BH39</f>
         <v>-3.3095017282214201E-9</v>
       </c>
-      <c r="AW25" s="64"/>
+      <c r="AW25" s="67"/>
       <c r="AX25"/>
       <c r="AY25" s="2" t="s">
         <v>167</v>
@@ -30855,7 +30855,7 @@
         <f t="shared" si="20"/>
         <v>2.1457672119140625E-3</v>
       </c>
-      <c r="AQ26" s="64"/>
+      <c r="AQ26" s="67"/>
       <c r="AR26" s="3">
         <f>0.945*($AR$9/2)</f>
         <v>3.78</v>
@@ -30864,12 +30864,12 @@
         <v>8</v>
       </c>
       <c r="AT26"/>
-      <c r="AU26" s="63"/>
-      <c r="AV26" s="64">
+      <c r="AU26" s="70"/>
+      <c r="AV26" s="67">
         <f>BL39</f>
         <v>-3.4190485859175723E-10</v>
       </c>
-      <c r="AW26" s="64"/>
+      <c r="AW26" s="67"/>
       <c r="AX26"/>
       <c r="AY26" s="2" t="s">
         <v>170</v>
@@ -31097,7 +31097,7 @@
         <f t="shared" si="20"/>
         <v>1.0728836059570312E-3</v>
       </c>
-      <c r="AQ27" s="64" t="s">
+      <c r="AQ27" s="67" t="s">
         <v>204</v>
       </c>
       <c r="AR27" s="3">
@@ -31108,12 +31108,12 @@
         <v>8</v>
       </c>
       <c r="AT27"/>
-      <c r="AU27" s="63"/>
-      <c r="AV27" s="64">
+      <c r="AU27" s="70"/>
+      <c r="AV27" s="67">
         <f>BH58</f>
         <v>-5.942139558179349E-10</v>
       </c>
-      <c r="AW27" s="64"/>
+      <c r="AW27" s="67"/>
       <c r="AX27"/>
       <c r="AY27" s="2" t="s">
         <v>174</v>
@@ -31318,7 +31318,7 @@
         <f t="shared" si="20"/>
         <v>5.3644180297851562E-4</v>
       </c>
-      <c r="AQ28" s="64"/>
+      <c r="AQ28" s="67"/>
       <c r="AR28" s="3">
         <f>0.069425*($AR$9/2)</f>
         <v>0.2777</v>
@@ -31327,12 +31327,12 @@
         <v>8</v>
       </c>
       <c r="AT28"/>
-      <c r="AU28" s="63"/>
-      <c r="AV28" s="64">
+      <c r="AU28" s="70"/>
+      <c r="AV28" s="67">
         <f>BL58</f>
         <v>4.158961265654515E-9</v>
       </c>
-      <c r="AW28" s="64"/>
+      <c r="AW28" s="67"/>
       <c r="AX28"/>
       <c r="AY28" s="2" t="s">
         <v>178</v>
@@ -31449,16 +31449,16 @@
       </c>
     </row>
     <row r="29" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="F29" s="54" t="s">
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="F29" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
       <c r="N29" s="6" t="s">
         <v>38</v>
       </c>
@@ -31541,7 +31541,7 @@
         <f t="shared" si="20"/>
         <v>2.6822090148925781E-4</v>
       </c>
-      <c r="AQ29" s="64"/>
+      <c r="AQ29" s="67"/>
       <c r="AR29" s="3">
         <f>0.067375*($AR$9/2)</f>
         <v>0.26950000000000002</v>
@@ -31550,12 +31550,12 @@
         <v>8</v>
       </c>
       <c r="AT29"/>
-      <c r="AU29" s="63"/>
-      <c r="AV29" s="64">
+      <c r="AU29" s="70"/>
+      <c r="AV29" s="67">
         <f>BH77</f>
         <v>1.4573390445804524E-9</v>
       </c>
-      <c r="AW29" s="64"/>
+      <c r="AW29" s="67"/>
       <c r="AX29"/>
       <c r="AY29"/>
       <c r="AZ29"/>
@@ -31674,11 +31674,11 @@
       <c r="H30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="58" t="s">
+      <c r="J30" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
       <c r="U30" s="2">
         <v>26</v>
       </c>
@@ -31754,7 +31754,7 @@
         <f t="shared" si="20"/>
         <v>1.3411045074462891E-4</v>
       </c>
-      <c r="AQ30" s="64"/>
+      <c r="AQ30" s="67"/>
       <c r="AR30" s="3">
         <f>0.065325*($AR$9/2)</f>
         <v>0.26129999999999998</v>
@@ -31766,23 +31766,23 @@
       <c r="AU30" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="AV30" s="64" t="b">
+      <c r="AV30" s="67" t="b">
         <f>IF(AV23&lt;0.00001,IF(AV24&lt;0.00001,IF(AV25&lt;0.00001,IF(AV26&lt;0.00001,IF(AV27&lt;0.00001,IF(AV28&lt;0.00001,IF(AV29&lt;0.00001,TRUE,FALSE),FALSE),FALSE),FALSE),FALSE),FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AW30" s="64"/>
+      <c r="AW30" s="67"/>
       <c r="AX30"/>
-      <c r="AY30" s="62" t="s">
+      <c r="AY30" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="AZ30" s="62"/>
-      <c r="BA30" s="62"/>
+      <c r="AZ30" s="63"/>
+      <c r="BA30" s="63"/>
       <c r="BB30"/>
-      <c r="BC30" s="62" t="s">
+      <c r="BC30" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="BD30" s="62"/>
-      <c r="BE30" s="62"/>
+      <c r="BD30" s="63"/>
+      <c r="BE30" s="63"/>
       <c r="BF30"/>
       <c r="BG30" s="2" t="s">
         <v>183</v>
@@ -31979,7 +31979,7 @@
         <f t="shared" si="20"/>
         <v>6.7055225372314453E-5</v>
       </c>
-      <c r="AQ31" s="64"/>
+      <c r="AQ31" s="67"/>
       <c r="AR31" s="3">
         <f>0.063275*($AR$9/2)</f>
         <v>0.25309999999999999</v>
@@ -32201,7 +32201,7 @@
         <f t="shared" si="20"/>
         <v>3.3527612686157227E-5</v>
       </c>
-      <c r="AQ32" s="64"/>
+      <c r="AQ32" s="67"/>
       <c r="AR32" s="3">
         <f>0.061225*($AR$9/2)</f>
         <v>0.24490000000000001</v>
@@ -32422,7 +32422,7 @@
         <f t="shared" si="20"/>
         <v>1.6763806343078613E-5</v>
       </c>
-      <c r="AQ33" s="64"/>
+      <c r="AQ33" s="67"/>
       <c r="AR33" s="3">
         <f>0.059175*($AR$9/2)</f>
         <v>0.23669999999999999</v>
@@ -32635,7 +32635,7 @@
         <f t="shared" si="20"/>
         <v>8.3819031715393066E-6</v>
       </c>
-      <c r="AQ34" s="64"/>
+      <c r="AQ34" s="67"/>
       <c r="AR34" s="3">
         <f>0.057125*($AR$9/2)</f>
         <v>0.22850000000000001</v>
@@ -32763,11 +32763,11 @@
       </c>
     </row>
     <row r="35" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
       <c r="J35" s="15" t="s">
         <v>73</v>
       </c>
@@ -32814,7 +32814,7 @@
         <f t="shared" si="20"/>
         <v>4.1909515857696533E-6</v>
       </c>
-      <c r="AQ35" s="64" t="s">
+      <c r="AQ35" s="67" t="s">
         <v>223</v>
       </c>
       <c r="AR35" s="3">
@@ -32942,7 +32942,7 @@
         <f t="shared" si="20"/>
         <v>2.0954757928848267E-6</v>
       </c>
-      <c r="AQ36" s="64"/>
+      <c r="AQ36" s="67"/>
       <c r="AR36" s="3">
         <v>5.58</v>
       </c>
@@ -33063,7 +33063,7 @@
         <f t="shared" si="20"/>
         <v>1.0477378964424133E-6</v>
       </c>
-      <c r="AQ37" s="64"/>
+      <c r="AQ37" s="67"/>
       <c r="AR37" s="3">
         <v>4.26</v>
       </c>
@@ -33184,11 +33184,11 @@
       <c r="C38" s="17">
         <v>0.8</v>
       </c>
-      <c r="J38" s="58" t="s">
+      <c r="J38" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
       <c r="AF38" s="2">
         <v>34</v>
       </c>
@@ -33225,7 +33225,7 @@
         <f t="shared" si="20"/>
         <v>5.2386894822120667E-7</v>
       </c>
-      <c r="AQ38" s="64"/>
+      <c r="AQ38" s="67"/>
       <c r="AR38" s="3">
         <v>2.94</v>
       </c>
@@ -33354,7 +33354,7 @@
         <f t="shared" si="20"/>
         <v>2.6193447411060333E-7</v>
       </c>
-      <c r="AQ39" s="64"/>
+      <c r="AQ39" s="67"/>
       <c r="AR39" s="3">
         <v>1.62</v>
       </c>
@@ -33473,11 +33473,11 @@
       </c>
     </row>
     <row r="40" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
       <c r="J40" s="11" t="s">
         <v>55</v>
       </c>
@@ -33524,7 +33524,7 @@
         <f t="shared" si="20"/>
         <v>1.3096723705530167E-7</v>
       </c>
-      <c r="AQ40" s="64"/>
+      <c r="AQ40" s="67"/>
       <c r="AR40" s="3">
         <v>0.3</v>
       </c>
@@ -33682,7 +33682,7 @@
         <f t="shared" si="20"/>
         <v>6.5483618527650833E-8</v>
       </c>
-      <c r="AQ41" s="64"/>
+      <c r="AQ41" s="67"/>
       <c r="AR41" s="3">
         <v>-1.02</v>
       </c>
@@ -33693,10 +33693,10 @@
       <c r="AU41" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AV41" s="66" t="s">
+      <c r="AV41" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="AW41" s="66"/>
+      <c r="AW41" s="69"/>
       <c r="AX41" s="24"/>
       <c r="AY41" s="24"/>
       <c r="AZ41" s="24"/>
@@ -33706,17 +33706,17 @@
       <c r="BD41" s="24"/>
       <c r="BE41" s="25"/>
       <c r="BF41"/>
-      <c r="BG41" s="62" t="s">
+      <c r="BG41" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="BH41" s="62"/>
-      <c r="BI41" s="62"/>
+      <c r="BH41" s="63"/>
+      <c r="BI41" s="63"/>
       <c r="BJ41" s="2"/>
-      <c r="BK41" s="62" t="s">
+      <c r="BK41" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="BL41" s="62"/>
-      <c r="BM41" s="62"/>
+      <c r="BL41" s="63"/>
+      <c r="BM41" s="63"/>
       <c r="BN41"/>
       <c r="BO41" s="2">
         <v>3</v>
@@ -33848,7 +33848,7 @@
         <f t="shared" si="20"/>
         <v>3.2741809263825417E-8</v>
       </c>
-      <c r="AQ42" s="64"/>
+      <c r="AQ42" s="67"/>
       <c r="AR42" s="3">
         <v>-2.34</v>
       </c>
@@ -33857,22 +33857,22 @@
       </c>
       <c r="AT42"/>
       <c r="AU42" s="27"/>
-      <c r="AV42" s="63" t="s">
+      <c r="AV42" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="AW42" s="63"/>
-      <c r="AX42" s="63"/>
-      <c r="AY42" s="63" t="s">
+      <c r="AW42" s="70"/>
+      <c r="AX42" s="70"/>
+      <c r="AY42" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="AZ42" s="63"/>
-      <c r="BA42" s="63"/>
-      <c r="BB42" s="63"/>
-      <c r="BC42" s="63" t="s">
+      <c r="AZ42" s="70"/>
+      <c r="BA42" s="70"/>
+      <c r="BB42" s="70"/>
+      <c r="BC42" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="BD42" s="63"/>
-      <c r="BE42" s="65"/>
+      <c r="BD42" s="70"/>
+      <c r="BE42" s="71"/>
       <c r="BF42"/>
       <c r="BG42" s="28" t="s">
         <v>154</v>
@@ -34040,10 +34040,10 @@
       <c r="AX43" s="2">
         <v>-9.5</v>
       </c>
-      <c r="AY43" s="63" t="s">
+      <c r="AY43" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="AZ43" s="63"/>
+      <c r="AZ43" s="70"/>
       <c r="BA43" s="2">
         <v>-9.5</v>
       </c>
@@ -34491,11 +34491,11 @@
       </c>
     </row>
     <row r="46" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
       <c r="AQ46" s="2" t="s">
         <v>31</v>
       </c>
@@ -34621,12 +34621,12 @@
       <c r="D47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AF47" s="72" t="s">
+      <c r="AF47" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="AG47" s="72"/>
-      <c r="AH47" s="72"/>
-      <c r="AI47" s="72"/>
+      <c r="AG47" s="62"/>
+      <c r="AH47" s="62"/>
+      <c r="AI47" s="62"/>
       <c r="AJ47" s="2"/>
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
@@ -34637,10 +34637,10 @@
       <c r="AU47" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AV47" s="66" t="s">
+      <c r="AV47" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="AW47" s="66"/>
+      <c r="AW47" s="69"/>
       <c r="AX47" s="24"/>
       <c r="AY47" s="24"/>
       <c r="AZ47" s="24"/>
@@ -34784,21 +34784,21 @@
       </c>
       <c r="AT48"/>
       <c r="AU48" s="27"/>
-      <c r="AV48" s="63" t="s">
+      <c r="AV48" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="AW48" s="63"/>
-      <c r="AX48" s="63"/>
-      <c r="AY48" s="63" t="s">
+      <c r="AW48" s="70"/>
+      <c r="AX48" s="70"/>
+      <c r="AY48" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="AZ48" s="63"/>
-      <c r="BA48" s="63"/>
-      <c r="BB48" s="63" t="s">
+      <c r="AZ48" s="70"/>
+      <c r="BA48" s="70"/>
+      <c r="BB48" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="BC48" s="63"/>
-      <c r="BD48" s="63"/>
+      <c r="BC48" s="70"/>
+      <c r="BD48" s="70"/>
       <c r="BE48" s="49"/>
       <c r="BF48"/>
       <c r="BG48" s="2" t="s">
@@ -35095,7 +35095,7 @@
         <v>1450</v>
       </c>
       <c r="AT50"/>
-      <c r="AU50" s="70" t="s">
+      <c r="AU50" s="72" t="s">
         <v>160</v>
       </c>
       <c r="AV50" s="51">
@@ -35257,7 +35257,7 @@
         <v>725</v>
       </c>
       <c r="AT51"/>
-      <c r="AU51" s="70"/>
+      <c r="AU51" s="72"/>
       <c r="AV51" s="27">
         <v>-1.144044407873E-4</v>
       </c>
@@ -35380,11 +35380,11 @@
       </c>
     </row>
     <row r="52" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
       <c r="AF52" s="2">
         <v>3</v>
       </c>
@@ -35422,22 +35422,22 @@
         <v>362.5</v>
       </c>
       <c r="AT52"/>
-      <c r="AU52" s="70"/>
-      <c r="AV52" s="67">
+      <c r="AU52" s="72"/>
+      <c r="AV52" s="64">
         <v>-2.2751380819795499</v>
       </c>
-      <c r="AW52" s="68"/>
-      <c r="AX52" s="69"/>
-      <c r="AY52" s="67">
+      <c r="AW52" s="65"/>
+      <c r="AX52" s="66"/>
+      <c r="AY52" s="64">
         <v>0.14939144598517301</v>
       </c>
-      <c r="AZ52" s="68"/>
-      <c r="BA52" s="69"/>
-      <c r="BB52" s="64">
+      <c r="AZ52" s="65"/>
+      <c r="BA52" s="66"/>
+      <c r="BB52" s="67">
         <v>3.3811980767955601</v>
       </c>
-      <c r="BC52" s="64"/>
-      <c r="BD52" s="73"/>
+      <c r="BC52" s="67"/>
+      <c r="BD52" s="68"/>
       <c r="BE52" s="27"/>
       <c r="BF52"/>
       <c r="BG52" s="2" t="s">
@@ -35576,7 +35576,7 @@
         <v>181.25</v>
       </c>
       <c r="AT53"/>
-      <c r="AU53" s="70" t="s">
+      <c r="AU53" s="72" t="s">
         <v>164</v>
       </c>
       <c r="AV53" s="51">
@@ -35744,7 +35744,7 @@
         <v>90.625</v>
       </c>
       <c r="AT54"/>
-      <c r="AU54" s="70"/>
+      <c r="AU54" s="72"/>
       <c r="AV54" s="27">
         <v>-3.2678211540000002E-6</v>
       </c>
@@ -35910,22 +35910,22 @@
         <v>45.3125</v>
       </c>
       <c r="AT55"/>
-      <c r="AU55" s="71"/>
-      <c r="AV55" s="67">
+      <c r="AU55" s="73"/>
+      <c r="AV55" s="64">
         <v>-2.92797950805124E-2</v>
       </c>
-      <c r="AW55" s="68"/>
-      <c r="AX55" s="69"/>
-      <c r="AY55" s="68">
+      <c r="AW55" s="65"/>
+      <c r="AX55" s="66"/>
+      <c r="AY55" s="65">
         <v>4.8575804011639703E-2</v>
       </c>
-      <c r="AZ55" s="68"/>
-      <c r="BA55" s="68"/>
-      <c r="BB55" s="67">
+      <c r="AZ55" s="65"/>
+      <c r="BA55" s="65"/>
+      <c r="BB55" s="64">
         <v>7.4720850653456003E-3</v>
       </c>
-      <c r="BC55" s="68"/>
-      <c r="BD55" s="69"/>
+      <c r="BC55" s="65"/>
+      <c r="BD55" s="66"/>
       <c r="BE55"/>
       <c r="BF55"/>
       <c r="BG55" s="2" t="s">
@@ -36634,17 +36634,17 @@
       <c r="BD60"/>
       <c r="BE60"/>
       <c r="BF60"/>
-      <c r="BG60" s="62" t="s">
+      <c r="BG60" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="BH60" s="62"/>
-      <c r="BI60" s="62"/>
+      <c r="BH60" s="63"/>
+      <c r="BI60" s="63"/>
       <c r="BJ60" s="2"/>
-      <c r="BK60" s="62" t="s">
+      <c r="BK60" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="BL60" s="62"/>
-      <c r="BM60" s="62"/>
+      <c r="BL60" s="63"/>
+      <c r="BM60" s="63"/>
       <c r="BN60"/>
       <c r="BO60" s="2">
         <v>22</v>
@@ -44810,20 +44810,62 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="BZ104:CI104"/>
-    <mergeCell ref="AF47:AI47"/>
-    <mergeCell ref="BO104:BX104"/>
-    <mergeCell ref="BG60:BI60"/>
-    <mergeCell ref="BO70:BX70"/>
-    <mergeCell ref="BZ70:CI70"/>
-    <mergeCell ref="AY52:BA52"/>
-    <mergeCell ref="AY55:BA55"/>
-    <mergeCell ref="BB52:BD52"/>
-    <mergeCell ref="BB55:BD55"/>
-    <mergeCell ref="AV47:AW47"/>
-    <mergeCell ref="AV48:AX48"/>
-    <mergeCell ref="AY48:BA48"/>
-    <mergeCell ref="BB48:BD48"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="BZ2:CI2"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AY2:BE2"/>
+    <mergeCell ref="BG2:BM2"/>
+    <mergeCell ref="BO2:BX2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BK22:BM22"/>
+    <mergeCell ref="AU23:AU29"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AU14:AW14"/>
+    <mergeCell ref="AU22:AW22"/>
+    <mergeCell ref="BG22:BI22"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AQ27:AQ34"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AY30:BA30"/>
+    <mergeCell ref="BC30:BE30"/>
+    <mergeCell ref="AQ7:AS7"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AY12:BA12"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="AY21:BA21"/>
+    <mergeCell ref="BC21:BE21"/>
+    <mergeCell ref="AQ11:AQ18"/>
+    <mergeCell ref="AQ19:AQ26"/>
     <mergeCell ref="AQ35:AQ42"/>
     <mergeCell ref="AV42:AX42"/>
     <mergeCell ref="BK60:BM60"/>
@@ -44840,62 +44882,20 @@
     <mergeCell ref="AU50:AU52"/>
     <mergeCell ref="AU53:AU55"/>
     <mergeCell ref="AV55:AX55"/>
-    <mergeCell ref="AQ7:AS7"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AY12:BA12"/>
-    <mergeCell ref="BC12:BE12"/>
-    <mergeCell ref="AY21:BA21"/>
-    <mergeCell ref="BC21:BE21"/>
-    <mergeCell ref="AQ11:AQ18"/>
-    <mergeCell ref="AQ19:AQ26"/>
-    <mergeCell ref="AQ27:AQ34"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AY30:BA30"/>
-    <mergeCell ref="BC30:BE30"/>
-    <mergeCell ref="BK22:BM22"/>
-    <mergeCell ref="AU23:AU29"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AU14:AW14"/>
-    <mergeCell ref="AU22:AW22"/>
-    <mergeCell ref="BG22:BI22"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="BZ2:CI2"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="BG3:BI3"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AY2:BE2"/>
-    <mergeCell ref="BG2:BM2"/>
-    <mergeCell ref="BO2:BX2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="BZ104:CI104"/>
+    <mergeCell ref="AF47:AI47"/>
+    <mergeCell ref="BO104:BX104"/>
+    <mergeCell ref="BG60:BI60"/>
+    <mergeCell ref="BO70:BX70"/>
+    <mergeCell ref="BZ70:CI70"/>
+    <mergeCell ref="AY52:BA52"/>
+    <mergeCell ref="AY55:BA55"/>
+    <mergeCell ref="BB52:BD52"/>
+    <mergeCell ref="BB55:BD55"/>
+    <mergeCell ref="AV47:AW47"/>
+    <mergeCell ref="AV48:AX48"/>
+    <mergeCell ref="AY48:BA48"/>
+    <mergeCell ref="BB48:BD48"/>
   </mergeCells>
   <conditionalFormatting sqref="G12">
     <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="FALSE">
@@ -44946,8 +44946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF2CC91-5E9A-2041-A25C-AEB7F568B05D}">
   <dimension ref="B1:AO81"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="B1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44988,11 +44988,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -45003,26 +45003,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="F3" s="54" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="F3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="J3" s="58" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="N3" s="58" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
       <c r="U3" s="7" t="s">
         <v>44</v>
       </c>
@@ -45644,11 +45644,11 @@
       <c r="H9" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="J9" s="58" t="s">
+      <c r="J9" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
       <c r="N9" s="6" t="s">
         <v>122</v>
       </c>
@@ -45962,11 +45962,11 @@
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
       <c r="N12" s="6" t="s">
         <v>235</v>
       </c>
@@ -46263,11 +46263,11 @@
       </c>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
       <c r="F15" s="6" t="s">
         <v>240</v>
       </c>
@@ -46617,11 +46617,11 @@
       <c r="L18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="54" t="s">
+      <c r="N18" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
       <c r="U18" s="2">
         <v>14</v>
       </c>
@@ -46803,11 +46803,11 @@
       </c>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
       <c r="F20" s="44" t="s">
         <v>225</v>
       </c>
@@ -47024,11 +47024,11 @@
       <c r="C22" s="17">
         <v>2</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
       <c r="J22" s="14" t="s">
         <v>241</v>
       </c>
@@ -47563,11 +47563,11 @@
       </c>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
       <c r="F27" t="s">
         <v>100</v>
       </c>
@@ -48001,11 +48001,11 @@
       <c r="C31" s="17">
         <v>0.75</v>
       </c>
-      <c r="F31" s="54" t="s">
+      <c r="F31" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
       <c r="J31" s="6" t="s">
         <v>58</v>
       </c>
@@ -48278,11 +48278,11 @@
       </c>
     </row>
     <row r="34" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
       <c r="J34" s="6" t="s">
         <v>60</v>
       </c>
@@ -48586,11 +48586,11 @@
       </c>
     </row>
     <row r="39" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
       <c r="J39" s="10" t="s">
         <v>62</v>
       </c>
@@ -48690,11 +48690,11 @@
         <f>IF(C40="wheeled",0.0325,0.014)</f>
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="J41" s="58" t="s">
+      <c r="J41" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
       <c r="AF41" s="2">
         <v>37</v>
       </c>
@@ -48892,11 +48892,11 @@
       </c>
     </row>
     <row r="45" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
       <c r="J45" s="20" t="s">
         <v>72</v>
       </c>
@@ -48939,11 +48939,11 @@
       </c>
     </row>
     <row r="48" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
@@ -48978,11 +48978,11 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
@@ -49028,11 +49028,11 @@
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
@@ -49062,11 +49062,11 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="58" t="s">
+      <c r="B64" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
@@ -49113,11 +49113,11 @@
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
@@ -49164,11 +49164,11 @@
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="58" t="s">
+      <c r="B76" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="58"/>
-      <c r="D76" s="58"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
@@ -49215,16 +49215,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B70:D70"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B39:D39"/>
@@ -49232,12 +49228,16 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="FALSE">
@@ -49315,11 +49315,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="2:45" x14ac:dyDescent="0.2">
       <c r="Y2" s="16" t="s">
@@ -49330,31 +49330,31 @@
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="F3" s="54" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="F3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="J3" s="58" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="N3" s="58" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="R3" s="58" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="R3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
       <c r="Y3" s="7" t="s">
         <v>44</v>
       </c>
@@ -50016,11 +50016,11 @@
       <c r="H9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="58" t="s">
+      <c r="J9" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
       <c r="N9" s="6" t="s">
         <v>122</v>
       </c>
@@ -50803,16 +50803,16 @@
       </c>
     </row>
     <row r="16" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="F16" s="54" t="s">
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="F16" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
       <c r="J16" s="12" t="s">
         <v>135</v>
       </c>
@@ -51049,16 +51049,16 @@
       <c r="L18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="54" t="s">
+      <c r="N18" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="R18" s="54" t="s">
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="R18" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
       <c r="Y18" s="2">
         <v>14</v>
       </c>
@@ -51376,11 +51376,11 @@
       </c>
     </row>
     <row r="21" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
       <c r="F21" s="9" t="s">
         <v>100</v>
       </c>
@@ -51967,11 +51967,11 @@
       <c r="D26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="58" t="s">
+      <c r="F26" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
       <c r="J26" s="15" t="s">
         <v>67</v>
       </c>
@@ -52190,11 +52190,11 @@
       </c>
     </row>
     <row r="28" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
       <c r="F28" s="6" t="s">
         <v>94</v>
       </c>
@@ -52920,16 +52920,16 @@
       </c>
     </row>
     <row r="35" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="F35" s="54" t="s">
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="F35" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
       <c r="J35" s="11" t="s">
         <v>55</v>
       </c>
@@ -53323,11 +53323,11 @@
       </c>
     </row>
     <row r="40" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
       <c r="Y40" s="2">
         <v>2</v>
       </c>
@@ -53411,11 +53411,11 @@
       <c r="C41" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="J41" s="58" t="s">
+      <c r="J41" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
       <c r="Y41" s="2">
         <v>3</v>
       </c>
@@ -53827,11 +53827,11 @@
       </c>
     </row>
     <row r="46" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
       <c r="J46" s="15" t="s">
         <v>73</v>
       </c>
@@ -53981,11 +53981,11 @@
       </c>
     </row>
     <row r="49" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
       <c r="Y49" s="2">
         <v>11</v>
       </c>
@@ -54217,11 +54217,11 @@
       </c>
     </row>
     <row r="54" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
       <c r="Y54" s="2">
         <v>16</v>
       </c>
@@ -54503,11 +54503,11 @@
       </c>
     </row>
     <row r="60" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B60" s="54" t="s">
+      <c r="B60" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
       <c r="Y60" s="2">
         <v>22</v>
       </c>
@@ -54734,11 +54734,11 @@
       </c>
     </row>
     <row r="65" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B65" s="58" t="s">
+      <c r="B65" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
       <c r="Y65" s="2">
         <v>27</v>
       </c>
@@ -54941,11 +54941,11 @@
       </c>
     </row>
     <row r="71" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B71" s="58" t="s">
+      <c r="B71" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
     </row>
     <row r="72" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B72" s="6" t="s">
@@ -54992,11 +54992,11 @@
       </c>
     </row>
     <row r="77" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B77" s="58" t="s">
+      <c r="B77" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
     </row>
     <row r="78" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
@@ -55043,6 +55043,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="J9:L9"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B71:D71"/>
@@ -55058,16 +55068,6 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F35:H35"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="J9:L9"/>
   </mergeCells>
   <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="FALSE">
@@ -55098,8 +55098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8895AA02-1E62-EB44-9405-A51AF8F8C1C2}">
   <dimension ref="B1:CI136"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="E1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55158,11 +55158,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="2:87" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -55225,26 +55225,26 @@
       <c r="CI2" s="61"/>
     </row>
     <row r="3" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="F3" s="54" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="F3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="J3" s="58" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="J3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="N3" s="58" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
       <c r="U3" s="7" t="s">
         <v>44</v>
       </c>
@@ -55325,27 +55325,27 @@
       <c r="AW3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AY3" s="62" t="s">
+      <c r="AY3" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
-      <c r="BC3" s="62" t="s">
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="63"/>
+      <c r="BC3" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BG3" s="62" t="s">
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
+      <c r="BG3" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
       <c r="BJ3" s="2"/>
-      <c r="BK3" s="62" t="s">
+      <c r="BK3" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
+      <c r="BL3" s="63"/>
+      <c r="BM3" s="63"/>
       <c r="BO3" s="7" t="s">
         <v>44</v>
       </c>
@@ -55686,7 +55686,7 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
         <v>-1297.0564557602911</v>
       </c>
       <c r="AI5" s="3">
@@ -56570,11 +56570,11 @@
       <c r="H9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="58" t="s">
+      <c r="J9" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
       <c r="N9" s="6" t="s">
         <v>122</v>
       </c>
@@ -57140,7 +57140,7 @@
         <f t="shared" si="20"/>
         <v>70.3125</v>
       </c>
-      <c r="AQ11" s="64" t="s">
+      <c r="AQ11" s="67" t="s">
         <v>181</v>
       </c>
       <c r="AR11" s="3" t="s">
@@ -57348,7 +57348,7 @@
         <f t="shared" si="20"/>
         <v>35.15625</v>
       </c>
-      <c r="AQ12" s="64"/>
+      <c r="AQ12" s="67"/>
       <c r="AR12" s="3" t="s">
         <v>219</v>
       </c>
@@ -57363,16 +57363,16 @@
       <c r="AW12" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="AY12" s="62" t="s">
+      <c r="AY12" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="AZ12" s="62"/>
-      <c r="BA12" s="62"/>
-      <c r="BC12" s="62" t="s">
+      <c r="AZ12" s="63"/>
+      <c r="BA12" s="63"/>
+      <c r="BC12" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="BD12" s="62"/>
-      <c r="BE12" s="62"/>
+      <c r="BD12" s="63"/>
+      <c r="BE12" s="63"/>
       <c r="BG12" s="2" t="s">
         <v>187</v>
       </c>
@@ -57570,7 +57570,7 @@
         <f t="shared" si="20"/>
         <v>17.578125</v>
       </c>
-      <c r="AQ13" s="64"/>
+      <c r="AQ13" s="67"/>
       <c r="AR13" s="3" t="s">
         <v>219</v>
       </c>
@@ -57787,7 +57787,7 @@
         <f t="shared" si="20"/>
         <v>8.7890625</v>
       </c>
-      <c r="AQ14" s="64"/>
+      <c r="AQ14" s="67"/>
       <c r="AR14" s="3" t="s">
         <v>219</v>
       </c>
@@ -57908,11 +57908,11 @@
       </c>
     </row>
     <row r="15" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
       <c r="J15" s="11" t="s">
         <v>55</v>
       </c>
@@ -58005,7 +58005,7 @@
         <f t="shared" si="20"/>
         <v>4.39453125</v>
       </c>
-      <c r="AQ15" s="64"/>
+      <c r="AQ15" s="67"/>
       <c r="AR15" s="3" t="s">
         <v>219</v>
       </c>
@@ -58131,11 +58131,11 @@
       </c>
     </row>
     <row r="16" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
       <c r="F16" s="9" t="s">
         <v>92</v>
       </c>
@@ -58238,7 +58238,7 @@
         <f t="shared" si="20"/>
         <v>2.197265625</v>
       </c>
-      <c r="AQ16" s="64"/>
+      <c r="AQ16" s="67"/>
       <c r="AR16" s="3" t="s">
         <v>219</v>
       </c>
@@ -58466,7 +58466,7 @@
         <f t="shared" si="20"/>
         <v>1.0986328125</v>
       </c>
-      <c r="AQ17" s="64"/>
+      <c r="AQ17" s="67"/>
       <c r="AR17" s="3" t="s">
         <v>219</v>
       </c>
@@ -58615,11 +58615,11 @@
       <c r="L18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="54" t="s">
+      <c r="N18" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
       <c r="U18" s="2">
         <v>14</v>
       </c>
@@ -58695,7 +58695,7 @@
         <f t="shared" si="20"/>
         <v>0.54931640625</v>
       </c>
-      <c r="AQ18" s="64"/>
+      <c r="AQ18" s="67"/>
       <c r="AR18" s="3" t="s">
         <v>219</v>
       </c>
@@ -58929,7 +58929,7 @@
         <f t="shared" si="20"/>
         <v>0.274658203125</v>
       </c>
-      <c r="AQ19" s="64" t="s">
+      <c r="AQ19" s="67" t="s">
         <v>195</v>
       </c>
       <c r="AR19" s="3">
@@ -59163,7 +59163,7 @@
         <f t="shared" si="20"/>
         <v>0.1373291015625</v>
       </c>
-      <c r="AQ20" s="64"/>
+      <c r="AQ20" s="67"/>
       <c r="AR20" s="3">
         <f>0.358125*($AR$9/2)</f>
         <v>0.54578250000000006</v>
@@ -59270,11 +59270,11 @@
       </c>
     </row>
     <row r="21" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
       <c r="J21" s="14" t="s">
         <v>64</v>
       </c>
@@ -59370,7 +59370,7 @@
         <f t="shared" si="20"/>
         <v>6.866455078125E-2</v>
       </c>
-      <c r="AQ21" s="64"/>
+      <c r="AQ21" s="67"/>
       <c r="AR21" s="3">
         <f>0.456875*($AR$9/2)</f>
         <v>0.69627749999999999</v>
@@ -59379,16 +59379,16 @@
         <v>8</v>
       </c>
       <c r="AW21" s="26"/>
-      <c r="AY21" s="62" t="s">
+      <c r="AY21" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="AZ21" s="62"/>
-      <c r="BA21" s="62"/>
-      <c r="BC21" s="62" t="s">
+      <c r="AZ21" s="63"/>
+      <c r="BA21" s="63"/>
+      <c r="BC21" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="BD21" s="62"/>
-      <c r="BE21" s="62"/>
+      <c r="BD21" s="63"/>
+      <c r="BE21" s="63"/>
       <c r="BG21" s="2"/>
       <c r="BH21" s="2"/>
       <c r="BI21" s="2"/>
@@ -59476,11 +59476,11 @@
       <c r="C22" s="17">
         <v>8</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
       <c r="J22" s="14" t="s">
         <v>241</v>
       </c>
@@ -59573,7 +59573,7 @@
         <f t="shared" si="20"/>
         <v>3.4332275390625E-2</v>
       </c>
-      <c r="AQ22" s="64"/>
+      <c r="AQ22" s="67"/>
       <c r="AR22" s="3">
         <f>0.555625*($AR$9/2)</f>
         <v>0.84677250000000004</v>
@@ -59606,17 +59606,17 @@
       <c r="BE22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BG22" s="62" t="s">
+      <c r="BG22" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="BH22" s="62"/>
-      <c r="BI22" s="62"/>
+      <c r="BH22" s="63"/>
+      <c r="BI22" s="63"/>
       <c r="BJ22" s="2"/>
-      <c r="BK22" s="62" t="s">
+      <c r="BK22" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="BL22" s="62"/>
-      <c r="BM22" s="62"/>
+      <c r="BL22" s="63"/>
+      <c r="BM22" s="63"/>
       <c r="BO22" s="2">
         <v>18</v>
       </c>
@@ -59799,7 +59799,7 @@
         <f t="shared" si="20"/>
         <v>1.71661376953125E-2</v>
       </c>
-      <c r="AQ23" s="64"/>
+      <c r="AQ23" s="67"/>
       <c r="AR23" s="3">
         <f>0.654375*($AR$9/2)</f>
         <v>0.99726750000000008</v>
@@ -59807,14 +59807,14 @@
       <c r="AS23" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU23" s="63" t="s">
+      <c r="AU23" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="AV23" s="64">
+      <c r="AV23" s="67">
         <f>BH20</f>
         <v>8.035629328606575E-9</v>
       </c>
-      <c r="AW23" s="64"/>
+      <c r="AW23" s="67"/>
       <c r="AY23" s="2" t="s">
         <v>158</v>
       </c>
@@ -60038,7 +60038,7 @@
         <f t="shared" si="20"/>
         <v>8.58306884765625E-3</v>
       </c>
-      <c r="AQ24" s="64"/>
+      <c r="AQ24" s="67"/>
       <c r="AR24" s="3">
         <f>0.753125*($AR$9/2)</f>
         <v>1.1477625</v>
@@ -60046,12 +60046,12 @@
       <c r="AS24" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU24" s="63"/>
-      <c r="AV24" s="64">
+      <c r="AU24" s="70"/>
+      <c r="AV24" s="67">
         <f>BL20</f>
         <v>5.9086911474715009E-9</v>
       </c>
-      <c r="AW24" s="64"/>
+      <c r="AW24" s="67"/>
       <c r="AY24" s="2" t="s">
         <v>163</v>
       </c>
@@ -60278,7 +60278,7 @@
         <f t="shared" si="20"/>
         <v>4.291534423828125E-3</v>
       </c>
-      <c r="AQ25" s="64"/>
+      <c r="AQ25" s="67"/>
       <c r="AR25" s="3">
         <f>0.851875*($AR$9/2)</f>
         <v>1.2982575000000001</v>
@@ -60286,12 +60286,12 @@
       <c r="AS25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU25" s="63"/>
-      <c r="AV25" s="64">
+      <c r="AU25" s="70"/>
+      <c r="AV25" s="67">
         <f>BH39</f>
         <v>3.7158728524722129E-9</v>
       </c>
-      <c r="AW25" s="64"/>
+      <c r="AW25" s="67"/>
       <c r="AY25" s="2" t="s">
         <v>167</v>
       </c>
@@ -60518,7 +60518,7 @@
         <f t="shared" si="20"/>
         <v>2.1457672119140625E-3</v>
       </c>
-      <c r="AQ26" s="64"/>
+      <c r="AQ26" s="67"/>
       <c r="AR26" s="3">
         <f>0.950625*($AR$9/2)</f>
         <v>1.4487525000000001</v>
@@ -60526,12 +60526,12 @@
       <c r="AS26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AU26" s="63"/>
-      <c r="AV26" s="64">
+      <c r="AU26" s="70"/>
+      <c r="AV26" s="67">
         <f>BL39</f>
         <v>1.3610837526489838E-9</v>
       </c>
-      <c r="AW26" s="64"/>
+      <c r="AW26" s="67"/>
       <c r="AY26" s="2" t="s">
         <v>170</v>
       </c>
@@ -60748,7 +60748,7 @@
         <f t="shared" si="20"/>
         <v>1.0728836059570312E-3</v>
       </c>
-      <c r="AQ27" s="64" t="s">
+      <c r="AQ27" s="67" t="s">
         <v>204</v>
       </c>
       <c r="AR27" s="3">
@@ -60758,12 +60758,12 @@
       <c r="AS27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU27" s="63"/>
-      <c r="AV27" s="64">
+      <c r="AU27" s="70"/>
+      <c r="AV27" s="67">
         <f>BH58</f>
         <v>-5.6457712810376037E-9</v>
       </c>
-      <c r="AW27" s="64"/>
+      <c r="AW27" s="67"/>
       <c r="AY27" s="2" t="s">
         <v>174</v>
       </c>
@@ -60875,11 +60875,11 @@
       </c>
     </row>
     <row r="28" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
       <c r="J28" s="15" t="s">
         <v>69</v>
       </c>
@@ -60972,7 +60972,7 @@
         <f t="shared" si="20"/>
         <v>5.3644180297851562E-4</v>
       </c>
-      <c r="AQ28" s="64"/>
+      <c r="AQ28" s="67"/>
       <c r="AR28" s="3">
         <f>0.530863*($AR$9/2)</f>
         <v>0.80903521199999995</v>
@@ -60980,12 +60980,12 @@
       <c r="AS28" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU28" s="63"/>
-      <c r="AV28" s="64">
+      <c r="AU28" s="70"/>
+      <c r="AV28" s="67">
         <f>BL58</f>
         <v>-3.968280197497176E-9</v>
       </c>
-      <c r="AW28" s="64"/>
+      <c r="AW28" s="67"/>
       <c r="AY28" s="2" t="s">
         <v>178</v>
       </c>
@@ -61103,11 +61103,11 @@
       <c r="C29" s="17">
         <v>1</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
       <c r="J29" s="15" t="s">
         <v>70</v>
       </c>
@@ -61199,7 +61199,7 @@
         <f t="shared" si="20"/>
         <v>2.6822090148925781E-4</v>
       </c>
-      <c r="AQ29" s="64"/>
+      <c r="AQ29" s="67"/>
       <c r="AR29" s="3">
         <f>0.513438*($AR$9/2)</f>
         <v>0.78247951199999999</v>
@@ -61207,12 +61207,12 @@
       <c r="AS29" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AU29" s="63"/>
-      <c r="AV29" s="64">
+      <c r="AU29" s="70"/>
+      <c r="AV29" s="67">
         <f>BH77</f>
         <v>-1.4129099626392083E-10</v>
       </c>
-      <c r="AW29" s="64"/>
+      <c r="AW29" s="67"/>
       <c r="BG29" s="2" t="s">
         <v>180</v>
       </c>
@@ -61412,7 +61412,7 @@
         <f t="shared" si="20"/>
         <v>1.3411045074462891E-4</v>
       </c>
-      <c r="AQ30" s="64"/>
+      <c r="AQ30" s="67"/>
       <c r="AR30" s="3">
         <f>0.496013*($AR$9/2)</f>
         <v>0.75592381200000003</v>
@@ -61423,21 +61423,21 @@
       <c r="AU30" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="AV30" s="64" t="b">
+      <c r="AV30" s="67" t="b">
         <f>IF(AV23&lt;0.00001,IF(AV24&lt;0.00001,IF(AV25&lt;0.00001,IF(AV26&lt;0.00001,IF(AV27&lt;0.00001,IF(AV28&lt;0.00001,IF(AV29&lt;0.00001,TRUE,FALSE),FALSE),FALSE),FALSE),FALSE),FALSE),FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AW30" s="64"/>
-      <c r="AY30" s="62" t="s">
+      <c r="AW30" s="67"/>
+      <c r="AY30" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="AZ30" s="62"/>
-      <c r="BA30" s="62"/>
-      <c r="BC30" s="62" t="s">
+      <c r="AZ30" s="63"/>
+      <c r="BA30" s="63"/>
+      <c r="BC30" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="BD30" s="62"/>
-      <c r="BE30" s="62"/>
+      <c r="BD30" s="63"/>
+      <c r="BE30" s="63"/>
       <c r="BG30" s="2" t="s">
         <v>183</v>
       </c>
@@ -61628,7 +61628,7 @@
         <f t="shared" si="20"/>
         <v>6.7055225372314453E-5</v>
       </c>
-      <c r="AQ31" s="64"/>
+      <c r="AQ31" s="67"/>
       <c r="AR31" s="3">
         <f>0.478588*($AR$9/2)</f>
         <v>0.72936811200000007</v>
@@ -61828,7 +61828,7 @@
         <f t="shared" si="20"/>
         <v>3.3527612686157227E-5</v>
       </c>
-      <c r="AQ32" s="64"/>
+      <c r="AQ32" s="67"/>
       <c r="AR32" s="3">
         <f>0.461163*($AR$9/2)</f>
         <v>0.702812412</v>
@@ -62036,7 +62036,7 @@
         <f t="shared" si="20"/>
         <v>1.6763806343078613E-5</v>
       </c>
-      <c r="AQ33" s="64"/>
+      <c r="AQ33" s="67"/>
       <c r="AR33" s="3">
         <f>0.443738*($AR$9/2)</f>
         <v>0.67625671200000004</v>
@@ -62239,7 +62239,7 @@
         <f t="shared" si="20"/>
         <v>8.3819031715393066E-6</v>
       </c>
-      <c r="AQ34" s="64"/>
+      <c r="AQ34" s="67"/>
       <c r="AR34" s="3">
         <f>0.426313*($AR$9/2)</f>
         <v>0.64970101199999997</v>
@@ -62357,11 +62357,11 @@
       </c>
     </row>
     <row r="35" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
       <c r="J35" s="11" t="s">
         <v>55</v>
       </c>
@@ -62408,7 +62408,7 @@
         <f t="shared" si="20"/>
         <v>4.1909515857696533E-6</v>
       </c>
-      <c r="AQ35" s="64" t="s">
+      <c r="AQ35" s="67" t="s">
         <v>223</v>
       </c>
       <c r="AR35" s="3">
@@ -62513,7 +62513,7 @@
         <f t="shared" si="20"/>
         <v>2.0954757928848267E-6</v>
       </c>
-      <c r="AQ36" s="64"/>
+      <c r="AQ36" s="67"/>
       <c r="AR36" s="3">
         <v>5.8781249999999998</v>
       </c>
@@ -62637,7 +62637,7 @@
         <f t="shared" si="20"/>
         <v>1.0477378964424133E-6</v>
       </c>
-      <c r="AQ37" s="64"/>
+      <c r="AQ37" s="67"/>
       <c r="AR37" s="3">
         <v>4.3968749999999996</v>
       </c>
@@ -62797,7 +62797,7 @@
         <f t="shared" si="20"/>
         <v>5.2386894822120667E-7</v>
       </c>
-      <c r="AQ38" s="64"/>
+      <c r="AQ38" s="67"/>
       <c r="AR38" s="3">
         <v>2.9156249999999999</v>
       </c>
@@ -62910,7 +62910,7 @@
         <f t="shared" si="20"/>
         <v>2.6193447411060333E-7</v>
       </c>
-      <c r="AQ39" s="64"/>
+      <c r="AQ39" s="67"/>
       <c r="AR39" s="3">
         <v>1.434375</v>
       </c>
@@ -63013,11 +63013,11 @@
       </c>
     </row>
     <row r="40" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
       <c r="AF40" s="2">
         <v>36</v>
       </c>
@@ -63054,7 +63054,7 @@
         <f t="shared" si="20"/>
         <v>1.3096723705530167E-7</v>
       </c>
-      <c r="AQ40" s="64"/>
+      <c r="AQ40" s="67"/>
       <c r="AR40" s="3">
         <v>-4.6875E-2</v>
       </c>
@@ -63141,11 +63141,11 @@
       <c r="C41" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="J41" s="58" t="s">
+      <c r="J41" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
       <c r="AF41" s="2">
         <v>37</v>
       </c>
@@ -63182,7 +63182,7 @@
         <f t="shared" si="20"/>
         <v>6.5483618527650833E-8</v>
       </c>
-      <c r="AQ41" s="64"/>
+      <c r="AQ41" s="67"/>
       <c r="AR41" s="3">
         <v>-1.528125</v>
       </c>
@@ -63192,10 +63192,10 @@
       <c r="AU41" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AV41" s="66" t="s">
+      <c r="AV41" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="AW41" s="66"/>
+      <c r="AW41" s="69"/>
       <c r="AX41" s="24"/>
       <c r="AY41" s="24"/>
       <c r="AZ41" s="24"/>
@@ -63204,17 +63204,17 @@
       <c r="BC41" s="24"/>
       <c r="BD41" s="24"/>
       <c r="BE41" s="25"/>
-      <c r="BG41" s="62" t="s">
+      <c r="BG41" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="BH41" s="62"/>
-      <c r="BI41" s="62"/>
+      <c r="BH41" s="63"/>
+      <c r="BI41" s="63"/>
       <c r="BJ41" s="2"/>
-      <c r="BK41" s="62" t="s">
+      <c r="BK41" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="BL41" s="62"/>
-      <c r="BM41" s="62"/>
+      <c r="BL41" s="63"/>
+      <c r="BM41" s="63"/>
       <c r="BO41" s="2">
         <v>3</v>
       </c>
@@ -63342,7 +63342,7 @@
         <f t="shared" si="20"/>
         <v>3.2741809263825417E-8</v>
       </c>
-      <c r="AQ42" s="64"/>
+      <c r="AQ42" s="67"/>
       <c r="AR42" s="3">
         <v>-3.0093749999999999</v>
       </c>
@@ -63350,22 +63350,22 @@
         <v>43</v>
       </c>
       <c r="AU42" s="27"/>
-      <c r="AV42" s="63" t="s">
+      <c r="AV42" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="AW42" s="63"/>
-      <c r="AX42" s="63"/>
-      <c r="AY42" s="63" t="s">
+      <c r="AW42" s="70"/>
+      <c r="AX42" s="70"/>
+      <c r="AY42" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="AZ42" s="63"/>
-      <c r="BA42" s="63"/>
-      <c r="BB42" s="63"/>
-      <c r="BC42" s="63" t="s">
+      <c r="AZ42" s="70"/>
+      <c r="BA42" s="70"/>
+      <c r="BB42" s="70"/>
+      <c r="BC42" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="BD42" s="63"/>
-      <c r="BE42" s="65"/>
+      <c r="BD42" s="70"/>
+      <c r="BE42" s="71"/>
       <c r="BG42" s="28" t="s">
         <v>154</v>
       </c>
@@ -63529,10 +63529,10 @@
       <c r="AX43" s="2">
         <v>-9.5</v>
       </c>
-      <c r="AY43" s="63" t="s">
+      <c r="AY43" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="AZ43" s="63"/>
+      <c r="AZ43" s="70"/>
       <c r="BA43" s="2">
         <v>-9.5</v>
       </c>
@@ -63976,11 +63976,11 @@
       </c>
     </row>
     <row r="46" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
       <c r="J46" s="15" t="s">
         <v>73</v>
       </c>
@@ -64108,19 +64108,19 @@
       <c r="L47" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AF47" s="63" t="s">
+      <c r="AF47" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="AG47" s="63"/>
-      <c r="AH47" s="63"/>
-      <c r="AI47" s="63"/>
+      <c r="AG47" s="70"/>
+      <c r="AH47" s="70"/>
+      <c r="AI47" s="70"/>
       <c r="AU47" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AV47" s="66" t="s">
+      <c r="AV47" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="AW47" s="66"/>
+      <c r="AW47" s="69"/>
       <c r="AX47" s="24"/>
       <c r="AY47" s="24"/>
       <c r="AZ47" s="24"/>
@@ -64250,21 +64250,21 @@
         <v>53</v>
       </c>
       <c r="AU48" s="27"/>
-      <c r="AV48" s="63" t="s">
+      <c r="AV48" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="AW48" s="63"/>
-      <c r="AX48" s="63"/>
-      <c r="AY48" s="63" t="s">
+      <c r="AW48" s="70"/>
+      <c r="AX48" s="70"/>
+      <c r="AY48" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="AZ48" s="63"/>
-      <c r="BA48" s="63"/>
-      <c r="BB48" s="63" t="s">
+      <c r="AZ48" s="70"/>
+      <c r="BA48" s="70"/>
+      <c r="BB48" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="BC48" s="63"/>
-      <c r="BD48" s="65"/>
+      <c r="BC48" s="70"/>
+      <c r="BD48" s="71"/>
       <c r="BG48" s="2" t="s">
         <v>180</v>
       </c>
@@ -64356,11 +64356,11 @@
       </c>
     </row>
     <row r="49" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
       <c r="AF49" s="2">
         <v>0</v>
       </c>
@@ -64538,7 +64538,7 @@
         <f t="shared" ref="AO50:AO79" si="42">AI50-AG50</f>
         <v>1450</v>
       </c>
-      <c r="AU50" s="70" t="s">
+      <c r="AU50" s="72" t="s">
         <v>160</v>
       </c>
       <c r="AV50" s="51">
@@ -64705,7 +64705,7 @@
         <f t="shared" si="42"/>
         <v>725</v>
       </c>
-      <c r="AU51" s="70"/>
+      <c r="AU51" s="72"/>
       <c r="AV51" s="27">
         <v>-1.1499587328259999E-4</v>
       </c>
@@ -64870,22 +64870,22 @@
         <f t="shared" si="42"/>
         <v>362.5</v>
       </c>
-      <c r="AU52" s="70"/>
-      <c r="AV52" s="67">
+      <c r="AU52" s="72"/>
+      <c r="AV52" s="64">
         <v>-2.4012358386552801</v>
       </c>
-      <c r="AW52" s="68"/>
-      <c r="AX52" s="69"/>
-      <c r="AY52" s="67">
+      <c r="AW52" s="65"/>
+      <c r="AX52" s="66"/>
+      <c r="AY52" s="64">
         <v>0.149391545914075</v>
       </c>
-      <c r="AZ52" s="68"/>
-      <c r="BA52" s="69"/>
-      <c r="BB52" s="67">
+      <c r="AZ52" s="65"/>
+      <c r="BA52" s="66"/>
+      <c r="BB52" s="64">
         <v>3.65120250353774</v>
       </c>
-      <c r="BC52" s="68"/>
-      <c r="BD52" s="69"/>
+      <c r="BC52" s="65"/>
+      <c r="BD52" s="66"/>
       <c r="BG52" s="2" t="s">
         <v>190</v>
       </c>
@@ -65013,7 +65013,7 @@
         <f t="shared" si="42"/>
         <v>181.25</v>
       </c>
-      <c r="AU53" s="70" t="s">
+      <c r="AU53" s="72" t="s">
         <v>164</v>
       </c>
       <c r="AV53" s="51">
@@ -65134,11 +65134,11 @@
       </c>
     </row>
     <row r="54" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
       <c r="AF54" s="2">
         <v>5</v>
       </c>
@@ -65175,7 +65175,7 @@
         <f t="shared" si="42"/>
         <v>90.625</v>
       </c>
-      <c r="AU54" s="70"/>
+      <c r="AU54" s="72"/>
       <c r="AV54" s="27">
         <v>-2.5152080542999999E-6</v>
       </c>
@@ -65336,22 +65336,22 @@
         <f t="shared" si="42"/>
         <v>45.3125</v>
       </c>
-      <c r="AU55" s="71"/>
-      <c r="AV55" s="67">
+      <c r="AU55" s="73"/>
+      <c r="AV55" s="64">
         <v>-1.5880058514071E-2</v>
       </c>
-      <c r="AW55" s="68"/>
-      <c r="AX55" s="69"/>
-      <c r="AY55" s="68">
+      <c r="AW55" s="65"/>
+      <c r="AX55" s="66"/>
+      <c r="AY55" s="65">
         <v>0.110802661807325</v>
       </c>
-      <c r="AZ55" s="68"/>
-      <c r="BA55" s="68"/>
-      <c r="BB55" s="67">
+      <c r="AZ55" s="65"/>
+      <c r="BA55" s="65"/>
+      <c r="BB55" s="64">
         <v>7.4721088420790002E-3</v>
       </c>
-      <c r="BC55" s="68"/>
-      <c r="BD55" s="69"/>
+      <c r="BC55" s="65"/>
+      <c r="BD55" s="66"/>
       <c r="BG55" s="2" t="s">
         <v>194</v>
       </c>
@@ -65970,11 +65970,11 @@
       </c>
     </row>
     <row r="60" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B60" s="54" t="s">
+      <c r="B60" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
       <c r="AF60" s="2">
         <v>11</v>
       </c>
@@ -66011,17 +66011,17 @@
         <f t="shared" si="42"/>
         <v>1.416015625</v>
       </c>
-      <c r="BG60" s="62" t="s">
+      <c r="BG60" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="BH60" s="62"/>
-      <c r="BI60" s="62"/>
+      <c r="BH60" s="63"/>
+      <c r="BI60" s="63"/>
       <c r="BJ60" s="2"/>
-      <c r="BK60" s="62" t="s">
+      <c r="BK60" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="BL60" s="62"/>
-      <c r="BM60" s="62"/>
+      <c r="BL60" s="63"/>
+      <c r="BM60" s="63"/>
       <c r="BO60" s="2">
         <v>22</v>
       </c>
@@ -66641,11 +66641,11 @@
       </c>
     </row>
     <row r="65" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B65" s="58" t="s">
+      <c r="B65" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
       <c r="AF65" s="2">
         <v>16</v>
       </c>
@@ -67327,11 +67327,11 @@
       <c r="CI70" s="61"/>
     </row>
     <row r="71" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B71" s="58" t="s">
+      <c r="B71" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
       <c r="AF71" s="2">
         <v>22</v>
       </c>
@@ -68093,11 +68093,11 @@
       </c>
     </row>
     <row r="77" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="B77" s="58" t="s">
+      <c r="B77" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
       <c r="AF77" s="2">
         <v>28</v>
       </c>
@@ -72538,23 +72538,60 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="AQ7:AS7"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AY2:BE2"/>
-    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="BB52:BD52"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="AY52:BA52"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="AV47:AW47"/>
+    <mergeCell ref="AV48:AX48"/>
+    <mergeCell ref="AU50:AU52"/>
+    <mergeCell ref="AV52:AX52"/>
+    <mergeCell ref="BO104:BX104"/>
+    <mergeCell ref="BZ104:CI104"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="AF47:AI47"/>
+    <mergeCell ref="AY43:AZ43"/>
+    <mergeCell ref="AQ44:AS44"/>
+    <mergeCell ref="BG60:BI60"/>
+    <mergeCell ref="BK60:BM60"/>
+    <mergeCell ref="BO70:BX70"/>
+    <mergeCell ref="BZ70:CI70"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="AY55:BA55"/>
+    <mergeCell ref="BB55:BD55"/>
+    <mergeCell ref="AY48:BA48"/>
+    <mergeCell ref="BB48:BD48"/>
+    <mergeCell ref="BZ2:CI2"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BG2:BM2"/>
+    <mergeCell ref="BO2:BX2"/>
+    <mergeCell ref="BO36:BX36"/>
+    <mergeCell ref="BZ36:CI36"/>
+    <mergeCell ref="AV41:AW41"/>
+    <mergeCell ref="BG41:BI41"/>
+    <mergeCell ref="BK41:BM41"/>
+    <mergeCell ref="AQ11:AQ18"/>
+    <mergeCell ref="AY12:BA12"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="BK22:BM22"/>
+    <mergeCell ref="AU23:AU29"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="BG22:BI22"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AU14:AW14"/>
+    <mergeCell ref="AU22:AW22"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="BC30:BE30"/>
@@ -72571,60 +72608,23 @@
     <mergeCell ref="BC21:BE21"/>
     <mergeCell ref="AU53:AU55"/>
     <mergeCell ref="AV55:AX55"/>
-    <mergeCell ref="AQ11:AQ18"/>
-    <mergeCell ref="AY12:BA12"/>
-    <mergeCell ref="BC12:BE12"/>
-    <mergeCell ref="BK22:BM22"/>
-    <mergeCell ref="AU23:AU29"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="BG22:BI22"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AU14:AW14"/>
-    <mergeCell ref="AU22:AW22"/>
-    <mergeCell ref="BO36:BX36"/>
-    <mergeCell ref="BZ36:CI36"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="BG41:BI41"/>
-    <mergeCell ref="BK41:BM41"/>
-    <mergeCell ref="BZ2:CI2"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="BG3:BI3"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BG2:BM2"/>
-    <mergeCell ref="BO2:BX2"/>
-    <mergeCell ref="BO104:BX104"/>
-    <mergeCell ref="BZ104:CI104"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="AF47:AI47"/>
-    <mergeCell ref="AY43:AZ43"/>
-    <mergeCell ref="AQ44:AS44"/>
-    <mergeCell ref="BG60:BI60"/>
-    <mergeCell ref="BK60:BM60"/>
-    <mergeCell ref="BO70:BX70"/>
-    <mergeCell ref="BZ70:CI70"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="AY55:BA55"/>
-    <mergeCell ref="BB55:BD55"/>
-    <mergeCell ref="AY48:BA48"/>
-    <mergeCell ref="BB48:BD48"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="AV47:AW47"/>
-    <mergeCell ref="AV48:AX48"/>
-    <mergeCell ref="AU50:AU52"/>
-    <mergeCell ref="AV52:AX52"/>
-    <mergeCell ref="BB52:BD52"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="AY52:BA52"/>
+    <mergeCell ref="AQ7:AS7"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AY2:BE2"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="G12">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FALSE">
